--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900417327881</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
+    <t xml:space="preserve">0.162396535277367</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348540663719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836579442024</t>
+    <t xml:space="preserve">0.163348525762558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172570824623</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137197092175484</t>
+    <t xml:space="preserve">0.137197077274323</t>
   </si>
   <si>
     <t xml:space="preserve">0.143300950527191</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142740964889526</t>
+    <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484894514084</t>
@@ -107,61 +107,61 @@
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253382742405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653504014015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
+    <t xml:space="preserve">0.123253397643566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917526185513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581385076046</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11227760463953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117605447769</t>
+    <t xml:space="preserve">0.112277612090111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117590546608</t>
   </si>
   <si>
     <t xml:space="preserve">0.114853568375111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597505450249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131877213716507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134397134184837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143916949629784</t>
+    <t xml:space="preserve">0.117597490549088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981356620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131877198815346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134397149085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143916934728622</t>
   </si>
   <si>
     <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.160716578364372</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740680336952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16015662252903</t>
+    <t xml:space="preserve">0.156740695238113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">0.16794042289257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396265625954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
+    <t xml:space="preserve">0.176396250724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
@@ -185,31 +185,31 @@
     <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173596322536469</t>
+    <t xml:space="preserve">0.17359633743763</t>
   </si>
   <si>
     <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174436300992966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796214818954</t>
+    <t xml:space="preserve">0.174436315894127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796244621277</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700345516205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644317150116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996451258659</t>
+    <t xml:space="preserve">0.172644332051277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -227,34 +227,34 @@
     <t xml:space="preserve">0.163460522890091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860516786575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158028662204742</t>
+    <t xml:space="preserve">0.164860501885414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15802863240242</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162676528096199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916485548019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636507630348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596621990204</t>
+    <t xml:space="preserve">0.16267654299736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916500449181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636477828026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16301254928112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163628533482552</t>
+    <t xml:space="preserve">0.163012534379959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
     <t xml:space="preserve">0.16446852684021</t>
@@ -269,25 +269,25 @@
     <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508846759796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596906542778</t>
+    <t xml:space="preserve">0.148508831858635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596891641617</t>
   </si>
   <si>
     <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1473328769207</t>
+    <t xml:space="preserve">0.147108882665634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147332862019539</t>
   </si>
   <si>
     <t xml:space="preserve">0.1406130194664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144644930958748</t>
+    <t xml:space="preserve">0.144644945859909</t>
   </si>
   <si>
     <t xml:space="preserve">0.145428910851479</t>
@@ -299,25 +299,25 @@
     <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564845323563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145988881587982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147556871175766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
+    <t xml:space="preserve">0.148564860224724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145988896489143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147556856274605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660909056664</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14526093006134</t>
+    <t xml:space="preserve">0.145260900259018</t>
   </si>
   <si>
     <t xml:space="preserve">0.139997035264969</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132997184991837</t>
+    <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
     <t xml:space="preserve">0.137701079249382</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141396999359131</t>
+    <t xml:space="preserve">0.14139698445797</t>
   </si>
   <si>
     <t xml:space="preserve">0.123197376728058</t>
@@ -353,10 +353,10 @@
     <t xml:space="preserve">0.12302939593792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122525401413441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893611192703</t>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">0.120341449975967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118157483637333</t>
+    <t xml:space="preserve">0.118157476186752</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125381335616112</t>
+    <t xml:space="preserve">0.125381350517273</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093218922615</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805237054825</t>
+    <t xml:space="preserve">0.129805266857147</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845122694969</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421378433704</t>
+    <t xml:space="preserve">0.123421393334866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237292170525</t>
+    <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788974404335</t>
+    <t xml:space="preserve">0.141788989305496</t>
   </si>
   <si>
     <t xml:space="preserve">0.139325052499771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
@@ -461,13 +461,13 @@
     <t xml:space="preserve">0.137813076376915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135461121797562</t>
+    <t xml:space="preserve">0.1354611068964</t>
   </si>
   <si>
     <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134901136159897</t>
+    <t xml:space="preserve">0.134901121258736</t>
   </si>
   <si>
     <t xml:space="preserve">0.1340611577034</t>
@@ -479,31 +479,31 @@
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956999897957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139381021261215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143636956810951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884888410568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604895591736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13182121515274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477084994316</t>
+    <t xml:space="preserve">0.141956984996796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139381036162376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14363694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884903311729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604880690575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131821200251579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477070093155</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143356963992119</t>
+    <t xml:space="preserve">0.143356949090958</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853261470795</t>
+    <t xml:space="preserve">0.128853276371956</t>
   </si>
   <si>
     <t xml:space="preserve">0.127453297376633</t>
@@ -521,19 +521,19 @@
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120677426457405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.120677433907986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131037220358849</t>
+    <t xml:space="preserve">0.131037205457687</t>
   </si>
   <si>
     <t xml:space="preserve">0.13355715572834</t>
@@ -551,19 +551,19 @@
     <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135629132390022</t>
+    <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
     <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861085891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154556721448898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028782129288</t>
+    <t xml:space="preserve">0.136861100792885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154556706547737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">0.152484774589539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14587689936161</t>
+    <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
     <t xml:space="preserve">0.142236992716789</t>
@@ -590,19 +590,19 @@
     <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141061007976532</t>
+    <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389010310173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14156499505043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141005009412766</t>
+    <t xml:space="preserve">0.140389025211334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141564980149269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141004994511604</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">0.138373076915741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138821050524712</t>
+    <t xml:space="preserve">0.13882103562355</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133893147110939</t>
+    <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773175835609</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131989195942879</t>
+    <t xml:space="preserve">0.13198921084404</t>
   </si>
   <si>
     <t xml:space="preserve">0.132157191634178</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13053323328495</t>
+    <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
@@ -665,22 +665,22 @@
     <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132493168115616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131653189659119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131261214613914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128965243697166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309239029884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136917099356651</t>
+    <t xml:space="preserve">0.132493183016777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13165320456028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131261199712753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128965258598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309224128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341135621071</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117156267166</t>
+    <t xml:space="preserve">0.134117141366005</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -701,22 +701,22 @@
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765066862106</t>
+    <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125145316124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132661178708076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285137057304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13820506632328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139269039034843</t>
+    <t xml:space="preserve">0.132661193609238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285151958466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138205081224442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139269024133682</t>
   </si>
   <si>
     <t xml:space="preserve">0.138653054833412</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146996885538101</t>
+    <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652905106544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146268889307976</t>
+    <t xml:space="preserve">0.146212890744209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652890205383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
     <t xml:space="preserve">0.147668868303299</t>
@@ -746,40 +746,40 @@
     <t xml:space="preserve">0.144812926650047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150188833475113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150972813367844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149348810315132</t>
+    <t xml:space="preserve">0.150188818573952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150972798466682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
     <t xml:space="preserve">0.153996720910072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516686081886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152764737606049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154164716601372</t>
+    <t xml:space="preserve">0.156516671180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15276475250721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
     <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153324723243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152652770280838</t>
+    <t xml:space="preserve">0.153324753046036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060873150826</t>
+    <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
     <t xml:space="preserve">0.146940886974335</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612869739532</t>
+    <t xml:space="preserve">0.147612854838371</t>
   </si>
   <si>
     <t xml:space="preserve">0.144980907440186</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145204916596413</t>
+    <t xml:space="preserve">0.145204901695251</t>
   </si>
   <si>
     <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143412962555885</t>
+    <t xml:space="preserve">0.143412947654724</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140837013721466</t>
+    <t xml:space="preserve">0.140836998820305</t>
   </si>
   <si>
     <t xml:space="preserve">0.141117006540298</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14173299074173</t>
+    <t xml:space="preserve">0.141732975840569</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141453012824059</t>
+    <t xml:space="preserve">0.141452997922897</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244966864586</t>
@@ -848,55 +848,55 @@
     <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636792182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468796491623</t>
+    <t xml:space="preserve">0.150636807084084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
     <t xml:space="preserve">0.147836849093437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460837244987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148228839039803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220864892006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14492492377758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028931856155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972933292389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076956272125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276878356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152316778898239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732706189156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308939576149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143188938498497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145372927188873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404973506927</t>
+    <t xml:space="preserve">0.149460822343826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148228853940964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220879793167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144924938678741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028946757317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14397294819355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076941370964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276863455772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152316763997078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732691287994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308924674988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143188953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145372912287712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404988408089</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">0.141845002770424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012998461723</t>
+    <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1421809643507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142460986971855</t>
+    <t xml:space="preserve">0.142180979251862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142461001873016</t>
   </si>
   <si>
     <t xml:space="preserve">0.14414094388485</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.140445038676262</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -932,19 +932,19 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141173005104065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.138317048549652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141172990202904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429060578346</t>
+    <t xml:space="preserve">0.138429075479507</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
@@ -959,76 +959,76 @@
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277177810669</t>
+    <t xml:space="preserve">0.133277162909508</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677291631699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128797277808189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129917234182358</t>
+    <t xml:space="preserve">0.128797262907028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129917249083519</t>
   </si>
   <si>
     <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317348003387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437334179878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127117291092873</t>
+    <t xml:space="preserve">0.124317355453968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437349081039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127117305994034</t>
   </si>
   <si>
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188156008720398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595154523849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995253443718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315581083298</t>
+    <t xml:space="preserve">0.188155993819237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595139622688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995238542557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231275096535683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635324716568</t>
+    <t xml:space="preserve">0.23127506673336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355167269707</t>
+    <t xml:space="preserve">0.227355152368546</t>
   </si>
   <si>
     <t xml:space="preserve">0.221195325255394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222875267267227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395337462425</t>
+    <t xml:space="preserve">0.222875252366066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
@@ -1046,37 +1046,37 @@
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635010361671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488491415977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219625934958458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341574072838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22604775428772</t>
+    <t xml:space="preserve">0.23463499546051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488506317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
     <t xml:space="preserve">0.222194656729698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210635408759117</t>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277604103088</t>
+    <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
     <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205497965216637</t>
+    <t xml:space="preserve">0.205497950315475</t>
   </si>
   <si>
     <t xml:space="preserve">0.199076175689697</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
+    <t xml:space="preserve">0.193296507000923</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1100,19 +1100,19 @@
     <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305995702744</t>
+    <t xml:space="preserve">0.184948176145554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
     <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182379469275475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177241995930672</t>
+    <t xml:space="preserve">0.182379454374313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17724198102951</t>
   </si>
   <si>
     <t xml:space="preserve">0.180452883243561</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176599815487862</t>
+    <t xml:space="preserve">0.1765998005867</t>
   </si>
   <si>
     <t xml:space="preserve">0.197791799902916</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">0.193938702344894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191369995474815</t>
+    <t xml:space="preserve">0.191369965672493</t>
   </si>
   <si>
     <t xml:space="preserve">0.189443439245224</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810732603073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095093488693</t>
+    <t xml:space="preserve">0.179810717701912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095078587532</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
@@ -1169,16 +1169,16 @@
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172104552388191</t>
+    <t xml:space="preserve">0.17210453748703</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186232507228851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17338889837265</t>
+    <t xml:space="preserve">0.186232522130013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
     <t xml:space="preserve">0.16953581571579</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170177981257439</t>
+    <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
     <t xml:space="preserve">0.17082017660141</t>
@@ -1199,19 +1199,19 @@
     <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16696709394455</t>
+    <t xml:space="preserve">0.166967079043388</t>
   </si>
   <si>
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040552616119</t>
+    <t xml:space="preserve">0.165040537714958</t>
   </si>
   <si>
     <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159260928630829</t>
+    <t xml:space="preserve">0.159260913729668</t>
   </si>
   <si>
     <t xml:space="preserve">0.157976567745209</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471830844879</t>
+    <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334372401237</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407845973969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407831072807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188801258802414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199718341231346</t>
+    <t xml:space="preserve">0.188801229000092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
@@ -1283,22 +1283,22 @@
     <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244028836488724</t>
+    <t xml:space="preserve">0.244028821587563</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945933818817</t>
+    <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166280031204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744460701942</t>
+    <t xml:space="preserve">0.249166265130043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
     <t xml:space="preserve">0.251735001802444</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377212047577</t>
+    <t xml:space="preserve">0.250450640916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377182245255</t>
   </si>
   <si>
     <t xml:space="preserve">0.253019362688065</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386656045914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322656273842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597588062286</t>
+    <t xml:space="preserve">0.243386641144753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322641372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323592603206635</t>
+    <t xml:space="preserve">0.323592573404312</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548326849937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267500281334</t>
+    <t xml:space="preserve">0.247548341751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229750752449036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234604611992836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368720531464</t>
+    <t xml:space="preserve">0.229750737547874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234604597091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232986658811569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975264072418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076484322548</t>
+    <t xml:space="preserve">0.226514801383018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23298667371273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975249171257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076469421387</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">0.238649532198906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
+    <t xml:space="preserve">0.244312405586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840533256531</t>
   </si>
   <si>
     <t xml:space="preserve">0.241885468363762</t>
@@ -1400,28 +1400,28 @@
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357325792313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2370315939188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132784366608</t>
+    <t xml:space="preserve">0.248357310891151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237031579017639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132769465446</t>
   </si>
   <si>
     <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243503406643867</t>
+    <t xml:space="preserve">0.243503391742706</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739327907562</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25644713640213</t>
+    <t xml:space="preserve">0.256447106599808</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211200237274</t>
+    <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
     <t xml:space="preserve">0.254829168319702</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166309833527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252402245998383</t>
+    <t xml:space="preserve">0.249166294932365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
     <t xml:space="preserve">0.245121374726295</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717212080956</t>
+    <t xml:space="preserve">0.261301040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717197179794</t>
   </si>
   <si>
     <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221660912036896</t>
+    <t xml:space="preserve">0.221660897135735</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
@@ -1496,46 +1496,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742474079132</t>
+    <t xml:space="preserve">0.247742459177971</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161831378937</t>
+    <t xml:space="preserve">0.245161846280098</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860745310783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23569943010807</t>
+    <t xml:space="preserve">0.240860760211945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235699415206909</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280087709427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000545978546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140301942825</t>
+    <t xml:space="preserve">0.238280102610588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000531077385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140316843987</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957472205162</t>
+    <t xml:space="preserve">0.227957487106323</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258602976799</t>
+    <t xml:space="preserve">0.232258588075638</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118772506714</t>
+    <t xml:space="preserve">0.233118802309036</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892943501472</t>
+    <t xml:space="preserve">0.209892928600311</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495115637779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215544104576</t>
+    <t xml:space="preserve">0.218495100736618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215559005737</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21763488650322</t>
+    <t xml:space="preserve">0.217634871602058</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355314970016</t>
+    <t xml:space="preserve">0.219355329871178</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516822099686</t>
+    <t xml:space="preserve">0.304516792297363</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839422702789</t>
+    <t xml:space="preserve">0.314839392900467</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678107500076</t>
+    <t xml:space="preserve">0.309678137302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420035600662</t>
+    <t xml:space="preserve">0.317420065402985</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979208469391</t>
+    <t xml:space="preserve">0.311398535966873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979178667068</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -50,40 +50,40 @@
     <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348525762558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836564540863</t>
+    <t xml:space="preserve">0.163348540663719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836549639702</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159988611936569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156908676028252</t>
+    <t xml:space="preserve">0.159988597035408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15690866112709</t>
   </si>
   <si>
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076806545258</t>
+    <t xml:space="preserve">0.15007683634758</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309089303017</t>
+    <t xml:space="preserve">0.137309074401855</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197077274323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132954835892</t>
+    <t xml:space="preserve">0.143300965428352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132969737053</t>
   </si>
   <si>
     <t xml:space="preserve">0.142740979790688</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">0.145484894514084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139941021800041</t>
+    <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
@@ -101,34 +101,34 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135517120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253397643566</t>
+    <t xml:space="preserve">0.13786906003952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135517135262489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253367841244</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653511464596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115917526185513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581385076046</t>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581399977207</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112277612090111</t>
+    <t xml:space="preserve">0.112277619540691</t>
   </si>
   <si>
     <t xml:space="preserve">0.113117590546608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114853568375111</t>
+    <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
     <t xml:space="preserve">0.117597490549088</t>
@@ -137,28 +137,28 @@
     <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397149085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143916934728622</t>
+    <t xml:space="preserve">0.134397134184837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
     <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716578364372</t>
+    <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740695238113</t>
+    <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -167,46 +167,46 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16794042289257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396250724792</t>
+    <t xml:space="preserve">0.167940437793732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396235823631</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636223077774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204332590103</t>
+    <t xml:space="preserve">0.178636208176613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204317688942</t>
   </si>
   <si>
     <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17611625790596</t>
+    <t xml:space="preserve">0.173596307635307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116272807121</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177796244621277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700345516205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644332051277</t>
+    <t xml:space="preserve">0.177796229720116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700330615044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340267062187</t>
+    <t xml:space="preserve">0.176340237259865</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148319125175</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15802863240242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158644646406174</t>
+    <t xml:space="preserve">0.158028647303581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158644616603851</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916500449181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636477828026</t>
+    <t xml:space="preserve">0.164916485548019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012534379959</t>
+    <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
     <t xml:space="preserve">0.16362851858139</t>
@@ -272,37 +272,37 @@
     <t xml:space="preserve">0.148508831858635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596891641617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500857710838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108882665634</t>
+    <t xml:space="preserve">0.145596906542778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500872612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
     <t xml:space="preserve">0.147332862019539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1406130194664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644945859909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145428910851479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144084930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144700929522514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148564860224724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145988896489143</t>
+    <t xml:space="preserve">0.140613004565239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644930958748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14542892575264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144084945321083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144700914621353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148564845323563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145988881587982</t>
   </si>
   <si>
     <t xml:space="preserve">0.147556856274605</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">0.146156892180443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660909056664</t>
+    <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145260900259018</t>
+    <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
     <t xml:space="preserve">0.139997035264969</t>
@@ -335,22 +335,22 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14139698445797</t>
+    <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997319817543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477219820023</t>
+    <t xml:space="preserve">0.125997334718704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253225564957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12302939593792</t>
+    <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
     <t xml:space="preserve">0.12252539396286</t>
@@ -362,10 +362,10 @@
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341449975967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157476186752</t>
+    <t xml:space="preserve">0.120341435074806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157491087914</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
@@ -374,22 +374,22 @@
     <t xml:space="preserve">0.117933504283428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121293425559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381350517273</t>
+    <t xml:space="preserve">0.121293440461159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237127542496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129805266857147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845122694969</t>
+    <t xml:space="preserve">0.135237142443657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129805251955986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13484513759613</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.123421378433704</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
@@ -425,13 +425,13 @@
     <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573268651962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128629267215729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155676692724228</t>
+    <t xml:space="preserve">0.128573283553123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12862928211689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155676677823067</t>
   </si>
   <si>
     <t xml:space="preserve">0.141788989305496</t>
@@ -443,43 +443,43 @@
     <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138933047652245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134453132748604</t>
+    <t xml:space="preserve">0.138933062553406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165016055107</t>
+    <t xml:space="preserve">0.136581107974052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165030956268</t>
   </si>
   <si>
     <t xml:space="preserve">0.137813076376915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1354611068964</t>
+    <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
     <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134901121258736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1340611577034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133781179785728</t>
+    <t xml:space="preserve">0.134901136159897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134061142802238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956984996796</t>
+    <t xml:space="preserve">0.141956999897957</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">0.14363694190979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884903311729</t>
+    <t xml:space="preserve">0.146884873509407</t>
   </si>
   <si>
     <t xml:space="preserve">0.146604880690575</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477070093155</t>
+    <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">0.128853276371956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453297376633</t>
+    <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
     <t xml:space="preserve">0.131541207432747</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821349978447</t>
+    <t xml:space="preserve">0.124821364879608</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -536,13 +536,13 @@
     <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128741264343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126613304018974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131037205457687</t>
+    <t xml:space="preserve">0.128741279244423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126613289117813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
     <t xml:space="preserve">0.13355715572834</t>
@@ -560,10 +560,10 @@
     <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556706547737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.154556721448898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152484774589539</t>
+    <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
@@ -584,16 +584,16 @@
     <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141229003667831</t>
+    <t xml:space="preserve">0.141229018568993</t>
   </si>
   <si>
     <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141060993075371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140109032392502</t>
+    <t xml:space="preserve">0.141061007976532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140109017491341</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389025211334</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138373076915741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13882103562355</t>
+    <t xml:space="preserve">0.138373047113419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
@@ -626,22 +626,22 @@
     <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1338931620121</t>
+    <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134957134723663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13198921084404</t>
+    <t xml:space="preserve">0.134957149624825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925223231316</t>
+    <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131317213177681</t>
+    <t xml:space="preserve">0.131317228078842</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
@@ -659,25 +659,25 @@
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717177271843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13019722700119</t>
+    <t xml:space="preserve">0.132717192173004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13165320456028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131261199712753</t>
+    <t xml:space="preserve">0.131653189659119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309224128723</t>
+    <t xml:space="preserve">0.130309239029884</t>
   </si>
   <si>
     <t xml:space="preserve">0.13691708445549</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117141366005</t>
+    <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765051960945</t>
+    <t xml:space="preserve">0.138765066862106</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125145316124</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">0.132661193609238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285151958466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138205081224442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139269024133682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138653054833412</t>
+    <t xml:space="preserve">0.134285166859627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13820506632328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139269039034843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138653069734573</t>
   </si>
   <si>
     <t xml:space="preserve">0.149908810853958</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145652890205383</t>
+    <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144812926650047</t>
+    <t xml:space="preserve">0.144812911748886</t>
   </si>
   <si>
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972798466682</t>
+    <t xml:space="preserve">0.150972783565521</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996720910072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516671180725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15276475250721</t>
+    <t xml:space="preserve">0.153996735811234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516700983047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612854838371</t>
+    <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
     <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572969198227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204901695251</t>
+    <t xml:space="preserve">0.142572984099388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
     <t xml:space="preserve">0.14458891749382</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140836998820305</t>
+    <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
     <t xml:space="preserve">0.141117006540298</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141732975840569</t>
+    <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676977276802</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140794157982</t>
+    <t xml:space="preserve">0.151140779256821</t>
   </si>
   <si>
     <t xml:space="preserve">0.150636807084084</t>
@@ -860,31 +860,31 @@
     <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228853940964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220879793167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144924938678741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028946757317</t>
+    <t xml:space="preserve">0.148228839039803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220864892006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14492492377758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
     <t xml:space="preserve">0.14397294819355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143076941370964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276863455772</t>
+    <t xml:space="preserve">0.143076956272125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732691287994</t>
+    <t xml:space="preserve">0.155732706189156</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404988408089</t>
+    <t xml:space="preserve">0.145372927188873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141845002770424</t>
+    <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142180979251862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142461001873016</t>
+    <t xml:space="preserve">0.1421809643507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
     <t xml:space="preserve">0.14414094388485</t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445038676262</t>
+    <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141620993614197</t>
+    <t xml:space="preserve">0.141621008515358</t>
   </si>
   <si>
     <t xml:space="preserve">0.138317048549652</t>
@@ -938,13 +938,13 @@
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
+    <t xml:space="preserve">0.142348974943161</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429075479507</t>
+    <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">0.127677291631699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128797262907028</t>
+    <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917249083519</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127117305994034</t>
+    <t xml:space="preserve">0.127117291092873</t>
   </si>
   <si>
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188155993819237</t>
+    <t xml:space="preserve">0.188156008720398</t>
   </si>
   <si>
     <t xml:space="preserve">0.229595139622688</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">0.223995238542557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315566182137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
+    <t xml:space="preserve">0.208315595984459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
     <t xml:space="preserve">0.23127506673336</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755281090736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355152368546</t>
+    <t xml:space="preserve">0.221755310893059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355182170868</t>
   </si>
   <si>
     <t xml:space="preserve">0.221195325255394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222875252366066</t>
+    <t xml:space="preserve">0.222875282168388</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395352363586</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
+    <t xml:space="preserve">0.222315296530724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115239620209</t>
+    <t xml:space="preserve">0.225115209817886</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
@@ -1043,67 +1043,67 @@
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515039086342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23463499546051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219625949859619</t>
+    <t xml:space="preserve">0.233515024185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635040163994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488491415977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21962596476078</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341588973999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226047769188881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194656729698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.210635423660278</t>
+    <t xml:space="preserve">0.22604775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635408759117</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277589201927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708882331848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205497950315475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199076175689697</t>
+    <t xml:space="preserve">0.211277604103088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708867430687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.205497965216637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199076145887375</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296507000923</t>
+    <t xml:space="preserve">0.193296521902084</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865243673325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185590356588364</t>
+    <t xml:space="preserve">0.195865258574486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185590341687202</t>
   </si>
   <si>
     <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948176145554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305980801582</t>
+    <t xml:space="preserve">0.184948161244392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305995702744</t>
   </si>
   <si>
     <t xml:space="preserve">0.17595762014389</t>
@@ -1112,28 +1112,28 @@
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17724198102951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452883243561</t>
+    <t xml:space="preserve">0.177241995930672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452898144722</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1765998005867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791799902916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938702344894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369965672493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443439245224</t>
+    <t xml:space="preserve">0.176599830389023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938687443733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369995474815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443424344063</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810717701912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095078587532</t>
+    <t xml:space="preserve">0.179810732603073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
@@ -1160,22 +1160,22 @@
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526356816292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175315469503403</t>
+    <t xml:space="preserve">0.178526341915131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217057213187218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186232522130013</t>
+    <t xml:space="preserve">0.172104567289352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217057228088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186232507228851</t>
   </si>
   <si>
     <t xml:space="preserve">0.173388913273811</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1701779961586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17082017660141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16825145483017</t>
+    <t xml:space="preserve">0.170177981257439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170820191502571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168251469731331</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166967079043388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16632491350174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165040537714958</t>
+    <t xml:space="preserve">0.16696709394455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166324928402901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
     <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159260913729668</t>
+    <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
     <t xml:space="preserve">0.157976567745209</t>
@@ -1247,13 +1247,13 @@
     <t xml:space="preserve">0.159903094172478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155407831072807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765650629997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154123470187187</t>
+    <t xml:space="preserve">0.155407845973969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765665531158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154123455286026</t>
   </si>
   <si>
     <t xml:space="preserve">0.164398372173309</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">0.181737244129181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174031093716621</t>
+    <t xml:space="preserve">0.17403107881546</t>
   </si>
   <si>
     <t xml:space="preserve">0.192012175917625</t>
@@ -1271,34 +1271,34 @@
     <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188801229000092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199718326330185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190727800130844</t>
+    <t xml:space="preserve">0.188801258802414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199718341231346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190727785229683</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244028821587563</t>
+    <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
+    <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166265130043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744475603104</t>
+    <t xml:space="preserve">0.249166280031204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744460701942</t>
   </si>
   <si>
     <t xml:space="preserve">0.251735001802444</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">0.250450640916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254303723573685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377182245255</t>
+    <t xml:space="preserve">0.254303753376007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377212047577</t>
   </si>
   <si>
     <t xml:space="preserve">0.253019362688065</t>
@@ -1322,10 +1322,10 @@
     <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386641144753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322641372681</t>
+    <t xml:space="preserve">0.243386656045914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597558259964</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323592573404312</t>
+    <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548341751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267485380173</t>
+    <t xml:space="preserve">0.247548326849937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267470479012</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
@@ -1358,40 +1358,40 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604597091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368705630302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233795642852783</t>
+    <t xml:space="preserve">0.234604611992836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368720531464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233795627951622</t>
   </si>
   <si>
     <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226514801383018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23298667371273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975249171257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076469421387</t>
+    <t xml:space="preserve">0.22651481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232986658811569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975264072418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076484322548</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312405586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840533256531</t>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312360882759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
     <t xml:space="preserve">0.241885468363762</t>
@@ -1400,142 +1400,142 @@
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132769465446</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
     <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243503391742706</t>
+    <t xml:space="preserve">0.243503406643867</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739327907562</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
+    <t xml:space="preserve">0.258065074682236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257256090641022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25644713640213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255638152360916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25482913851738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784248113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251593232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683042764664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25887405872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261301010847092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225705832242966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27100881934166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536917209625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.260645747184753</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257256090641022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.256447106599808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255638152360916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253211170434952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254829168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784277915955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166294932365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121374726295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251593232154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26291897892952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683042764664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25887405872345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261301040649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22246989607811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660897135735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225705832242966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536917209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260645747184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247742459177971</t>
+    <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161846280098</t>
+    <t xml:space="preserve">0.245161831378937</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860760211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235699415206909</t>
+    <t xml:space="preserve">0.240860745310783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23569943010807</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280102610588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000531077385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140316843987</t>
+    <t xml:space="preserve">0.238280087709427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000545978546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140301942825</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957487106323</t>
+    <t xml:space="preserve">0.227957472205162</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258588075638</t>
+    <t xml:space="preserve">0.232258602976799</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118802309036</t>
+    <t xml:space="preserve">0.233118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892928600311</t>
+    <t xml:space="preserve">0.209892943501472</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495100736618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215559005737</t>
+    <t xml:space="preserve">0.218495115637779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215544104576</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217634871602058</t>
+    <t xml:space="preserve">0.21763488650322</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355329871178</t>
+    <t xml:space="preserve">0.219355314970016</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516792297363</t>
+    <t xml:space="preserve">0.304516822099686</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839392900467</t>
+    <t xml:space="preserve">0.314839422702789</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678137302399</t>
+    <t xml:space="preserve">0.309678107500076</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420065402985</t>
+    <t xml:space="preserve">0.317420035600662</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398535966873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979178667068</t>
+    <t xml:space="preserve">0.311398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979208469391</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -27605,7 +27605,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27657,7 +27657,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27683,7 +27683,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27735,7 +27735,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27865,7 +27865,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27995,7 +27995,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28281,7 +28281,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28489,7 +28489,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28801,7 +28801,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28905,7 +28905,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28957,7 +28957,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29035,7 +29035,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29061,7 +29061,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29165,7 +29165,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29191,7 +29191,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29217,7 +29217,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29243,7 +29243,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29581,7 +29581,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29607,7 +29607,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29659,7 +29659,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29685,7 +29685,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29789,7 +29789,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29841,7 +29841,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30075,7 +30075,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30309,7 +30309,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30517,7 +30517,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30543,7 +30543,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30647,7 +30647,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30751,7 +30751,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31089,7 +31089,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31141,7 +31141,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31531,7 +31531,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31557,7 +31557,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31583,7 +31583,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31609,7 +31609,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31635,7 +31635,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31687,7 +31687,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31739,7 +31739,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31817,7 +31817,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31843,7 +31843,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31869,7 +31869,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31921,7 +31921,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32181,7 +32181,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32207,7 +32207,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37511,7 +37511,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -58683,7 +58683,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.5763657407</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>8811</v>
@@ -58704,6 +58704,32 @@
         <v>825</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.5852777778</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>0.238000005483627</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>0.231000006198883</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.231000006198883</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.236000001430511</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>831</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524495601654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348540663719</t>
+    <t xml:space="preserve">0.162396550178528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524510502815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159988597035408</t>
+    <t xml:space="preserve">0.159988611936569</t>
   </si>
   <si>
     <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340701341629</t>
+    <t xml:space="preserve">0.155340686440468</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076806545258</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309089303017</t>
+    <t xml:space="preserve">0.137309074401855</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484909415245</t>
+    <t xml:space="preserve">0.145484894514084</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941021800041</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
+    <t xml:space="preserve">0.13786906003952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653511464596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
+    <t xml:space="preserve">0.117653489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
   </si>
   <si>
     <t xml:space="preserve">0.122581392526627</t>
@@ -122,31 +122,31 @@
     <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112277612090111</t>
+    <t xml:space="preserve">0.112277619540691</t>
   </si>
   <si>
     <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11485356092453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597497999668</t>
+    <t xml:space="preserve">0.114853553473949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
     <t xml:space="preserve">0.12398137152195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12683729827404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131877198815346</t>
+    <t xml:space="preserve">0.126837313175201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131877213716507</t>
   </si>
   <si>
     <t xml:space="preserve">0.134397134184837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143916949629784</t>
+    <t xml:space="preserve">0.143916964530945</t>
   </si>
   <si>
     <t xml:space="preserve">0.151252791285515</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740695238113</t>
+    <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -170,28 +170,28 @@
     <t xml:space="preserve">0.16794042289257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396265625954</t>
+    <t xml:space="preserve">0.176396235823631</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636208176613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204332590103</t>
+    <t xml:space="preserve">0.178636223077774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204317688942</t>
   </si>
   <si>
     <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17611625790596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436300992966</t>
+    <t xml:space="preserve">0.173596307635307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116243004799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436315894127</t>
   </si>
   <si>
     <t xml:space="preserve">0.177796214818954</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996436357498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340281963348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148304224014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170236378908157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162564560770988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157300651073456</t>
+    <t xml:space="preserve">0.167996451258659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340252161026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148319125175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170236393809319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162564545869827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
     <t xml:space="preserve">0.163516521453857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163460522890091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860516786575</t>
+    <t xml:space="preserve">0.163460537791252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
@@ -236,10 +236,10 @@
     <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162676528096199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916485548019</t>
+    <t xml:space="preserve">0.16267654299736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636507630348</t>
@@ -248,40 +248,40 @@
     <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428626298904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16301254928112</t>
+    <t xml:space="preserve">0.159428611397743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163012534379959</t>
   </si>
   <si>
     <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16446852684021</t>
+    <t xml:space="preserve">0.164468497037888</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796978354454</t>
+    <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
     <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508831858635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596906542778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500857710838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108882665634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147332862019539</t>
+    <t xml:space="preserve">0.148508846759796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596891641617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500872612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108867764473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1473328769207</t>
   </si>
   <si>
     <t xml:space="preserve">0.140613004565239</t>
@@ -290,16 +290,16 @@
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145428895950317</t>
+    <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700914621353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148564860224724</t>
+    <t xml:space="preserve">0.144700929522514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148564845323563</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988896489143</t>
@@ -308,31 +308,31 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156892180443</t>
+    <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
     <t xml:space="preserve">0.146660879254341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145820885896683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145260915160179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139997020363808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437034726143</t>
+    <t xml:space="preserve">0.145820900797844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14526093006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139997035264969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437049627304</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701079249382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138597071170807</t>
+    <t xml:space="preserve">0.137701064348221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
@@ -344,25 +344,25 @@
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477219820023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253225564957</t>
+    <t xml:space="preserve">0.130477234721184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
     <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12252539396286</t>
+    <t xml:space="preserve">0.122525401413441</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397448539734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341449975967</t>
+    <t xml:space="preserve">0.120397441089153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341435074806</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
@@ -371,34 +371,34 @@
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933496832848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293418109417</t>
+    <t xml:space="preserve">0.117933489382267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293440461159</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
+    <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129357248544693</t>
+    <t xml:space="preserve">0.129357263445854</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885172963142</t>
+    <t xml:space="preserve">0.132885158061981</t>
   </si>
   <si>
     <t xml:space="preserve">0.125661328434944</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621278166771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421385884285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461271524429</t>
+    <t xml:space="preserve">0.127621293067932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421378433704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461256623268</t>
   </si>
   <si>
     <t xml:space="preserve">0.127229288220406</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237292170525</t>
+    <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788974404335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139325052499771</t>
+    <t xml:space="preserve">0.141788989305496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
     <t xml:space="preserve">0.138261064887047</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453132748604</t>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">0.137813076376915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1354611068964</t>
+    <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
     <t xml:space="preserve">0.135685130953789</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853111743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956984996796</t>
+    <t xml:space="preserve">0.135853126645088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956999897957</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
@@ -488,19 +488,19 @@
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884903311729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604880690575</t>
+    <t xml:space="preserve">0.146884873509407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604895591736</t>
   </si>
   <si>
     <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477084994316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13596510887146</t>
+    <t xml:space="preserve">0.137477070093155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135965123772621</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -518,22 +518,22 @@
     <t xml:space="preserve">0.127453297376633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541222333908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.131541207432747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821342527866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120677433907986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.120677426457405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -542,19 +542,19 @@
     <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131037220358849</t>
+    <t xml:space="preserve">0.131037205457687</t>
   </si>
   <si>
     <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221164345741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629117488861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733140468597</t>
+    <t xml:space="preserve">0.133221179246902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135629132390022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733155369759</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861085891724</t>
@@ -563,13 +563,13 @@
     <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476785540581</t>
+    <t xml:space="preserve">0.151476800441742</t>
   </si>
   <si>
     <t xml:space="preserve">0.15310075879097</t>
@@ -581,28 +581,28 @@
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236992716789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141229003667831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141285002231598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141060993075371</t>
+    <t xml:space="preserve">0.142236977815628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141229018568993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141284987330437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141061007976532</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389025211334</t>
+    <t xml:space="preserve">0.140389010310173</t>
   </si>
   <si>
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141004994511604</t>
+    <t xml:space="preserve">0.141005024313927</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138821050524712</t>
+    <t xml:space="preserve">0.13882103562355</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
@@ -626,19 +626,19 @@
     <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133893147110939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957134723663</t>
+    <t xml:space="preserve">0.1338931620121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957119822502</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157191634178</t>
+    <t xml:space="preserve">0.132157176733017</t>
   </si>
   <si>
     <t xml:space="preserve">0.130925223231316</t>
@@ -662,31 +662,31 @@
     <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130197241902351</t>
+    <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131653189659119</t>
+    <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965258598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309239029884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136917099356651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134341135621071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757077813148</t>
+    <t xml:space="preserve">0.128965273499489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309253931046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13691708445549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134341150522232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757062911987</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117156267166</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138485059142113</t>
+    <t xml:space="preserve">0.138485074043274</t>
   </si>
   <si>
     <t xml:space="preserve">0.135573118925095</t>
@@ -704,25 +704,25 @@
     <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135125145316124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661193609238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285137057304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138205081224442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139269053936005</t>
+    <t xml:space="preserve">0.135125130414963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661178708076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285151958466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13820506632328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139269039034843</t>
   </si>
   <si>
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908810853958</t>
+    <t xml:space="preserve">0.149908795952797</t>
   </si>
   <si>
     <t xml:space="preserve">0.14699687063694</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212875843048</t>
+    <t xml:space="preserve">0.14621290564537</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146268889307976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.146268904209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">0.150972798466682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149348810315132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996720910072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516671180725</t>
+    <t xml:space="preserve">0.149348825216293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996735811234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153324738144875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152652770280838</t>
+    <t xml:space="preserve">0.153324723243713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
@@ -782,31 +782,31 @@
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940872073174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146324902772903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144476935267448</t>
+    <t xml:space="preserve">0.146940886974335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146324887871742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980907440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572969198227</t>
+    <t xml:space="preserve">0.144980922341347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572984099388</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14458891749382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143412962555885</t>
+    <t xml:space="preserve">0.144588932394981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143412947654724</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
@@ -815,25 +815,25 @@
     <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140837013721466</t>
+    <t xml:space="preserve">0.140837028622627</t>
   </si>
   <si>
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196927547455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804952502251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860951066017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141733005642891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141676992177963</t>
+    <t xml:space="preserve">0.144196912646294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804937601089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860965967178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14173299074173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -845,16 +845,16 @@
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140794157982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636807084084</t>
+    <t xml:space="preserve">0.151140779256821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468796491623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147836849093437</t>
+    <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460837244987</t>
@@ -866,52 +866,52 @@
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144924938678741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028946757317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14397294819355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076956272125</t>
+    <t xml:space="preserve">0.144924908876419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028931856155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972918391228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076941370964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152316763997078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732691287994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308924674988</t>
+    <t xml:space="preserve">0.152316778898239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732706189156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308939576149</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372927188873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404988408089</t>
+    <t xml:space="preserve">0.145372912287712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141845002770424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142012998461723</t>
+    <t xml:space="preserve">0.141844987869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1421809643507</t>
+    <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
+    <t xml:space="preserve">0.138317078351974</t>
   </si>
   <si>
     <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348974943161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124980688095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429060578346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149082660675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637106537819</t>
+    <t xml:space="preserve">0.142348989844322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124995589256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429045677185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149067759514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637091636658</t>
   </si>
   <si>
     <t xml:space="preserve">0.136077120900154</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317355453968</t>
+    <t xml:space="preserve">0.124317362904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
@@ -986,85 +986,85 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188156008720398</t>
+    <t xml:space="preserve">0.188155978918076</t>
   </si>
   <si>
     <t xml:space="preserve">0.229595124721527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.223995253443718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315566182137</t>
+    <t xml:space="preserve">0.223995268344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315595984459</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231275096535683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635309815407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755310893059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355182170868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195340156555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875282168388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395322561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675210356712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
+    <t xml:space="preserve">0.23127506673336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635324716568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755281090736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355152368546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875267267227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395337462425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675225257874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075309276581</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115239620209</t>
+    <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075024724007</t>
+    <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635025262833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219625949859619</t>
+    <t xml:space="preserve">0.234635040163994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488491415977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625934958458</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22604775428772</t>
+    <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
     <t xml:space="preserve">0.222194656729698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210635408759117</t>
+    <t xml:space="preserve">0.21063543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708882331848</t>
+    <t xml:space="preserve">0.208708867430687</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076175689697</t>
+    <t xml:space="preserve">0.199076145887375</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">0.193296521902084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507439017296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195865243673325</t>
+    <t xml:space="preserve">0.196507424116135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">0.186874717473984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948176145554</t>
+    <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175957635045052</t>
+    <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177884176373482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176599815487862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791814804077</t>
+    <t xml:space="preserve">0.177884191274643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176599830389023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791785001755</t>
   </si>
   <si>
     <t xml:space="preserve">0.193938702344894</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">0.194580882787704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188159093260765</t>
+    <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663830161095</t>
+    <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
+    <t xml:space="preserve">0.175315469503403</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
+    <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057213187218</t>
@@ -1178,67 +1178,67 @@
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173388913273811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16953581571579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17146235704422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1701779961586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17082017660141</t>
+    <t xml:space="preserve">0.17338889837265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169535830616951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171462342143059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170177981257439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
     <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167609289288521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16696709394455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16632491350174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165040552616119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682733058929</t>
+    <t xml:space="preserve">0.16760927438736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166967079043388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166324928402901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165040567517281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
     <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157976567745209</t>
+    <t xml:space="preserve">0.157976552844048</t>
   </si>
   <si>
     <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471830844879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157334387302399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160545289516449</t>
+    <t xml:space="preserve">0.162471815943718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157334372401237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16054530441761</t>
   </si>
   <si>
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16311402618885</t>
+    <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692206859589</t>
+    <t xml:space="preserve">0.156692191958427</t>
   </si>
   <si>
     <t xml:space="preserve">0.156050026416779</t>
@@ -1256,25 +1256,25 @@
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398372173309</t>
+    <t xml:space="preserve">0.164398387074471</t>
   </si>
   <si>
     <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174031093716621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012175917625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.174031108617783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012161016464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199718341231346</t>
+    <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
@@ -1289,16 +1289,16 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25494596362114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524099588394</t>
+    <t xml:space="preserve">0.254945904016495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
     <t xml:space="preserve">0.249166280031204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242744475603104</t>
+    <t xml:space="preserve">0.242744460701942</t>
   </si>
   <si>
     <t xml:space="preserve">0.251735001802444</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">0.250450611114502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254303753376007</t>
+    <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175753831863</t>
+    <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
     <t xml:space="preserve">0.243386656045914</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597573161125</t>
+    <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881934046745</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240267500281334</t>
+    <t xml:space="preserve">0.240267470479012</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229750752449036</t>
+    <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
     <t xml:space="preserve">0.234604611992836</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">0.231368720531464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233795642852783</t>
+    <t xml:space="preserve">0.233795627951622</t>
   </si>
   <si>
     <t xml:space="preserve">0.232177674770355</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312390685081</t>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312360882759</t>
   </si>
   <si>
     <t xml:space="preserve">0.237840548157692</t>
@@ -1427,73 +1427,73 @@
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
+    <t xml:space="preserve">0.258065074682236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257256090641022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25644713640213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255638152360916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25482913851738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784248113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251593232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683042764664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25887405872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261301010847092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225705832242966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27100881934166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536917209625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.260645747184753</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.258065104484558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257256090641022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25644713640213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255638152360916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253211200237274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254829168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784277915955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166309833527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252402245998383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121374726295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251593232154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26291897892952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683072566986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25887405872345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261301010847092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717212080956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22246989607811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660912036896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225705832242966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536917209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
     <t xml:space="preserve">0.247742474079132</t>
@@ -27611,7 +27611,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27663,7 +27663,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27689,7 +27689,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27741,7 +27741,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27871,7 +27871,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28001,7 +28001,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28287,7 +28287,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28495,7 +28495,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28807,7 +28807,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28911,7 +28911,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28963,7 +28963,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29041,7 +29041,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29067,7 +29067,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29171,7 +29171,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29197,7 +29197,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29223,7 +29223,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29249,7 +29249,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29587,7 +29587,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29613,7 +29613,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29665,7 +29665,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29691,7 +29691,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29795,7 +29795,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29847,7 +29847,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30081,7 +30081,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30315,7 +30315,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30523,7 +30523,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30549,7 +30549,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30653,7 +30653,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30757,7 +30757,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31095,7 +31095,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31147,7 +31147,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31537,7 +31537,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31563,7 +31563,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31589,7 +31589,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31615,7 +31615,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31641,7 +31641,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31693,7 +31693,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31745,7 +31745,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31823,7 +31823,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31849,7 +31849,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31875,7 +31875,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31927,7 +31927,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32187,7 +32187,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32213,7 +32213,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37517,7 +37517,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -58767,7 +58767,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6429513889</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>56299</v>
@@ -58788,6 +58788,32 @@
         <v>863</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6496064815</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>13605</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.244000002741814</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>0.226999998092651</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.244000002741814</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.232999995350838</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>830</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
+    <t xml:space="preserve">0.162396550178528</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348540663719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836549639702</t>
+    <t xml:space="preserve">0.163348525762558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836579442024</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159988582134247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156908676028252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155340686440468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076806545258</t>
+    <t xml:space="preserve">0.159988597035408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15690866112709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155340701341629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076821446419</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309089303017</t>
+    <t xml:space="preserve">0.137309074401855</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142740979790688</t>
+    <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
@@ -101,25 +101,25 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13786906003952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135517120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253382742405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653511464596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917541086674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077398002148</t>
+    <t xml:space="preserve">0.137869074940681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135517105460167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253375291824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581407427788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
     <t xml:space="preserve">0.112277612090111</t>
@@ -137,37 +137,37 @@
     <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397149085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143916964530945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716578364372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140509605408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156740665435791</t>
+    <t xml:space="preserve">0.134397134184837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143916949629784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716593265533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140494704247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167772427201271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16794042289257</t>
+    <t xml:space="preserve">0.167772442102432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
     <t xml:space="preserve">0.176396250724792</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636223077774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204332590103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996271729469</t>
+    <t xml:space="preserve">0.178636208176613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204317688942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17499628663063</t>
   </si>
   <si>
     <t xml:space="preserve">0.173596322536469</t>
@@ -194,13 +194,13 @@
     <t xml:space="preserve">0.174436300992966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177796229720116</t>
+    <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644302248955</t>
+    <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148319125175</t>
+    <t xml:space="preserve">0.173148304224014</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -218,22 +218,22 @@
     <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300680875778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460522890091</t>
+    <t xml:space="preserve">0.157300665974617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15802863240242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158644646406174</t>
+    <t xml:space="preserve">0.158028647303581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158644631505013</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636507630348</t>
+    <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596621990204</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">0.163012534379959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163628533482552</t>
+    <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
     <t xml:space="preserve">0.164468511939049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151196777820587</t>
+    <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -272,19 +272,19 @@
     <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596906542778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500857710838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147332862019539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613004565239</t>
+    <t xml:space="preserve">0.145596891641617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500872612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108882665634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1473328769207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700914621353</t>
+    <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145988881587982</t>
+    <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
     <t xml:space="preserve">0.147556871175766</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145820885896683</t>
+    <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
@@ -335,52 +335,52 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141397014260292</t>
+    <t xml:space="preserve">0.14139698445797</t>
   </si>
   <si>
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997319817543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477234721184</t>
+    <t xml:space="preserve">0.125997334718704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029373586178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122525401413441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893596291542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341435074806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157498538494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101492524147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933496832848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293418109417</t>
+    <t xml:space="preserve">0.123029381036758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397455990314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341442525387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157483637333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933504283428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381350517273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093204021454</t>
+    <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
@@ -401,22 +401,22 @@
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661313533783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021272063255</t>
+    <t xml:space="preserve">0.125661343336105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229303121567</t>
+    <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -425,13 +425,13 @@
     <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573253750801</t>
+    <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155676707625389</t>
+    <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
     <t xml:space="preserve">0.141788974404335</t>
@@ -440,16 +440,16 @@
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453162550926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949130773544</t>
+    <t xml:space="preserve">0.134453147649765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949160575867</t>
   </si>
   <si>
     <t xml:space="preserve">0.136581093072891</t>
@@ -464,67 +464,67 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685130953789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901136159897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1340611577034</t>
+    <t xml:space="preserve">0.135685116052628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901121258736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134061142802238</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853126645088</t>
+    <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
     <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381036162376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143636956810951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884873509407</t>
+    <t xml:space="preserve">0.139381051063538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14363694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
     <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13182121515274</t>
+    <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
     <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13596510887146</t>
+    <t xml:space="preserve">0.135965123772621</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136749088764191</t>
+    <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853276371956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453297376633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541222333908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.128853261470795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453282475471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541207432747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045359134674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685250878334</t>
@@ -539,28 +539,28 @@
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613304018974</t>
+    <t xml:space="preserve">0.126613318920135</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13355715572834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221164345741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629147291183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733140468597</t>
+    <t xml:space="preserve">0.133557170629501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221179246902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135629117488861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733125567436</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15455673635006</t>
+    <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
     <t xml:space="preserve">0.151028797030449</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476785540581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15310075879097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484744787216</t>
+    <t xml:space="preserve">0.15147677063942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153100743889809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484774589539</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141229018568993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141285002231598</t>
+    <t xml:space="preserve">0.141229003667831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
     <t xml:space="preserve">0.141060993075371</t>
@@ -599,52 +599,52 @@
     <t xml:space="preserve">0.140389010310173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14156499505043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141005024313927</t>
+    <t xml:space="preserve">0.141564980149269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138373076915741</t>
+    <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134677141904831</t>
+    <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741129517555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
     <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957134723663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131989195942879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132157191634178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925193428993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173169732094</t>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957119822502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13198921084404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132157206535339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925208330154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173139929771</t>
   </si>
   <si>
     <t xml:space="preserve">0.13053323328495</t>
@@ -656,28 +656,28 @@
     <t xml:space="preserve">0.129525244235992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133445158600807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717177271843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130197241902351</t>
+    <t xml:space="preserve">0.133445173501968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717192173004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131653219461441</t>
+    <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965273499489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309239029884</t>
+    <t xml:space="preserve">0.128965258598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
     <t xml:space="preserve">0.136917099356651</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757062911987</t>
+    <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117141366005</t>
@@ -701,25 +701,25 @@
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765051960945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125115513802</t>
+    <t xml:space="preserve">0.138765037059784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285166859627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138205081224442</t>
+    <t xml:space="preserve">0.134285137057304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138653069734573</t>
+    <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
     <t xml:space="preserve">0.149908810853958</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">0.14621290564537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145652890205383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146268919110298</t>
+    <t xml:space="preserve">0.145652920007706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
     <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144812926650047</t>
+    <t xml:space="preserve">0.144812911748886</t>
   </si>
   <si>
     <t xml:space="preserve">0.150188818573952</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996720910072</t>
+    <t xml:space="preserve">0.153996750712395</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15276475250721</t>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -773,22 +773,22 @@
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372747659683</t>
+    <t xml:space="preserve">0.152652755379677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372777462006</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940886974335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146324887871742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144476905465126</t>
+    <t xml:space="preserve">0.146940901875496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146324902772903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572969198227</t>
+    <t xml:space="preserve">0.142572954297066</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748968839645</t>
+    <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676992177963</t>
+    <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540907979012</t>
+    <t xml:space="preserve">0.145540922880173</t>
   </si>
   <si>
     <t xml:space="preserve">0.151140779256821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636807084084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468811392784</t>
+    <t xml:space="preserve">0.150636792182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468796491623</t>
   </si>
   <si>
     <t xml:space="preserve">0.14783687889576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460837244987</t>
+    <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
@@ -866,25 +866,25 @@
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14492492377758</t>
+    <t xml:space="preserve">0.144924908876419</t>
   </si>
   <si>
     <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972933292389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076941370964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276878356934</t>
+    <t xml:space="preserve">0.143972918391228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076956272125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276893258095</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732706189156</t>
+    <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
+    <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
@@ -911,34 +911,34 @@
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142180979251862</t>
+    <t xml:space="preserve">0.1421809643507</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14414094388485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14094902575016</t>
+    <t xml:space="preserve">0.144140928983688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
     <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140556991100311</t>
+    <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
+    <t xml:space="preserve">0.138317078351974</t>
   </si>
   <si>
     <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
+    <t xml:space="preserve">0.142348974943161</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
@@ -956,25 +956,25 @@
     <t xml:space="preserve">0.136077105998993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133837148547173</t>
+    <t xml:space="preserve">0.133837163448334</t>
   </si>
   <si>
     <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127677291631699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797277808189</t>
+    <t xml:space="preserve">0.127677276730537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797262907028</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557305455208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317355453968</t>
+    <t xml:space="preserve">0.126557320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317362904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
@@ -989,31 +989,31 @@
     <t xml:space="preserve">0.188155993819237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595124721527</t>
+    <t xml:space="preserve">0.229595139622688</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315581083298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475737452507</t>
+    <t xml:space="preserve">0.208315566182137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475722551346</t>
   </si>
   <si>
     <t xml:space="preserve">0.231275081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220635309815407</t>
+    <t xml:space="preserve">0.220635324716568</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755295991898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355137467384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
+    <t xml:space="preserve">0.227355152368546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195295453072</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875267267227</t>
@@ -1025,25 +1025,25 @@
     <t xml:space="preserve">0.225675210356712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315281629562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154796004295</t>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075353980064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
     <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237994939088821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075039625168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515024185181</t>
+    <t xml:space="preserve">0.237994953989983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075054526329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515053987503</t>
   </si>
   <si>
     <t xml:space="preserve">0.234635025262833</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219625979661942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341574072838</t>
+    <t xml:space="preserve">0.21962596476078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341588973999</t>
   </si>
   <si>
     <t xml:space="preserve">0.22604775428772</t>
@@ -1064,31 +1064,31 @@
     <t xml:space="preserve">0.222194671630859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210635423660278</t>
+    <t xml:space="preserve">0.21063543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277574300766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708852529526</t>
+    <t xml:space="preserve">0.211277604103088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708867430687</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076160788536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149619460106</t>
+    <t xml:space="preserve">0.199076175689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149604558945</t>
   </si>
   <si>
     <t xml:space="preserve">0.193296536803246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507424116135</t>
+    <t xml:space="preserve">0.196507409214973</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874717473984</t>
+    <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
     <t xml:space="preserve">0.184948146343231</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">0.184305995702744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17595762014389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182379439473152</t>
+    <t xml:space="preserve">0.175957605242729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177884176373482</t>
+    <t xml:space="preserve">0.177884191274643</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197791785001755</t>
+    <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
     <t xml:space="preserve">0.193938687443733</t>
@@ -1139,28 +1139,28 @@
     <t xml:space="preserve">0.194580897688866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188159093260765</t>
+    <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021634817123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810717701912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095078587532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179168552160263</t>
+    <t xml:space="preserve">0.179810732603073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095093488693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190085634589195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178526371717453</t>
+    <t xml:space="preserve">0.190085619688034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172104552388191</t>
+    <t xml:space="preserve">0.17210453748703</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057228088379</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169535830616951</t>
+    <t xml:space="preserve">0.16953581571579</t>
   </si>
   <si>
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1701779961586</t>
+    <t xml:space="preserve">0.170178011059761</t>
   </si>
   <si>
     <t xml:space="preserve">0.170820191502571</t>
@@ -1205,22 +1205,22 @@
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040567517281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682718157768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260913729668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157976552844048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618748188019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471830844879</t>
+    <t xml:space="preserve">0.165040552616119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682733058929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260928630829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157976567745209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618733286858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334387302399</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">0.156050011515617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407845973969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765650629997</t>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407831072807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765665531158</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
@@ -1280,76 +1280,76 @@
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223063230515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244028821587563</t>
+    <t xml:space="preserve">0.195223048329353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945933818817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524114489555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166265130043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744490504265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735031604767</t>
+    <t xml:space="preserve">0.254945904016495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524099588394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166280031204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744475603104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303723573685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377182245255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253019392490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175738930702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386641144753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322671175003</t>
+    <t xml:space="preserve">0.250450640916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303753376007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377212047577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253019362688065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175753831863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386670947075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322686076164</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247881934046745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592573404312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262109994888306</t>
+    <t xml:space="preserve">0.247881904244423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592603206635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262109965085983</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548311948776</t>
+    <t xml:space="preserve">0.247548297047615</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941738605499</t>
+    <t xml:space="preserve">0.228941723704338</t>
   </si>
   <si>
     <t xml:space="preserve">0.230559721589088</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604597091675</t>
+    <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226514801383018</t>
+    <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986643910408</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930358767509</t>
+    <t xml:space="preserve">0.245930343866348</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24431237578392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840563058853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24188543856144</t>
+    <t xml:space="preserve">0.244312390685081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132769465446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222609877586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503421545029</t>
+    <t xml:space="preserve">0.228132784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222594976425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24350343644619</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739357709885</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121374726295</t>
+    <t xml:space="preserve">0.245121389627457</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683042764664</t>
+    <t xml:space="preserve">0.259683072566986</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301040649414</t>
+    <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27100881934166</t>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -58923,7 +58923,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6494675926</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>5575</v>
@@ -58944,6 +58944,32 @@
         <v>832</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.644525463</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>350</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.229000002145767</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>0.229000002145767</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.229000002145767</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.229000002145767</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>861</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="865">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348525762558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836579442024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172570824623</t>
+    <t xml:space="preserve">0.163348540663719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836564540863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172555923462</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">0.15690866112709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340701341629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076821446419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732841014862</t>
+    <t xml:space="preserve">0.155340686440468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076806545258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732826113701</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309074401855</t>
@@ -80,19 +80,19 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14330093562603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132954835892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484909415245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941036701202</t>
+    <t xml:space="preserve">0.143300965428352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132969737053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740979790688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484894514084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941021800041</t>
   </si>
   <si>
     <t xml:space="preserve">0.135013118386269</t>
@@ -104,31 +104,31 @@
     <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135517105460167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253375291824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653489112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917548537254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581407427788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077405452728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277612090111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117605447769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853553473949</t>
+    <t xml:space="preserve">0.135517120361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253382742405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653504014015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917533636093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581392526627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077412903309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11227760463953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117597997189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
     <t xml:space="preserve">0.117597490549088</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126837313175201</t>
+    <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252791285515</t>
+    <t xml:space="preserve">0.151252761483192</t>
   </si>
   <si>
     <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165140494704247</t>
+    <t xml:space="preserve">0.165140509605408</t>
   </si>
   <si>
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156607627869</t>
+    <t xml:space="preserve">0.16015662252903</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -170,19 +170,19 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396250724792</t>
+    <t xml:space="preserve">0.176396265625954</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636208176613</t>
+    <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204317688942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17499628663063</t>
+    <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
     <t xml:space="preserve">0.173596322536469</t>
@@ -203,37 +203,37 @@
     <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996436357498</t>
+    <t xml:space="preserve">0.167996451258659</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162564560770988</t>
+    <t xml:space="preserve">0.162564545869827</t>
   </si>
   <si>
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516521453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
+    <t xml:space="preserve">0.163516506552696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460522890091</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158028647303581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158644631505013</t>
+    <t xml:space="preserve">0.158028662204742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
@@ -242,19 +242,19 @@
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636492729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596621990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428626298904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163012534379959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16362851858139</t>
+    <t xml:space="preserve">0.164636507630348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596607089043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428611397743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16301254928112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
     <t xml:space="preserve">0.164468511939049</t>
@@ -266,19 +266,19 @@
     <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148396849632263</t>
+    <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
     <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596891641617</t>
+    <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
     <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108882665634</t>
+    <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
     <t xml:space="preserve">0.1473328769207</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145820900797844</t>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660879254341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145820915699005</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">0.139997035264969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139437034726143</t>
+    <t xml:space="preserve">0.139437049627304</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997184991837</t>
@@ -341,10 +341,10 @@
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997334718704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477219820023</t>
+    <t xml:space="preserve">0.125997319817543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
@@ -353,22 +353,22 @@
     <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12252539396286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893603742123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397455990314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341442525387</t>
+    <t xml:space="preserve">0.122525401413441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893611192703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397441089153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341449975967</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101485073566</t>
+    <t xml:space="preserve">0.118101499974728</t>
   </si>
   <si>
     <t xml:space="preserve">0.117933504283428</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125381350517273</t>
+    <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093218922615</t>
@@ -398,10 +398,10 @@
     <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885172963142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661343336105</t>
+    <t xml:space="preserve">0.132885158061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -410,22 +410,22 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421385884285</t>
+    <t xml:space="preserve">0.123421378433704</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229288220406</t>
+    <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237277269363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128573268651962</t>
+    <t xml:space="preserve">0.128237292170525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128573253750801</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
@@ -434,55 +434,55 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788974404335</t>
+    <t xml:space="preserve">0.141788989305496</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.138261049985886</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949160575867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136581093072891</t>
+    <t xml:space="preserve">0.134453132748604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949145674706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137813061475754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135461121797562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685116052628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901121258736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134061142802238</t>
+    <t xml:space="preserve">0.137813076376915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1354611068964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685130953789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901136159897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853111743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956984996796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139381051063538</t>
+    <t xml:space="preserve">0.135853126645088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956999897957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
     <t xml:space="preserve">0.14363694190979</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604880690575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131821200251579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477084994316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135965123772621</t>
+    <t xml:space="preserve">0.146604895591736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13182121515274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477070093155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -512,34 +512,34 @@
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853261470795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453282475471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541207432747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045359134674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685250878334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120677433907986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.128853246569633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453297376633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541192531586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045329332352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821342527866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685265779495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120677426457405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613318920135</t>
+    <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037220358849</t>
@@ -554,34 +554,34 @@
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733125567436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861100792885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154556721448898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.134733155369759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154556706547737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15147677063942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153100743889809</t>
+    <t xml:space="preserve">0.151476785540581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
     <t xml:space="preserve">0.152484774589539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145876914262772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236977815628</t>
+    <t xml:space="preserve">0.14587689936161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141060993075371</t>
+    <t xml:space="preserve">0.141061007976532</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13837306201458</t>
+    <t xml:space="preserve">0.138373076915741</t>
   </si>
   <si>
     <t xml:space="preserve">0.138821050524712</t>
@@ -617,34 +617,34 @@
     <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693105101585</t>
+    <t xml:space="preserve">0.136693090200424</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133893147110939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773190736771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957119822502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13198921084404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132157206535339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925208330154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173139929771</t>
+    <t xml:space="preserve">0.135405138134956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1338931620121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773175835609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957134723663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131989181041718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132157176733017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925223231316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
     <t xml:space="preserve">0.13053323328495</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">0.129525244235992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133445173501968</t>
+    <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
     <t xml:space="preserve">0.132717192173004</t>
@@ -677,40 +677,40 @@
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309224128723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136917099356651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134341150522232</t>
+    <t xml:space="preserve">0.130309239029884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13691708445549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134341165423393</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117141366005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140333026647568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138485074043274</t>
+    <t xml:space="preserve">0.134117156267166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140333011746407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765037059784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125130414963</t>
+    <t xml:space="preserve">0.138765051960945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125145316124</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285137057304</t>
+    <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
     <t xml:space="preserve">0.13820506632328</t>
@@ -719,73 +719,73 @@
     <t xml:space="preserve">0.139269039034843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138653054833412</t>
+    <t xml:space="preserve">0.138653069734573</t>
   </si>
   <si>
     <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14699687063694</t>
+    <t xml:space="preserve">0.146996885538101</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652920007706</t>
+    <t xml:space="preserve">0.146212890744209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14766888320446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144812911748886</t>
+    <t xml:space="preserve">0.147668853402138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144812926650047</t>
   </si>
   <si>
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972783565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149348825216293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996750712395</t>
+    <t xml:space="preserve">0.150972798466682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149348810315132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.152764737606049</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708768844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153324738144875</t>
+    <t xml:space="preserve">0.152708783745766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153324723243713</t>
   </si>
   <si>
     <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152372777462006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148060858249664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146940901875496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146324902772903</t>
+    <t xml:space="preserve">0.152372762560844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148060873150826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146940872073174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
     <t xml:space="preserve">0.144476920366287</t>
@@ -794,10 +794,10 @@
     <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980922341347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572954297066</t>
+    <t xml:space="preserve">0.144980907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141117006540298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144196927547455</t>
+    <t xml:space="preserve">0.141116991639137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144196942448616</t>
   </si>
   <si>
     <t xml:space="preserve">0.143804937601089</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676977276802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141452997922897</t>
+    <t xml:space="preserve">0.141676992177963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141453012824059</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244966864586</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">0.145540922880173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140779256821</t>
+    <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
     <t xml:space="preserve">0.150636792182922</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">0.150468796491623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14783687889576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.147836863994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460837244987</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
@@ -866,31 +866,31 @@
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144924908876419</t>
+    <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
     <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972918391228</t>
+    <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147276893258095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152316763997078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732691287994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308924674988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143188953399658</t>
+    <t xml:space="preserve">0.147276878356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152316778898239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732706189156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308939576149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143188938498497</t>
   </si>
   <si>
     <t xml:space="preserve">0.145372927188873</t>
@@ -905,37 +905,37 @@
     <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012968659401</t>
+    <t xml:space="preserve">0.142012998461723</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1421809643507</t>
+    <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144140928983688</t>
+    <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557006001472</t>
+    <t xml:space="preserve">0.140445038676262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140556991100311</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317078351974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141173005104065</t>
+    <t xml:space="preserve">0.138317048549652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348974943161</t>
@@ -950,28 +950,28 @@
     <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136637091636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077105998993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133837163448334</t>
+    <t xml:space="preserve">0.136637106537819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077120900154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
     <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127677276730537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797262907028</t>
+    <t xml:space="preserve">0.127677291631699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557320356369</t>
+    <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
     <t xml:space="preserve">0.124317362904549</t>
@@ -983,115 +983,115 @@
     <t xml:space="preserve">0.127117291092873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119837455451488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188155993819237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595139622688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995253443718</t>
+    <t xml:space="preserve">0.11983747035265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188156008720398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595109820366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995238542557</t>
   </si>
   <si>
     <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200475722551346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275081634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635324716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755295991898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355152368546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195295453072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
+    <t xml:space="preserve">0.200475737452507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23127506673336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635294914246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755310893059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195325255394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395337462425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225675210356712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075353980064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154810905457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115224719048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994953989983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075054526329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515053987503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635025262833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488491415977</t>
+    <t xml:space="preserve">0.225675195455551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154825806618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115209817886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994939088821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075039625168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515039086342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635040163994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
     <t xml:space="preserve">0.21962596476078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218341588973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22604775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21063543856144</t>
+    <t xml:space="preserve">0.218341574072838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226047769188881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194656729698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277604103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708867430687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205497965216637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199076175689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149604558945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193296536803246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507409214973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.211277589201927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708882331848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.205497950315475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199076160788536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149619460106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193296521902084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507424116135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1100,16 +1100,16 @@
     <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948146343231</t>
+    <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305995702744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175957605242729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182379454374313</t>
+    <t xml:space="preserve">0.17595762014389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182379469275475</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177884191274643</t>
+    <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599815487862</t>
@@ -1127,22 +1127,22 @@
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938687443733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369995474815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443409442902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194580897688866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159078359604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183021634817123</t>
+    <t xml:space="preserve">0.193938702344894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369980573654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443439245224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194580882787704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159093260765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
     <t xml:space="preserve">0.179810732603073</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
+    <t xml:space="preserve">0.175315469503403</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
+    <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057228088379</t>
@@ -1178,19 +1178,19 @@
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173388913273811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16953581571579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17146235704422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170178011059761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170820191502571</t>
+    <t xml:space="preserve">0.17338889837265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169535830616951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171462371945381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1701779961586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
     <t xml:space="preserve">0.16825145483017</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682733058929</t>
+    <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
     <t xml:space="preserve">0.159260928630829</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471815943718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157334387302399</t>
+    <t xml:space="preserve">0.162471830844879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157334372401237</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1238,16 +1238,16 @@
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692191958427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050011515617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903094172478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407831072807</t>
+    <t xml:space="preserve">0.156692206859589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050026416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903109073639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407845973969</t>
   </si>
   <si>
     <t xml:space="preserve">0.154765665531158</t>
@@ -1256,19 +1256,19 @@
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398387074471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737244129181</t>
+    <t xml:space="preserve">0.164398372173309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012146115303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.192012175917625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727800130844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195223048329353</t>
+    <t xml:space="preserve">0.190727785229683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
     <t xml:space="preserve">0.244028836488724</t>
@@ -1289,16 +1289,16 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524099588394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166280031204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744475603104</t>
+    <t xml:space="preserve">0.254945933818817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524084687233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166309833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744460701942</t>
   </si>
   <si>
     <t xml:space="preserve">0.251735001802444</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
+    <t xml:space="preserve">0.250450611114502</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
@@ -1316,76 +1316,76 @@
     <t xml:space="preserve">0.252377212047577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253019362688065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175753831863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386670947075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322686076164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597558259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
+    <t xml:space="preserve">0.253019332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175768733025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386656045914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322656273842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597588062286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
     <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262109965085983</t>
+    <t xml:space="preserve">0.262109994888306</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548297047615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267485380173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228941723704338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559721589088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229750737547874</t>
+    <t xml:space="preserve">0.247548326849937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267500281334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228941738605499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559706687927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229750752449036</t>
   </si>
   <si>
     <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231368705630302</t>
+    <t xml:space="preserve">0.231368720531464</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177689671516</t>
+    <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
     <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232986643910408</t>
+    <t xml:space="preserve">0.232986658811569</t>
   </si>
   <si>
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076499223709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930343866348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649502396584</t>
+    <t xml:space="preserve">0.241076484322548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930358767509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649532198906</t>
   </si>
   <si>
     <t xml:space="preserve">0.244312390685081</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
   </si>
   <si>
     <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222594976425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24350343644619</t>
+    <t xml:space="preserve">0.236222580075264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503406643867</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
@@ -1439,25 +1439,25 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211170434952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25482913851738</t>
+    <t xml:space="preserve">0.253211200237274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
+    <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683072566986</t>
@@ -1469,19 +1469,19 @@
     <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222469910979271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660897135735</t>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22246989607811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435741662979</t>
+    <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
     <t xml:space="preserve">0.271008789539337</t>
@@ -1493,46 +1493,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742459177971</t>
+    <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161846280098</t>
+    <t xml:space="preserve">0.245161831378937</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860760211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235699415206909</t>
+    <t xml:space="preserve">0.240860745310783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23569943010807</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280102610588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000531077385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140316843987</t>
+    <t xml:space="preserve">0.238280087709427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000545978546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140301942825</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957487106323</t>
+    <t xml:space="preserve">0.227957472205162</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258588075638</t>
+    <t xml:space="preserve">0.232258602976799</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118802309036</t>
+    <t xml:space="preserve">0.233118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892928600311</t>
+    <t xml:space="preserve">0.209892943501472</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495100736618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215559005737</t>
+    <t xml:space="preserve">0.218495115637779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215544104576</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217634871602058</t>
+    <t xml:space="preserve">0.21763488650322</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355329871178</t>
+    <t xml:space="preserve">0.219355314970016</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516792297363</t>
+    <t xml:space="preserve">0.304516822099686</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839392900467</t>
+    <t xml:space="preserve">0.314839422702789</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678137302399</t>
+    <t xml:space="preserve">0.309678107500076</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420065402985</t>
+    <t xml:space="preserve">0.317420035600662</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398535966873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979178667068</t>
+    <t xml:space="preserve">0.311398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979208469391</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -2604,6 +2604,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.231000006198883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218999996781349</t>
   </si>
 </sst>
 </file>
@@ -58949,7 +58952,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.644525463</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>350</v>
@@ -58970,6 +58973,32 @@
         <v>861</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6493634259</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>48361</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>0.228000000119209</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>0.218999996781349</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.228000000119209</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0.218999996781349</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>864</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836549639702</t>
+    <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172555923462</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484894514084</t>
+    <t xml:space="preserve">0.145484909415245</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941021800041</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597505450249</t>
+    <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
     <t xml:space="preserve">0.12398137152195</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131877213716507</t>
+    <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
     <t xml:space="preserve">0.134397134184837</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716608166695</t>
+    <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396265625954</t>
+    <t xml:space="preserve">0.176396235823631</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636208176613</t>
+    <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204317688942</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">0.173596322536469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176116272807121</t>
+    <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436300992966</t>
@@ -200,10 +200,10 @@
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644332051277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996436357498</t>
+    <t xml:space="preserve">0.172644317150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996451258659</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340252161026</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">0.162564545869827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300665974617</t>
+    <t xml:space="preserve">0.157300651073456</t>
   </si>
   <si>
     <t xml:space="preserve">0.163516521453857</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16362851858139</t>
+    <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
     <t xml:space="preserve">0.164468511939049</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108867764473</t>
+    <t xml:space="preserve">0.147108882665634</t>
   </si>
   <si>
     <t xml:space="preserve">0.1473328769207</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700929522514</t>
+    <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -338,10 +338,10 @@
     <t xml:space="preserve">0.14139698445797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197391629219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997304916382</t>
+    <t xml:space="preserve">0.123197376728058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397441089153</t>
+    <t xml:space="preserve">0.120397455990314</t>
   </si>
   <si>
     <t xml:space="preserve">0.120341449975967</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237142443657</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129357248544693</t>
+    <t xml:space="preserve">0.129357263445854</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421378433704</t>
+    <t xml:space="preserve">0.127621307969093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421393334866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461256623268</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237292170525</t>
+    <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.141789004206657</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">0.135853126645088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956999897957</t>
+    <t xml:space="preserve">0.141957014799118</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636956810951</t>
+    <t xml:space="preserve">0.14363694190979</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">0.146604895591736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13182121515274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477084994316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13596510887146</t>
+    <t xml:space="preserve">0.131821200251579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477070093155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135965123772621</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">0.131541192531586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821342527866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685280680656</t>
@@ -548,16 +548,16 @@
     <t xml:space="preserve">0.133557170629501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221164345741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629117488861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733140468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861085891724</t>
+    <t xml:space="preserve">0.133221179246902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135629132390022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733155369759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556706547737</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15147677063942</t>
+    <t xml:space="preserve">0.151476785540581</t>
   </si>
   <si>
     <t xml:space="preserve">0.15310075879097</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">0.152484774589539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14587689936161</t>
+    <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
     <t xml:space="preserve">0.142236977815628</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389025211334</t>
+    <t xml:space="preserve">0.140389010310173</t>
   </si>
   <si>
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141004994511604</t>
+    <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741114616394</t>
+    <t xml:space="preserve">0.135741099715233</t>
   </si>
   <si>
     <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133893147110939</t>
+    <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773190736771</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">0.131989181041718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157191634178</t>
+    <t xml:space="preserve">0.132157176733017</t>
   </si>
   <si>
     <t xml:space="preserve">0.130925223231316</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13053323328495</t>
+    <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
@@ -659,13 +659,13 @@
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
+    <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
     <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132493183016777</t>
+    <t xml:space="preserve">0.132493168115616</t>
   </si>
   <si>
     <t xml:space="preserve">0.13165320456028</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965258598328</t>
+    <t xml:space="preserve">0.128965273499489</t>
   </si>
   <si>
     <t xml:space="preserve">0.130309253931046</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">0.134341165423393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13775709271431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134117156267166</t>
+    <t xml:space="preserve">0.137757077813148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134117141366005</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333011746407</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765066862106</t>
+    <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125130414963</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908810853958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146996885538101</t>
+    <t xml:space="preserve">0.149908795952797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
@@ -752,10 +752,10 @@
     <t xml:space="preserve">0.150972798466682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149348825216293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996750712395</t>
+    <t xml:space="preserve">0.149348810315132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516686081886</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572969198227</t>
+    <t xml:space="preserve">0.142572984099388</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676992177963</t>
+    <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.149460837244987</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">0.144924908876419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028946757317</t>
+    <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
     <t xml:space="preserve">0.143972918391228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143076956272125</t>
+    <t xml:space="preserve">0.143076941370964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144252941012383</t>
+    <t xml:space="preserve">0.144252955913544</t>
   </si>
   <si>
     <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012998461723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900971531868</t>
+    <t xml:space="preserve">0.142012983560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">0.142460972070694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144140928983688</t>
+    <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142124995589256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429060578346</t>
+    <t xml:space="preserve">0.142124980688095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429045677185</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129917234182358</t>
+    <t xml:space="preserve">0.129917249083519</t>
   </si>
   <si>
     <t xml:space="preserve">0.126557305455208</t>
@@ -980,22 +980,22 @@
     <t xml:space="preserve">0.125437334179878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127117305994034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119837455451488</t>
+    <t xml:space="preserve">0.127117291092873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11983747035265</t>
   </si>
   <si>
     <t xml:space="preserve">0.188155993819237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595109820366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995268344879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315595984459</t>
+    <t xml:space="preserve">0.229595139622688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995238542557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475737452507</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">0.220635324716568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755281090736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355167269707</t>
+    <t xml:space="preserve">0.221755310893059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355152368546</t>
   </si>
   <si>
     <t xml:space="preserve">0.221195310354233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222875252366066</t>
+    <t xml:space="preserve">0.222875282168388</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395337462425</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23407506942749</t>
+    <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
@@ -59030,7 +59030,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6493981481</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>47668</v>
@@ -59051,6 +59051,32 @@
         <v>861</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6387731482</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>18009</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>0.231000006198883</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>0.226999998092651</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.231000006198883</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.228000000119209</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="869">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -53,19 +53,19 @@
     <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836549639702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172570824623</t>
+    <t xml:space="preserve">0.161836564540863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172555923462</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156908646225929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155340701341629</t>
+    <t xml:space="preserve">0.156908676028252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15534071624279</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076806545258</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">0.148732826113701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137197092175484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143300950527191</t>
+    <t xml:space="preserve">0.137309089303017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137197077274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143300965428352</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132954835892</t>
@@ -89,31 +89,31 @@
     <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484909415245</t>
+    <t xml:space="preserve">0.145484894514084</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135013118386269</t>
+    <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
+    <t xml:space="preserve">0.13786906003952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253390192986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653496563435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917526185513</t>
+    <t xml:space="preserve">0.123253382742405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653504014015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
   </si>
   <si>
     <t xml:space="preserve">0.122581392526627</t>
@@ -128,16 +128,16 @@
     <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114853553473949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597490549088</t>
+    <t xml:space="preserve">0.114853568375111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597505450249</t>
   </si>
   <si>
     <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877213716507</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">0.134397134184837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143916934728622</t>
+    <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
     <t xml:space="preserve">0.151252776384354</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">0.178636208176613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204302787781</t>
+    <t xml:space="preserve">0.173204317688942</t>
   </si>
   <si>
     <t xml:space="preserve">0.17499628663063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173596307635307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116272807121</t>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
@@ -200,34 +200,34 @@
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644332051277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996451258659</t>
+    <t xml:space="preserve">0.172644317150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340252161026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.173148334026337</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162564545869827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157300651073456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16346050798893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860486984253</t>
+    <t xml:space="preserve">0.162564560770988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157300665974617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516506552696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028662204742</t>
@@ -239,28 +239,28 @@
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916500449181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636507630348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596607089043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428626298904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163012534379959</t>
+    <t xml:space="preserve">0.164916515350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636492729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596621990204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428611397743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
     <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468511939049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15119680762291</t>
+    <t xml:space="preserve">0.164468497037888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -272,13 +272,13 @@
     <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596906542778</t>
+    <t xml:space="preserve">0.145596891641617</t>
   </si>
   <si>
     <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108882665634</t>
+    <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
     <t xml:space="preserve">0.1473328769207</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084945321083</t>
+    <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700929522514</t>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">0.148564845323563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145988881587982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147556871175766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146156892180443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660909056664</t>
+    <t xml:space="preserve">0.145988896489143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147556886076927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146156907081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660879254341</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132997170090675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137701064348221</t>
+    <t xml:space="preserve">0.132997184991837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -338,43 +338,43 @@
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197376728058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997319817543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477234721184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253240466118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123029381036758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252539396286</t>
+    <t xml:space="preserve">0.123197391629219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997304916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477219820023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253255367279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12302939593792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252538651228</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893611192703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397455990314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341442525387</t>
+    <t xml:space="preserve">0.120397441089153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341449975967</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101499974728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933489382267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293410658836</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237127542496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129805251955986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845122694969</t>
+    <t xml:space="preserve">0.135237142443657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129805237054825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13484513759613</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
@@ -410,13 +410,13 @@
     <t xml:space="preserve">0.127621278166771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421385884285</t>
+    <t xml:space="preserve">0.123421378433704</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461256623268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229288220406</t>
+    <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573253750801</t>
+    <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
@@ -434,46 +434,46 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139325052499771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.141788974404335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13932503759861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949160575867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136581107974052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165016055107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137813076376915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1354611068964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685116052628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901121258736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134061142802238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133781164884567</t>
+    <t xml:space="preserve">0.134453132748604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949145674706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136581093072891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165001153946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137813061475754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135461121797562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685130953789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901151061058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1340611577034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133781179785728</t>
   </si>
   <si>
     <t xml:space="preserve">0.135853111743927</t>
@@ -482,19 +482,19 @@
     <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381036162376</t>
+    <t xml:space="preserve">0.139381021261215</t>
   </si>
   <si>
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884903311729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604865789413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131821200251579</t>
+    <t xml:space="preserve">0.146884888410568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604880690575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
     <t xml:space="preserve">0.137477084994316</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143356949090958</t>
+    <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -521,34 +521,34 @@
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685250878334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120677448809147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.125045329332352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821357429028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685265779495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120677441358566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613318920135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131037205457687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133557170629501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221179246902</t>
+    <t xml:space="preserve">0.126613304018974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131037220358849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13355715572834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221164345741</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
@@ -560,28 +560,28 @@
     <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556721448898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.154556706547737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476785540581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153100773692131</t>
+    <t xml:space="preserve">0.15147677063942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
     <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145876914262772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236977815628</t>
+    <t xml:space="preserve">0.14587689936161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
@@ -590,31 +590,31 @@
     <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141060993075371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140109047293663</t>
+    <t xml:space="preserve">0.141061007976532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389025211334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141564980149269</t>
+    <t xml:space="preserve">0.14156499505043</t>
   </si>
   <si>
     <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140725031495094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138373047113419</t>
+    <t xml:space="preserve">0.140725016593933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13467712700367</t>
+    <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693090200424</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1338931620121</t>
+    <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773190736771</t>
@@ -641,31 +641,31 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925208330154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173139929771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130533218383789</t>
+    <t xml:space="preserve">0.130925223231316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173154830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13053323328495</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129525244235992</t>
+    <t xml:space="preserve">0.129525259137154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
+    <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
     <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132493197917938</t>
+    <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
     <t xml:space="preserve">0.13165320456028</t>
@@ -677,37 +677,37 @@
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309239029884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136917099356651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134341150522232</t>
+    <t xml:space="preserve">0.130309253931046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13691708445549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134341135621071</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117156267166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140333041548729</t>
+    <t xml:space="preserve">0.134117171168327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573118925095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765037059784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125115513802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661193609238</t>
+    <t xml:space="preserve">0.135573104023933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765066862106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125145316124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
     <t xml:space="preserve">0.134285151958466</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652920007706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146268904209137</t>
+    <t xml:space="preserve">0.14621290564537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652905106544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146268889307976</t>
   </si>
   <si>
     <t xml:space="preserve">0.147668868303299</t>
@@ -761,37 +761,37 @@
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.15276475250721</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708753943443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153324753046036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152652740478516</t>
+    <t xml:space="preserve">0.152708768844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153324723243713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060873150826</t>
+    <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324902772903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144476920366287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147612869739532</t>
+    <t xml:space="preserve">0.146324887871742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144476935267448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147612854838371</t>
   </si>
   <si>
     <t xml:space="preserve">0.144980907440186</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145204901695251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14458891749382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143412947654724</t>
+    <t xml:space="preserve">0.145204916596413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144588932394981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143412962555885</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
@@ -821,10 +821,10 @@
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196942448616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804937601089</t>
+    <t xml:space="preserve">0.144196927547455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804952502251</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
@@ -836,16 +836,16 @@
     <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141452983021736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143244966864586</t>
+    <t xml:space="preserve">0.141453012824059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143244951963425</t>
   </si>
   <si>
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140779256821</t>
+    <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
     <t xml:space="preserve">0.150636807084084</t>
@@ -854,16 +854,16 @@
     <t xml:space="preserve">0.150468796491623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147836863994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460822343826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148228853940964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220879793167</t>
+    <t xml:space="preserve">0.147836849093437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460837244987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148228839039803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
@@ -872,25 +872,25 @@
     <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972933292389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076941370964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276893258095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152316763997078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732691287994</t>
+    <t xml:space="preserve">0.143972918391228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076956272125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276878356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152316778898239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732706189156</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308939576149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143188953399658</t>
+    <t xml:space="preserve">0.143188938498497</t>
   </si>
   <si>
     <t xml:space="preserve">0.145372927188873</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">0.141900971531868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142180979251862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142460972070694</t>
+    <t xml:space="preserve">0.142180994153023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
     <t xml:space="preserve">0.144140928983688</t>
@@ -923,28 +923,28 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445038676262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557020902634</t>
+    <t xml:space="preserve">0.140445023775101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
+    <t xml:space="preserve">0.138317048549652</t>
   </si>
   <si>
     <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348974943161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124980688095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429060578346</t>
+    <t xml:space="preserve">0.142348989844322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124995589256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429045677185</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
@@ -953,25 +953,25 @@
     <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077091097832</t>
+    <t xml:space="preserve">0.136077120900154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127677276730537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797262907028</t>
+    <t xml:space="preserve">0.133277162909508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127677291631699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557320356369</t>
+    <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
     <t xml:space="preserve">0.124317362904549</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127117305994034</t>
+    <t xml:space="preserve">0.127117291092873</t>
   </si>
   <si>
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188156008720398</t>
+    <t xml:space="preserve">0.188155978918076</t>
   </si>
   <si>
     <t xml:space="preserve">0.229595124721527</t>
@@ -995,37 +995,37 @@
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315566182137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275111436844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635309815407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755295991898</t>
+    <t xml:space="preserve">0.208315581083298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475767254829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23127506673336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635324716568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
     <t xml:space="preserve">0.227355167269707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195325255394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875252366066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395382165909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22567518055439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315266728401</t>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875267267227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395337462425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675195455551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315296530724</t>
   </si>
   <si>
     <t xml:space="preserve">0.220075339078903</t>
@@ -1034,34 +1034,34 @@
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115209817886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994983792305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23407506942749</t>
+    <t xml:space="preserve">0.225115224719048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994939088821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635025262833</t>
+    <t xml:space="preserve">0.234635010361671</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21962596476078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341588973999</t>
+    <t xml:space="preserve">0.219625934958458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
     <t xml:space="preserve">0.22604775428772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194671630859</t>
+    <t xml:space="preserve">0.222194656729698</t>
   </si>
   <si>
     <t xml:space="preserve">0.210635408759117</t>
@@ -1073,16 +1073,16 @@
     <t xml:space="preserve">0.211277604103088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076145887375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149604558945</t>
+    <t xml:space="preserve">0.199076175689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
     <t xml:space="preserve">0.193296521902084</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590341687202</t>
+    <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
     <t xml:space="preserve">0.186874732375145</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182379454374313</t>
+    <t xml:space="preserve">0.182379469275475</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452898144722</t>
+    <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
@@ -1127,31 +1127,31 @@
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938687443733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369980573654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443409442902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194580897688866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159078359604</t>
+    <t xml:space="preserve">0.193938702344894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369995474815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443439245224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194580882787704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810717701912</t>
+    <t xml:space="preserve">0.179810732603073</t>
   </si>
   <si>
     <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179168552160263</t>
+    <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1160,25 +1160,25 @@
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526341915131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175315454602242</t>
+    <t xml:space="preserve">0.178526356816292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175315469503403</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217057228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186232522130013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173388928174973</t>
+    <t xml:space="preserve">0.172104552388191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217057213187218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186232507228851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17338889837265</t>
   </si>
   <si>
     <t xml:space="preserve">0.16953581571579</t>
@@ -1187,10 +1187,10 @@
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1701779961586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170820191502571</t>
+    <t xml:space="preserve">0.170177981257439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
     <t xml:space="preserve">0.16825145483017</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682733058929</t>
+    <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
     <t xml:space="preserve">0.159260928630829</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157334387302399</t>
+    <t xml:space="preserve">0.157334372401237</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1232,22 +1232,22 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
+    <t xml:space="preserve">0.16311402618885</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692206859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050011515617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903094172478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407831072807</t>
+    <t xml:space="preserve">0.156692191958427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050026416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903109073639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407845973969</t>
   </si>
   <si>
     <t xml:space="preserve">0.154765665531158</t>
@@ -1262,25 +1262,25 @@
     <t xml:space="preserve">0.181737244129181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17403107881546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012146115303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.174031093716621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012175917625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199718326330185</t>
+    <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223048329353</t>
+    <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
     <t xml:space="preserve">0.244028836488724</t>
@@ -1289,25 +1289,25 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524099588394</t>
+    <t xml:space="preserve">0.254945933818817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
     <t xml:space="preserve">0.249166280031204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242744475603104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251734972000122</t>
+    <t xml:space="preserve">0.242744460701942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450670719147</t>
+    <t xml:space="preserve">0.250450611114502</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
@@ -1319,19 +1319,19 @@
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175753831863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386670947075</t>
+    <t xml:space="preserve">0.240175738930702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386656045914</t>
   </si>
   <si>
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597558259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
+    <t xml:space="preserve">0.246597588062286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
     <t xml:space="preserve">0.323592603206635</t>
@@ -1346,31 +1346,31 @@
     <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240267485380173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228941723704338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559721589088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229750737547874</t>
+    <t xml:space="preserve">0.240267500281334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228941738605499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559706687927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229750752449036</t>
   </si>
   <si>
     <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231368705630302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233795627951622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232177689671516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226514801383018</t>
+    <t xml:space="preserve">0.231368720531464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233795642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232177674770355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986658811569</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076469421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930343866348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649502396584</t>
+    <t xml:space="preserve">0.241076484322548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930358767509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649532198906</t>
   </si>
   <si>
     <t xml:space="preserve">0.244312390685081</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
   </si>
   <si>
     <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222594976425</t>
+    <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
     <t xml:space="preserve">0.243503406643867</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065074682236</t>
+    <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
     <t xml:space="preserve">0.257256090641022</t>
@@ -1439,25 +1439,28 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211170434952</t>
+    <t xml:space="preserve">0.253211200237274</t>
   </si>
   <si>
     <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250784248113632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.250784277915955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166309833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
+    <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683072566986</t>
@@ -1469,33 +1472,30 @@
     <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222469910979271</t>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
     <t xml:space="preserve">0.221660912036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225705847144127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435741662979</t>
+    <t xml:space="preserve">0.225705832242966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
     <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264536947011948</t>
+    <t xml:space="preserve">0.264536917209625</t>
   </si>
   <si>
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065104484558</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
@@ -2616,6 +2616,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.225999996066093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.224999994039536</t>
   </si>
 </sst>
 </file>
@@ -27623,7 +27626,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27675,7 +27678,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27701,7 +27704,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27753,7 +27756,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27883,7 +27886,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28013,7 +28016,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28299,7 +28302,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28507,7 +28510,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28819,7 +28822,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28923,7 +28926,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28975,7 +28978,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29053,7 +29056,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29079,7 +29082,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29183,7 +29186,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29209,7 +29212,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29235,7 +29238,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29261,7 +29264,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29599,7 +29602,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29625,7 +29628,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29677,7 +29680,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29703,7 +29706,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29807,7 +29810,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29859,7 +29862,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30093,7 +30096,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30327,7 +30330,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30535,7 +30538,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30561,7 +30564,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30665,7 +30668,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30769,7 +30772,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31107,7 +31110,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31159,7 +31162,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31549,7 +31552,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31575,7 +31578,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31601,7 +31604,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31627,7 +31630,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31653,7 +31656,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31705,7 +31708,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31757,7 +31760,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31835,7 +31838,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31861,7 +31864,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31887,7 +31890,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31939,7 +31942,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32199,7 +32202,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32225,7 +32228,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37529,7 +37532,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -59169,7 +59172,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6430671296</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>300</v>
@@ -59190,6 +59193,32 @@
         <v>867</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6268865741</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>868</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="870">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16990040242672</t>
+    <t xml:space="preserve">0.169900387525558</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348525762558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836579442024</t>
+    <t xml:space="preserve">0.163348540663719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836549639702</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159988597035408</t>
+    <t xml:space="preserve">0.159988582134247</t>
   </si>
   <si>
     <t xml:space="preserve">0.15690866112709</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14330093562603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132954835892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740964889526</t>
+    <t xml:space="preserve">0.143300950527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132969737053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135013118386269</t>
+    <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135517105460167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253375291824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653489112854</t>
+    <t xml:space="preserve">0.135517120361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253382742405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653496563435</t>
   </si>
   <si>
     <t xml:space="preserve">0.115917548537254</t>
@@ -119,31 +119,31 @@
     <t xml:space="preserve">0.122581407427788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077405452728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277612090111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117605447769</t>
+    <t xml:space="preserve">0.122077398002148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277619540691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11311761289835</t>
   </si>
   <si>
     <t xml:space="preserve">0.114853553473949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597490549088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397134184837</t>
+    <t xml:space="preserve">0.134397149085999</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">0.151252791285515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.160716608166695</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -161,28 +161,28 @@
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156607627869</t>
+    <t xml:space="preserve">0.160156592726707</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940437793732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396250724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
+    <t xml:space="preserve">0.167940452694893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396265625954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636208176613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204317688942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17499628663063</t>
+    <t xml:space="preserve">0.173204332590103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
     <t xml:space="preserve">0.173596322536469</t>
@@ -206,10 +206,10 @@
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340267062187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.176340252161026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -227,28 +227,28 @@
     <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860501885414</t>
+    <t xml:space="preserve">0.164860486984253</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16267654299736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916500449181</t>
+    <t xml:space="preserve">0.158644646406174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162676528096199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916515350342</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159596621990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428626298904</t>
+    <t xml:space="preserve">0.159596607089043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428611397743</t>
   </si>
   <si>
     <t xml:space="preserve">0.163012534379959</t>
@@ -269,22 +269,22 @@
     <t xml:space="preserve">0.148396849632263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508846759796</t>
+    <t xml:space="preserve">0.148508861660957</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596891641617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500872612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108882665634</t>
+    <t xml:space="preserve">0.147500857710838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
     <t xml:space="preserve">0.1473328769207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1406130194664</t>
+    <t xml:space="preserve">0.140613034367561</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
+    <t xml:space="preserve">0.147556886076927</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
@@ -314,82 +314,82 @@
     <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145820900797844</t>
+    <t xml:space="preserve">0.145820885896683</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997035264969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437034726143</t>
+    <t xml:space="preserve">0.139997020363808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437049627304</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701079249382</t>
+    <t xml:space="preserve">0.137701064348221</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14139698445797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197376728058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997334718704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477219820023</t>
+    <t xml:space="preserve">0.141396999359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197391629219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997319817543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029381036758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252539396286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893603742123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397455990314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341442525387</t>
+    <t xml:space="preserve">0.123029388487339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252538651228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893611192703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397441089153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341435074806</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101485073566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381350517273</t>
+    <t xml:space="preserve">0.118101492524147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933496832848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293403208256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237127542496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129805237054825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845122694969</t>
+    <t xml:space="preserve">0.135237142443657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129805251955986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845152497292</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661343336105</t>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -410,13 +410,13 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421385884285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461271524429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229288220406</t>
+    <t xml:space="preserve">0.123421393334866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461256623268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -434,22 +434,22 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788974404335</t>
+    <t xml:space="preserve">0.141788989305496</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949160575867</t>
+    <t xml:space="preserve">0.134453132748604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
     <t xml:space="preserve">0.136581093072891</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">0.135685116052628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134901121258736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134061142802238</t>
+    <t xml:space="preserve">0.134901136159897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
@@ -482,19 +482,19 @@
     <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381051063538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14363694190979</t>
+    <t xml:space="preserve">0.139381036162376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604880690575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131821200251579</t>
+    <t xml:space="preserve">0.146604865789413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
     <t xml:space="preserve">0.137477084994316</t>
@@ -506,58 +506,58 @@
     <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136749103665352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131597205996513</t>
+    <t xml:space="preserve">0.136749088764191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131597191095352</t>
   </si>
   <si>
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453282475471</t>
+    <t xml:space="preserve">0.127453297376633</t>
   </si>
   <si>
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045359134674</t>
+    <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
     <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128685250878334</t>
+    <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613318920135</t>
+    <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133557170629501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221179246902</t>
+    <t xml:space="preserve">0.13355715572834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221164345741</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733125567436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861100792885</t>
+    <t xml:space="preserve">0.134733140468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
@@ -575,19 +575,19 @@
     <t xml:space="preserve">0.153100743889809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152484774589539</t>
+    <t xml:space="preserve">0.152484744787216</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236977815628</t>
+    <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141284987330437</t>
+    <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
     <t xml:space="preserve">0.141060993075371</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">0.140389010310173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141564980149269</t>
+    <t xml:space="preserve">0.14156499505043</t>
   </si>
   <si>
     <t xml:space="preserve">0.141005009412766</t>
@@ -614,55 +614,55 @@
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13467712700367</t>
+    <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741114616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133893147110939</t>
+    <t xml:space="preserve">0.135741129517555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405108332634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773190736771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134957119822502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13198921084404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132157206535339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925208330154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173139929771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13053323328495</t>
+    <t xml:space="preserve">0.134957134723663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131989195942879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132157191634178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925223231316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173169732094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129525244235992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445173501968</t>
+    <t xml:space="preserve">0.129525259137154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
     <t xml:space="preserve">0.132717192173004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13019722700119</t>
+    <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
@@ -674,34 +674,34 @@
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965258598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309224128723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136917099356651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134341150522232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757077813148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134117141366005</t>
+    <t xml:space="preserve">0.128965243697166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309239029884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13691708445549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134341135621071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757062911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138485074043274</t>
+    <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765037059784</t>
+    <t xml:space="preserve">0.138765066862106</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125130414963</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285137057304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13820506632328</t>
+    <t xml:space="preserve">0.134285151958466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138205081224442</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -722,34 +722,34 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908810853958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14699687063694</t>
+    <t xml:space="preserve">0.149908825755119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146996855735779</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652920007706</t>
+    <t xml:space="preserve">0.146212890744209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14766888320446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144812911748886</t>
+    <t xml:space="preserve">0.147668868303299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144812926650047</t>
   </si>
   <si>
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972783565521</t>
+    <t xml:space="preserve">0.150972798466682</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.15276475250721</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708768844604</t>
+    <t xml:space="preserve">0.152708753943443</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940901875496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146324902772903</t>
+    <t xml:space="preserve">0.146940886974335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
     <t xml:space="preserve">0.144476920366287</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980922341347</t>
+    <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
     <t xml:space="preserve">0.142572954297066</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140837013721466</t>
+    <t xml:space="preserve">0.140837028622627</t>
   </si>
   <si>
     <t xml:space="preserve">0.141117006540298</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676977276802</t>
+    <t xml:space="preserve">0.141676992177963</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -842,31 +842,31 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540922880173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151140779256821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636792182922</t>
+    <t xml:space="preserve">0.145540907979012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151140794157982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636807084084</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468796491623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14783687889576</t>
+    <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228853940964</t>
+    <t xml:space="preserve">0.148228839039803</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144924908876419</t>
+    <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
     <t xml:space="preserve">0.144028946757317</t>
@@ -878,22 +878,22 @@
     <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147276893258095</t>
+    <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732691287994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308924674988</t>
+    <t xml:space="preserve">0.155732706189156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308939576149</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372927188873</t>
+    <t xml:space="preserve">0.145372912287712</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
@@ -905,19 +905,19 @@
     <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012968659401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900986433029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1421809643507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142460986971855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144140928983688</t>
+    <t xml:space="preserve">0.142012983560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900971531868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142180979251862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142461001873016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317078351974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141173005104065</t>
+    <t xml:space="preserve">0.138317048549652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348974943161</t>
@@ -944,28 +944,28 @@
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429060578346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149067759514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637091636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077105998993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133837163448334</t>
+    <t xml:space="preserve">0.138429045677185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149052858353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637106537819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077091097832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133837133646011</t>
   </si>
   <si>
     <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127677276730537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797262907028</t>
+    <t xml:space="preserve">0.127677291631699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">0.126557320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317362904549</t>
+    <t xml:space="preserve">0.124317355453968</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
@@ -989,58 +989,58 @@
     <t xml:space="preserve">0.188155993819237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595139622688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995253443718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315566182137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475722551346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275081634521</t>
+    <t xml:space="preserve">0.229595109820366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995268344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315581083298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475752353668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635324716568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755295991898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355152368546</t>
+    <t xml:space="preserve">0.221755310893059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355182170868</t>
   </si>
   <si>
     <t xml:space="preserve">0.221195295453072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222875267267227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395337462425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675210356712</t>
+    <t xml:space="preserve">0.222875252366066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
     <t xml:space="preserve">0.222315266728401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220075353980064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154810905457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115224719048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994953989983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075054526329</t>
+    <t xml:space="preserve">0.220075339078903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154796004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115209817886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994939088821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515053987503</t>
@@ -1049,49 +1049,49 @@
     <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214488491415977</t>
+    <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
     <t xml:space="preserve">0.21962596476078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218341588973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22604775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21063543856144</t>
+    <t xml:space="preserve">0.218341574072838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226047769188881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194656729698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277604103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708867430687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205497965216637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199076175689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149604558945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193296536803246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507409214973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.211277589201927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708882331848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.205497950315475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199076160788536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149619460106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193296521902084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507439017296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1100,16 +1100,16 @@
     <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948146343231</t>
+    <t xml:space="preserve">0.184948176145554</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305995702744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175957605242729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182379454374313</t>
+    <t xml:space="preserve">0.17595762014389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182379469275475</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
@@ -1118,37 +1118,37 @@
     <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177884191274643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176599815487862</t>
+    <t xml:space="preserve">0.177884176373482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1765998005867</t>
   </si>
   <si>
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938687443733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369995474815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443409442902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194580897688866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159078359604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183021634817123</t>
+    <t xml:space="preserve">0.193938702344894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369980573654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443439245224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194580882787704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159093260765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
     <t xml:space="preserve">0.179810732603073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181095093488693</t>
+    <t xml:space="preserve">0.181095078587532</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174673274159431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17210453748703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217057228088379</t>
+    <t xml:space="preserve">0.175315469503403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174673289060593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172104552388191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
@@ -1181,22 +1181,22 @@
     <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16953581571579</t>
+    <t xml:space="preserve">0.169535830616951</t>
   </si>
   <si>
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170178011059761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170820191502571</t>
+    <t xml:space="preserve">0.1701779961586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
     <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16760927438736</t>
+    <t xml:space="preserve">0.167609289288521</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
@@ -1208,10 +1208,10 @@
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682733058929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260928630829</t>
+    <t xml:space="preserve">0.165682718157768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260913729668</t>
   </si>
   <si>
     <t xml:space="preserve">0.157976567745209</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471815943718</t>
+    <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334387302399</t>
@@ -1232,46 +1232,46 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161829650402069</t>
+    <t xml:space="preserve">0.16311402618885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161829635500908</t>
   </si>
   <si>
     <t xml:space="preserve">0.156692191958427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156050011515617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903094172478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407831072807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.156050026416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903109073639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407845973969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398387074471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737244129181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174031093716621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012146115303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801258802414</t>
+    <t xml:space="preserve">0.164398372173309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737259030342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17403107881546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012175917625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801243901253</t>
   </si>
   <si>
     <t xml:space="preserve">0.199718326330185</t>
@@ -1280,22 +1280,22 @@
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223048329353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244028836488724</t>
+    <t xml:space="preserve">0.195223063230515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244028821587563</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524099588394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166280031204</t>
+    <t xml:space="preserve">0.254945933818817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524084687233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166294932365</t>
   </si>
   <si>
     <t xml:space="preserve">0.242744475603104</t>
@@ -1307,10 +1307,10 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
+    <t xml:space="preserve">0.250450611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377212047577</t>
@@ -1322,43 +1322,43 @@
     <t xml:space="preserve">0.240175753831863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386670947075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322686076164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597558259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592603206635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262109965085983</t>
+    <t xml:space="preserve">0.243386641144753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322641372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597588062286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592573404312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262109994888306</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548297047615</t>
+    <t xml:space="preserve">0.247548341751099</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941723704338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559721589088</t>
+    <t xml:space="preserve">0.228941738605499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604611992836</t>
+    <t xml:space="preserve">0.234604597091675</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
@@ -1367,34 +1367,34 @@
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177689671516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232986643910408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975264072418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076499223709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930343866348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649502396584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.232177674770355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226514801383018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23298667371273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975249171257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076469421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930358767509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649532198906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312405586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840533256531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222594976425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24350343644619</t>
+    <t xml:space="preserve">0.228132769465446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222580075264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503391742706</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739327907562</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25644713640213</t>
+    <t xml:space="preserve">0.256447106599808</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25482913851738</t>
+    <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
@@ -1451,28 +1451,28 @@
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.26291897892952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
+    <t xml:space="preserve">0.261301040649414</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222469910979271</t>
+    <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
     <t xml:space="preserve">0.221660897135735</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435741662979</t>
+    <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
     <t xml:space="preserve">0.271008789539337</t>
@@ -2619,6 +2619,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.215000003576279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223000004887581</t>
   </si>
 </sst>
 </file>
@@ -59276,7 +59279,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6495601852</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>32386</v>
@@ -59297,6 +59300,32 @@
         <v>864</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6278472222</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>16515</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>0.223000004887581</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>869</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524510502815</t>
+    <t xml:space="preserve">0.162396535277367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
     <t xml:space="preserve">0.163348540663719</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159988597035408</t>
+    <t xml:space="preserve">0.159988611936569</t>
   </si>
   <si>
     <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340701341629</t>
+    <t xml:space="preserve">0.155340686440468</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076806545258</t>
@@ -74,25 +74,25 @@
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309089303017</t>
+    <t xml:space="preserve">0.137309074401855</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300965428352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132954835892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484894514084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941036701202</t>
+    <t xml:space="preserve">0.143300950527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132969737053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740979790688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484909415245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941021800041</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13786906003952</t>
+    <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
@@ -131,13 +131,13 @@
     <t xml:space="preserve">0.114853568375111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597490549088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
+    <t xml:space="preserve">0.117597505450249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877213716507</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165140509605408</t>
+    <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156607627869</t>
+    <t xml:space="preserve">0.16015662252903</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -176,25 +176,25 @@
     <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636208176613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204317688942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17499628663063</t>
+    <t xml:space="preserve">0.178636223077774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204332590103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
     <t xml:space="preserve">0.173596322536469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17611625790596</t>
+    <t xml:space="preserve">0.176116243004799</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177796214818954</t>
+    <t xml:space="preserve">0.177796229720116</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">0.167996451258659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340252161026</t>
+    <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170236378908157</t>
+    <t xml:space="preserve">0.170236393809319</t>
   </si>
   <si>
     <t xml:space="preserve">0.162564560770988</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">0.163460522890091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860501885414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158028662204742</t>
+    <t xml:space="preserve">0.164860516786575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644646406174</t>
@@ -239,10 +239,10 @@
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916500449181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636492729187</t>
+    <t xml:space="preserve">0.164916485548019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012534379959</t>
+    <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
     <t xml:space="preserve">0.163628533482552</t>
@@ -263,28 +263,28 @@
     <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796963453293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148396849632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508846759796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596891641617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500857710838</t>
+    <t xml:space="preserve">0.142796978354454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148396834731102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508831858635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596906542778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1406130194664</t>
+    <t xml:space="preserve">0.147332862019539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140613004565239</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
@@ -293,19 +293,19 @@
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084930419922</t>
+    <t xml:space="preserve">0.144084945321083</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564845323563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145988896489143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147556871175766</t>
+    <t xml:space="preserve">0.148564860224724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145988881587982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147556856274605</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">0.14526093006134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997035264969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437034726143</t>
+    <t xml:space="preserve">0.139997020363808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437049627304</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701079249382</t>
+    <t xml:space="preserve">0.137701064348221</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -347,16 +347,16 @@
     <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130253240466118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12302939593792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252538651228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893611192703</t>
+    <t xml:space="preserve">0.130253225564957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123029381036758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122525401413441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933489382267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293410658836</t>
+    <t xml:space="preserve">0.117933504283428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129357248544693</t>
+    <t xml:space="preserve">0.129357263445854</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621278166771</t>
+    <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
     <t xml:space="preserve">0.123421378433704</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229303121567</t>
+    <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">0.128237292170525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573253750801</t>
+    <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13932503759861</t>
+    <t xml:space="preserve">0.139325052499771</t>
   </si>
   <si>
     <t xml:space="preserve">0.138261064887047</t>
@@ -473,16 +473,16 @@
     <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133781179785728</t>
+    <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956984996796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139381021261215</t>
+    <t xml:space="preserve">0.141956999897957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
     <t xml:space="preserve">0.143636956810951</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604880690575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131821200251579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477084994316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135965093970299</t>
+    <t xml:space="preserve">0.146604895591736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13182121515274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477070093155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120677441358566</t>
+    <t xml:space="preserve">0.120677426457405</t>
   </si>
   <si>
     <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128741264343262</t>
+    <t xml:space="preserve">0.128741279244423</t>
   </si>
   <si>
     <t xml:space="preserve">0.126613304018974</t>
@@ -551,10 +551,10 @@
     <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135629117488861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733140468597</t>
+    <t xml:space="preserve">0.135629132390022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733155369759</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861085891724</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150916785001755</t>
+    <t xml:space="preserve">0.150916770100594</t>
   </si>
   <si>
     <t xml:space="preserve">0.151476785540581</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389025211334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14156499505043</t>
+    <t xml:space="preserve">0.140389010310173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
     <t xml:space="preserve">0.141005009412766</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138821050524712</t>
+    <t xml:space="preserve">0.13882103562355</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773175835609</t>
+    <t xml:space="preserve">0.132773190736771</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
@@ -659,10 +659,10 @@
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717177271843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130197241902351</t>
+    <t xml:space="preserve">0.132717192173004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
+    <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">0.144812926650047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150188833475113</t>
+    <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
     <t xml:space="preserve">0.150972813367844</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153324738144875</t>
+    <t xml:space="preserve">0.153324723243713</t>
   </si>
   <si>
     <t xml:space="preserve">0.152652755379677</t>
@@ -785,25 +785,25 @@
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324887871742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144476935267448</t>
+    <t xml:space="preserve">0.146324902772903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612854838371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980922341347</t>
+    <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
     <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145204901695251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144588932394981</t>
+    <t xml:space="preserve">0.145204916596413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412962555885</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748953938484</t>
+    <t xml:space="preserve">0.143748939037323</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804952502251</t>
+    <t xml:space="preserve">0.143804937601089</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
@@ -833,22 +833,22 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676977276802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141453012824059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143244951963425</t>
+    <t xml:space="preserve">0.141676992177963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141452997922897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140794157982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636807084084</t>
+    <t xml:space="preserve">0.151140779256821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468796491623</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">0.149460852146149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228853940964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220879793167</t>
+    <t xml:space="preserve">0.148228839039803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028946757317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972918391228</t>
+    <t xml:space="preserve">0.144028931856155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">0.144308939576149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143188938498497</t>
+    <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
     <t xml:space="preserve">0.145372927188873</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141844987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142012983560562</t>
+    <t xml:space="preserve">0.141845002770424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142012998461723</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900986433029</t>
@@ -926,16 +926,16 @@
     <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140556991100311</t>
+    <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317048549652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141173005104065</t>
+    <t xml:space="preserve">0.138317063450813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348989844322</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">0.136077120900154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133837163448334</t>
+    <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
     <t xml:space="preserve">0.133277162909508</t>
@@ -986,37 +986,37 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188156008720398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595154523849</t>
+    <t xml:space="preserve">0.188155993819237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595124721527</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995238542557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315581083298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475767254829</t>
+    <t xml:space="preserve">0.208315595984459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
     <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220635309815407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755281090736</t>
+    <t xml:space="preserve">0.220635324716568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755295991898</t>
   </si>
   <si>
     <t xml:space="preserve">0.227355167269707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195310354233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
+    <t xml:space="preserve">0.221195325255394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395337462425</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315311431885</t>
+    <t xml:space="preserve">0.222315296530724</t>
   </si>
   <si>
     <t xml:space="preserve">0.220075339078903</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635010361671</t>
+    <t xml:space="preserve">0.234635040163994</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488491415977</t>
@@ -59334,7 +59334,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6494791667</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>156934</v>
@@ -59346,7 +59346,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="E2169" t="n">
-        <v>0.221000000834465</v>
+        <v>0.223000004887581</v>
       </c>
       <c r="F2169" t="n">
         <v>0.229000002145767</v>
@@ -59355,6 +59355,32 @@
         <v>862</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6514236111</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>34039</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>0.238000005483627</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0.226999998092651</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>866</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16990040242672</t>
+    <t xml:space="preserve">0.169900387525558</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524510502815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348525762558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836579442024</t>
+    <t xml:space="preserve">0.162396565079689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524495601654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348540663719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836549639702</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172555923462</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15690866112709</t>
+    <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076806545258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732826113701</t>
+    <t xml:space="preserve">0.150076821446419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309089303017</t>
@@ -80,34 +80,34 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14330093562603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132954835892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941036701202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135013118386269</t>
+    <t xml:space="preserve">0.143300950527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132969737053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740979790688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484909415245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941021800041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
+    <t xml:space="preserve">0.13786906003952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253390192986</t>
+    <t xml:space="preserve">0.123253375291824</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653496563435</t>
@@ -116,46 +116,46 @@
     <t xml:space="preserve">0.115917541086674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122581377625465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077405452728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277619540691</t>
+    <t xml:space="preserve">0.122581407427788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077398002148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277612090111</t>
   </si>
   <si>
     <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11485356092453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597505450249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
+    <t xml:space="preserve">0.114853553473949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
   </si>
   <si>
     <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131877213716507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134397134184837</t>
+    <t xml:space="preserve">0.131877198815346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134397149085999</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252791285515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716578364372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140479803085</t>
+    <t xml:space="preserve">0.151252776384354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716593265533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
     <t xml:space="preserve">0.156740680336952</t>
@@ -167,28 +167,28 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16794042289257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396250724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
+    <t xml:space="preserve">0.167940437793732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396280527115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204317688942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17499628663063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596322536469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17611625790596</t>
+    <t xml:space="preserve">0.173204332590103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174996271729469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596307635307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116287708282</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996451258659</t>
+    <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148319125175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170236378908157</t>
+    <t xml:space="preserve">0.173148334026337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170236393809319</t>
   </si>
   <si>
     <t xml:space="preserve">0.162564560770988</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516521453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460522890091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860486984253</t>
+    <t xml:space="preserve">0.163516536355019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16267654299736</t>
+    <t xml:space="preserve">0.162676528096199</t>
   </si>
   <si>
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636507630348</t>
+    <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428611397743</t>
+    <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
     <t xml:space="preserve">0.163012534379959</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468511939049</t>
+    <t xml:space="preserve">0.164468497037888</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196777820587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796963453293</t>
+    <t xml:space="preserve">0.142796978354454</t>
   </si>
   <si>
     <t xml:space="preserve">0.148396849632263</t>
@@ -272,16 +272,16 @@
     <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596906542778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500872612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108882665634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1473328769207</t>
+    <t xml:space="preserve">0.145596891641617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500857710838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108867764473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147332862019539</t>
   </si>
   <si>
     <t xml:space="preserve">0.1406130194664</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084945321083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144700914621353</t>
+    <t xml:space="preserve">0.144084930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -305,22 +305,22 @@
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146156892180443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660909056664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145820900797844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14526093006134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139997035264969</t>
+    <t xml:space="preserve">0.147556886076927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146156907081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660894155502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145820885896683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145260915160179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701064348221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138597071170807</t>
+    <t xml:space="preserve">0.137701079249382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
@@ -341,37 +341,37 @@
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997319817543</t>
+    <t xml:space="preserve">0.125997304916382</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130253255367279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12302939593792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252539396286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893596291542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397455990314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341442525387</t>
+    <t xml:space="preserve">0.130253240466118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123029388487339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122525401413441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893611192703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397441089153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341449975967</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101485073566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933504283428</t>
+    <t xml:space="preserve">0.118101492524147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933496832848</t>
   </si>
   <si>
     <t xml:space="preserve">0.121293418109417</t>
@@ -383,34 +383,34 @@
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237112641335</t>
+    <t xml:space="preserve">0.135237142443657</t>
   </si>
   <si>
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134845122694969</t>
+    <t xml:space="preserve">0.13484513759613</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134789124131203</t>
+    <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661343336105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021257162094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127621278166771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421385884285</t>
+    <t xml:space="preserve">0.125661313533783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021272063255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127621293067932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421378433704</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461256623268</t>
@@ -440,19 +440,19 @@
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
+    <t xml:space="preserve">0.134453162550926</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581107974052</t>
+    <t xml:space="preserve">0.136581093072891</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685116052628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901121258736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134061142802238</t>
+    <t xml:space="preserve">0.135685130953789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901136159897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381051063538</t>
+    <t xml:space="preserve">0.139381021261215</t>
   </si>
   <si>
     <t xml:space="preserve">0.143636956810951</t>
@@ -497,34 +497,34 @@
     <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477070093155</t>
+    <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143356963992119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136749103665352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131597205996513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128853276371956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453282475471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541222333908</t>
+    <t xml:space="preserve">0.143356949090958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136749088764191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131597191095352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128853261470795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453297376633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
     <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821349978447</t>
+    <t xml:space="preserve">0.124821357429028</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131037205457687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133557170629501</t>
+    <t xml:space="preserve">0.131037220358849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
     <t xml:space="preserve">0.133221164345741</t>
@@ -578,19 +578,19 @@
     <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145876914262772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236977815628</t>
+    <t xml:space="preserve">0.14587689936161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141284987330437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141061007976532</t>
+    <t xml:space="preserve">0.141285002231598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
@@ -611,28 +611,28 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138821050524712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13467712700367</t>
+    <t xml:space="preserve">0.13882103562355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741114616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1338931620121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773190736771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957119822502</t>
+    <t xml:space="preserve">0.135741144418716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405108332634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133893147110939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773175835609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957149624825</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
@@ -641,28 +641,28 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925208330154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173154830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13053323328495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317228078842</t>
+    <t xml:space="preserve">0.130925223231316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173169732094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130533218383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13131719827652</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133445173501968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717192173004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13019722700119</t>
+    <t xml:space="preserve">0.133445158600807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717177271843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965273499489</t>
+    <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
     <t xml:space="preserve">0.130309239029884</t>
@@ -683,16 +683,16 @@
     <t xml:space="preserve">0.136917099356651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341150522232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757077813148</t>
+    <t xml:space="preserve">0.134341135621071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757062911987</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140333041548729</t>
+    <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485074043274</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765037059784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125130414963</t>
+    <t xml:space="preserve">0.138765066862106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125115513802</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285151958466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13820506632328</t>
+    <t xml:space="preserve">0.134285166859627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138205081224442</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
+    <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146268904209137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14766888320446</t>
+    <t xml:space="preserve">0.146268919110298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516671180725</t>
+    <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
+    <t xml:space="preserve">0.152652740478516</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060873150826</t>
+    <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
     <t xml:space="preserve">0.146940886974335</t>
@@ -794,16 +794,16 @@
     <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980907440186</t>
+    <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
     <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145204916596413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14458891749382</t>
+    <t xml:space="preserve">0.145204931497574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144588932394981</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748953938484</t>
+    <t xml:space="preserve">0.143748968839645</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196942448616</t>
+    <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
     <t xml:space="preserve">0.143804937601089</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676977276802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141452983021736</t>
+    <t xml:space="preserve">0.141676992177963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141452997922897</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244966864586</t>
@@ -845,37 +845,37 @@
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140779256821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636792182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468796491623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14783687889576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460837244987</t>
+    <t xml:space="preserve">0.151140794157982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636807084084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468811392784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147836863994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220879793167</t>
+    <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028931856155</t>
+    <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
     <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143076941370964</t>
+    <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
@@ -884,19 +884,19 @@
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732691287994</t>
+    <t xml:space="preserve">0.155732706189156</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143188953399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145372942090034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404958605766</t>
+    <t xml:space="preserve">0.143188938498497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145372927188873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
@@ -905,25 +905,25 @@
     <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012968659401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900986433029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142180979251862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142460986971855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144140928983688</t>
+    <t xml:space="preserve">0.142012983560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900971531868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142180994153023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142461001873016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.14044500887394</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
+    <t xml:space="preserve">0.142348974943161</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149082660675</t>
+    <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637091636658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077091097832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133837163448334</t>
+    <t xml:space="preserve">0.136077105998993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
     <t xml:space="preserve">0.133277177810669</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557305455208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317362904549</t>
+    <t xml:space="preserve">0.126557320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317355453968</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437349081039</t>
@@ -995,28 +995,28 @@
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315566182137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475737452507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275051832199</t>
+    <t xml:space="preserve">0.208315581083298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475752353668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231275081634521</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755295991898</t>
+    <t xml:space="preserve">0.221755266189575</t>
   </si>
   <si>
     <t xml:space="preserve">0.227355167269707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195295453072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875252366066</t>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875267267227</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395352363586</t>
@@ -1028,31 +1028,31 @@
     <t xml:space="preserve">0.222315281629562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220075309276581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154810905457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115239620209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994953989983</t>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154796004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115224719048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515068888664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635025262833</t>
+    <t xml:space="preserve">0.233515024185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23463499546051</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219625949859619</t>
+    <t xml:space="preserve">0.219625979661942</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341574072838</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277589201927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.211277574300766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
@@ -1088,34 +1088,34 @@
     <t xml:space="preserve">0.193296536803246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507439017296</t>
+    <t xml:space="preserve">0.196507424116135</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590371489525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186874732375145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305980801582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175957635045052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182379469275475</t>
+    <t xml:space="preserve">0.185590356588364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186874717473984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948146343231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305995702744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17595762014389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182379439473152</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452898144722</t>
+    <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197791799902916</t>
+    <t xml:space="preserve">0.197791785001755</t>
   </si>
   <si>
     <t xml:space="preserve">0.193938687443733</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443424344063</t>
+    <t xml:space="preserve">0.189443409442902</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580897688866</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183021619915962</t>
+    <t xml:space="preserve">0.183021634817123</t>
   </si>
   <si>
     <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181095093488693</t>
+    <t xml:space="preserve">0.181095078587532</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168552160263</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190085619688034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178526341915131</t>
+    <t xml:space="preserve">0.190085634589195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178526371717453</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
+    <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057228088379</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">0.169535830616951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462371945381</t>
+    <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
     <t xml:space="preserve">0.1701779961586</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168251469731331</t>
+    <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
@@ -1208,19 +1208,19 @@
     <t xml:space="preserve">0.165040567517281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682733058929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260928630829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157976567745209</t>
+    <t xml:space="preserve">0.165682718157768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260913729668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157976552844048</t>
   </si>
   <si>
     <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471815943718</t>
+    <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334387302399</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">0.156050011515617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903094172478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407831072807</t>
+    <t xml:space="preserve">0.159903109073639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407845973969</t>
   </si>
   <si>
     <t xml:space="preserve">0.154765650629997</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">0.164398387074471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181737259030342</t>
+    <t xml:space="preserve">0.181737244129181</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">0.192012146115303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187516883015633</t>
+    <t xml:space="preserve">0.187516897916794</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727785229683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195223048329353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244028836488724</t>
+    <t xml:space="preserve">0.190727800130844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195223063230515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244028821587563</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
@@ -1292,40 +1292,40 @@
     <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248524129390717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166280031204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744475603104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.248524114489555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166265130043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744490504265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735031604767</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
+    <t xml:space="preserve">0.250450611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253019362688065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175724029541</t>
+    <t xml:space="preserve">0.253019392490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
     <t xml:space="preserve">0.243386641144753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236322686076164</t>
+    <t xml:space="preserve">0.236322671175003</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597558259964</t>
@@ -1334,22 +1334,22 @@
     <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323592603206635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262109965085983</t>
+    <t xml:space="preserve">0.323592573404312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262109994888306</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548297047615</t>
+    <t xml:space="preserve">0.247548311948776</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941723704338</t>
+    <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
     <t xml:space="preserve">0.230559721589088</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604611992836</t>
+    <t xml:space="preserve">0.234604597091675</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22651481628418</t>
+    <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986643910408</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930343866348</t>
+    <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.24431237578392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840563058853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24188543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222594976425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24350343644619</t>
+    <t xml:space="preserve">0.228132769465446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222609877586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503421545029</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739357709885</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
+    <t xml:space="preserve">0.261301040649414</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435741662979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
+    <t xml:space="preserve">0.273435711860657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27100881934166</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -59435,7 +59435,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6513888889</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>2051</v>
@@ -59456,6 +59456,32 @@
         <v>827</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.649537037</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>0.233999997377396</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>0.216000005602837</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.216000005602837</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.233999997377396</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>831</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396565079689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524495601654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348540663719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836549639702</t>
+    <t xml:space="preserve">0.162396550178528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524510502815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348525762558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836579442024</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172555923462</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156908676028252</t>
+    <t xml:space="preserve">0.15690866112709</t>
   </si>
   <si>
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076821446419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732841014862</t>
+    <t xml:space="preserve">0.150076806545258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732826113701</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309089303017</t>
@@ -80,34 +80,34 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132969737053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740979790688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484909415245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941021800041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13501313328743</t>
+    <t xml:space="preserve">0.14330093562603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132954835892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740964889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941036701202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135013118386269</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13786906003952</t>
+    <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253375291824</t>
+    <t xml:space="preserve">0.123253390192986</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653496563435</t>
@@ -116,46 +116,46 @@
     <t xml:space="preserve">0.115917541086674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122581407427788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077398002148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277612090111</t>
+    <t xml:space="preserve">0.122581377625465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077405452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277619540691</t>
   </si>
   <si>
     <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114853553473949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597497999668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.11485356092453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597505450249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
     <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131877198815346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134397149085999</t>
+    <t xml:space="preserve">0.131877213716507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134397134184837</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716593265533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140494704247</t>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716578364372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140479803085</t>
   </si>
   <si>
     <t xml:space="preserve">0.156740680336952</t>
@@ -167,28 +167,28 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940437793732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396280527115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836265087128</t>
+    <t xml:space="preserve">0.16794042289257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396250724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204332590103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596307635307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116287708282</t>
+    <t xml:space="preserve">0.173204317688942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996436357498</t>
+    <t xml:space="preserve">0.167996451258659</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148334026337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170236393809319</t>
+    <t xml:space="preserve">0.173148319125175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
     <t xml:space="preserve">0.162564560770988</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860501885414</t>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460522890091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860486984253</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162676528096199</t>
+    <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636492729187</t>
+    <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428626298904</t>
+    <t xml:space="preserve">0.159428611397743</t>
   </si>
   <si>
     <t xml:space="preserve">0.163012534379959</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468497037888</t>
+    <t xml:space="preserve">0.164468511939049</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196777820587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796978354454</t>
+    <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
     <t xml:space="preserve">0.148396849632263</t>
@@ -272,16 +272,16 @@
     <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596891641617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500857710838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147332862019539</t>
+    <t xml:space="preserve">0.145596906542778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500872612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108882665634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1473328769207</t>
   </si>
   <si>
     <t xml:space="preserve">0.1406130194664</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144700929522514</t>
+    <t xml:space="preserve">0.144084945321083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -305,22 +305,22 @@
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556886076927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145820885896683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145260915160179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139997020363808</t>
+    <t xml:space="preserve">0.147556871175766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660909056664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145820900797844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14526093006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139997035264969</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701079249382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138597056269646</t>
+    <t xml:space="preserve">0.137701064348221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138597071170807</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
@@ -341,37 +341,37 @@
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997304916382</t>
+    <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130253240466118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123029388487339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122525401413441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893611192703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341449975967</t>
+    <t xml:space="preserve">0.130253255367279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12302939593792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893596291542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397455990314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341442525387</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101492524147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933496832848</t>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933504283428</t>
   </si>
   <si>
     <t xml:space="preserve">0.121293418109417</t>
@@ -383,34 +383,34 @@
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237142443657</t>
+    <t xml:space="preserve">0.135237112641335</t>
   </si>
   <si>
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13484513759613</t>
+    <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134789139032364</t>
+    <t xml:space="preserve">0.134789124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661313533783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021272063255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421378433704</t>
+    <t xml:space="preserve">0.125661343336105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021257162094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127621278166771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461256623268</t>
@@ -440,19 +440,19 @@
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453162550926</t>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
+    <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685130953789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901136159897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1340611577034</t>
+    <t xml:space="preserve">0.135685116052628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901121258736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134061142802238</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381021261215</t>
+    <t xml:space="preserve">0.139381051063538</t>
   </si>
   <si>
     <t xml:space="preserve">0.143636956810951</t>
@@ -497,34 +497,34 @@
     <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477084994316</t>
+    <t xml:space="preserve">0.137477070093155</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143356949090958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136749088764191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131597191095352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128853261470795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453297376633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541207432747</t>
+    <t xml:space="preserve">0.143356963992119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136749103665352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131597205996513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128853276371956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453282475471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541222333908</t>
   </si>
   <si>
     <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131037220358849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13355715572834</t>
+    <t xml:space="preserve">0.131037205457687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133557170629501</t>
   </si>
   <si>
     <t xml:space="preserve">0.133221164345741</t>
@@ -578,19 +578,19 @@
     <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14587689936161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236992716789</t>
+    <t xml:space="preserve">0.145876914262772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141285002231598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141060993075371</t>
+    <t xml:space="preserve">0.141284987330437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141061007976532</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
@@ -611,28 +611,28 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13882103562355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134677141904831</t>
+    <t xml:space="preserve">0.138821050524712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741144418716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133893147110939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957149624825</t>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1338931620121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957119822502</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
@@ -641,28 +641,28 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925223231316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173169732094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13131719827652</t>
+    <t xml:space="preserve">0.130925208330154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173154830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317228078842</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133445158600807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717177271843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130197241902351</t>
+    <t xml:space="preserve">0.133445173501968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717192173004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965258598328</t>
+    <t xml:space="preserve">0.128965273499489</t>
   </si>
   <si>
     <t xml:space="preserve">0.130309239029884</t>
@@ -683,16 +683,16 @@
     <t xml:space="preserve">0.136917099356651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341135621071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757062911987</t>
+    <t xml:space="preserve">0.134341150522232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140333026647568</t>
+    <t xml:space="preserve">0.140333041548729</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485074043274</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765066862106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125115513802</t>
+    <t xml:space="preserve">0.138765037059784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285166859627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138205081224442</t>
+    <t xml:space="preserve">0.134285151958466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
+    <t xml:space="preserve">0.14621290564537</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146268919110298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.146268904209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516686081886</t>
+    <t xml:space="preserve">0.156516671180725</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652740478516</t>
+    <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060858249664</t>
+    <t xml:space="preserve">0.148060873150826</t>
   </si>
   <si>
     <t xml:space="preserve">0.146940886974335</t>
@@ -794,16 +794,16 @@
     <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980922341347</t>
+    <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
     <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145204931497574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144588932394981</t>
+    <t xml:space="preserve">0.145204916596413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748968839645</t>
+    <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196927547455</t>
+    <t xml:space="preserve">0.144196942448616</t>
   </si>
   <si>
     <t xml:space="preserve">0.143804937601089</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676992177963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141452997922897</t>
+    <t xml:space="preserve">0.141676977276802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141452983021736</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244966864586</t>
@@ -845,37 +845,37 @@
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140794157982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636807084084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468811392784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836863994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.151140779256821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636792182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468796491623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14783687889576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460837244987</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220864892006</t>
+    <t xml:space="preserve">0.147220879793167</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028946757317</t>
+    <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
     <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143076956272125</t>
+    <t xml:space="preserve">0.143076941370964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
@@ -884,19 +884,19 @@
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732706189156</t>
+    <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143188938498497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145372927188873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404973506927</t>
+    <t xml:space="preserve">0.143188953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145372942090034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404958605766</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
@@ -905,25 +905,25 @@
     <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012983560562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900971531868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142180994153023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142461001873016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14414094388485</t>
+    <t xml:space="preserve">0.142012968659401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900986433029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142180979251862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142460986971855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144140928983688</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14044500887394</t>
+    <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149067759514</t>
+    <t xml:space="preserve">0.138149082660675</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637091636658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077105998993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133837148547173</t>
+    <t xml:space="preserve">0.136077091097832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133837163448334</t>
   </si>
   <si>
     <t xml:space="preserve">0.133277177810669</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317355453968</t>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317362904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437349081039</t>
@@ -995,28 +995,28 @@
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315581083298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275081634521</t>
+    <t xml:space="preserve">0.208315566182137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475737452507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231275051832199</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755266189575</t>
+    <t xml:space="preserve">0.221755295991898</t>
   </si>
   <si>
     <t xml:space="preserve">0.227355167269707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195310354233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
+    <t xml:space="preserve">0.221195295453072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875252366066</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395352363586</t>
@@ -1028,31 +1028,31 @@
     <t xml:space="preserve">0.222315281629562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220075324177742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154796004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115224719048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994939088821</t>
+    <t xml:space="preserve">0.220075309276581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154810905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115239620209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994953989983</t>
   </si>
   <si>
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515024185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23463499546051</t>
+    <t xml:space="preserve">0.233515068888664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219625979661942</t>
+    <t xml:space="preserve">0.219625949859619</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341574072838</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277574300766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708852529526</t>
+    <t xml:space="preserve">0.211277589201927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708867430687</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
@@ -1088,34 +1088,34 @@
     <t xml:space="preserve">0.193296536803246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507424116135</t>
+    <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590356588364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186874717473984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948146343231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305995702744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17595762014389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182379439473152</t>
+    <t xml:space="preserve">0.185590371489525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186874732375145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948161244392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305980801582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175957635045052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182379469275475</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452883243561</t>
+    <t xml:space="preserve">0.180452898144722</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197791785001755</t>
+    <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
     <t xml:space="preserve">0.193938687443733</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443409442902</t>
+    <t xml:space="preserve">0.189443424344063</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580897688866</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183021634817123</t>
+    <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
     <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181095078587532</t>
+    <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168552160263</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190085634589195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178526371717453</t>
+    <t xml:space="preserve">0.190085619688034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178526341915131</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172104552388191</t>
+    <t xml:space="preserve">0.17210453748703</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057228088379</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">0.169535830616951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17146235704422</t>
+    <t xml:space="preserve">0.171462371945381</t>
   </si>
   <si>
     <t xml:space="preserve">0.1701779961586</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16825145483017</t>
+    <t xml:space="preserve">0.168251469731331</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
@@ -1208,19 +1208,19 @@
     <t xml:space="preserve">0.165040567517281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682718157768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260913729668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157976552844048</t>
+    <t xml:space="preserve">0.165682733058929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260928630829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
     <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471830844879</t>
+    <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334387302399</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">0.156050011515617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407845973969</t>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407831072807</t>
   </si>
   <si>
     <t xml:space="preserve">0.154765650629997</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">0.164398387074471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181737244129181</t>
+    <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">0.192012146115303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727800130844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195223063230515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244028821587563</t>
+    <t xml:space="preserve">0.190727785229683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195223048329353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
@@ -1292,40 +1292,40 @@
     <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248524114489555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166265130043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744490504265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735031604767</t>
+    <t xml:space="preserve">0.248524129390717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166280031204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744475603104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303723573685</t>
+    <t xml:space="preserve">0.250450640916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303753376007</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253019392490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175738930702</t>
+    <t xml:space="preserve">0.253019362688065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175724029541</t>
   </si>
   <si>
     <t xml:space="preserve">0.243386641144753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236322671175003</t>
+    <t xml:space="preserve">0.236322686076164</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597558259964</t>
@@ -1334,22 +1334,22 @@
     <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323592573404312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262109994888306</t>
+    <t xml:space="preserve">0.323592603206635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262109965085983</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548311948776</t>
+    <t xml:space="preserve">0.247548297047615</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941738605499</t>
+    <t xml:space="preserve">0.228941723704338</t>
   </si>
   <si>
     <t xml:space="preserve">0.230559721589088</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604597091675</t>
+    <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226514801383018</t>
+    <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986643910408</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930358767509</t>
+    <t xml:space="preserve">0.245930343866348</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24431237578392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840563058853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24188543856144</t>
+    <t xml:space="preserve">0.244312390685081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132769465446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222609877586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503421545029</t>
+    <t xml:space="preserve">0.228132784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222594976425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24350343644619</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739357709885</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121374726295</t>
+    <t xml:space="preserve">0.245121389627457</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683042764664</t>
+    <t xml:space="preserve">0.259683072566986</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301040649414</t>
+    <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27100881934166</t>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -59461,7 +59461,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.649537037</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>1447</v>
@@ -59482,6 +59482,32 @@
         <v>831</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6493865741</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>14265</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>0.238000005483627</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>0.218999996781349</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.238000005483627</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
+    <t xml:space="preserve">0.162396535277367</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524495601654</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172555923462</t>
+    <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
@@ -65,16 +65,16 @@
     <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15534071624279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076821446419</t>
+    <t xml:space="preserve">0.155340701341629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076806545258</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309074401855</t>
+    <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">0.143300950527191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143132969737053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740979790688</t>
+    <t xml:space="preserve">0.143132954835892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139941036701202</t>
+    <t xml:space="preserve">0.139941021800041</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
@@ -110,31 +110,31 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653496563435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917548537254</t>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917533636093</t>
   </si>
   <si>
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077398002148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11227760463953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11311761289835</t>
+    <t xml:space="preserve">0.122077405452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277612090111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597512900829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
   </si>
   <si>
     <t xml:space="preserve">0.12683729827404</t>
@@ -143,40 +143,40 @@
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397149085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143916964530945</t>
+    <t xml:space="preserve">0.134397134184837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
     <t xml:space="preserve">0.151252791285515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716608166695</t>
+    <t xml:space="preserve">0.160716578364372</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740680336952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160156592726707</t>
+    <t xml:space="preserve">0.156740695238113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940437793732</t>
+    <t xml:space="preserve">0.16794042289257</t>
   </si>
   <si>
     <t xml:space="preserve">0.176396265625954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175836279988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636223077774</t>
+    <t xml:space="preserve">0.175836265087128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636208176613</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173596322536469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116272807121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436315894127</t>
+    <t xml:space="preserve">0.17359633743763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436300992966</t>
   </si>
   <si>
     <t xml:space="preserve">0.177796214818954</t>
@@ -200,16 +200,16 @@
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644332051277</t>
+    <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340267062187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148319125175</t>
+    <t xml:space="preserve">0.176340281963348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148304224014</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -224,25 +224,25 @@
     <t xml:space="preserve">0.163516521453857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163460537791252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860486984253</t>
+    <t xml:space="preserve">0.163460522890091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860516786575</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
+    <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
     <t xml:space="preserve">0.162676528096199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916515350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636492729187</t>
+    <t xml:space="preserve">0.164916485548019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
@@ -251,25 +251,25 @@
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012534379959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16362851858139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164468511939049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196777820587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142796963453293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148396849632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508846759796</t>
+    <t xml:space="preserve">0.16301254928112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163628533482552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16446852684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196792721748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142796978354454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148396834731102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508831858635</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596906542778</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1406130194664</t>
+    <t xml:space="preserve">0.147108882665634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147332862019539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140613004565239</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145428910851479</t>
+    <t xml:space="preserve">0.145428895950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700929522514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148564845323563</t>
+    <t xml:space="preserve">0.144700914621353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148564860224724</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988896489143</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145820900797844</t>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660879254341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145820885896683</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
@@ -323,22 +323,22 @@
     <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139437049627304</t>
+    <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701064348221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138597056269646</t>
+    <t xml:space="preserve">0.137701079249382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138597071170807</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197391629219</t>
+    <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
     <t xml:space="preserve">0.125997319817543</t>
@@ -347,19 +347,19 @@
     <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130253240466118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123029373586178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252538651228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893611192703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397441089153</t>
+    <t xml:space="preserve">0.130253225564957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123029381036758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397448539734</t>
   </si>
   <si>
     <t xml:space="preserve">0.120341449975967</t>
@@ -368,10 +368,10 @@
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101477622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933481931686</t>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933496832848</t>
   </si>
   <si>
     <t xml:space="preserve">0.121293418109417</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237142443657</t>
+    <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134845152497292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357233643532</t>
+    <t xml:space="preserve">0.134845122694969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
@@ -404,25 +404,25 @@
     <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129021272063255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421393334866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461256623268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229303121567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129637256264687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128237277269363</t>
+    <t xml:space="preserve">0.129021257162094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127621278166771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421385884285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461271524429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229288220406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129637241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128237292170525</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13932503759861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.141788974404335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139325052499771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
+    <t xml:space="preserve">0.134453132748604</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137813061475754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135461121797562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685116052628</t>
+    <t xml:space="preserve">0.137813076376915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1354611068964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884888410568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604865789413</t>
+    <t xml:space="preserve">0.146884903311729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
     <t xml:space="preserve">0.13182121515274</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135965123772621</t>
+    <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -509,19 +509,19 @@
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597191095352</t>
+    <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453282475471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541207432747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045344233513</t>
+    <t xml:space="preserve">0.127453297376633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541222333908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045329332352</t>
   </si>
   <si>
     <t xml:space="preserve">0.124821357429028</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556706547737</t>
+    <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
     <t xml:space="preserve">0.151028797030449</t>
@@ -569,19 +569,19 @@
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15147677063942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153100743889809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484759688377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14587689936161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236977815628</t>
+    <t xml:space="preserve">0.151476785540581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15310075879097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484774589539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145876914262772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389010310173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14156499505043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141005009412766</t>
+    <t xml:space="preserve">0.140389025211334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141564980149269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141004994511604</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741129517555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1338931620121</t>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773175835609</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925208330154</t>
+    <t xml:space="preserve">0.130925223231316</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130533218383789</t>
+    <t xml:space="preserve">0.13053323328495</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
@@ -659,19 +659,19 @@
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
+    <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
     <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132493197917938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13165320456028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131261229515076</t>
+    <t xml:space="preserve">0.132493183016777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131653189659119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">0.130309239029884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13691708445549</t>
+    <t xml:space="preserve">0.136917099356651</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341135621071</t>
@@ -704,19 +704,19 @@
     <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135125130414963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661178708076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285151958466</t>
+    <t xml:space="preserve">0.135125145316124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661193609238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285137057304</t>
   </si>
   <si>
     <t xml:space="preserve">0.138205081224442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139269039034843</t>
+    <t xml:space="preserve">0.139269053936005</t>
   </si>
   <si>
     <t xml:space="preserve">0.138653054833412</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
+    <t xml:space="preserve">0.146212875843048</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146268904209137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14766888320446</t>
+    <t xml:space="preserve">0.146268889307976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972783565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149348825216293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996735811234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516686081886</t>
+    <t xml:space="preserve">0.150972798466682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149348810315132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996720910072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516671180725</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153324723243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152652755379677</t>
+    <t xml:space="preserve">0.153324738144875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152652770280838</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940886974335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146324887871742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144476920366287</t>
+    <t xml:space="preserve">0.146940872073174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146324902772903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144476935267448</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -803,10 +803,10 @@
     <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144588932394981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143412947654724</t>
+    <t xml:space="preserve">0.14458891749382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143412962555885</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804937601089</t>
+    <t xml:space="preserve">0.143804952502251</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14173299074173</t>
+    <t xml:space="preserve">0.141733005642891</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676992177963</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540922880173</t>
+    <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
     <t xml:space="preserve">0.151140794157982</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">0.150636807084084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150468811392784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836863994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.150468796491623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147836849093437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460837244987</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228839039803</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14492492377758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028931856155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972933292389</t>
+    <t xml:space="preserve">0.144924938678741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028946757317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14397294819355</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
@@ -881,37 +881,37 @@
     <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152316778898239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732706189156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308939576149</t>
+    <t xml:space="preserve">0.152316763997078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732691287994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404973506927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144252926111221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141844987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142012983560562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900971531868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142180979251862</t>
+    <t xml:space="preserve">0.145372927188873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404988408089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144252941012383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141845002770424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142012998461723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900986433029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1421809643507</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445038676262</t>
+    <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317048549652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141172990202904</t>
+    <t xml:space="preserve">0.138317063450813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348974943161</t>
@@ -944,25 +944,25 @@
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429045677185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149052858353</t>
+    <t xml:space="preserve">0.138429060578346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149082660675</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077091097832</t>
+    <t xml:space="preserve">0.136077120900154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127677276730537</t>
+    <t xml:space="preserve">0.133277162909508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127677291631699</t>
   </si>
   <si>
     <t xml:space="preserve">0.128797277808189</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317370355129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437349081039</t>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317355453968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437334179878</t>
   </si>
   <si>
     <t xml:space="preserve">0.127117291092873</t>
@@ -986,67 +986,67 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188155978918076</t>
+    <t xml:space="preserve">0.188156008720398</t>
   </si>
   <si>
     <t xml:space="preserve">0.229595124721527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.223995268344879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315581083298</t>
+    <t xml:space="preserve">0.223995253443718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23127506673336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635324716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755295991898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355152368546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395352363586</t>
+    <t xml:space="preserve">0.231275096535683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635309815407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755310893059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355182170868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195340156555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395322561264</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675210356712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315266728401</t>
+    <t xml:space="preserve">0.222315311431885</t>
   </si>
   <si>
     <t xml:space="preserve">0.220075324177742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244154796004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115209817886</t>
+    <t xml:space="preserve">0.244154810905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115239620209</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075039625168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515053987503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23463499546051</t>
+    <t xml:space="preserve">0.234075024724007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515039086342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488506317139</t>
@@ -1055,16 +1055,16 @@
     <t xml:space="preserve">0.219625949859619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218341588973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226047769188881</t>
+    <t xml:space="preserve">0.218341574072838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22604775428772</t>
   </si>
   <si>
     <t xml:space="preserve">0.222194656729698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210635423660278</t>
+    <t xml:space="preserve">0.210635408759117</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205497950315475</t>
+    <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
     <t xml:space="preserve">0.199076175689697</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296507000923</t>
+    <t xml:space="preserve">0.193296521902084</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874732375145</t>
+    <t xml:space="preserve">0.186874717473984</t>
   </si>
   <si>
     <t xml:space="preserve">0.184948176145554</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17595762014389</t>
+    <t xml:space="preserve">0.175957635045052</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17724198102951</t>
+    <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
     <t xml:space="preserve">0.180452883243561</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1765998005867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791799902916</t>
+    <t xml:space="preserve">0.176599815487862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791814804077</t>
   </si>
   <si>
     <t xml:space="preserve">0.193938702344894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191369965672493</t>
+    <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
     <t xml:space="preserve">0.189443439245224</t>
@@ -1145,16 +1145,16 @@
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810717701912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095078587532</t>
+    <t xml:space="preserve">0.179810732603073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663815259933</t>
+    <t xml:space="preserve">0.183663830161095</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315469503403</t>
+    <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
@@ -1196,34 +1196,34 @@
     <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16760927438736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166967079043388</t>
+    <t xml:space="preserve">0.167609289288521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040537714958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682718157768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260913729668</t>
+    <t xml:space="preserve">0.165040552616119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682733058929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618733286858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471815943718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157334372401237</t>
+    <t xml:space="preserve">0.158618748188019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471830844879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157334387302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1238,13 +1238,13 @@
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692191958427</t>
+    <t xml:space="preserve">0.156692206859589</t>
   </si>
   <si>
     <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903094172478</t>
+    <t xml:space="preserve">0.159903109073639</t>
   </si>
   <si>
     <t xml:space="preserve">0.155407831072807</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">0.164398372173309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181737244129181</t>
+    <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">0.192012175917625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187516883015633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801229000092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199718326330185</t>
+    <t xml:space="preserve">0.187516897916794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801258802414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244028821587563</t>
+    <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524084687233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166265130043</t>
+    <t xml:space="preserve">0.25494596362114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524099588394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166280031204</t>
   </si>
   <si>
     <t xml:space="preserve">0.242744475603104</t>
@@ -1307,10 +1307,10 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303723573685</t>
+    <t xml:space="preserve">0.250450611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303753376007</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1319,22 +1319,22 @@
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175738930702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386641144753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322641372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597558259964</t>
+    <t xml:space="preserve">0.240175753831863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386656045914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322656273842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597573161125</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323592573404312</t>
+    <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548341751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267485380173</t>
+    <t xml:space="preserve">0.247548326849937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267500281334</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229750737547874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234604597091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368705630302</t>
+    <t xml:space="preserve">0.229750752449036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234604611992836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368720531464</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226514801383018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23298667371273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975249171257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076469421387</t>
+    <t xml:space="preserve">0.22651481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232986658811569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975264072418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076484322548</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">0.238649532198906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312405586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840533256531</t>
+    <t xml:space="preserve">0.244312390685081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
     <t xml:space="preserve">0.241885468363762</t>
@@ -1400,28 +1400,28 @@
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132769465446</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
     <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243503391742706</t>
+    <t xml:space="preserve">0.243503406643867</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739327907562</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256447106599808</t>
+    <t xml:space="preserve">0.25644713640213</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211170434952</t>
+    <t xml:space="preserve">0.253211200237274</t>
   </si>
   <si>
     <t xml:space="preserve">0.254829168319702</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166294932365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25240221619606</t>
+    <t xml:space="preserve">0.249166309833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252402245998383</t>
   </si>
   <si>
     <t xml:space="preserve">0.245121374726295</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683042764664</t>
+    <t xml:space="preserve">0.259683072566986</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301040649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717197179794</t>
+    <t xml:space="preserve">0.261301010847092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717212080956</t>
   </si>
   <si>
     <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221660897135735</t>
+    <t xml:space="preserve">0.221660912036896</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
@@ -1496,46 +1496,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742459177971</t>
+    <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161846280098</t>
+    <t xml:space="preserve">0.245161831378937</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860760211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235699415206909</t>
+    <t xml:space="preserve">0.240860745310783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23569943010807</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280102610588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000531077385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140316843987</t>
+    <t xml:space="preserve">0.238280087709427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000545978546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140301942825</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957487106323</t>
+    <t xml:space="preserve">0.227957472205162</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258588075638</t>
+    <t xml:space="preserve">0.232258602976799</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118802309036</t>
+    <t xml:space="preserve">0.233118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892928600311</t>
+    <t xml:space="preserve">0.209892943501472</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495100736618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215559005737</t>
+    <t xml:space="preserve">0.218495115637779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215544104576</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217634871602058</t>
+    <t xml:space="preserve">0.21763488650322</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355329871178</t>
+    <t xml:space="preserve">0.219355314970016</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516792297363</t>
+    <t xml:space="preserve">0.304516822099686</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839392900467</t>
+    <t xml:space="preserve">0.314839422702789</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678137302399</t>
+    <t xml:space="preserve">0.309678107500076</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420065402985</t>
+    <t xml:space="preserve">0.317420035600662</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398535966873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979178667068</t>
+    <t xml:space="preserve">0.311398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979208469391</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -59516,7 +59516,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6494907407</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>36168</v>
@@ -59537,6 +59537,32 @@
         <v>833</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6495833333</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>4593</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>0.229000002145767</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.230000004172325</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>829</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -44,34 +44,34 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524495601654</t>
+    <t xml:space="preserve">0.162396535277367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524510502815</t>
   </si>
   <si>
     <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836549639702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172555923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159988611936569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15690866112709</t>
+    <t xml:space="preserve">0.161836564540863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172570824623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159988597035408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076806545258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732826113701</t>
+    <t xml:space="preserve">0.150076821446419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309074401855</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
+    <t xml:space="preserve">0.14330093562603</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132969737053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142740964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484894514084</t>
+    <t xml:space="preserve">0.142740979790688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484909415245</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941021800041</t>
@@ -110,37 +110,37 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653504014015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
   </si>
   <si>
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077405452728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277619540691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11311761289835</t>
+    <t xml:space="preserve">0.122077398002148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11227760463953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117597997189</t>
   </si>
   <si>
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597505450249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
     <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131877213716507</t>
+    <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
     <t xml:space="preserve">0.134397134184837</t>
@@ -149,43 +149,43 @@
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716608166695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140494704247</t>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716593265533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140509605408</t>
   </si>
   <si>
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156607627869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167772457003593</t>
+    <t xml:space="preserve">0.160156592726707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396265625954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636208176613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204317688942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596322536469</t>
+    <t xml:space="preserve">0.176396235823631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636223077774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204332590103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17359633743763</t>
   </si>
   <si>
     <t xml:space="preserve">0.176116272807121</t>
@@ -197,34 +197,34 @@
     <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172700330615044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644332051277</t>
+    <t xml:space="preserve">0.172700345516205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340252161026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148334026337</t>
+    <t xml:space="preserve">0.176340267062187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148304224014</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162564545869827</t>
+    <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516521453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460522890091</t>
+    <t xml:space="preserve">0.163516536355019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860486984253</t>
@@ -233,49 +233,49 @@
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644646406174</t>
+    <t xml:space="preserve">0.158644631505013</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916500449181</t>
+    <t xml:space="preserve">0.164916515350342</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159596607089043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428611397743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16301254928112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16362851858139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164468511939049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196792721748</t>
+    <t xml:space="preserve">0.159596621990204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428626298904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163012534379959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163628533482552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16446852684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196777820587</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148396834731102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508861660957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596891641617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.148396849632263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508831858635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596906542778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
@@ -287,13 +287,13 @@
     <t xml:space="preserve">0.1406130194664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144644945859909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145428910851479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144084930419922</t>
+    <t xml:space="preserve">0.144644930958748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145428895950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144084945321083</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700929522514</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156892180443</t>
+    <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
     <t xml:space="preserve">0.146660879254341</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997035264969</t>
+    <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
@@ -335,58 +335,58 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14139698445797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197391629219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997304916382</t>
+    <t xml:space="preserve">0.141396999359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197376728058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997334718704</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130253225564957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12302939593792</t>
+    <t xml:space="preserve">0.130253240466118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123029373586178</t>
   </si>
   <si>
     <t xml:space="preserve">0.122525401413441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112893603742123</t>
+    <t xml:space="preserve">0.112893596291542</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341449975967</t>
+    <t xml:space="preserve">0.120341435074806</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101499974728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381335616112</t>
+    <t xml:space="preserve">0.118101492524147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933496832848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293433010578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381350517273</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237142443657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129805237054825</t>
+    <t xml:space="preserve">0.135237127542496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845122694969</t>
@@ -398,10 +398,10 @@
     <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885158061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661328434944</t>
+    <t xml:space="preserve">0.132885172963142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661313533783</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -410,19 +410,19 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421378433704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461256623268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229288220406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129637241363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128237292170525</t>
+    <t xml:space="preserve">0.123421393334866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461271524429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229303121567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129637256264687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -443,43 +443,43 @@
     <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138933062553406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134453132748604</t>
+    <t xml:space="preserve">0.138933047652245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581107974052</t>
+    <t xml:space="preserve">0.136581093072891</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137813061475754</t>
+    <t xml:space="preserve">0.137813076376915</t>
   </si>
   <si>
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685130953789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901151061058</t>
+    <t xml:space="preserve">0.135685116052628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901136159897</t>
   </si>
   <si>
     <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133781149983406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135853126645088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956999897957</t>
+    <t xml:space="preserve">0.133781164884567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135853096842766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
@@ -488,28 +488,28 @@
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884888410568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604895591736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13182121515274</t>
+    <t xml:space="preserve">0.146884873509407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604880690575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
     <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13596510887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143356963992119</t>
+    <t xml:space="preserve">0.135965123772621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14335697889328</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597205996513</t>
+    <t xml:space="preserve">0.131597191095352</t>
   </si>
   <si>
     <t xml:space="preserve">0.128853261470795</t>
@@ -518,22 +518,22 @@
     <t xml:space="preserve">0.127453297376633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541192531586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685280680656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120677426457405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.131541222333908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821349978447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685265779495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120677433907986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -545,10 +545,10 @@
     <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133557170629501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221164345741</t>
+    <t xml:space="preserve">0.13355715572834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861085891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154556706547737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028782129288</t>
+    <t xml:space="preserve">0.136861100792885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154556721448898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">0.15147677063942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15310075879097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484774589539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14587689936161</t>
+    <t xml:space="preserve">0.153100743889809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484759688377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
     <t xml:space="preserve">0.142236977815628</t>
@@ -587,22 +587,22 @@
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141284987330437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141061007976532</t>
+    <t xml:space="preserve">0.141285002231598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389025211334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141564980149269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141004994511604</t>
+    <t xml:space="preserve">0.140389010310173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14156499505043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -611,22 +611,22 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138821050524712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13467712700367</t>
+    <t xml:space="preserve">0.13882103562355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741114616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133893147110939</t>
+    <t xml:space="preserve">0.135741129517555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405108332634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773190736771</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925223231316</t>
+    <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13053323328495</t>
+    <t xml:space="preserve">0.130533203482628</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
@@ -659,16 +659,16 @@
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13019722700119</t>
+    <t xml:space="preserve">0.132717177271843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13165320456028</t>
+    <t xml:space="preserve">0.131653219461441</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309253931046</t>
+    <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
     <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341165423393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13775709271431</t>
+    <t xml:space="preserve">0.134341135621071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757062911987</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140333011746407</t>
+    <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485059142113</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765066862106</t>
+    <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125130414963</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908810853958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146996885538101</t>
+    <t xml:space="preserve">0.149908795952797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652905106544</t>
+    <t xml:space="preserve">0.146212890744209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652890205383</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
@@ -749,19 +749,19 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972798466682</t>
+    <t xml:space="preserve">0.150972783565521</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996750712395</t>
+    <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15276475250721</t>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">0.153324723243713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
+    <t xml:space="preserve">0.152652740478516</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324872970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144476935267448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147612869739532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144980907440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572969198227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204916596413</t>
+    <t xml:space="preserve">0.146324887871742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144476920366287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147612854838371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144980922341347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572954297066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204901695251</t>
   </si>
   <si>
     <t xml:space="preserve">0.144588932394981</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141116991639137</t>
+    <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
     <t xml:space="preserve">0.144196927547455</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14173299074173</t>
+    <t xml:space="preserve">0.141733005642891</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676992177963</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">0.145540922880173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140794157982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636792182922</t>
+    <t xml:space="preserve">0.151140779256821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636807084084</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220849990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144924908876419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028946757317</t>
+    <t xml:space="preserve">0.147220864892006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14492492377758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
     <t xml:space="preserve">0.143972918391228</t>
@@ -881,19 +881,19 @@
     <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152316763997078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732691287994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308939576149</t>
+    <t xml:space="preserve">0.152316778898239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732706189156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14430895447731</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372927188873</t>
+    <t xml:space="preserve">0.145372912287712</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
@@ -905,55 +905,55 @@
     <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012998461723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900971531868</t>
+    <t xml:space="preserve">0.142012983560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14190100133419</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142460972070694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144140928983688</t>
+    <t xml:space="preserve">0.142460986971855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.140445038676262</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141621008515358</t>
+    <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
     <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141173005104065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142348989844322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124995589256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429060578346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149067759514</t>
+    <t xml:space="preserve">0.141172990202904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142348974943161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124980688095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429045677185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149052858353</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077105998993</t>
+    <t xml:space="preserve">0.136077091097832</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
@@ -971,97 +971,97 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557305455208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317362904549</t>
+    <t xml:space="preserve">0.126557320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317370355129</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127117305994034</t>
+    <t xml:space="preserve">0.127117291092873</t>
   </si>
   <si>
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188155993819237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595109820366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995268344879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315595984459</t>
+    <t xml:space="preserve">0.188156008720398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595124721527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995238542557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315581083298</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23127506673336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635324716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755281090736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355167269707</t>
+    <t xml:space="preserve">0.231275051832199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635294914246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755310893059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355152368546</t>
   </si>
   <si>
     <t xml:space="preserve">0.221195310354233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222875252366066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395337462425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675225257874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315281629562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075309276581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154810905457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115209817886</t>
+    <t xml:space="preserve">0.222875267267227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675210356712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154796004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115239620209</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23407506942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515039086342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635010361671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488491415977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219625934958458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341574072838</t>
+    <t xml:space="preserve">0.234075039625168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515053987503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23463499546051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488506317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625979661942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341588973999</t>
   </si>
   <si>
     <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194656729698</t>
+    <t xml:space="preserve">0.222194686532021</t>
   </si>
   <si>
     <t xml:space="preserve">0.21063543856144</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497950315475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076160788536</t>
+    <t xml:space="preserve">0.199076175689697</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507424116135</t>
+    <t xml:space="preserve">0.193296536803246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507409214973</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874717473984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305980801582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175957635045052</t>
+    <t xml:space="preserve">0.186874732375145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948146343231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305995702744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452898144722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884191274643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176599830389023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791799902916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938687443733</t>
+    <t xml:space="preserve">0.180452883243561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884176373482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176599815487862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791770100594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938672542572</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443439245224</t>
+    <t xml:space="preserve">0.189443409442902</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1142,46 +1142,46 @@
     <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183021619915962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179810732603073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095093488693</t>
+    <t xml:space="preserve">0.183021634817123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179810717701912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095078587532</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663815259933</t>
+    <t xml:space="preserve">0.183663800358772</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526356816292</t>
+    <t xml:space="preserve">0.178526371717453</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17467325925827</t>
+    <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
     <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217057228088379</t>
+    <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17338889837265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169535830616951</t>
+    <t xml:space="preserve">0.173388913273811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16953581571579</t>
   </si>
   <si>
     <t xml:space="preserve">0.17146235704422</t>
@@ -1193,31 +1193,31 @@
     <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168251469731331</t>
+    <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16696709394455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166324928402901</t>
+    <t xml:space="preserve">0.166967079043388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682733058929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260928630829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157976567745209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618733286858</t>
+    <t xml:space="preserve">0.165682718157768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260913729668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157976552844048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471815943718</t>
@@ -1232,43 +1232,43 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163113996386528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161829650402069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156692206859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050026416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407845973969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.163114011287689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161829635500908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156692191958427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050011515617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407831072807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398372173309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737259030342</t>
+    <t xml:space="preserve">0.164398387074471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737244129181</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012161016464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.192012146115303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516912817955</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727785229683</t>
+    <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244028836488724</t>
+    <t xml:space="preserve">0.244028821587563</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
@@ -1295,22 +1295,22 @@
     <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166309833527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744460701942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735031604767</t>
+    <t xml:space="preserve">0.249166265130043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744475603104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
+    <t xml:space="preserve">0.250450640916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386656045914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322656273842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597588062286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881934046745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592603206635</t>
+    <t xml:space="preserve">0.243386641144753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322641372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597558259964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881904244423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592573404312</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,85 +1343,85 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548326849937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267500281334</t>
+    <t xml:space="preserve">0.247548311948776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230559706687927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229750752449036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234604611992836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368720531464</t>
+    <t xml:space="preserve">0.230559721589088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229750737547874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234604597091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177674770355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232986658811569</t>
+    <t xml:space="preserve">0.232177689671516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226514801383018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232986643910408</t>
   </si>
   <si>
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076484322548</t>
+    <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885468363762</t>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24431237578392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840563058853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24188543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357325792313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2370315939188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222580075264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503406643867</t>
+    <t xml:space="preserve">0.248357310891151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237031579017639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132769465446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222609877586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503421545029</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739357709885</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211200237274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254829168319702</t>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25482913851738</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252402245998383</t>
+    <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
     <t xml:space="preserve">0.245121374726295</t>
@@ -1457,25 +1457,25 @@
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26291897892952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.262918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717212080956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22246989607811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660912036896</t>
+    <t xml:space="preserve">0.261301040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717197179794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660897135735</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.271008789539337</t>
+    <t xml:space="preserve">0.27100881934166</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -1493,46 +1493,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742474079132</t>
+    <t xml:space="preserve">0.247742459177971</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161831378937</t>
+    <t xml:space="preserve">0.245161846280098</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860745310783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23569943010807</t>
+    <t xml:space="preserve">0.240860760211945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235699415206909</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280087709427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000545978546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140301942825</t>
+    <t xml:space="preserve">0.238280102610588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000531077385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140316843987</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957472205162</t>
+    <t xml:space="preserve">0.227957487106323</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258602976799</t>
+    <t xml:space="preserve">0.232258588075638</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118772506714</t>
+    <t xml:space="preserve">0.233118802309036</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892943501472</t>
+    <t xml:space="preserve">0.209892928600311</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495115637779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215544104576</t>
+    <t xml:space="preserve">0.218495100736618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215559005737</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21763488650322</t>
+    <t xml:space="preserve">0.217634871602058</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355314970016</t>
+    <t xml:space="preserve">0.219355329871178</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516822099686</t>
+    <t xml:space="preserve">0.304516792297363</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839422702789</t>
+    <t xml:space="preserve">0.314839392900467</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678107500076</t>
+    <t xml:space="preserve">0.309678137302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420035600662</t>
+    <t xml:space="preserve">0.317420065402985</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979208469391</t>
+    <t xml:space="preserve">0.311398535966873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979178667068</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -59617,19 +59617,19 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6493634259</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>100</v>
       </c>
       <c r="C2180" t="n">
-        <v>0.236000001430511</v>
+        <v>0.237000003457069</v>
       </c>
       <c r="D2180" t="n">
-        <v>0.216000005602837</v>
+        <v>0.237000003457069</v>
       </c>
       <c r="E2180" t="n">
-        <v>0.216000005602837</v>
+        <v>0.237000003457069</v>
       </c>
       <c r="F2180" t="n">
         <v>0.237000003457069</v>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524510502815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348525762558</t>
+    <t xml:space="preserve">0.162396550178528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524495601654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172570824623</t>
+    <t xml:space="preserve">0.162172555923462</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340701341629</t>
+    <t xml:space="preserve">0.15534071624279</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076821446419</t>
@@ -74,25 +74,25 @@
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137197077274323</t>
+    <t xml:space="preserve">0.137309089303017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
     <t xml:space="preserve">0.143300950527191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143132969737053</t>
+    <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484894514084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941021800041</t>
+    <t xml:space="preserve">0.145484909415245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653511464596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917541086674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581385076046</t>
+    <t xml:space="preserve">0.117653496563435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077390551567</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597490549088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
+    <t xml:space="preserve">0.117597512900829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981364071369</t>
   </si>
   <si>
     <t xml:space="preserve">0.126837313175201</t>
@@ -149,52 +149,52 @@
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716608166695</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740680336952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160156607627869</t>
+    <t xml:space="preserve">0.156740695238113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160156592726707</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16794042289257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396235823631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836265087128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636223077774</t>
+    <t xml:space="preserve">0.167940437793732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396265625954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836279988289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636208176613</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174996301531792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116243004799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436286091805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796229720116</t>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436315894127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
@@ -203,10 +203,10 @@
     <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996436357498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340252161026</t>
+    <t xml:space="preserve">0.167996421456337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148319125175</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300665974617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
+    <t xml:space="preserve">0.157300651073456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460552692413</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
@@ -233,31 +233,31 @@
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16267654299736</t>
+    <t xml:space="preserve">0.158644616603851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162676528096199</t>
   </si>
   <si>
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636522531509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596621990204</t>
+    <t xml:space="preserve">0.164636507630348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012564182281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163628533482552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16446852684021</t>
+    <t xml:space="preserve">0.16301254928112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16362851858139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164468511939049</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
@@ -269,67 +269,67 @@
     <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508831858635</t>
+    <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613004565239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644945859909</t>
+    <t xml:space="preserve">0.147332862019539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084945321083</t>
+    <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564845323563</t>
+    <t xml:space="preserve">0.148564860224724</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556856274605</t>
+    <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660894155502</t>
+    <t xml:space="preserve">0.146660879254341</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145260915160179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139997035264969</t>
+    <t xml:space="preserve">0.14526093006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132997170090675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137701079249382</t>
+    <t xml:space="preserve">0.132997184991837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137701064348221</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -338,13 +338,13 @@
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197391629219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997334718704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477234721184</t>
+    <t xml:space="preserve">0.123197384178638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997319817543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
@@ -353,43 +353,43 @@
     <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12252539396286</t>
+    <t xml:space="preserve">0.12252538651228</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341435074806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157491087914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101485073566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381350517273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131093204021454</t>
+    <t xml:space="preserve">0.120397448539734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341449975967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157476186752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101477622986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933496832848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293418109417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381335616112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845122694969</t>
+    <t xml:space="preserve">0.129805237054825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845152497292</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
@@ -398,28 +398,28 @@
     <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885158061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661328434944</t>
+    <t xml:space="preserve">0.132885172963142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661343336105</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.127621278166771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229303121567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129637241363525</t>
+    <t xml:space="preserve">0.127229288220406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129637256264687</t>
   </si>
   <si>
     <t xml:space="preserve">0.128237277269363</t>
@@ -428,25 +428,25 @@
     <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128629267215729</t>
+    <t xml:space="preserve">0.128629252314568</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
+    <t xml:space="preserve">0.134453132748604</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
@@ -458,34 +458,34 @@
     <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137813076376915</t>
+    <t xml:space="preserve">0.137813061475754</t>
   </si>
   <si>
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685116052628</t>
+    <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134061142802238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133781164884567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135853096842766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956999897957</t>
+    <t xml:space="preserve">0.1340611577034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133781149983406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135853111743927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14363694190979</t>
+    <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131821200251579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477070093155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13596510887146</t>
+    <t xml:space="preserve">0.13182121515274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477084994316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135965123772621</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045359134674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821357429028</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -548,25 +548,25 @@
     <t xml:space="preserve">0.133557170629501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221179246902</t>
+    <t xml:space="preserve">0.133221164345741</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733155369759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861100792885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154556721448898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15102881193161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150916799902916</t>
+    <t xml:space="preserve">0.134733140468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154556706547737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
     <t xml:space="preserve">0.15147677063942</t>
@@ -578,13 +578,13 @@
     <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145876914262772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236977815628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141229018568993</t>
+    <t xml:space="preserve">0.14587689936161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236992716789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
     <t xml:space="preserve">0.141285002231598</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140109017491341</t>
+    <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389025211334</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005009412766</t>
+    <t xml:space="preserve">0.141004994511604</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -611,85 +611,85 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13882103562355</t>
+    <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693090200424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135741114616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405123233795</t>
+    <t xml:space="preserve">0.136693105101585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135741129517555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405108332634</t>
   </si>
   <si>
     <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773190736771</t>
+    <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131989181041718</t>
+    <t xml:space="preserve">0.13198921084404</t>
   </si>
   <si>
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925208330154</t>
+    <t xml:space="preserve">0.130925223231316</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317228078842</t>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317213177681</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525259137154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133445158600807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717162370682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13019722700119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132493183016777</t>
+    <t xml:space="preserve">0.133445173501968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717177271843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130197241902351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132493197917938</t>
   </si>
   <si>
     <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131261199712753</t>
+    <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309224128723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136917099356651</t>
+    <t xml:space="preserve">0.130309239029884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341135621071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757062911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134117141366005</t>
+    <t xml:space="preserve">0.137757077813148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -698,22 +698,22 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573104023933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765051960945</t>
+    <t xml:space="preserve">0.135573118925095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765066862106</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132661193609238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285166859627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13820506632328</t>
+    <t xml:space="preserve">0.132661178708076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285151958466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138205081224442</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -728,19 +728,19 @@
     <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148340836167336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146212875843048</t>
+    <t xml:space="preserve">0.148340851068497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146268919110298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147668853402138</t>
+    <t xml:space="preserve">0.146268904209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708753943443</t>
+    <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
@@ -776,13 +776,13 @@
     <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152372777462006</t>
+    <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940872073174</t>
+    <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612854838371</t>
+    <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
     <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572954297066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204901695251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14458891749382</t>
+    <t xml:space="preserve">0.142572969198227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204916596413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144588932394981</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412962555885</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">0.143804952502251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143860951066017</t>
+    <t xml:space="preserve">0.143860965967178</t>
   </si>
   <si>
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676992177963</t>
+    <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -842,25 +842,25 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540922880173</t>
+    <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
     <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636792182922</t>
+    <t xml:space="preserve">0.150636807084084</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147836849093437</t>
+    <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228853940964</t>
+    <t xml:space="preserve">0.148228839039803</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220864892006</t>
@@ -869,22 +869,22 @@
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028931856155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972933292389</t>
+    <t xml:space="preserve">0.144028946757317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14397294819355</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147276893258095</t>
+    <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732691287994</t>
+    <t xml:space="preserve">0.155732706189156</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -893,22 +893,22 @@
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372927188873</t>
+    <t xml:space="preserve">0.145372912287712</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144252941012383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141844987869263</t>
+    <t xml:space="preserve">0.144252926111221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141845002770424</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14190100133419</t>
+    <t xml:space="preserve">0.141900971531868</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14414094388485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14094902575016</t>
+    <t xml:space="preserve">0.144140928983688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
     <t xml:space="preserve">0.140445023775101</t>
@@ -935,16 +935,16 @@
     <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141173005104065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.141172990202904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429060578346</t>
+    <t xml:space="preserve">0.138429045677185</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
@@ -959,19 +959,19 @@
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127677291631699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797277808189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129917249083519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126557320356369</t>
+    <t xml:space="preserve">0.133277162909508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127677276730537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797262907028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129917234182358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
     <t xml:space="preserve">0.124317370355129</t>
@@ -980,25 +980,25 @@
     <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127117291092873</t>
+    <t xml:space="preserve">0.127117305994034</t>
   </si>
   <si>
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188156008720398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595139622688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995238542557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315581083298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475722551346</t>
+    <t xml:space="preserve">0.188155993819237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595124721527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995268344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315566182137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
     <t xml:space="preserve">0.23127506673336</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755310893059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355152368546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195325255394</t>
+    <t xml:space="preserve">0.221755281090736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195310354233</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875282168388</t>
@@ -1025,34 +1025,34 @@
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315296530724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
+    <t xml:space="preserve">0.222315281629562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154781103134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115239620209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994939088821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075039625168</t>
+    <t xml:space="preserve">0.225115224719048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994968891144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075024724007</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635025262833</t>
+    <t xml:space="preserve">0.234635010361671</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21962596476078</t>
+    <t xml:space="preserve">0.219625949859619</t>
   </si>
   <si>
     <t xml:space="preserve">0.21834160387516</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.210635453462601</t>
+    <t xml:space="preserve">0.222194656729698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708852529526</t>
+    <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507424116135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.193296507000923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507439017296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1100,10 +1100,10 @@
     <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305995702744</t>
+    <t xml:space="preserve">0.184948176145554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
     <t xml:space="preserve">0.17595762014389</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177241995930672</t>
+    <t xml:space="preserve">0.17724198102951</t>
   </si>
   <si>
     <t xml:space="preserve">0.180452883243561</t>
@@ -1121,19 +1121,19 @@
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176599830389023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791770100594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938687443733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369995474815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443409442902</t>
+    <t xml:space="preserve">0.176599815487862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791799902916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938717246056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369980573654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443439245224</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183021634817123</t>
+    <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
     <t xml:space="preserve">0.179810717701912</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
+    <t xml:space="preserve">0.175315469503403</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172104552388191</t>
+    <t xml:space="preserve">0.17210453748703</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057213187218</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">0.16953581571579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17146235704422</t>
+    <t xml:space="preserve">0.171462371945381</t>
   </si>
   <si>
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170820191502571</t>
+    <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
     <t xml:space="preserve">0.16825145483017</t>
@@ -1202,10 +1202,10 @@
     <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166324928402901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165040567517281</t>
+    <t xml:space="preserve">0.16632491350174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
     <t xml:space="preserve">0.165682718157768</t>
@@ -1214,10 +1214,10 @@
     <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157976552844048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618748188019</t>
+    <t xml:space="preserve">0.157976567745209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471830844879</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
+    <t xml:space="preserve">0.16311402618885</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">0.156692206859589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156050011515617</t>
+    <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
     <t xml:space="preserve">0.159903094172478</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398387074471</t>
+    <t xml:space="preserve">0.164398372173309</t>
   </si>
   <si>
     <t xml:space="preserve">0.181737259030342</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">0.174031108617783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012146115303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516912817955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801273703575</t>
+    <t xml:space="preserve">0.192012175917625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516897916794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801243901253</t>
   </si>
   <si>
     <t xml:space="preserve">0.199718341231346</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.251734972000122</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">0.250450640916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254303753376007</t>
+    <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548311948776</t>
+    <t xml:space="preserve">0.247548341751099</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230559721589088</t>
+    <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
@@ -1367,34 +1367,34 @@
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177689671516</t>
+    <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
     <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232986643910408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975264072418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076499223709</t>
+    <t xml:space="preserve">0.23298667371273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975249171257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076469421387</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649502396584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24431237578392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840563058853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24188543856144</t>
+    <t xml:space="preserve">0.238649532198906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312405586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840533256531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">0.228132769465446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222609877586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503421545029</t>
+    <t xml:space="preserve">0.236222580075264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503391742706</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">0.235413625836372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246739357709885</t>
+    <t xml:space="preserve">0.246739327907562</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25644713640213</t>
+    <t xml:space="preserve">0.256447106599808</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25482913851738</t>
+    <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166265130043</t>
+    <t xml:space="preserve">0.249166294932365</t>
   </si>
   <si>
     <t xml:space="preserve">0.25240221619606</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
+    <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683042764664</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">0.208717197179794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222469910979271</t>
+    <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
     <t xml:space="preserve">0.221660897135735</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27100881934166</t>
+    <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -59672,19 +59672,19 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6493981481</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>20465</v>
       </c>
       <c r="C2182" t="n">
-        <v>0.232999995350838</v>
+        <v>0.234999999403954</v>
       </c>
       <c r="D2182" t="n">
         <v>0.217999994754791</v>
       </c>
       <c r="E2182" t="n">
-        <v>0.216000005602837</v>
+        <v>0.229000002145767</v>
       </c>
       <c r="F2182" t="n">
         <v>0.234999999403954</v>
@@ -59693,6 +59693,32 @@
         <v>825</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.649375</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>160</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>0.238000005483627</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>0.238000005483627</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.238000005483627</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.237000003457069</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>828</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900372624397</t>
+    <t xml:space="preserve">0.169900387525558</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">0.162396550178528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164524495601654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348540663719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836549639702</t>
+    <t xml:space="preserve">0.164524510502815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348525762558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172555923462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159988597035408</t>
+    <t xml:space="preserve">0.159988582134247</t>
   </si>
   <si>
     <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340701341629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076821446419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732826113701</t>
+    <t xml:space="preserve">0.155340686440468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076806545258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309089303017</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">0.14330093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143132969737053</t>
+    <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484894514084</t>
+    <t xml:space="preserve">0.145484909415245</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941036701202</t>
@@ -101,16 +101,16 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
+    <t xml:space="preserve">0.13786906003952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253375291824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653496563435</t>
+    <t xml:space="preserve">0.123253382742405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653511464596</t>
   </si>
   <si>
     <t xml:space="preserve">0.115917541086674</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114853568375111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597497999668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.114853553473949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597490549088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
     <t xml:space="preserve">0.12683729827404</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">0.134397149085999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143916949629784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151252791285515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.143916964530945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151252776384354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716578364372</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740680336952</t>
+    <t xml:space="preserve">0.156740665435791</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396265625954</t>
+    <t xml:space="preserve">0.176396250724792</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636208176613</t>
+    <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173596322536469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116272807121</t>
+    <t xml:space="preserve">0.173596307635307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436300992966</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644332051277</t>
+    <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170236393809319</t>
+    <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
     <t xml:space="preserve">0.162564560770988</t>
@@ -224,25 +224,25 @@
     <t xml:space="preserve">0.163516536355019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163460537791252</t>
+    <t xml:space="preserve">0.163460522890091</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158028647303581</t>
+    <t xml:space="preserve">0.15802863240242</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162676528096199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916515350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636492729187</t>
+    <t xml:space="preserve">0.16267654299736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916500449181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
@@ -257,28 +257,28 @@
     <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468497037888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196792721748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142796978354454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148396849632263</t>
+    <t xml:space="preserve">0.164468511939049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196777820587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142796963453293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
     <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596891641617</t>
+    <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
     <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108852863312</t>
+    <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
     <t xml:space="preserve">0.147332862019539</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700929522514</t>
+    <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -314,13 +314,13 @@
     <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145820900797844</t>
+    <t xml:space="preserve">0.145820885896683</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997020363808</t>
+    <t xml:space="preserve">0.139997035264969</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141396999359131</t>
+    <t xml:space="preserve">0.141397014260292</t>
   </si>
   <si>
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997304916382</t>
+    <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
@@ -362,25 +362,25 @@
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341449975967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157483637333</t>
+    <t xml:space="preserve">0.120341435074806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157498538494</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101492524147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933481931686</t>
+    <t xml:space="preserve">0.117933496832848</t>
   </si>
   <si>
     <t xml:space="preserve">0.121293418109417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125381350517273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.125381335616112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13484513759613</t>
+    <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661328434944</t>
+    <t xml:space="preserve">0.125661313533783</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021272063255</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421378433704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461256623268</t>
+    <t xml:space="preserve">0.123421393334866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
     <t xml:space="preserve">0.127229303121567</t>
@@ -446,10 +446,10 @@
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949145674706</t>
+    <t xml:space="preserve">0.134453162550926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949130773544</t>
   </si>
   <si>
     <t xml:space="preserve">0.136581093072891</t>
@@ -485,10 +485,10 @@
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636971712112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884888410568</t>
+    <t xml:space="preserve">0.143636956810951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884873509407</t>
   </si>
   <si>
     <t xml:space="preserve">0.146604880690575</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477099895477</t>
+    <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">0.127453297376633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541207432747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045329332352</t>
+    <t xml:space="preserve">0.131541222333908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
     <t xml:space="preserve">0.124821357429028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128685265779495</t>
+    <t xml:space="preserve">0.128685250878334</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
@@ -551,13 +551,13 @@
     <t xml:space="preserve">0.133221164345741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135629132390022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733125567436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861085891724</t>
+    <t xml:space="preserve">0.135629147291183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733140468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150916770100594</t>
+    <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
     <t xml:space="preserve">0.151476785540581</t>
@@ -578,13 +578,13 @@
     <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14587689936161</t>
+    <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
     <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141229003667831</t>
+    <t xml:space="preserve">0.141229018568993</t>
   </si>
   <si>
     <t xml:space="preserve">0.141285002231598</t>
@@ -602,16 +602,16 @@
     <t xml:space="preserve">0.14156499505043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005009412766</t>
+    <t xml:space="preserve">0.141005024313927</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13837306201458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13882103562355</t>
+    <t xml:space="preserve">0.138373076915741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741144418716</t>
+    <t xml:space="preserve">0.135741129517555</t>
   </si>
   <si>
     <t xml:space="preserve">0.135405108332634</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">0.131989181041718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157206535339</t>
+    <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
     <t xml:space="preserve">0.130925208330154</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">0.13053323328495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13131719827652</t>
+    <t xml:space="preserve">0.131317213177681</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
+    <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
     <t xml:space="preserve">0.130197241902351</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965258598328</t>
+    <t xml:space="preserve">0.128965273499489</t>
   </si>
   <si>
     <t xml:space="preserve">0.130309239029884</t>
@@ -686,22 +686,22 @@
     <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757077813148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134117156267166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140333011746407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138485059142113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135573133826256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765051960945</t>
+    <t xml:space="preserve">0.137757062911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134117141366005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140333026647568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138485074043274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135573118925095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765037059784</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125115513802</t>
@@ -719,13 +719,13 @@
     <t xml:space="preserve">0.139269039034843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138653054833412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149908810853958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14699687063694</t>
+    <t xml:space="preserve">0.138653069734573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149908795952797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146996855735779</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
@@ -755,10 +755,10 @@
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996735811234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516686081886</t>
+    <t xml:space="preserve">0.153996720910072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516671180725</t>
   </si>
   <si>
     <t xml:space="preserve">0.152764737606049</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708753943443</t>
+    <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372762560844</t>
+    <t xml:space="preserve">0.152652755379677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372747659683</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476920366287</t>
+    <t xml:space="preserve">0.144476905465126</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572969198227</t>
+    <t xml:space="preserve">0.142572984099388</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748953938484</t>
+    <t xml:space="preserve">0.143748968839645</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676992177963</t>
+    <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140794157982</t>
+    <t xml:space="preserve">0.151140779256821</t>
   </si>
   <si>
     <t xml:space="preserve">0.150636807084084</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">0.14783687889576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.149460837244987</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972918391228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076956272125</t>
+    <t xml:space="preserve">0.143972933292389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076941370964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276863455772</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">0.155732706189156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144308939576149</t>
+    <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
+    <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012983560562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900971531868</t>
+    <t xml:space="preserve">0.142012968659401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142460986971855</t>
+    <t xml:space="preserve">0.142461001873016</t>
   </si>
   <si>
     <t xml:space="preserve">0.14414094388485</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.14094902575016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14044500887394</t>
+    <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
     <t xml:space="preserve">0.140556991100311</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129917219281197</t>
+    <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
     <t xml:space="preserve">0.126557305455208</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">0.124317355453968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125437349081039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127117305994034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119837448000908</t>
+    <t xml:space="preserve">0.125437334179878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127117291092873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
     <t xml:space="preserve">0.188155993819237</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">0.229595124721527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.223995268344879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315595984459</t>
+    <t xml:space="preserve">0.223995253443718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315581083298</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475737452507</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755266189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355167269707</t>
+    <t xml:space="preserve">0.221755295991898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355137467384</t>
   </si>
   <si>
     <t xml:space="preserve">0.221195310354233</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">0.222875267267227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218395352363586</t>
+    <t xml:space="preserve">0.218395337462425</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675210356712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315266728401</t>
+    <t xml:space="preserve">0.222315281629562</t>
   </si>
   <si>
     <t xml:space="preserve">0.220075324177742</t>
@@ -1040,10 +1040,10 @@
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23407506942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515024185181</t>
+    <t xml:space="preserve">0.234075039625168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515053987503</t>
   </si>
   <si>
     <t xml:space="preserve">0.234635025262833</t>
@@ -59802,19 +59802,19 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.649375</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>10489</v>
       </c>
       <c r="C2187" t="n">
-        <v>0.234999999403954</v>
+        <v>0.211999997496605</v>
       </c>
       <c r="D2187" t="n">
-        <v>0.216000005602837</v>
+        <v>0.211999997496605</v>
       </c>
       <c r="E2187" t="n">
-        <v>0.234999999403954</v>
+        <v>0.211999997496605</v>
       </c>
       <c r="F2187" t="n">
         <v>0.211999997496605</v>
@@ -59823,6 +59823,32 @@
         <v>870</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.5170138889</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>48731</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>0.210999995470047</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>0.211999997496605</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0.218999996781349</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>864</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
@@ -47,34 +47,34 @@
     <t xml:space="preserve">0.162396550178528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164524510502815</t>
+    <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
     <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836564540863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172555923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159988582134247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156908676028252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155340686440468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076806545258</t>
+    <t xml:space="preserve">0.161836579442024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172570824623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159988597035408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15690866112709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155340701341629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076821446419</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309089303017</t>
+    <t xml:space="preserve">0.137309074401855</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142740979790688</t>
+    <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
@@ -101,25 +101,25 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13786906003952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135517120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253382742405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653511464596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917541086674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077398002148</t>
+    <t xml:space="preserve">0.137869074940681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135517105460167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253375291824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581407427788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
     <t xml:space="preserve">0.112277612090111</t>
@@ -137,28 +137,28 @@
     <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397149085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143916964530945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716578364372</t>
+    <t xml:space="preserve">0.134397134184837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143916949629784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740665435791</t>
+    <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -176,16 +176,16 @@
     <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636223077774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204332590103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596307635307</t>
+    <t xml:space="preserve">0.178636208176613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204317688942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
   </si>
   <si>
     <t xml:space="preserve">0.17611625790596</t>
@@ -206,10 +206,10 @@
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340252161026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148319125175</t>
+    <t xml:space="preserve">0.176340267062187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148304224014</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460522890091</t>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15802863240242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158644646406174</t>
+    <t xml:space="preserve">0.158028647303581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158644631505013</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
@@ -242,49 +242,49 @@
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636507630348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596607089043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428611397743</t>
+    <t xml:space="preserve">0.164636492729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596621990204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
     <t xml:space="preserve">0.163012534379959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163628533482552</t>
+    <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
     <t xml:space="preserve">0.164468511939049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151196777820587</t>
+    <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148396834731102</t>
+    <t xml:space="preserve">0.148396849632263</t>
   </si>
   <si>
     <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596906542778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500857710838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147332862019539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613004565239</t>
+    <t xml:space="preserve">0.145596891641617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500872612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108882665634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1473328769207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700914621353</t>
+    <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145820885896683</t>
+    <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
@@ -335,52 +335,52 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141397014260292</t>
+    <t xml:space="preserve">0.14139698445797</t>
   </si>
   <si>
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997319817543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477234721184</t>
+    <t xml:space="preserve">0.125997334718704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029388487339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122525401413441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893596291542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341435074806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157498538494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101492524147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933496832848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293418109417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381335616112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131093204021454</t>
+    <t xml:space="preserve">0.123029381036758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397455990314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341442525387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157483637333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933504283428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381350517273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
@@ -401,22 +401,22 @@
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661313533783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021272063255</t>
+    <t xml:space="preserve">0.125661343336105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229303121567</t>
+    <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573253750801</t>
+    <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
@@ -440,22 +440,22 @@
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453162550926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949130773544</t>
+    <t xml:space="preserve">0.134453147649765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949160575867</t>
   </si>
   <si>
     <t xml:space="preserve">0.136581093072891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140165001153946</t>
+    <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
     <t xml:space="preserve">0.137813061475754</t>
@@ -464,67 +464,67 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685130953789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901136159897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1340611577034</t>
+    <t xml:space="preserve">0.135685116052628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901121258736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134061142802238</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853126645088</t>
+    <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
     <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381036162376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143636956810951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884873509407</t>
+    <t xml:space="preserve">0.139381051063538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14363694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
     <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13182121515274</t>
+    <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
     <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13596510887146</t>
+    <t xml:space="preserve">0.135965123772621</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136749088764191</t>
+    <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853276371956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453297376633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541222333908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.128853261470795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453282475471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541207432747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045359134674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685250878334</t>
@@ -539,22 +539,22 @@
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613304018974</t>
+    <t xml:space="preserve">0.126613318920135</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13355715572834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221164345741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629147291183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733140468597</t>
+    <t xml:space="preserve">0.133557170629501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221179246902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135629117488861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733125567436</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861100792885</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476785540581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15310075879097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484759688377</t>
+    <t xml:space="preserve">0.15147677063942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153100743889809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484774589539</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141229018568993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141285002231598</t>
+    <t xml:space="preserve">0.141229003667831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
     <t xml:space="preserve">0.141060993075371</t>
@@ -599,52 +599,52 @@
     <t xml:space="preserve">0.140389010310173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14156499505043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141005024313927</t>
+    <t xml:space="preserve">0.141564980149269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138373076915741</t>
+    <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134677141904831</t>
+    <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741129517555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
     <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957134723663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131989181041718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132157191634178</t>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957119822502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13198921084404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132157206535339</t>
   </si>
   <si>
     <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134173169732094</t>
+    <t xml:space="preserve">0.134173139929771</t>
   </si>
   <si>
     <t xml:space="preserve">0.13053323328495</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">0.129525244235992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133445158600807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717177271843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130197241902351</t>
+    <t xml:space="preserve">0.133445173501968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717192173004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965273499489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309239029884</t>
+    <t xml:space="preserve">0.128965258598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
     <t xml:space="preserve">0.136917099356651</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757062911987</t>
+    <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117141366005</t>
@@ -704,28 +704,28 @@
     <t xml:space="preserve">0.138765037059784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135125115513802</t>
+    <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285166859627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138205081224442</t>
+    <t xml:space="preserve">0.134285137057304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138653069734573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149908795952797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146996855735779</t>
+    <t xml:space="preserve">0.138653054833412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149908810853958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">0.14621290564537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145652890205383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146268919110298</t>
+    <t xml:space="preserve">0.145652920007706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
     <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144812926650047</t>
+    <t xml:space="preserve">0.144812911748886</t>
   </si>
   <si>
     <t xml:space="preserve">0.150188818573952</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996720910072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516671180725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152764737606049</t>
+    <t xml:space="preserve">0.153996750712395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516686081886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -776,19 +776,19 @@
     <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152372747659683</t>
+    <t xml:space="preserve">0.152372777462006</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940886974335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146324887871742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144476905465126</t>
+    <t xml:space="preserve">0.146940901875496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146324902772903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572984099388</t>
+    <t xml:space="preserve">0.142572954297066</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748968839645</t>
+    <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540907979012</t>
+    <t xml:space="preserve">0.145540922880173</t>
   </si>
   <si>
     <t xml:space="preserve">0.151140779256821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636807084084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468811392784</t>
+    <t xml:space="preserve">0.150636792182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468796491623</t>
   </si>
   <si>
     <t xml:space="preserve">0.14783687889576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460837244987</t>
+    <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
@@ -866,25 +866,25 @@
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14492492377758</t>
+    <t xml:space="preserve">0.144924908876419</t>
   </si>
   <si>
     <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972933292389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076941370964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276863455772</t>
+    <t xml:space="preserve">0.143972918391228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076956272125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276893258095</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732706189156</t>
+    <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -911,34 +911,34 @@
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142180979251862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142461001873016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14414094388485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14094902575016</t>
+    <t xml:space="preserve">0.1421809643507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142460986971855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144140928983688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
     <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140556991100311</t>
+    <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
+    <t xml:space="preserve">0.138317078351974</t>
   </si>
   <si>
     <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
+    <t xml:space="preserve">0.142348974943161</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
@@ -956,25 +956,25 @@
     <t xml:space="preserve">0.136077105998993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133837148547173</t>
+    <t xml:space="preserve">0.133837163448334</t>
   </si>
   <si>
     <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127677291631699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797277808189</t>
+    <t xml:space="preserve">0.127677276730537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797262907028</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557305455208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317355453968</t>
+    <t xml:space="preserve">0.126557320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317362904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
@@ -989,31 +989,31 @@
     <t xml:space="preserve">0.188155993819237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595124721527</t>
+    <t xml:space="preserve">0.229595139622688</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315581083298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475737452507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275051832199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635309815407</t>
+    <t xml:space="preserve">0.208315566182137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475722551346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231275081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635324716568</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755295991898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355137467384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
+    <t xml:space="preserve">0.227355152368546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195295453072</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875267267227</t>
@@ -1025,22 +1025,22 @@
     <t xml:space="preserve">0.225675210356712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315281629562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154796004295</t>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075353980064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
     <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237994939088821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075039625168</t>
+    <t xml:space="preserve">0.237994953989983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075054526329</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515053987503</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219625949859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341574072838</t>
+    <t xml:space="preserve">0.21962596476078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341588973999</t>
   </si>
   <si>
     <t xml:space="preserve">0.22604775428772</t>
@@ -1064,61 +1064,61 @@
     <t xml:space="preserve">0.222194671630859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210635423660278</t>
+    <t xml:space="preserve">0.21063543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277574300766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708852529526</t>
+    <t xml:space="preserve">0.211277604103088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708867430687</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076145887375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149619460106</t>
+    <t xml:space="preserve">0.199076175689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149604558945</t>
   </si>
   <si>
     <t xml:space="preserve">0.193296536803246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507424116135</t>
+    <t xml:space="preserve">0.196507409214973</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590371489525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186874717473984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305980801582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175957635045052</t>
+    <t xml:space="preserve">0.185590356588364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186874732375145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948146343231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305995702744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175957605242729</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17724198102951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452898144722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884176373482</t>
+    <t xml:space="preserve">0.177241995930672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452883243561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884191274643</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599815487862</t>
@@ -1133,25 +1133,25 @@
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443424344063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194580882787704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159093260765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183021619915962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179810717701912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095078587532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179168552160263</t>
+    <t xml:space="preserve">0.189443409442902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194580897688866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159078359604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183021634817123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179810732603073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095093488693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172104552388191</t>
+    <t xml:space="preserve">0.17210453748703</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057228088379</t>
@@ -1181,19 +1181,19 @@
     <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169535830616951</t>
+    <t xml:space="preserve">0.16953581571579</t>
   </si>
   <si>
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170177981257439</t>
+    <t xml:space="preserve">0.170178011059761</t>
   </si>
   <si>
     <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168251469731331</t>
+    <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
@@ -1205,19 +1205,19 @@
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040567517281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682718157768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260913729668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157976552844048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618748188019</t>
+    <t xml:space="preserve">0.165040552616119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682733058929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260928630829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157976567745209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471815943718</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">0.156050011515617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407845973969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765650629997</t>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407831072807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765665531158</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">0.164398387074471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181737259030342</t>
+    <t xml:space="preserve">0.181737244129181</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">0.192012146115303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187516883015633</t>
+    <t xml:space="preserve">0.187516897916794</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
@@ -1280,76 +1280,76 @@
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223063230515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244028821587563</t>
+    <t xml:space="preserve">0.195223048329353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945933818817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524114489555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166265130043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744490504265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735031604767</t>
+    <t xml:space="preserve">0.254945904016495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524099588394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166280031204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744475603104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303723573685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377182245255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253019392490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175738930702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386641144753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322671175003</t>
+    <t xml:space="preserve">0.250450640916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303753376007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377212047577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253019362688065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175753831863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386670947075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322686076164</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247881934046745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592573404312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262109994888306</t>
+    <t xml:space="preserve">0.247881904244423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592603206635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262109965085983</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548311948776</t>
+    <t xml:space="preserve">0.247548297047615</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941738605499</t>
+    <t xml:space="preserve">0.228941723704338</t>
   </si>
   <si>
     <t xml:space="preserve">0.230559721589088</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604597091675</t>
+    <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226514801383018</t>
+    <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986643910408</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930358767509</t>
+    <t xml:space="preserve">0.245930343866348</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24431237578392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840563058853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24188543856144</t>
+    <t xml:space="preserve">0.244312390685081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132769465446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222609877586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503421545029</t>
+    <t xml:space="preserve">0.228132784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222594976425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24350343644619</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739357709885</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121374726295</t>
+    <t xml:space="preserve">0.245121389627457</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683042764664</t>
+    <t xml:space="preserve">0.259683072566986</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301040649414</t>
+    <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27100881934166</t>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -59828,10 +59828,10 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.5170138889</v>
+        <v>45509.6493518519</v>
       </c>
       <c r="B2188" t="n">
-        <v>48731</v>
+        <v>48831</v>
       </c>
       <c r="C2188" t="n">
         <v>0.221000000834465</v>
@@ -59843,10 +59843,10 @@
         <v>0.211999997496605</v>
       </c>
       <c r="F2188" t="n">
-        <v>0.218999996781349</v>
+        <v>0.217999994754791</v>
       </c>
       <c r="G2188" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="873">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524480700493</t>
+    <t xml:space="preserve">0.162396535277367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
     <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836564540863</t>
+    <t xml:space="preserve">0.161836549639702</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172570824623</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">0.15690866112709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340701341629</t>
+    <t xml:space="preserve">0.155340686440468</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076821446419</t>
@@ -83,19 +83,19 @@
     <t xml:space="preserve">0.143300965428352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143132954835892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484909415245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941036701202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135013118386269</t>
+    <t xml:space="preserve">0.143132969737053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740979790688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484894514084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941021800041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
@@ -107,28 +107,28 @@
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253375291824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653496563435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
+    <t xml:space="preserve">0.123253367841244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581399977207</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112277612090111</t>
+    <t xml:space="preserve">0.112277619540691</t>
   </si>
   <si>
     <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114853553473949</t>
+    <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
     <t xml:space="preserve">0.117597490549088</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.160716578364372</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -161,49 +161,49 @@
     <t xml:space="preserve">0.156740665435791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156607627869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167772442102432</t>
+    <t xml:space="preserve">0.16015662252903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167772457003593</t>
   </si>
   <si>
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396250724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17863617837429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204317688942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17499628663063</t>
+    <t xml:space="preserve">0.176396235823631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636208176613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204302787781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
     <t xml:space="preserve">0.173596307635307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176116287708282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436300992966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796214818954</t>
+    <t xml:space="preserve">0.176116272807121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436315894127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796229720116</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644317150116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996451258659</t>
+    <t xml:space="preserve">0.172644332051277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340252161026</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">0.157300651073456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516521453857</t>
+    <t xml:space="preserve">0.163516536355019</t>
   </si>
   <si>
     <t xml:space="preserve">0.163460522890091</t>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162676557898521</t>
+    <t xml:space="preserve">0.158644616603851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
     <t xml:space="preserve">0.164916485548019</t>
@@ -251,22 +251,22 @@
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012534379959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163628503680229</t>
+    <t xml:space="preserve">0.16301254928112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
     <t xml:space="preserve">0.16446852684021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15119680762291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142796963453293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148396849632263</t>
+    <t xml:space="preserve">0.151196792721748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142796948552132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
     <t xml:space="preserve">0.148508846759796</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108882665634</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">0.1473328769207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1406130194664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644930958748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14542892575264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144084930419922</t>
+    <t xml:space="preserve">0.140613004565239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644945859909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145428910851479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144084945321083</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700914621353</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
+    <t xml:space="preserve">0.147556856274605</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145820885896683</t>
+    <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138597071170807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14139698445797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197376728058</t>
+    <t xml:space="preserve">0.138597056269646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141396999359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197391629219</t>
   </si>
   <si>
     <t xml:space="preserve">0.125997319817543</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">0.130253225564957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029381036758</t>
+    <t xml:space="preserve">0.12302939593792</t>
   </si>
   <si>
     <t xml:space="preserve">0.12252539396286</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397455990314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341457426548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157483637333</t>
+    <t xml:space="preserve">0.120397441089153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341435074806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157491087914</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134845122694969</t>
+    <t xml:space="preserve">0.13484513759613</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
@@ -398,19 +398,19 @@
     <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885187864304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661343336105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021257162094</t>
+    <t xml:space="preserve">0.132885158061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661328434944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021242260933</t>
   </si>
   <si>
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421385884285</t>
+    <t xml:space="preserve">0.123421393334866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129637256264687</t>
+    <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
     <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573253750801</t>
+    <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788974404335</t>
+    <t xml:space="preserve">0.141788989305496</t>
   </si>
   <si>
     <t xml:space="preserve">0.139325052499771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
@@ -452,10 +452,10 @@
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165030956268</t>
+    <t xml:space="preserve">0.136581107974052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
     <t xml:space="preserve">0.137813076376915</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685116052628</t>
+    <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956984996796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139381036162376</t>
+    <t xml:space="preserve">0.141956999897957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139381021261215</t>
   </si>
   <si>
     <t xml:space="preserve">0.14363694190979</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143356963992119</t>
+    <t xml:space="preserve">0.143356949090958</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -515,19 +515,19 @@
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453297376633</t>
+    <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045344233513</t>
+    <t xml:space="preserve">0.125045329332352</t>
   </si>
   <si>
     <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128685250878334</t>
+    <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
@@ -539,28 +539,28 @@
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613318920135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131037205457687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133557170629501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221179246902</t>
+    <t xml:space="preserve">0.126613304018974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131037220358849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13355715572834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221194148064</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733140468597</t>
+    <t xml:space="preserve">0.134733155369759</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556721448898</t>
+    <t xml:space="preserve">0.15455673635006</t>
   </si>
   <si>
     <t xml:space="preserve">0.151028797030449</t>
@@ -581,19 +581,19 @@
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236977815628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141229003667831</t>
+    <t xml:space="preserve">0.142236992716789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141229018568993</t>
   </si>
   <si>
     <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141060993075371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140109032392502</t>
+    <t xml:space="preserve">0.141061007976532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140109017491341</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389025211334</t>
@@ -602,19 +602,19 @@
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005009412766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140725031495094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13837306201458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138821050524712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13467712700367</t>
+    <t xml:space="preserve">0.141004994511604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140725016593933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138373047113419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13882103562355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693090200424</t>
@@ -623,43 +623,43 @@
     <t xml:space="preserve">0.135741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405108332634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1338931620121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773190736771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957119822502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13198921084404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132157206535339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925223231316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173139929771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13053323328495</t>
+    <t xml:space="preserve">0.135405123233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133893147110939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773175835609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957134723663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131989195942879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132157191634178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925208330154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173154830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317228078842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129525244235992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445173501968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717192173004</t>
+    <t xml:space="preserve">0.129525259137154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445158600807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
     <t xml:space="preserve">0.130197241902351</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13165320456028</t>
+    <t xml:space="preserve">0.131653189659119</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117141366005</t>
+    <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -698,19 +698,19 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573104023933</t>
+    <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
     <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135125130414963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661178708076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285137057304</t>
+    <t xml:space="preserve">0.135125145316124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661193609238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285166859627</t>
   </si>
   <si>
     <t xml:space="preserve">0.13820506632328</t>
@@ -725,13 +725,13 @@
     <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146996885538101</t>
+    <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
+    <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14766888320446</t>
+    <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996750712395</t>
+    <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516686081886</t>
@@ -767,28 +767,28 @@
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708768844604</t>
+    <t xml:space="preserve">0.152708753943443</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324753046036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372762560844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148060873150826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146940886974335</t>
+    <t xml:space="preserve">0.152652755379677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372777462006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148060858249664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146940872073174</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476920366287</t>
+    <t xml:space="preserve">0.144476935267448</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572969198227</t>
+    <t xml:space="preserve">0.142572984099388</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144588932394981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143412932753563</t>
+    <t xml:space="preserve">0.14458891749382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143412947654724</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">0.144196942448616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804937601089</t>
+    <t xml:space="preserve">0.143804952502251</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
@@ -836,10 +836,10 @@
     <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141452997922897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143244951963425</t>
+    <t xml:space="preserve">0.141452983021736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
     <t xml:space="preserve">0.145540907979012</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150468796491623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836863994598</t>
+    <t xml:space="preserve">0.150468811392784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147836849093437</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028946757317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972918391228</t>
+    <t xml:space="preserve">0.144028931856155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147276878356934</t>
+    <t xml:space="preserve">0.147276893258095</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900971531868</t>
+    <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -920,22 +920,22 @@
     <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140949010848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140445038676262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557020902634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141620993614197</t>
+    <t xml:space="preserve">0.14094902575016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140445023775101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140557006001472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141621008515358</t>
   </si>
   <si>
     <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141173005104065</t>
+    <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348974943161</t>
@@ -944,40 +944,40 @@
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429060578346</t>
+    <t xml:space="preserve">0.138429075479507</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136637091636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077105998993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133837163448334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133277177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127677276730537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797262907028</t>
+    <t xml:space="preserve">0.136637106537819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077120900154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133837148547173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133277162909508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127677291631699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317362904549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437334179878</t>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317355453968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
     <t xml:space="preserve">0.127117291092873</t>
@@ -995,37 +995,37 @@
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315566182137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
+    <t xml:space="preserve">0.208315581083298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
     <t xml:space="preserve">0.231275096535683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220635324716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755266189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355167269707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195295453072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395367264748</t>
+    <t xml:space="preserve">0.220635309815407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755310893059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355182170868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195325255394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315266728401</t>
+    <t xml:space="preserve">0.222315296530724</t>
   </si>
   <si>
     <t xml:space="preserve">0.220075324177742</t>
@@ -1034,28 +1034,28 @@
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115224719048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994953989983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075054526329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515053987503</t>
+    <t xml:space="preserve">0.225115209817886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994968891144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075039625168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515024185181</t>
   </si>
   <si>
     <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214488491415977</t>
+    <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
     <t xml:space="preserve">0.21962596476078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218341588973999</t>
+    <t xml:space="preserve">0.21834160387516</t>
   </si>
   <si>
     <t xml:space="preserve">0.22604775428772</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277604103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.211277589201927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">0.199076145887375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197149604558945</t>
+    <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
     <t xml:space="preserve">0.193296521902084</t>
@@ -1091,28 +1091,28 @@
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590341687202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874732375145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305995702744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17595762014389</t>
+    <t xml:space="preserve">0.186874717473984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948176145554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305980801582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175957635045052</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177241995930672</t>
+    <t xml:space="preserve">0.177242010831833</t>
   </si>
   <si>
     <t xml:space="preserve">0.180452898144722</t>
@@ -1121,55 +1121,55 @@
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176599815487862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791799902916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938687443733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369980573654</t>
+    <t xml:space="preserve">0.176599830389023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938672542572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
     <t xml:space="preserve">0.189443409442902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194580897688866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159078359604</t>
+    <t xml:space="preserve">0.194580882787704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810717701912</t>
+    <t xml:space="preserve">0.179810732603073</t>
   </si>
   <si>
     <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179168552160263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183663815259933</t>
+    <t xml:space="preserve">0.179168537259102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183663830161095</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526341915131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175315454602242</t>
+    <t xml:space="preserve">0.178526356816292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17531543970108</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
+    <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057228088379</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173388928174973</t>
+    <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
     <t xml:space="preserve">0.16953581571579</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16825145483017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16760927438736</t>
+    <t xml:space="preserve">0.168251469731331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167609289288521</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618733286858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471830844879</t>
+    <t xml:space="preserve">0.158618748188019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334387302399</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
+    <t xml:space="preserve">0.16311402618885</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">0.156692206859589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156050011515617</t>
+    <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
     <t xml:space="preserve">0.159903094172478</t>
@@ -1250,22 +1250,22 @@
     <t xml:space="preserve">0.155407831072807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154765665531158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154123470187187</t>
+    <t xml:space="preserve">0.154765650629997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154123455286026</t>
   </si>
   <si>
     <t xml:space="preserve">0.164398372173309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181737244129181</t>
+    <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
     <t xml:space="preserve">0.17403107881546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012146115303</t>
+    <t xml:space="preserve">0.192012175917625</t>
   </si>
   <si>
     <t xml:space="preserve">0.187516897916794</t>
@@ -1274,13 +1274,13 @@
     <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199718326330185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190727800130844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195223048329353</t>
+    <t xml:space="preserve">0.199718341231346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190727785229683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
     <t xml:space="preserve">0.244028836488724</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
+    <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524099588394</t>
@@ -1301,19 +1301,19 @@
     <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251734972000122</t>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450670719147</t>
+    <t xml:space="preserve">0.250450640916824</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252377212047577</t>
+    <t xml:space="preserve">0.252377182245255</t>
   </si>
   <si>
     <t xml:space="preserve">0.253019362688065</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">0.240175753831863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386670947075</t>
+    <t xml:space="preserve">0.243386656045914</t>
   </si>
   <si>
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597558259964</t>
+    <t xml:space="preserve">0.246597543358803</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881904244423</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240267485380173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228941723704338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559721589088</t>
+    <t xml:space="preserve">0.240267470479012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228941738605499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
@@ -1361,16 +1361,16 @@
     <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231368705630302</t>
+    <t xml:space="preserve">0.231368720531464</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795627951622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177689671516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226514801383018</t>
+    <t xml:space="preserve">0.232177674770355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986658811569</t>
@@ -1379,37 +1379,37 @@
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076469421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930343866348</t>
+    <t xml:space="preserve">0.241076484322548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312390685081</t>
+    <t xml:space="preserve">0.244312360882759</t>
   </si>
   <si>
     <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
   </si>
   <si>
     <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222594976425</t>
+    <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
     <t xml:space="preserve">0.243503406643867</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254829168319702</t>
+    <t xml:space="preserve">0.25482913851738</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784248113632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208717197179794</t>
+    <t xml:space="preserve">0.208717212080956</t>
   </si>
   <si>
     <t xml:space="preserve">0.222469910979271</t>
@@ -1478,16 +1478,16 @@
     <t xml:space="preserve">0.221660912036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225705847144127</t>
+    <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
     <t xml:space="preserve">0.273435741662979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.271008789539337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536947011948</t>
+    <t xml:space="preserve">0.27100881934166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536917209625</t>
   </si>
   <si>
     <t xml:space="preserve">0.260645747184753</t>
@@ -2628,6 +2628,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.211999997496605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20100000500679</t>
   </si>
 </sst>
 </file>
@@ -59883,13 +59886,13 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.6495601852</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>7110</v>
       </c>
       <c r="C2190" t="n">
-        <v>0.20100000500679</v>
+        <v>0.218999996781349</v>
       </c>
       <c r="D2190" t="n">
         <v>0.20100000500679</v>
@@ -59904,6 +59907,32 @@
         <v>865</v>
       </c>
       <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.6336574074</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>12057</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>0.20100000500679</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>0.217999994754791</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0.20100000500679</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>872</v>
+      </c>
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="874">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
+    <t xml:space="preserve">0.162396565079689</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524495601654</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836549639702</t>
+    <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172570824623</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">0.15690866112709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340686440468</t>
+    <t xml:space="preserve">0.15534071624279</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076821446419</t>
@@ -74,31 +74,31 @@
     <t xml:space="preserve">0.148732826113701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309074401855</t>
+    <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300965428352</t>
+    <t xml:space="preserve">0.14330093562603</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132969737053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142740979790688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484894514084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941021800041</t>
+    <t xml:space="preserve">0.142740964889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484909415245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138877049088478</t>
+    <t xml:space="preserve">0.138877063989639</t>
   </si>
   <si>
     <t xml:space="preserve">0.137869074940681</t>
@@ -107,16 +107,16 @@
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253367841244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653511464596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917541086674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581399977207</t>
+    <t xml:space="preserve">0.123253375291824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653496563435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917533636093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077405452728</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123981356620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131877198815346</t>
+    <t xml:space="preserve">0.12398137152195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131877183914185</t>
   </si>
   <si>
     <t xml:space="preserve">0.134397134184837</t>
@@ -149,67 +149,67 @@
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716578364372</t>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740665435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16015662252903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167772457003593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167940437793732</t>
+    <t xml:space="preserve">0.156740680336952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160156607627869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167772442102432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167940452694893</t>
   </si>
   <si>
     <t xml:space="preserve">0.176396235823631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175836265087128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636208176613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204302787781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596307635307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116272807121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436315894127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796229720116</t>
+    <t xml:space="preserve">0.175836279988289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636223077774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204332590103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436300992966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644332051277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996436357498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340252161026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.172644317150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996451258659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340267062187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -221,25 +221,25 @@
     <t xml:space="preserve">0.157300651073456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460522890091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860501885414</t>
+    <t xml:space="preserve">0.163516506552696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860486984253</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644616603851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16267654299736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916485548019</t>
+    <t xml:space="preserve">0.158644631505013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162676557898521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636507630348</t>
@@ -248,52 +248,52 @@
     <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428626298904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16301254928112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16362851858139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16446852684021</t>
+    <t xml:space="preserve">0.159428611397743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163012534379959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163628533482552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164468511939049</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796948552132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148396834731102</t>
+    <t xml:space="preserve">0.142796963453293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148396849632263</t>
   </si>
   <si>
     <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596906542778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500857710838</t>
+    <t xml:space="preserve">0.145596891641617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108882665634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613004565239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644945859909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145428910851479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144084945321083</t>
+    <t xml:space="preserve">0.147332862019539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644930958748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14542892575264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700914621353</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556856274605</t>
+    <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997035264969</t>
+    <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132997170090675</t>
+    <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
     <t xml:space="preserve">0.137701079249382</t>
@@ -335,49 +335,49 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141396999359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197391629219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997319817543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477234721184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253225564957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12302939593792</t>
+    <t xml:space="preserve">0.14139698445797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197376728058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997334718704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477219820023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253240466118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
     <t xml:space="preserve">0.12252539396286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112893603742123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341435074806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157491087914</t>
+    <t xml:space="preserve">0.112893596291542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397455990314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341457426548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933504283428</t>
+    <t xml:space="preserve">0.117933489382267</t>
   </si>
   <si>
     <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125381335616112</t>
+    <t xml:space="preserve">0.125381350517273</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093204021454</t>
@@ -386,31 +386,31 @@
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13484513759613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357248544693</t>
+    <t xml:space="preserve">0.129805237054825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845122694969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357263445854</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885158061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661328434944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021242260933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.132885172963142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661343336105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021257162094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127621278166771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237277269363</t>
+    <t xml:space="preserve">0.128237262368202</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -434,37 +434,37 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139325052499771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.141788974404335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13932503759861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949145674706</t>
+    <t xml:space="preserve">0.134453132748604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949160575867</t>
   </si>
   <si>
     <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140165016055107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137813076376915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135461121797562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685130953789</t>
+    <t xml:space="preserve">0.140165030956268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137813061475754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1354611068964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685116052628</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">0.141956999897957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381021261215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14363694190979</t>
+    <t xml:space="preserve">0.139381051063538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477084994316</t>
+    <t xml:space="preserve">0.137477070093155</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143356949090958</t>
+    <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821335077286</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613304018974</t>
+    <t xml:space="preserve">0.126613318920135</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13355715572834</t>
+    <t xml:space="preserve">0.133557170629501</t>
   </si>
   <si>
     <t xml:space="preserve">0.133221194148064</t>
@@ -554,37 +554,37 @@
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733155369759</t>
+    <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15455673635006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028797030449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150916785001755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151476785540581</t>
+    <t xml:space="preserve">0.154556721448898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150916770100594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151476800441742</t>
   </si>
   <si>
     <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152484759688377</t>
+    <t xml:space="preserve">0.152484774589539</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236992716789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141229018568993</t>
+    <t xml:space="preserve">0.142236977815628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
     <t xml:space="preserve">0.141284987330437</t>
@@ -593,46 +593,46 @@
     <t xml:space="preserve">0.141061007976532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140109017491341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140389025211334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141564980149269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141004994511604</t>
+    <t xml:space="preserve">0.140109032392502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140389010310173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14156499505043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138373047113419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13882103562355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134677141904831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136693090200424</t>
+    <t xml:space="preserve">0.13837306201458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138821050524712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13467712700367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133893147110939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957134723663</t>
+    <t xml:space="preserve">0.135405108332634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1338931620121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957119822502</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925208330154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173154830933</t>
+    <t xml:space="preserve">0.130925238132477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173139929771</t>
   </si>
   <si>
     <t xml:space="preserve">0.130533218383789</t>
@@ -653,34 +653,34 @@
     <t xml:space="preserve">0.131317228078842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129525259137154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445158600807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717177271843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130197241902351</t>
+    <t xml:space="preserve">0.129525244235992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445173501968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717192173004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131653189659119</t>
+    <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965258598328</t>
+    <t xml:space="preserve">0.128965273499489</t>
   </si>
   <si>
     <t xml:space="preserve">0.130309239029884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136917099356651</t>
+    <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341135621071</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117156267166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140333026647568</t>
+    <t xml:space="preserve">0.134117141366005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140333041548729</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485059142113</t>
@@ -704,13 +704,13 @@
     <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135125145316124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661193609238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285166859627</t>
+    <t xml:space="preserve">0.135125130414963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661178708076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
     <t xml:space="preserve">0.13820506632328</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
+    <t xml:space="preserve">0.14621290564537</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">0.150972798466682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149348825216293</t>
+    <t xml:space="preserve">0.149348810315132</t>
   </si>
   <si>
     <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516686081886</t>
+    <t xml:space="preserve">0.156516671180725</t>
   </si>
   <si>
     <t xml:space="preserve">0.152764767408371</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">0.152708753943443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153324753046036</t>
+    <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
     <t xml:space="preserve">0.152652755379677</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940872073174</t>
+    <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476935267448</t>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572984099388</t>
+    <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -821,10 +821,10 @@
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196942448616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804952502251</t>
+    <t xml:space="preserve">0.144196927547455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804937601089</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141452983021736</t>
+    <t xml:space="preserve">0.141452997922897</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244966864586</t>
@@ -845,25 +845,25 @@
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140794157982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636792182922</t>
+    <t xml:space="preserve">0.151140779256821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636777281761</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147836849093437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.147836863994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460837244987</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220864892006</t>
+    <t xml:space="preserve">0.147220879793167</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
@@ -872,19 +872,19 @@
     <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972933292389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076956272125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276893258095</t>
+    <t xml:space="preserve">0.143972918391228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076941370964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732706189156</t>
+    <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -896,85 +896,85 @@
     <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142404973506927</t>
+    <t xml:space="preserve">0.142404958605766</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141844987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142012983560562</t>
+    <t xml:space="preserve">0.141845002770424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142012968659401</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142180979251862</t>
+    <t xml:space="preserve">0.1421809643507</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14414094388485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14094902575016</t>
+    <t xml:space="preserve">0.144140958786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
     <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140557006001472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141621008515358</t>
+    <t xml:space="preserve">0.140557020902634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
     <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141172990202904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.141173005104065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429075479507</t>
+    <t xml:space="preserve">0.138429045677185</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136637106537819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077120900154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133837148547173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133277162909508</t>
+    <t xml:space="preserve">0.136637091636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077105998993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133837163448334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677291631699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128797277808189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129917234182358</t>
+    <t xml:space="preserve">0.128797262907028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129917249083519</t>
   </si>
   <si>
     <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317355453968</t>
+    <t xml:space="preserve">0.124317362904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437349081039</t>
@@ -983,46 +983,46 @@
     <t xml:space="preserve">0.127117291092873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119837455451488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188156008720398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595109820366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995253443718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315581083298</t>
+    <t xml:space="preserve">0.11983747035265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188155993819237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595139622688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995238542557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231275096535683</t>
+    <t xml:space="preserve">0.231275051832199</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755310893059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355182170868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195325255394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875282168388</t>
+    <t xml:space="preserve">0.221755281090736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195295453072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22287529706955</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225675195455551</t>
+    <t xml:space="preserve">0.225675210356712</t>
   </si>
   <si>
     <t xml:space="preserve">0.222315296530724</t>
@@ -1034,37 +1034,37 @@
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115209817886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994968891144</t>
+    <t xml:space="preserve">0.225115224719048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23799492418766</t>
   </si>
   <si>
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515024185181</t>
+    <t xml:space="preserve">0.233515068888664</t>
   </si>
   <si>
     <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214488506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21962596476078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21834160387516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22604775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.210635408759117</t>
+    <t xml:space="preserve">0.214488491415977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341574072838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226047769188881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194656729698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1073,34 +1073,34 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708852529526</t>
+    <t xml:space="preserve">0.208708867430687</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076145887375</t>
+    <t xml:space="preserve">0.199076160788536</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
+    <t xml:space="preserve">0.193296536803246</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865243673325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185590341687202</t>
+    <t xml:space="preserve">0.195865258574486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
     <t xml:space="preserve">0.186874717473984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948176145554</t>
+    <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305980801582</t>
@@ -1112,49 +1112,49 @@
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177242010831833</t>
+    <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
     <t xml:space="preserve">0.180452898144722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177884176373482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176599830389023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791785001755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938672542572</t>
+    <t xml:space="preserve">0.177884191274643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176599815487862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791799902916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938687443733</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443409442902</t>
+    <t xml:space="preserve">0.189443439245224</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188159093260765</t>
+    <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810732603073</t>
+    <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
     <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179168537259102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183663830161095</t>
+    <t xml:space="preserve">0.179168552160263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17531543970108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174673274159431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172104552388191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217057228088379</t>
+    <t xml:space="preserve">0.175315454602242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174673289060593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17210453748703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170820191502571</t>
+    <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
     <t xml:space="preserve">0.168251469731331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167609289288521</t>
+    <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471815943718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157334387302399</t>
+    <t xml:space="preserve">0.162471830844879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157334372401237</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16311402618885</t>
+    <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692206859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050026416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903094172478</t>
+    <t xml:space="preserve">0.156692191958427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050011515617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903109073639</t>
   </si>
   <si>
     <t xml:space="preserve">0.155407831072807</t>
@@ -1253,31 +1253,31 @@
     <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154123455286026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164398372173309</t>
+    <t xml:space="preserve">0.154123470187187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164398387074471</t>
   </si>
   <si>
     <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17403107881546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012175917625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.174031093716621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012161016464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199718341231346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190727785229683</t>
+    <t xml:space="preserve">0.199718326330185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945933818817</t>
+    <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524099588394</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
+    <t xml:space="preserve">0.250450611114502</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">0.240175753831863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386656045914</t>
+    <t xml:space="preserve">0.243386641144753</t>
   </si>
   <si>
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597543358803</t>
+    <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881904244423</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240267470479012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228941738605499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559706687927</t>
+    <t xml:space="preserve">0.240267485380173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228941723704338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559721589088</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
@@ -1361,16 +1361,16 @@
     <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231368720531464</t>
+    <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795627951622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177674770355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22651481628418</t>
+    <t xml:space="preserve">0.232177689671516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986658811569</t>
@@ -1379,37 +1379,37 @@
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076484322548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930358767509</t>
+    <t xml:space="preserve">0.241076469421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930343866348</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312360882759</t>
+    <t xml:space="preserve">0.244312390685081</t>
   </si>
   <si>
     <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241885468363762</t>
+    <t xml:space="preserve">0.241885453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357325792313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2370315939188</t>
+    <t xml:space="preserve">0.248357310891151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
     <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222580075264</t>
+    <t xml:space="preserve">0.236222594976425</t>
   </si>
   <si>
     <t xml:space="preserve">0.243503406643867</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25482913851738</t>
+    <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784248113632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252402245998383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121374726295</t>
+    <t xml:space="preserve">0.25240221619606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121389627457</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683042764664</t>
+    <t xml:space="preserve">0.259683072566986</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208717212080956</t>
+    <t xml:space="preserve">0.208717197179794</t>
   </si>
   <si>
     <t xml:space="preserve">0.222469910979271</t>
@@ -1478,16 +1478,16 @@
     <t xml:space="preserve">0.221660912036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225705832242966</t>
+    <t xml:space="preserve">0.225705847144127</t>
   </si>
   <si>
     <t xml:space="preserve">0.273435741662979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27100881934166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536917209625</t>
+    <t xml:space="preserve">0.271008789539337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536947011948</t>
   </si>
   <si>
     <t xml:space="preserve">0.260645747184753</t>
@@ -2631,6 +2631,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.20100000500679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.216999992728233</t>
   </si>
 </sst>
 </file>
@@ -59912,7 +59915,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6336574074</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>12057</v>
@@ -59933,6 +59936,32 @@
         <v>872</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6496412037</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>6721</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>0.209999993443489</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16990040242672</t>
+    <t xml:space="preserve">0.169900387525558</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396565079689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524495601654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348525762558</t>
+    <t xml:space="preserve">0.162396535277367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524510502815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15690866112709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15534071624279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076821446419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732826113701</t>
+    <t xml:space="preserve">0.156908676028252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155340701341629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076806545258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309089303017</t>
@@ -80,25 +80,25 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14330093562603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132969737053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740964889526</t>
+    <t xml:space="preserve">0.143300950527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132954835892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139941036701202</t>
+    <t xml:space="preserve">0.139941021800041</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138877063989639</t>
+    <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
     <t xml:space="preserve">0.137869074940681</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253375291824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653496563435</t>
+    <t xml:space="preserve">0.123253382742405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653511464596</t>
   </si>
   <si>
     <t xml:space="preserve">0.115917533636093</t>
@@ -122,25 +122,25 @@
     <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112277619540691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117605447769</t>
+    <t xml:space="preserve">0.112277612090111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117597997189</t>
   </si>
   <si>
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597490549088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12683729827404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131877183914185</t>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981364071369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126837313175201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
     <t xml:space="preserve">0.134397134184837</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">0.151252791285515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716593265533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140494704247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156740680336952</t>
+    <t xml:space="preserve">0.160716578364372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140509605408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156740695238113</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -167,25 +167,25 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940452694893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396235823631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636223077774</t>
+    <t xml:space="preserve">0.16794042289257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396265625954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636208176613</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17499628663063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596322536469</t>
+    <t xml:space="preserve">0.174996271729469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17359633743763</t>
   </si>
   <si>
     <t xml:space="preserve">0.17611625790596</t>
@@ -194,22 +194,22 @@
     <t xml:space="preserve">0.174436300992966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177796214818954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700330615044</t>
+    <t xml:space="preserve">0.177796244621277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700345516205</t>
   </si>
   <si>
     <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996451258659</t>
+    <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148319125175</t>
+    <t xml:space="preserve">0.173148304224014</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -221,34 +221,34 @@
     <t xml:space="preserve">0.157300651073456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516506552696</t>
+    <t xml:space="preserve">0.163516521453857</t>
   </si>
   <si>
     <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860486984253</t>
+    <t xml:space="preserve">0.164860516786575</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162676557898521</t>
+    <t xml:space="preserve">0.158644646406174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636507630348</t>
+    <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428611397743</t>
+    <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
     <t xml:space="preserve">0.163012534379959</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468511939049</t>
+    <t xml:space="preserve">0.164468541741371</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
@@ -266,37 +266,37 @@
     <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148396849632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508846759796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596891641617</t>
+    <t xml:space="preserve">0.148396834731102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508831858635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
     <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108882665634</t>
+    <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
     <t xml:space="preserve">0.147332862019539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1406130194664</t>
+    <t xml:space="preserve">0.140613004565239</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14542892575264</t>
+    <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700914621353</t>
+    <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660879254341</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997020363808</t>
+    <t xml:space="preserve">0.139997035264969</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
@@ -335,22 +335,22 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14139698445797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197376728058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997334718704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477219820023</t>
+    <t xml:space="preserve">0.141396999359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197384178638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997319817543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029381036758</t>
+    <t xml:space="preserve">0.12302939593792</t>
   </si>
   <si>
     <t xml:space="preserve">0.12252539396286</t>
@@ -359,10 +359,10 @@
     <t xml:space="preserve">0.112893596291542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397455990314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341457426548</t>
+    <t xml:space="preserve">0.120397448539734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341449975967</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
@@ -371,22 +371,22 @@
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933489382267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381350517273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131093204021454</t>
+    <t xml:space="preserve">0.117933511734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293418109417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381335616112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805237054825</t>
+    <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845122694969</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661343336105</t>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129637241363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128237262368202</t>
+    <t xml:space="preserve">0.129637256264687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128237292170525</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128629267215729</t>
+    <t xml:space="preserve">0.128629252314568</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
@@ -437,40 +437,40 @@
     <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13932503759861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.139325052499771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453132748604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949160575867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136581107974052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165030956268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137813061475754</t>
+    <t xml:space="preserve">0.134453147649765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949130773544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136581093072891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165016055107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137813076376915</t>
   </si>
   <si>
     <t xml:space="preserve">0.1354611068964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685116052628</t>
+    <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134061142802238</t>
+    <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956999897957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139381051063538</t>
+    <t xml:space="preserve">0.141956984996796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
     <t xml:space="preserve">0.143636956810951</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604880690575</t>
+    <t xml:space="preserve">0.146604895591736</t>
   </si>
   <si>
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477070093155</t>
+    <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453282475471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541207432747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821335077286</t>
+    <t xml:space="preserve">0.127453297376633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541222333908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045329332352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821342527866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613318920135</t>
+    <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037220358849</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">0.133557170629501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221194148064</t>
+    <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
@@ -560,16 +560,16 @@
     <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556721448898</t>
+    <t xml:space="preserve">0.154556706547737</t>
   </si>
   <si>
     <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150916770100594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151476800441742</t>
+    <t xml:space="preserve">0.150916785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151476785540581</t>
   </si>
   <si>
     <t xml:space="preserve">0.15310075879097</t>
@@ -581,16 +581,16 @@
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236977815628</t>
+    <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141284987330437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141061007976532</t>
+    <t xml:space="preserve">0.141285002231598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">0.140389010310173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14156499505043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141005009412766</t>
+    <t xml:space="preserve">0.141564980149269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141004994511604</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13467712700367</t>
+    <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">0.135405108332634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1338931620121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773190736771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957119822502</t>
+    <t xml:space="preserve">0.133893147110939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773175835609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
@@ -641,16 +641,16 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925238132477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173139929771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317228078842</t>
+    <t xml:space="preserve">0.130925223231316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173154830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317213177681</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">0.133445173501968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
+    <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
     <t xml:space="preserve">0.13019722700119</t>
@@ -671,13 +671,13 @@
     <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131261214613914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128965273499489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309239029884</t>
+    <t xml:space="preserve">0.131261199712753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128965258598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
     <t xml:space="preserve">0.13691708445549</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117141366005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140333041548729</t>
+    <t xml:space="preserve">0.134117156267166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573118925095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765051960945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125130414963</t>
+    <t xml:space="preserve">0.135573133826256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765066862106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125145316124</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13820506632328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139269039034843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138653054833412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149908810853958</t>
+    <t xml:space="preserve">0.138205081224442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139269024133682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138653069734573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149908795952797</t>
   </si>
   <si>
     <t xml:space="preserve">0.14699687063694</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
+    <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
@@ -740,34 +740,34 @@
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14766888320446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144812926650047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150188818573952</t>
+    <t xml:space="preserve">0.147668868303299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144812911748886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150188833475113</t>
   </si>
   <si>
     <t xml:space="preserve">0.150972798466682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149348810315132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996735811234</t>
+    <t xml:space="preserve">0.149348825216293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996720910072</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516671180725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.15276475250721</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708753943443</t>
+    <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
@@ -776,13 +776,13 @@
     <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152372777462006</t>
+    <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940886974335</t>
+    <t xml:space="preserve">0.146940872073174</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980907440186</t>
+    <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
     <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145204916596413</t>
+    <t xml:space="preserve">0.145204901695251</t>
   </si>
   <si>
     <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143412947654724</t>
+    <t xml:space="preserve">0.143412962555885</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748953938484</t>
+    <t xml:space="preserve">0.143748968839645</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804937601089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860951066017</t>
+    <t xml:space="preserve">0.143804952502251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860965967178</t>
   </si>
   <si>
     <t xml:space="preserve">0.14173299074173</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">0.151140779256821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636777281761</t>
+    <t xml:space="preserve">0.150636807084084</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
@@ -857,25 +857,25 @@
     <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460837244987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148228853940964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220879793167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14492492377758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028931856155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972918391228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076941370964</t>
+    <t xml:space="preserve">0.149460822343826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148228839039803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220864892006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144924938678741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028946757317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14397294819355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732691287994</t>
+    <t xml:space="preserve">0.155732706189156</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372927188873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404958605766</t>
+    <t xml:space="preserve">0.145372912287712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404988408089</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
@@ -905,19 +905,19 @@
     <t xml:space="preserve">0.141845002770424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012968659401</t>
+    <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1421809643507</t>
+    <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144140958786011</t>
+    <t xml:space="preserve">0.144140928983688</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
@@ -926,16 +926,16 @@
     <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140557020902634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141620993614197</t>
+    <t xml:space="preserve">0.140557006001472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141620978713036</t>
   </si>
   <si>
     <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141173005104065</t>
+    <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348989844322</t>
@@ -944,22 +944,22 @@
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429045677185</t>
+    <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136637091636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077105998993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133837163448334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133277177810669</t>
+    <t xml:space="preserve">0.136637106537819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077120900154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133837148547173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133277162909508</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677291631699</t>
@@ -968,94 +968,94 @@
     <t xml:space="preserve">0.128797262907028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129917249083519</t>
+    <t xml:space="preserve">0.129917219281197</t>
   </si>
   <si>
     <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317362904549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437349081039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127117291092873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11983747035265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188155993819237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595139622688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995238542557</t>
+    <t xml:space="preserve">0.124317370355129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437334179878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127117305994034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119837462902069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188156008720398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595124721527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995223641396</t>
   </si>
   <si>
     <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200475737452507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275051832199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635309815407</t>
+    <t xml:space="preserve">0.200475752353668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23127506673336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635294914246</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355167269707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195295453072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22287529706955</t>
+    <t xml:space="preserve">0.227355182170868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225675210356712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315296530724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
+    <t xml:space="preserve">0.225675195455551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315281629562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115224719048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23799492418766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075039625168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515068888664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635025262833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488491415977</t>
+    <t xml:space="preserve">0.225115239620209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994968891144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075024724007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515039086342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635010361671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
     <t xml:space="preserve">0.219625949859619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218341574072838</t>
+    <t xml:space="preserve">0.21834160387516</t>
   </si>
   <si>
     <t xml:space="preserve">0.226047769188881</t>
@@ -1073,52 +1073,52 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076160788536</t>
+    <t xml:space="preserve">0.199076175689697</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296536803246</t>
+    <t xml:space="preserve">0.193296507000923</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874717473984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948161244392</t>
+    <t xml:space="preserve">0.186874732375145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948176145554</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175957635045052</t>
+    <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177241995930672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452898144722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884191274643</t>
+    <t xml:space="preserve">0.17724198102951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452883243561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599815487862</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938687443733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369995474815</t>
+    <t xml:space="preserve">0.193938717246056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369980573654</t>
   </si>
   <si>
     <t xml:space="preserve">0.189443439245224</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181095093488693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179168552160263</t>
+    <t xml:space="preserve">0.181095078587532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174673289060593</t>
+    <t xml:space="preserve">0.175315469503403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
     <t xml:space="preserve">0.17210453748703</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186232522130013</t>
+    <t xml:space="preserve">0.186232507228851</t>
   </si>
   <si>
     <t xml:space="preserve">0.173388913273811</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">0.16953581571579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17146235704422</t>
+    <t xml:space="preserve">0.171462371945381</t>
   </si>
   <si>
     <t xml:space="preserve">0.1701779961586</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168251469731331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16760927438736</t>
+    <t xml:space="preserve">0.16825145483017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167609289288521</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682733058929</t>
+    <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
     <t xml:space="preserve">0.159260928630829</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618748188019</t>
+    <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471830844879</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
+    <t xml:space="preserve">0.16311402618885</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692191958427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050011515617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903109073639</t>
+    <t xml:space="preserve">0.156692206859589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050026416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903094172478</t>
   </si>
   <si>
     <t xml:space="preserve">0.155407831072807</t>
@@ -1256,25 +1256,25 @@
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398387074471</t>
+    <t xml:space="preserve">0.164398372173309</t>
   </si>
   <si>
     <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174031093716621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012161016464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516883015633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801258802414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199718326330185</t>
+    <t xml:space="preserve">0.174031108617783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012175917625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516897916794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801243901253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237607032060623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254945904016495</t>
+    <t xml:space="preserve">0.237607002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524099588394</t>
@@ -1301,16 +1301,16 @@
     <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.251734972000122</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
+    <t xml:space="preserve">0.250450640916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1319,22 +1319,22 @@
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175753831863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386641144753</t>
+    <t xml:space="preserve">0.240175738930702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386656045914</t>
   </si>
   <si>
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597558259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592603206635</t>
+    <t xml:space="preserve">0.246597573161125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592573404312</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,58 +1343,58 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548326849937</t>
+    <t xml:space="preserve">0.247548341751099</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941723704338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559721589088</t>
+    <t xml:space="preserve">0.228941738605499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604611992836</t>
+    <t xml:space="preserve">0.234604597091675</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233795627951622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232177689671516</t>
+    <t xml:space="preserve">0.233795642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
     <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232986658811569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975264072418</t>
+    <t xml:space="preserve">0.23298667371273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975249171257</t>
   </si>
   <si>
     <t xml:space="preserve">0.241076469421387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930343866348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649502396584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.245930358767509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649532198906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312405586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840533256531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,34 +1406,34 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222594976425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503406643867</t>
+    <t xml:space="preserve">0.228132769465446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222580075264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503391742706</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739327907562</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065074682236</t>
+    <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25644713640213</t>
+    <t xml:space="preserve">0.256447106599808</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
@@ -1445,97 +1445,97 @@
     <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250784248113632</t>
+    <t xml:space="preserve">0.250784277915955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166294932365</t>
   </si>
   <si>
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.26291897892952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
+    <t xml:space="preserve">0.261301040649414</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222469910979271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660912036896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225705847144127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435741662979</t>
+    <t xml:space="preserve">0.22246989607811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660897135735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225705832242966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
     <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264536947011948</t>
+    <t xml:space="preserve">0.264536917209625</t>
   </si>
   <si>
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065104484558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247742474079132</t>
+    <t xml:space="preserve">0.247742459177971</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161831378937</t>
+    <t xml:space="preserve">0.245161846280098</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860745310783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23569943010807</t>
+    <t xml:space="preserve">0.240860760211945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235699415206909</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280087709427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000545978546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140301942825</t>
+    <t xml:space="preserve">0.238280102610588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000531077385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140316843987</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957472205162</t>
+    <t xml:space="preserve">0.227957487106323</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258602976799</t>
+    <t xml:space="preserve">0.232258588075638</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118772506714</t>
+    <t xml:space="preserve">0.233118802309036</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892943501472</t>
+    <t xml:space="preserve">0.209892928600311</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495115637779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215544104576</t>
+    <t xml:space="preserve">0.218495100736618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215559005737</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21763488650322</t>
+    <t xml:space="preserve">0.217634871602058</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355314970016</t>
+    <t xml:space="preserve">0.219355329871178</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516822099686</t>
+    <t xml:space="preserve">0.304516792297363</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839422702789</t>
+    <t xml:space="preserve">0.314839392900467</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678107500076</t>
+    <t xml:space="preserve">0.309678137302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420035600662</t>
+    <t xml:space="preserve">0.317420065402985</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979208469391</t>
+    <t xml:space="preserve">0.311398535966873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979178667068</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -27641,7 +27641,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27693,7 +27693,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27719,7 +27719,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27771,7 +27771,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27901,7 +27901,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28031,7 +28031,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28317,7 +28317,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28525,7 +28525,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28837,7 +28837,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28941,7 +28941,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28993,7 +28993,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29071,7 +29071,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29097,7 +29097,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29201,7 +29201,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29227,7 +29227,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29253,7 +29253,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29279,7 +29279,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29617,7 +29617,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29643,7 +29643,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29695,7 +29695,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29721,7 +29721,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29825,7 +29825,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29877,7 +29877,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30111,7 +30111,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30345,7 +30345,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30553,7 +30553,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30579,7 +30579,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30683,7 +30683,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30787,7 +30787,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31125,7 +31125,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31177,7 +31177,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31567,7 +31567,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31593,7 +31593,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31619,7 +31619,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31645,7 +31645,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31671,7 +31671,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31723,7 +31723,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31775,7 +31775,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31853,7 +31853,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31879,7 +31879,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31905,7 +31905,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31957,7 +31957,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32217,7 +32217,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32243,7 +32243,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37547,7 +37547,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -59941,7 +59941,7 @@
     </row>
     <row r="2192">
       <c r="A2192" s="1" t="n">
-        <v>45513.6496412037</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B2192" t="n">
         <v>6721</v>
@@ -59962,6 +59962,32 @@
         <v>873</v>
       </c>
       <c r="H2192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="1" t="n">
+        <v>45516.6494444444</v>
+      </c>
+      <c r="B2193" t="n">
+        <v>900</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2193" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524510502815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348540663719</t>
+    <t xml:space="preserve">0.162396565079689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524495601654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156908676028252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155340701341629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076806545258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732841014862</t>
+    <t xml:space="preserve">0.15690866112709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15534071624279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076821446419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732826113701</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309089303017</t>
@@ -80,25 +80,25 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132954835892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740979790688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484909415245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941021800041</t>
+    <t xml:space="preserve">0.14330093562603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132969737053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740964889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484894514084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138877049088478</t>
+    <t xml:space="preserve">0.138877063989639</t>
   </si>
   <si>
     <t xml:space="preserve">0.137869074940681</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253382742405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653511464596</t>
+    <t xml:space="preserve">0.123253375291824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653496563435</t>
   </si>
   <si>
     <t xml:space="preserve">0.115917533636093</t>
@@ -122,22 +122,22 @@
     <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112277612090111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117597997189</t>
+    <t xml:space="preserve">0.112277619540691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597497999668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981364071369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
+    <t xml:space="preserve">0.117597505450249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">0.151252791285515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716578364372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140509605408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156740695238113</t>
+    <t xml:space="preserve">0.160716593265533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140494704247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16794042289257</t>
+    <t xml:space="preserve">0.167940452694893</t>
   </si>
   <si>
     <t xml:space="preserve">0.176396265625954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175836265087128</t>
+    <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636208176613</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17611625790596</t>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116272807121</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436300992966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177796244621277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700345516205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644317150116</t>
+    <t xml:space="preserve">0.177796214818954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700330615044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -218,22 +218,22 @@
     <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300651073456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516521453857</t>
+    <t xml:space="preserve">0.157300665974617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516506552696</t>
   </si>
   <si>
     <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860516786575</t>
+    <t xml:space="preserve">0.164860486984253</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644646406174</t>
+    <t xml:space="preserve">0.158644631505013</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
@@ -242,22 +242,22 @@
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636492729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596607089043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428626298904</t>
+    <t xml:space="preserve">0.164636507630348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596621990204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428611397743</t>
   </si>
   <si>
     <t xml:space="preserve">0.163012534379959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163628533482552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164468541741371</t>
+    <t xml:space="preserve">0.16362851858139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164468511939049</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
@@ -266,13 +266,13 @@
     <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148396834731102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508831858635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596906542778</t>
+    <t xml:space="preserve">0.148396849632263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508846759796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596891641617</t>
   </si>
   <si>
     <t xml:space="preserve">0.147500872612</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">0.147332862019539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140613004565239</t>
+    <t xml:space="preserve">0.1406130194664</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145428910851479</t>
+    <t xml:space="preserve">0.14542892575264</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084930419922</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156892180443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660879254341</t>
+    <t xml:space="preserve">0.146156907081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997035264969</t>
+    <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
@@ -335,22 +335,22 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141396999359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197384178638</t>
+    <t xml:space="preserve">0.14139698445797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197391629219</t>
   </si>
   <si>
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477234721184</t>
+    <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12302939593792</t>
+    <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
     <t xml:space="preserve">0.12252539396286</t>
@@ -359,10 +359,10 @@
     <t xml:space="preserve">0.112893596291542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397448539734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341449975967</t>
+    <t xml:space="preserve">0.120397441089153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341457426548</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933511734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293418109417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381335616112</t>
+    <t xml:space="preserve">0.117933489382267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381350517273</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093218922615</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
+    <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129357263445854</t>
+    <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661328434944</t>
+    <t xml:space="preserve">0.125661343336105</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129637256264687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128237292170525</t>
+    <t xml:space="preserve">0.129637241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128629252314568</t>
+    <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
@@ -437,40 +437,40 @@
     <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139325052499771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.13932503759861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949130773544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136581093072891</t>
+    <t xml:space="preserve">0.134453132748604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949160575867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137813076376915</t>
+    <t xml:space="preserve">0.137813061475754</t>
   </si>
   <si>
     <t xml:space="preserve">0.1354611068964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685130953789</t>
+    <t xml:space="preserve">0.135685116052628</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1340611577034</t>
+    <t xml:space="preserve">0.134061142802238</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
@@ -482,25 +482,25 @@
     <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381036162376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143636956810951</t>
+    <t xml:space="preserve">0.139381051063538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143636971712112</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604895591736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131821200251579</t>
+    <t xml:space="preserve">0.146604880690575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
     <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13596510887146</t>
+    <t xml:space="preserve">0.135965093970299</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453297376633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541222333908</t>
+    <t xml:space="preserve">0.127453282475471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
     <t xml:space="preserve">0.125045329332352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821342527866</t>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613304018974</t>
+    <t xml:space="preserve">0.126613318920135</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037220358849</t>
@@ -551,28 +551,28 @@
     <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135629117488861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733140468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861100792885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154556706547737</t>
+    <t xml:space="preserve">0.1356291025877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733125567436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
     <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150916785001755</t>
+    <t xml:space="preserve">0.150916770100594</t>
   </si>
   <si>
     <t xml:space="preserve">0.151476785540581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15310075879097</t>
+    <t xml:space="preserve">0.153100743889809</t>
   </si>
   <si>
     <t xml:space="preserve">0.152484774589539</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236992716789</t>
+    <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141285002231598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141060993075371</t>
+    <t xml:space="preserve">0.141284987330437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141061007976532</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389010310173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141564980149269</t>
+    <t xml:space="preserve">0.140389025211334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14156499505043</t>
   </si>
   <si>
     <t xml:space="preserve">0.141004994511604</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134677141904831</t>
+    <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957134723663</t>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957119822502</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">0.130925223231316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134173154830933</t>
+    <t xml:space="preserve">0.134173139929771</t>
   </si>
   <si>
     <t xml:space="preserve">0.13053323328495</t>
@@ -659,25 +659,25 @@
     <t xml:space="preserve">0.133445173501968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717177271843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13019722700119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132493183016777</t>
+    <t xml:space="preserve">0.132717207074165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130197241902351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132493197917938</t>
   </si>
   <si>
     <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131261199712753</t>
+    <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309224128723</t>
+    <t xml:space="preserve">0.130309239029884</t>
   </si>
   <si>
     <t xml:space="preserve">0.13691708445549</t>
@@ -698,13 +698,13 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573133826256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765066862106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125145316124</t>
+    <t xml:space="preserve">0.135573118925095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765051960945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
@@ -713,25 +713,25 @@
     <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138205081224442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139269024133682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138653069734573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149908795952797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14699687063694</t>
+    <t xml:space="preserve">0.13820506632328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139269039034843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138653054833412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149908810853958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146996885538101</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
+    <t xml:space="preserve">0.14621290564537</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
@@ -740,13 +740,13 @@
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812911748886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150188833475113</t>
+    <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
     <t xml:space="preserve">0.150972798466682</t>
@@ -755,19 +755,19 @@
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996720910072</t>
+    <t xml:space="preserve">0.153996750712395</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516671180725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15276475250721</t>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708768844604</t>
+    <t xml:space="preserve">0.152708753943443</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
@@ -776,13 +776,13 @@
     <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152372762560844</t>
+    <t xml:space="preserve">0.152372777462006</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940872073174</t>
+    <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980922341347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572969198227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204901695251</t>
+    <t xml:space="preserve">0.144980907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572954297066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
     <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143412962555885</t>
+    <t xml:space="preserve">0.143412947654724</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748968839645</t>
+    <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804952502251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860965967178</t>
+    <t xml:space="preserve">0.143804937601089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
     <t xml:space="preserve">0.14173299074173</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">0.151140779256821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636807084084</t>
+    <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228839039803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220864892006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144924938678741</t>
+    <t xml:space="preserve">0.148228853940964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220879793167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
     <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14397294819355</t>
+    <t xml:space="preserve">0.143972918391228</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732706189156</t>
+    <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404988408089</t>
+    <t xml:space="preserve">0.145372927188873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
@@ -908,16 +908,16 @@
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900986433029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142180979251862</t>
+    <t xml:space="preserve">0.141900971531868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1421809643507</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144140928983688</t>
+    <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
@@ -926,22 +926,22 @@
     <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140557006001472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141620978713036</t>
+    <t xml:space="preserve">0.140557020902634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
     <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141172990202904</t>
+    <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142124980688095</t>
+    <t xml:space="preserve">0.142124995589256</t>
   </si>
   <si>
     <t xml:space="preserve">0.138429060578346</t>
@@ -950,16 +950,16 @@
     <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136637106537819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077120900154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133837148547173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133277162909508</t>
+    <t xml:space="preserve">0.136637091636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077105998993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133837163448334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677291631699</t>
@@ -968,94 +968,94 @@
     <t xml:space="preserve">0.128797262907028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129917219281197</t>
+    <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
     <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317370355129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437334179878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127117305994034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119837462902069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188156008720398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595124721527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995223641396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315566182137</t>
+    <t xml:space="preserve">0.124317362904549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437349081039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127117291092873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119837455451488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188155993819237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595109820366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995268344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315581083298</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23127506673336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635294914246</t>
+    <t xml:space="preserve">0.231275051832199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355182170868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875282168388</t>
+    <t xml:space="preserve">0.227355197072029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195295453072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875267267227</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225675195455551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315281629562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
+    <t xml:space="preserve">0.225675210356712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115239620209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994968891144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075024724007</t>
+    <t xml:space="preserve">0.225115224719048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23799492418766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23407506942749</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635010361671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488506317139</t>
+    <t xml:space="preserve">0.234635025262833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
     <t xml:space="preserve">0.219625949859619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21834160387516</t>
+    <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
     <t xml:space="preserve">0.226047769188881</t>
@@ -1073,52 +1073,52 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708882331848</t>
+    <t xml:space="preserve">0.208708867430687</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076175689697</t>
+    <t xml:space="preserve">0.199076160788536</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296507000923</t>
+    <t xml:space="preserve">0.193296536803246</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865243673325</t>
+    <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874732375145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948176145554</t>
+    <t xml:space="preserve">0.186874717473984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17595762014389</t>
+    <t xml:space="preserve">0.175957635045052</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17724198102951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452883243561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884176373482</t>
+    <t xml:space="preserve">0.177241995930672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452898144722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884191274643</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599815487862</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938717246056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369980573654</t>
+    <t xml:space="preserve">0.193938687443733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
     <t xml:space="preserve">0.189443439245224</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181095078587532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179168537259102</t>
+    <t xml:space="preserve">0.181095093488693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179168552160263</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315469503403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174673274159431</t>
+    <t xml:space="preserve">0.175315454602242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174673289060593</t>
   </si>
   <si>
     <t xml:space="preserve">0.17210453748703</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186232507228851</t>
+    <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
     <t xml:space="preserve">0.173388913273811</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">0.16953581571579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462371945381</t>
+    <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
     <t xml:space="preserve">0.1701779961586</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16825145483017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167609289288521</t>
+    <t xml:space="preserve">0.168251469731331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682718157768</t>
+    <t xml:space="preserve">0.165682733058929</t>
   </si>
   <si>
     <t xml:space="preserve">0.159260928630829</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618733286858</t>
+    <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471830844879</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16311402618885</t>
+    <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692206859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050026416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903094172478</t>
+    <t xml:space="preserve">0.156692191958427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050011515617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903109073639</t>
   </si>
   <si>
     <t xml:space="preserve">0.155407831072807</t>
@@ -1256,25 +1256,25 @@
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398372173309</t>
+    <t xml:space="preserve">0.164398387074471</t>
   </si>
   <si>
     <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174031108617783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012175917625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801243901253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199718341231346</t>
+    <t xml:space="preserve">0.174031093716621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012161016464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801258802414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237607002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254945933818817</t>
+    <t xml:space="preserve">0.237607032060623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524099588394</t>
@@ -1301,16 +1301,16 @@
     <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251734972000122</t>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303723573685</t>
+    <t xml:space="preserve">0.250450611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303753376007</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1319,22 +1319,22 @@
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175738930702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386656045914</t>
+    <t xml:space="preserve">0.240175753831863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386641144753</t>
   </si>
   <si>
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597573161125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881934046745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592573404312</t>
+    <t xml:space="preserve">0.246597558259964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881904244423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,58 +1343,58 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548341751099</t>
+    <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941738605499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559706687927</t>
+    <t xml:space="preserve">0.228941723704338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559721589088</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604597091675</t>
+    <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233795642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232177674770355</t>
+    <t xml:space="preserve">0.233795627951622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
     <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23298667371273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975249171257</t>
+    <t xml:space="preserve">0.232986658811569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
     <t xml:space="preserve">0.241076469421387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930358767509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312405586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840533256531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885468363762</t>
+    <t xml:space="preserve">0.245930343866348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312390685081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,136 +1406,136 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132769465446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222580075264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503391742706</t>
+    <t xml:space="preserve">0.228132784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222594976425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503406643867</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739327907562</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
+    <t xml:space="preserve">0.258065074682236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257256090641022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25644713640213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255638152360916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254829168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784248113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25240221619606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121389627457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251593232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683072566986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25887405872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261301010847092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717197179794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225705847144127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271008789539337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536947011948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.260645747184753</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257256090641022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.256447106599808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255638152360916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253211170434952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254829168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784277915955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166294932365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121374726295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251593232154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26291897892952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683042764664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25887405872345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261301040649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22246989607811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660897135735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225705832242966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536917209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260645747184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247742459177971</t>
+    <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161846280098</t>
+    <t xml:space="preserve">0.245161831378937</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860760211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235699415206909</t>
+    <t xml:space="preserve">0.240860745310783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23569943010807</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280102610588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000531077385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140316843987</t>
+    <t xml:space="preserve">0.238280087709427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000545978546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140301942825</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957487106323</t>
+    <t xml:space="preserve">0.227957472205162</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258588075638</t>
+    <t xml:space="preserve">0.232258602976799</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118802309036</t>
+    <t xml:space="preserve">0.233118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892928600311</t>
+    <t xml:space="preserve">0.209892943501472</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495100736618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215559005737</t>
+    <t xml:space="preserve">0.218495115637779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215544104576</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217634871602058</t>
+    <t xml:space="preserve">0.21763488650322</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355329871178</t>
+    <t xml:space="preserve">0.219355314970016</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516792297363</t>
+    <t xml:space="preserve">0.304516822099686</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839392900467</t>
+    <t xml:space="preserve">0.314839422702789</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678137302399</t>
+    <t xml:space="preserve">0.309678107500076</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420065402985</t>
+    <t xml:space="preserve">0.317420035600662</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398535966873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979178667068</t>
+    <t xml:space="preserve">0.311398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979208469391</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -27641,7 +27641,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27693,7 +27693,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27719,7 +27719,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27771,7 +27771,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27901,7 +27901,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28031,7 +28031,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28317,7 +28317,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28525,7 +28525,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28837,7 +28837,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28941,7 +28941,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28993,7 +28993,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29071,7 +29071,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29097,7 +29097,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29201,7 +29201,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29227,7 +29227,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29253,7 +29253,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29279,7 +29279,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29617,7 +29617,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29643,7 +29643,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29695,7 +29695,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29721,7 +29721,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29825,7 +29825,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29877,7 +29877,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30111,7 +30111,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30345,7 +30345,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30553,7 +30553,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30579,7 +30579,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30683,7 +30683,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30787,7 +30787,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31125,7 +31125,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31177,7 +31177,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31567,7 +31567,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31593,7 +31593,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31619,7 +31619,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31645,7 +31645,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31671,7 +31671,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31723,7 +31723,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31775,7 +31775,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31853,7 +31853,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31879,7 +31879,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31905,7 +31905,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31957,7 +31957,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32217,7 +32217,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32243,7 +32243,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37547,7 +37547,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -59967,7 +59967,7 @@
     </row>
     <row r="2193">
       <c r="A2193" s="1" t="n">
-        <v>45516.6494444444</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B2193" t="n">
         <v>900</v>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524510502815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348540663719</t>
+    <t xml:space="preserve">0.162396565079689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524495601654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156908676028252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155340701341629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076806545258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732841014862</t>
+    <t xml:space="preserve">0.15690866112709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15534071624279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076821446419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732826113701</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309089303017</t>
@@ -80,25 +80,25 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
+    <t xml:space="preserve">0.14330093562603</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132969737053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142740979790688</t>
+    <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139941021800041</t>
+    <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138877049088478</t>
+    <t xml:space="preserve">0.138877063989639</t>
   </si>
   <si>
     <t xml:space="preserve">0.137869074940681</t>
@@ -107,34 +107,34 @@
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253382742405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653511464596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917526185513</t>
+    <t xml:space="preserve">0.123253375291824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653496563435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917533636093</t>
   </si>
   <si>
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077398002148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11227760463953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117597997189</t>
+    <t xml:space="preserve">0.122077405452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277619540691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597497999668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
+    <t xml:space="preserve">0.117597490549088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
   </si>
   <si>
     <t xml:space="preserve">0.12683729827404</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">0.134397134184837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143916934728622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716578364372</t>
+    <t xml:space="preserve">0.143916949629784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740695238113</t>
+    <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16794042289257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396265625954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836265087128</t>
+    <t xml:space="preserve">0.167940452694893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396235823631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
@@ -182,28 +182,28 @@
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116272807121</t>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436300992966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177796244621277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700345516205</t>
+    <t xml:space="preserve">0.177796214818954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
     <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996436357498</t>
+    <t xml:space="preserve">0.167996451258659</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340267062187</t>
@@ -218,37 +218,37 @@
     <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300665974617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516521453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460522890091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860501885414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15802863240242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158644646406174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16267654299736</t>
+    <t xml:space="preserve">0.157300651073456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516506552696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860486984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158028647303581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158644631505013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162676557898521</t>
   </si>
   <si>
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636477828026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596592187881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428626298904</t>
+    <t xml:space="preserve">0.164636507630348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596607089043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428611397743</t>
   </si>
   <si>
     <t xml:space="preserve">0.163012534379959</t>
@@ -257,10 +257,10 @@
     <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16446852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196777820587</t>
+    <t xml:space="preserve">0.164468511939049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">0.145596891641617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500857710838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108867764473</t>
+    <t xml:space="preserve">0.147500872612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108882665634</t>
   </si>
   <si>
     <t xml:space="preserve">0.147332862019539</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145428910851479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144084915518761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144700929522514</t>
+    <t xml:space="preserve">0.14542892575264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144084930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -308,16 +308,16 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156892180443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660909056664</t>
+    <t xml:space="preserve">0.146156907081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145260900259018</t>
+    <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
     <t xml:space="preserve">0.139997020363808</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997319817543</t>
+    <t xml:space="preserve">0.125997334718704</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477219820023</t>
@@ -350,79 +350,79 @@
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029388487339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122525401413441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893603742123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341449975967</t>
+    <t xml:space="preserve">0.123029381036758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893596291542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397455990314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341457426548</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101492524147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933496832848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293418109417</t>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933489382267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381350517273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13484513759613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357248544693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134789153933525</t>
+    <t xml:space="preserve">0.129805237054825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845122694969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357263445854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661313533783</t>
+    <t xml:space="preserve">0.125661343336105</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.127621278166771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229303121567</t>
+    <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237292170525</t>
+    <t xml:space="preserve">0.128237262368202</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -431,31 +431,31 @@
     <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155676677823067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.155676692724228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949145674706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136581093072891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165016055107</t>
+    <t xml:space="preserve">0.134453132748604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949160575867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136581107974052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165030956268</t>
   </si>
   <si>
     <t xml:space="preserve">0.137813061475754</t>
@@ -464,40 +464,40 @@
     <t xml:space="preserve">0.1354611068964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685130953789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901121258736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1340611577034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133781179785728</t>
+    <t xml:space="preserve">0.135685116052628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901136159897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134061142802238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956984996796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139381036162376</t>
+    <t xml:space="preserve">0.141956999897957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139381051063538</t>
   </si>
   <si>
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884903311729</t>
+    <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
     <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13182121515274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477084994316</t>
+    <t xml:space="preserve">0.131821200251579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477070093155</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
@@ -509,22 +509,22 @@
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597191095352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128853276371956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453297376633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541222333908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
+    <t xml:space="preserve">0.131597205996513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128853261470795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453282475471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541207432747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821335077286</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -533,25 +533,25 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613304018974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131037205457687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13355715572834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221179246902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629132390022</t>
+    <t xml:space="preserve">0.126613318920135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131037220358849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133557170629501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221194148064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
     <t xml:space="preserve">0.134733140468597</t>
@@ -560,16 +560,16 @@
     <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556706547737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.154556721448898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916770100594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476785540581</t>
+    <t xml:space="preserve">0.151476800441742</t>
   </si>
   <si>
     <t xml:space="preserve">0.15310075879097</t>
@@ -587,10 +587,10 @@
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141285002231598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141060993075371</t>
+    <t xml:space="preserve">0.141284987330437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141061007976532</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
@@ -605,16 +605,16 @@
     <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140725031495094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138373076915741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13882103562355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134677141904831</t>
+    <t xml:space="preserve">0.140725016593933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13837306201458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138821050524712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">0.135741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405123233795</t>
+    <t xml:space="preserve">0.135405108332634</t>
   </si>
   <si>
     <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957134723663</t>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957119822502</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
@@ -641,22 +641,22 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925223231316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173154830933</t>
+    <t xml:space="preserve">0.130925238132477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173139929771</t>
   </si>
   <si>
     <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13131719827652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525229334831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445158600807</t>
+    <t xml:space="preserve">0.131317228078842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525244235992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445173501968</t>
   </si>
   <si>
     <t xml:space="preserve">0.132717192173004</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965243697166</t>
+    <t xml:space="preserve">0.128965273499489</t>
   </si>
   <si>
     <t xml:space="preserve">0.130309239029884</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">0.134117141366005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140333026647568</t>
+    <t xml:space="preserve">0.140333041548729</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485059142113</t>
@@ -707,19 +707,19 @@
     <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132661193609238</t>
+    <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
     <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138205081224442</t>
+    <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138653069734573</t>
+    <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
     <t xml:space="preserve">0.149908810853958</t>
@@ -731,43 +731,43 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652890205383</t>
+    <t xml:space="preserve">0.14621290564537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150188833475113</t>
+    <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
     <t xml:space="preserve">0.150972798466682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149348825216293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996720910072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516686081886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152764737606049</t>
+    <t xml:space="preserve">0.149348810315132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996735811234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516671180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708768844604</t>
+    <t xml:space="preserve">0.152708753943443</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152372762560844</t>
+    <t xml:space="preserve">0.152372777462006</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476905465126</t>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144588932394981</t>
+    <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140836998820305</t>
+    <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
     <t xml:space="preserve">0.141117006540298</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141732975840569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141676992177963</t>
+    <t xml:space="preserve">0.14173299074173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140794157982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636807084084</t>
+    <t xml:space="preserve">0.151140779256821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636777281761</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
@@ -857,46 +857,46 @@
     <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.149460837244987</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220864892006</t>
+    <t xml:space="preserve">0.147220879793167</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028946757317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14397294819355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076956272125</t>
+    <t xml:space="preserve">0.144028931856155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972918391228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076941370964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152316778898239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732706189156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308939576149</t>
+    <t xml:space="preserve">0.152316763997078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732691287994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404988408089</t>
+    <t xml:space="preserve">0.145372927188873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404958605766</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
@@ -905,19 +905,19 @@
     <t xml:space="preserve">0.141845002770424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012983560562</t>
+    <t xml:space="preserve">0.142012968659401</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142180979251862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142461001873016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14414094388485</t>
+    <t xml:space="preserve">0.1421809643507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142460986971855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144140958786011</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
@@ -926,28 +926,28 @@
     <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140556991100311</t>
+    <t xml:space="preserve">0.140557020902634</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317048549652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141172990202904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.138317063450813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141173005104065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429060578346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149052858353</t>
+    <t xml:space="preserve">0.138429045677185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637091636658</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">0.136077105998993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133837148547173</t>
+    <t xml:space="preserve">0.133837163448334</t>
   </si>
   <si>
     <t xml:space="preserve">0.133277177810669</t>
@@ -965,31 +965,31 @@
     <t xml:space="preserve">0.127677291631699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128797277808189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129917234182358</t>
+    <t xml:space="preserve">0.128797262907028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129917249083519</t>
   </si>
   <si>
     <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317355453968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437334179878</t>
+    <t xml:space="preserve">0.124317362904549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
     <t xml:space="preserve">0.127117291092873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119837455451488</t>
+    <t xml:space="preserve">0.11983747035265</t>
   </si>
   <si>
     <t xml:space="preserve">0.188155993819237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595124721527</t>
+    <t xml:space="preserve">0.229595139622688</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995238542557</t>
@@ -998,25 +998,25 @@
     <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200475752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23127506673336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635294914246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755295991898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355152368546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875252366066</t>
+    <t xml:space="preserve">0.200475737452507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231275051832199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635309815407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755281090736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195295453072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22287529706955</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395352363586</t>
@@ -1025,37 +1025,37 @@
     <t xml:space="preserve">0.225675210356712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315266728401</t>
+    <t xml:space="preserve">0.222315296530724</t>
   </si>
   <si>
     <t xml:space="preserve">0.220075324177742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244154796004295</t>
+    <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
     <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237994939088821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075009822845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515024185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23463499546051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488506317139</t>
+    <t xml:space="preserve">0.23799492418766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075039625168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515068888664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635025262833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
     <t xml:space="preserve">0.219625949859619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218341588973999</t>
+    <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
     <t xml:space="preserve">0.226047769188881</t>
@@ -1073,64 +1073,64 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708882331848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205497950315475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199076175689697</t>
+    <t xml:space="preserve">0.208708867430687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.205497965216637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199076160788536</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296507000923</t>
+    <t xml:space="preserve">0.193296536803246</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865243673325</t>
+    <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874732375145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948176145554</t>
+    <t xml:space="preserve">0.186874717473984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17595762014389</t>
+    <t xml:space="preserve">0.175957635045052</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17724198102951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452883243561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884176373482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1765998005867</t>
+    <t xml:space="preserve">0.177241995930672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452898144722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884191274643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938702344894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369965672493</t>
+    <t xml:space="preserve">0.193938687443733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
     <t xml:space="preserve">0.189443439245224</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">0.194580882787704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188159093260765</t>
+    <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181095078587532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179168537259102</t>
+    <t xml:space="preserve">0.181095093488693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179168552160263</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315469503403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174673274159431</t>
+    <t xml:space="preserve">0.175315454602242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174673289060593</t>
   </si>
   <si>
     <t xml:space="preserve">0.17210453748703</t>
@@ -1193,34 +1193,34 @@
     <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16825145483017</t>
+    <t xml:space="preserve">0.168251469731331</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166967079043388</t>
+    <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040537714958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682718157768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260913729668</t>
+    <t xml:space="preserve">0.165040552616119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682733058929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618733286858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471815943718</t>
+    <t xml:space="preserve">0.158618748188019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334372401237</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16311402618885</t>
+    <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">0.156692191958427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156050026416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903094172478</t>
+    <t xml:space="preserve">0.156050011515617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903109073639</t>
   </si>
   <si>
     <t xml:space="preserve">0.155407831072807</t>
@@ -1256,22 +1256,22 @@
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398372173309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737244129181</t>
+    <t xml:space="preserve">0.164398387074471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012175917625</t>
+    <t xml:space="preserve">0.192012161016464</t>
   </si>
   <si>
     <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188801229000092</t>
+    <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
     <t xml:space="preserve">0.199718326330185</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244028821587563</t>
+    <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248524084687233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166265130043</t>
+    <t xml:space="preserve">0.248524099588394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166280031204</t>
   </si>
   <si>
     <t xml:space="preserve">0.242744475603104</t>
@@ -1307,10 +1307,10 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303723573685</t>
+    <t xml:space="preserve">0.250450611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303753376007</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1319,22 +1319,22 @@
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175738930702</t>
+    <t xml:space="preserve">0.240175753831863</t>
   </si>
   <si>
     <t xml:space="preserve">0.243386641144753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236322641372681</t>
+    <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247881934046745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592573404312</t>
+    <t xml:space="preserve">0.247881904244423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,58 +1343,58 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548341751099</t>
+    <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941738605499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559706687927</t>
+    <t xml:space="preserve">0.228941723704338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559721589088</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604597091675</t>
+    <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233795642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232177674770355</t>
+    <t xml:space="preserve">0.233795627951622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
     <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23298667371273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975249171257</t>
+    <t xml:space="preserve">0.232986658811569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
     <t xml:space="preserve">0.241076469421387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930358767509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312405586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840533256531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885468363762</t>
+    <t xml:space="preserve">0.245930343866348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312390685081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,136 +1406,136 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132769465446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222580075264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503391742706</t>
+    <t xml:space="preserve">0.228132784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222594976425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503406643867</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739327907562</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
+    <t xml:space="preserve">0.258065074682236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257256090641022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25644713640213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255638152360916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254829168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784248113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25240221619606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121389627457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251593232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683072566986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25887405872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261301010847092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717197179794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225705847144127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271008789539337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536947011948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.260645747184753</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257256090641022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.256447106599808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255638152360916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253211170434952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254829168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784277915955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166294932365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121374726295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251593232154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26291897892952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683042764664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25887405872345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261301040649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22246989607811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660897135735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225705832242966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536917209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260645747184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247742459177971</t>
+    <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161846280098</t>
+    <t xml:space="preserve">0.245161831378937</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860760211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235699415206909</t>
+    <t xml:space="preserve">0.240860745310783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23569943010807</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280102610588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000531077385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140316843987</t>
+    <t xml:space="preserve">0.238280087709427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000545978546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140301942825</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957487106323</t>
+    <t xml:space="preserve">0.227957472205162</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258588075638</t>
+    <t xml:space="preserve">0.232258602976799</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118802309036</t>
+    <t xml:space="preserve">0.233118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892928600311</t>
+    <t xml:space="preserve">0.209892943501472</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495100736618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215559005737</t>
+    <t xml:space="preserve">0.218495115637779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215544104576</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217634871602058</t>
+    <t xml:space="preserve">0.21763488650322</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355329871178</t>
+    <t xml:space="preserve">0.219355314970016</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516792297363</t>
+    <t xml:space="preserve">0.304516822099686</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839392900467</t>
+    <t xml:space="preserve">0.314839422702789</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678137302399</t>
+    <t xml:space="preserve">0.309678107500076</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420065402985</t>
+    <t xml:space="preserve">0.317420035600662</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398535966873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979178667068</t>
+    <t xml:space="preserve">0.311398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979208469391</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -27641,7 +27641,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27693,7 +27693,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27719,7 +27719,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27771,7 +27771,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27901,7 +27901,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28031,7 +28031,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28317,7 +28317,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28525,7 +28525,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28837,7 +28837,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28941,7 +28941,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28993,7 +28993,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29071,7 +29071,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29097,7 +29097,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29201,7 +29201,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29227,7 +29227,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29253,7 +29253,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29279,7 +29279,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29617,7 +29617,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29643,7 +29643,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29695,7 +29695,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29721,7 +29721,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29825,7 +29825,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29877,7 +29877,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30111,7 +30111,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30345,7 +30345,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30553,7 +30553,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30579,7 +30579,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30683,7 +30683,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30787,7 +30787,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31125,7 +31125,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31177,7 +31177,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31567,7 +31567,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31593,7 +31593,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31619,7 +31619,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31645,7 +31645,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31671,7 +31671,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31723,7 +31723,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31775,7 +31775,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31853,7 +31853,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31879,7 +31879,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31905,7 +31905,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31957,7 +31957,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32217,7 +32217,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32243,7 +32243,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37547,7 +37547,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -60253,7 +60253,7 @@
     </row>
     <row r="2204">
       <c r="A2204" s="1" t="n">
-        <v>45532.578912037</v>
+        <v>45532.2916666667</v>
       </c>
       <c r="B2204" t="n">
         <v>821</v>
@@ -60274,6 +60274,32 @@
         <v>838</v>
       </c>
       <c r="H2204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="1" t="n">
+        <v>45533.6493171296</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>310</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2205" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
+    <t xml:space="preserve">0.162396535277367</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524495601654</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076806545258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732826113701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137309074401855</t>
+    <t xml:space="preserve">0.150076821446419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732841014862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142740964889526</t>
+    <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
@@ -101,58 +101,58 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135517120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253390192986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653496563435</t>
+    <t xml:space="preserve">0.13786906003952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135517135262489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253397643566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653511464596</t>
   </si>
   <si>
     <t xml:space="preserve">0.115917541086674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122581392526627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077390551567</t>
+    <t xml:space="preserve">0.122581385076046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
     <t xml:space="preserve">0.112277619540691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113117605447769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853553473949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597505450249</t>
+    <t xml:space="preserve">0.113117590546608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114853568375111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
     <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877213716507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397134184837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143916934728622</t>
+    <t xml:space="preserve">0.134397149085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
     <t xml:space="preserve">0.151252791285515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716608166695</t>
+    <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -164,22 +164,22 @@
     <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167772442102432</t>
+    <t xml:space="preserve">0.167772427201271</t>
   </si>
   <si>
     <t xml:space="preserve">0.16794042289257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396250724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
+    <t xml:space="preserve">0.176396235823631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204332590103</t>
+    <t xml:space="preserve">0.173204317688942</t>
   </si>
   <si>
     <t xml:space="preserve">0.17499628663063</t>
@@ -188,28 +188,28 @@
     <t xml:space="preserve">0.173596322536469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176116272807121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436286091805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796214818954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700330615044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644332051277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996451258659</t>
+    <t xml:space="preserve">0.17611625790596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436300992966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796229720116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700345516205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644317150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340281963348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">0.162564545869827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300665974617</t>
+    <t xml:space="preserve">0.157300680875778</t>
   </si>
   <si>
     <t xml:space="preserve">0.163516536355019</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860486984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158028647303581</t>
+    <t xml:space="preserve">0.164860501885414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15802863240242</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644631505013</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916500449181</t>
+    <t xml:space="preserve">0.164916485548019</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636507630348</t>
@@ -248,10 +248,10 @@
     <t xml:space="preserve">0.159596621990204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428641200066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163012534379959</t>
+    <t xml:space="preserve">0.159428626298904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
     <t xml:space="preserve">0.16362851858139</t>
@@ -263,31 +263,31 @@
     <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796978354454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148396849632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508846759796</t>
+    <t xml:space="preserve">0.142796963453293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148396834731102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508831858635</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108882665634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613004565239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644930958748</t>
+    <t xml:space="preserve">0.147332862019539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644945859909</t>
   </si>
   <si>
     <t xml:space="preserve">0.145428910851479</t>
@@ -296,40 +296,40 @@
     <t xml:space="preserve">0.144084945321083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700929522514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148564845323563</t>
+    <t xml:space="preserve">0.144700914621353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148564860224724</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988881587982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
+    <t xml:space="preserve">0.147556856274605</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156892180443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660894155502</t>
+    <t xml:space="preserve">0.146660909056664</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14526093006134</t>
+    <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
     <t xml:space="preserve">0.139997035264969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139437034726143</t>
+    <t xml:space="preserve">0.139437049627304</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701064348221</t>
+    <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -356,22 +356,22 @@
     <t xml:space="preserve">0.12252539396286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112893611192703</t>
+    <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397455990314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341442525387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157483637333</t>
+    <t xml:space="preserve">0.120341435074806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157491087914</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933489382267</t>
+    <t xml:space="preserve">0.117933504283428</t>
   </si>
   <si>
     <t xml:space="preserve">0.121293425559998</t>
@@ -380,10 +380,10 @@
     <t xml:space="preserve">0.125381350517273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093218922615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135237112641335</t>
+    <t xml:space="preserve">0.131093204021454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
     <t xml:space="preserve">0.129805251955986</t>
@@ -392,64 +392,64 @@
     <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129357263445854</t>
+    <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789124131203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885172963142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661343336105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021257162094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127621278166771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421385884285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461256623268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229288220406</t>
+    <t xml:space="preserve">0.132885158061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661328434944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021272063255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127621307969093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421393334866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461271524429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237277269363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128573253750801</t>
+    <t xml:space="preserve">0.128237262368202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155676692724228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141788974404335</t>
+    <t xml:space="preserve">0.155676707625389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141788989305496</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138933047652245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134453132748604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949160575867</t>
+    <t xml:space="preserve">0.138261079788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138933032751083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134453147649765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
     <t xml:space="preserve">0.136581107974052</t>
@@ -458,19 +458,19 @@
     <t xml:space="preserve">0.140165030956268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137813061475754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1354611068964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685116052628</t>
+    <t xml:space="preserve">0.137813076376915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135461121797562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901121258736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134061142802238</t>
+    <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956984996796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139381051063538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143636956810951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884903311729</t>
+    <t xml:space="preserve">0.141956999897957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139381036162376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14363694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
     <t xml:space="preserve">0.146604880690575</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477084994316</t>
+    <t xml:space="preserve">0.137477070093155</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853261470795</t>
+    <t xml:space="preserve">0.128853276371956</t>
   </si>
   <si>
     <t xml:space="preserve">0.127453282475471</t>
@@ -527,28 +527,28 @@
     <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128685250878334</t>
+    <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.128405258059502</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613318920135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131037205457687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133557170629501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221179246902</t>
+    <t xml:space="preserve">0.126613289117813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131037220358849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13355715572834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221164345741</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861085891724</t>
+    <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150916785001755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151476785540581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15310075879097</t>
+    <t xml:space="preserve">0.150916799902916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15147677063942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153100743889809</t>
   </si>
   <si>
     <t xml:space="preserve">0.152484759688377</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141229003667831</t>
+    <t xml:space="preserve">0.141229018568993</t>
   </si>
   <si>
     <t xml:space="preserve">0.141284987330437</t>
@@ -593,31 +593,31 @@
     <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140109047293663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140389010310173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141564980149269</t>
+    <t xml:space="preserve">0.140109017491341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140389025211334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14156499505043</t>
   </si>
   <si>
     <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140725031495094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13837306201458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138821050524712</t>
+    <t xml:space="preserve">0.140725016593933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138373076915741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13882103562355</t>
   </si>
   <si>
     <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693105101585</t>
+    <t xml:space="preserve">0.136693090200424</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741114616394</t>
@@ -629,13 +629,13 @@
     <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773190736771</t>
+    <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131989195942879</t>
+    <t xml:space="preserve">0.13198921084404</t>
   </si>
   <si>
     <t xml:space="preserve">0.132157191634178</t>
@@ -644,28 +644,28 @@
     <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134173139929771</t>
+    <t xml:space="preserve">0.134173169732094</t>
   </si>
   <si>
     <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131317213177681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525244235992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445173501968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717192173004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13019722700119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132493197917938</t>
+    <t xml:space="preserve">0.131317228078842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525259137154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445158600807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717177271843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130197241902351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
     <t xml:space="preserve">0.131653219461441</t>
@@ -680,28 +680,28 @@
     <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136917099356651</t>
+    <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757077813148</t>
+    <t xml:space="preserve">0.137757062911987</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140333041548729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138485074043274</t>
+    <t xml:space="preserve">0.140333026647568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765037059784</t>
+    <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125130414963</t>
@@ -710,19 +710,19 @@
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285137057304</t>
+    <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
     <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139269053936005</t>
+    <t xml:space="preserve">0.139269024133682</t>
   </si>
   <si>
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908795952797</t>
+    <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
     <t xml:space="preserve">0.146996885538101</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145652905106544</t>
+    <t xml:space="preserve">0.145652890205383</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972798466682</t>
+    <t xml:space="preserve">0.150972783565521</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
@@ -764,16 +764,16 @@
     <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154164731502533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152708753943443</t>
+    <t xml:space="preserve">0.154164716601372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
+    <t xml:space="preserve">0.152652740478516</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324902772903</t>
+    <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
     <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612869739532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144980907440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572954297066</t>
+    <t xml:space="preserve">0.147612854838371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144980922341347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204901695251</t>
@@ -821,19 +821,19 @@
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196927547455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804937601089</t>
+    <t xml:space="preserve">0.144196942448616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804952502251</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141733005642891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141676977276802</t>
+    <t xml:space="preserve">0.14173299074173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141676992177963</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140779256821</t>
+    <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
     <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150468796491623</t>
+    <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
     <t xml:space="preserve">0.147836863994598</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">0.143076941370964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147276893258095</t>
+    <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144308939576149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143188953399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145372927188873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404958605766</t>
+    <t xml:space="preserve">0.144308924674988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143188938498497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145372912287712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445038676262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557020902634</t>
+    <t xml:space="preserve">0.140445023775101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141173005104065</t>
+    <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348989844322</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149067759514</t>
+    <t xml:space="preserve">0.138149082660675</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637091636658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077091097832</t>
+    <t xml:space="preserve">0.136077105998993</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
@@ -962,25 +962,25 @@
     <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127677276730537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797262907028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129917234182358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317362904549</t>
+    <t xml:space="preserve">0.127677291631699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797277808189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129917249083519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317370355129</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127117291092873</t>
+    <t xml:space="preserve">0.127117305994034</t>
   </si>
   <si>
     <t xml:space="preserve">0.119837455451488</t>
@@ -1001,43 +1001,43 @@
     <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231275081634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635309815407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755295991898</t>
+    <t xml:space="preserve">0.23127506673336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635339617729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
     <t xml:space="preserve">0.227355152368546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195295453072</t>
+    <t xml:space="preserve">0.221195325255394</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875252366066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218395352363586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675210356712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154781103134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115209817886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994953989983</t>
+    <t xml:space="preserve">0.218395337462425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675195455551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315296530724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154810905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115239620209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994968891144</t>
   </si>
   <si>
     <t xml:space="preserve">0.234075039625168</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21962596476078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341588973999</t>
+    <t xml:space="preserve">0.219625979661942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
     <t xml:space="preserve">0.22604775428772</t>
@@ -1064,31 +1064,31 @@
     <t xml:space="preserve">0.222194671630859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21063543856144</t>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277604103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.211277574300766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076175689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149604558945</t>
+    <t xml:space="preserve">0.199076160788536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
     <t xml:space="preserve">0.193296536803246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507409214973</t>
+    <t xml:space="preserve">0.196507424116135</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874732375145</t>
+    <t xml:space="preserve">0.186874717473984</t>
   </si>
   <si>
     <t xml:space="preserve">0.184948146343231</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">0.184305995702744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175957605242729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182379454374313</t>
+    <t xml:space="preserve">0.17595762014389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182379439473152</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177884191274643</t>
+    <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197791799902916</t>
+    <t xml:space="preserve">0.197791785001755</t>
   </si>
   <si>
     <t xml:space="preserve">0.193938687443733</t>
@@ -1139,28 +1139,28 @@
     <t xml:space="preserve">0.194580897688866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188159078359604</t>
+    <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021634817123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810732603073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095093488693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179168537259102</t>
+    <t xml:space="preserve">0.179810717701912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095078587532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179168552160263</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190085619688034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178526356816292</t>
+    <t xml:space="preserve">0.190085634589195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178526371717453</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
+    <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057228088379</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16953581571579</t>
+    <t xml:space="preserve">0.169535830616951</t>
   </si>
   <si>
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170178011059761</t>
+    <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
     <t xml:space="preserve">0.170820191502571</t>
@@ -1205,22 +1205,22 @@
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040552616119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682733058929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260928630829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157976567745209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618733286858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471815943718</t>
+    <t xml:space="preserve">0.165040567517281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682718157768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260913729668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157976552844048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618748188019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334387302399</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">0.156050011515617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903094172478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407831072807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.159903109073639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407845973969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
@@ -1280,76 +1280,76 @@
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223048329353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244028836488724</t>
+    <t xml:space="preserve">0.195223063230515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244028821587563</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524099588394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166280031204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744475603104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.254945933818817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524114489555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166265130043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744490504265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735031604767</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377212047577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253019362688065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175753831863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386670947075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322686076164</t>
+    <t xml:space="preserve">0.250450611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377182245255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253019392490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175738930702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386641144753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322671175003</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247881904244423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592603206635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262109965085983</t>
+    <t xml:space="preserve">0.247881934046745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592573404312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262109994888306</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548297047615</t>
+    <t xml:space="preserve">0.247548311948776</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941723704338</t>
+    <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
     <t xml:space="preserve">0.230559721589088</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604611992836</t>
+    <t xml:space="preserve">0.234604597091675</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22651481628418</t>
+    <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986643910408</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930343866348</t>
+    <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.24431237578392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840563058853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24188543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222594976425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24350343644619</t>
+    <t xml:space="preserve">0.228132769465446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222609877586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503421545029</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739357709885</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
+    <t xml:space="preserve">0.261301040649414</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435741662979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
+    <t xml:space="preserve">0.273435711860657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27100881934166</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -60302,7 +60302,7 @@
     </row>
     <row r="2206">
       <c r="A2206" s="1" t="n">
-        <v>45534.5796759259</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B2206" t="n">
         <v>1000</v>
@@ -60323,6 +60323,32 @@
         <v>872</v>
       </c>
       <c r="H2206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>45537.4633796296</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>15550</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>872</v>
+      </c>
+      <c r="H2207" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
+    <t xml:space="preserve">0.162396535277367</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524495601654</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836549639702</t>
+    <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172570824623</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">0.137309074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137197107076645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14330093562603</t>
+    <t xml:space="preserve">0.137197092175484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143300950527191</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132969737053</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484909415245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941036701202</t>
+    <t xml:space="preserve">0.145484894514084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941021800041</t>
   </si>
   <si>
     <t xml:space="preserve">0.135013118386269</t>
@@ -101,40 +101,40 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869089841843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135517120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253382742405</t>
+    <t xml:space="preserve">0.137869074940681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135517135262489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253397643566</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653496563435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115917533636093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077398002148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277619540691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11311761289835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853553473949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597497999668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581385076046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077405452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277612090111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117590546608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114853568375111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597490549088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
     <t xml:space="preserve">0.12683729827404</t>
@@ -149,52 +149,52 @@
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252791285515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716608166695</t>
+    <t xml:space="preserve">0.151252776384354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740680336952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160156592726707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167772442102432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167940452694893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396265625954</t>
+    <t xml:space="preserve">0.156740695238113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160156607627869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167772427201271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16794042289257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396250724792</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636208176613</t>
+    <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174996271729469</t>
+    <t xml:space="preserve">0.17499628663063</t>
   </si>
   <si>
     <t xml:space="preserve">0.173596322536469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176116272807121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436300992966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796214818954</t>
+    <t xml:space="preserve">0.176116243004799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436315894127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796229720116</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340252161026</t>
+    <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148319125175</t>
@@ -218,40 +218,40 @@
     <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300665974617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860486984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15802863240242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158644646406174</t>
+    <t xml:space="preserve">0.157300651073456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460522890091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860501885414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158028647303581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158644661307335</t>
   </si>
   <si>
     <t xml:space="preserve">0.162676528096199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916500449181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636507630348</t>
+    <t xml:space="preserve">0.164916485548019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428611397743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16301254928112</t>
+    <t xml:space="preserve">0.159428626298904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163012534379959</t>
   </si>
   <si>
     <t xml:space="preserve">0.16362851858139</t>
@@ -266,13 +266,13 @@
     <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148396849632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508861660957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596891641617</t>
+    <t xml:space="preserve">0.148396834731102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508831858635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
     <t xml:space="preserve">0.147500857710838</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1473328769207</t>
+    <t xml:space="preserve">0.147332862019539</t>
   </si>
   <si>
     <t xml:space="preserve">0.1406130194664</t>
@@ -299,13 +299,13 @@
     <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564845323563</t>
+    <t xml:space="preserve">0.148564860224724</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
+    <t xml:space="preserve">0.147556856274605</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
@@ -314,19 +314,19 @@
     <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145820885896683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145260915160179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139997020363808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437034726143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132997184991837</t>
+    <t xml:space="preserve">0.145820900797844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145260900259018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139997035264969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437049627304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
     <t xml:space="preserve">0.137701079249382</t>
@@ -338,70 +338,70 @@
     <t xml:space="preserve">0.14139698445797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197391629219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997304916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477234721184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253240466118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1230294033885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122525401413441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893596291542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341435074806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157483637333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101492524147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933496832848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293418109417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381350517273</t>
+    <t xml:space="preserve">0.123197376728058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997319817543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477219820023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253225564957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12302939593792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397455990314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341449975967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157491087914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933504283428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237142443657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129805251955986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13484513759613</t>
+    <t xml:space="preserve">0.135237127542496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129805266857147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134789139032364</t>
+    <t xml:space="preserve">0.134789124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661313533783</t>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421378433704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461256623268</t>
+    <t xml:space="preserve">0.123421393334866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
     <t xml:space="preserve">0.127229303121567</t>
@@ -428,22 +428,22 @@
     <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12862928211689</t>
+    <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261079788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138933047652245</t>
+    <t xml:space="preserve">0.138261064887047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138933032751083</t>
   </si>
   <si>
     <t xml:space="preserve">0.134453132748604</t>
@@ -452,28 +452,28 @@
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
+    <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137813061475754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135461121797562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685116052628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901136159897</t>
+    <t xml:space="preserve">0.137813076376915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1354611068964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685130953789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901121258736</t>
   </si>
   <si>
     <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133781149983406</t>
+    <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
     <t xml:space="preserve">0.135853111743927</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636971712112</t>
+    <t xml:space="preserve">0.14363694190979</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
@@ -494,37 +494,37 @@
     <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13182121515274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477084994316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13596510887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143356963992119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136749088764191</t>
+    <t xml:space="preserve">0.131821200251579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477070093155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135965123772621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143356949090958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853276371956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453297376633</t>
+    <t xml:space="preserve">0.128853261470795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -548,13 +548,13 @@
     <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221164345741</t>
+    <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733125567436</t>
+    <t xml:space="preserve">0.134733155369759</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861085891724</t>
@@ -566,22 +566,22 @@
     <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150916770100594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15147677063942</t>
+    <t xml:space="preserve">0.150916785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151476785540581</t>
   </si>
   <si>
     <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152484759688377</t>
+    <t xml:space="preserve">0.152484774589539</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236977815628</t>
+    <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
@@ -590,16 +590,16 @@
     <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141060993075371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140109032392502</t>
+    <t xml:space="preserve">0.141061007976532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140109017491341</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389025211334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14156499505043</t>
+    <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
     <t xml:space="preserve">0.141004994511604</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13837306201458</t>
+    <t xml:space="preserve">0.138373076915741</t>
   </si>
   <si>
     <t xml:space="preserve">0.138821050524712</t>
@@ -617,25 +617,25 @@
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693105101585</t>
+    <t xml:space="preserve">0.136693090200424</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741129517555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405108332634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133893147110939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773190736771</t>
+    <t xml:space="preserve">0.135405123233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1338931620121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131989181041718</t>
+    <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
     <t xml:space="preserve">0.132157191634178</t>
@@ -644,13 +644,13 @@
     <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134173169732094</t>
+    <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
     <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13131719827652</t>
+    <t xml:space="preserve">0.131317213177681</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
+    <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
     <t xml:space="preserve">0.130197241902351</t>
@@ -674,16 +674,16 @@
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965243697166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309239029884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136917099356651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134341150522232</t>
+    <t xml:space="preserve">0.128965258598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309224128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13691708445549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134341135621071</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
@@ -692,55 +692,55 @@
     <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140333011746407</t>
+    <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573133826256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765066862106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125130414963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661178708076</t>
+    <t xml:space="preserve">0.135573118925095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765051960945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125145316124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661193609238</t>
   </si>
   <si>
     <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13820506632328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139269039034843</t>
+    <t xml:space="preserve">0.138205081224442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139269024133682</t>
   </si>
   <si>
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908825755119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14699687063694</t>
+    <t xml:space="preserve">0.149908810853958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146996885538101</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652905106544</t>
+    <t xml:space="preserve">0.146212890744209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652890205383</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.147668853402138</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -755,22 +755,22 @@
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996750712395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516686081886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15276475250721</t>
+    <t xml:space="preserve">0.153996720910072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516671180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708753943443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153324738144875</t>
+    <t xml:space="preserve">0.152708768844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153324753046036</t>
   </si>
   <si>
     <t xml:space="preserve">0.152652755379677</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324872970581</t>
+    <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
     <t xml:space="preserve">0.144476920366287</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572954297066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204916596413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144588932394981</t>
+    <t xml:space="preserve">0.142572969198227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204901695251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141117006540298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144196927547455</t>
+    <t xml:space="preserve">0.141116991639137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144196942448616</t>
   </si>
   <si>
     <t xml:space="preserve">0.143804937601089</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14173299074173</t>
+    <t xml:space="preserve">0.141732975840569</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676992177963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141452997922897</t>
+    <t xml:space="preserve">0.141453012824059</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244966864586</t>
@@ -854,46 +854,46 @@
     <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14783687889576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.147836863994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460837244987</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220864892006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144924908876419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028946757317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972918391228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076956272125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276878356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152316763997078</t>
+    <t xml:space="preserve">0.147220879793167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144924938678741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028931856155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972933292389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076941370964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276863455772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152316778898239</t>
   </si>
   <si>
     <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144308939576149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143188968300819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145372912287712</t>
+    <t xml:space="preserve">0.144308924674988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143188938498497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
@@ -902,28 +902,28 @@
     <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141844987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142012998461723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900971531868</t>
+    <t xml:space="preserve">0.141845002770424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142012983560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14190100133419</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142460986971855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14414094388485</t>
+    <t xml:space="preserve">0.142461001873016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144140958786011</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.140445038676262</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -932,28 +932,28 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141172990202904</t>
+    <t xml:space="preserve">0.138317048549652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141172975301743</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348974943161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142124995589256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429060578346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149052858353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637106537819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077091097832</t>
+    <t xml:space="preserve">0.142124980688095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429075479507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149067759514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637091636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077120900154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129917234182358</t>
+    <t xml:space="preserve">0.129917249083519</t>
   </si>
   <si>
     <t xml:space="preserve">0.126557320356369</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">0.124317355453968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125437334179878</t>
+    <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
     <t xml:space="preserve">0.127117305994034</t>
@@ -986,16 +986,16 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188155993819237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595109820366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995268344879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315595984459</t>
+    <t xml:space="preserve">0.188156008720398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595139622688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995253443718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475737452507</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220635324716568</t>
+    <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355182170868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195295453072</t>
+    <t xml:space="preserve">0.227355152368546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195325255394</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875252366066</t>
@@ -1022,37 +1022,37 @@
     <t xml:space="preserve">0.218395337462425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225675225257874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154796004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115209817886</t>
+    <t xml:space="preserve">0.225675195455551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315296530724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154810905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115239620209</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23407506942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515024185181</t>
+    <t xml:space="preserve">0.234075039625168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
     <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214488491415977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219625934958458</t>
+    <t xml:space="preserve">0.214488506317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21962596476078</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341574072838</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497950315475</t>
@@ -1088,46 +1088,46 @@
     <t xml:space="preserve">0.193296521902084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507424116135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.196507439017296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874717473984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305980801582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175957635045052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182379454374313</t>
+    <t xml:space="preserve">0.186874732375145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948176145554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305995702744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17595762014389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182379469275475</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452898144722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884191274643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176599815487862</t>
+    <t xml:space="preserve">0.180452883243561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884176373482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1765998005867</t>
   </si>
   <si>
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938687443733</t>
+    <t xml:space="preserve">0.193938702344894</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369980573654</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663800358772</t>
+    <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174673274159431</t>
+    <t xml:space="preserve">0.175315469503403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174673289060593</t>
   </si>
   <si>
     <t xml:space="preserve">0.172104552388191</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170820191502571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168251469731331</t>
+    <t xml:space="preserve">0.17082017660141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
     <t xml:space="preserve">0.167609289288521</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682733058929</t>
+    <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
     <t xml:space="preserve">0.159260913729668</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618748188019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471815943718</t>
+    <t xml:space="preserve">0.158618733286858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334387302399</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
+    <t xml:space="preserve">0.16311402618885</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829635500908</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">0.17403107881546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012161016464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.192012175917625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801243901253</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
+    <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524084687233</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251735031604767</t>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252377182245255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253019392490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175738930702</t>
+    <t xml:space="preserve">0.252377212047577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253019362688065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175753831863</t>
   </si>
   <si>
     <t xml:space="preserve">0.243386641144753</t>
@@ -60380,7 +60380,7 @@
     </row>
     <row r="2209">
       <c r="A2209" s="1" t="n">
-        <v>45539.3863773148</v>
+        <v>45539.2916666667</v>
       </c>
       <c r="B2209" t="n">
         <v>6110</v>
@@ -60401,6 +60401,32 @@
         <v>872</v>
       </c>
       <c r="H2209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="1" t="n">
+        <v>45540.649525463</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>10100</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>0.217999994754791</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>0.216000005602837</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.217999994754791</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>862</v>
+      </c>
+      <c r="H2210" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -44,22 +44,22 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
+    <t xml:space="preserve">0.162396535277367</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524510502815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348540663719</t>
+    <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172555923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159988611936569</t>
+    <t xml:space="preserve">0.162172570824623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
     <t xml:space="preserve">0.156908676028252</t>
@@ -68,34 +68,34 @@
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076821446419</t>
+    <t xml:space="preserve">0.150076806545258</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309089303017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137197092175484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143300950527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132954835892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484909415245</t>
+    <t xml:space="preserve">0.137309074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137197077274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143300965428352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132969737053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740979790688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484894514084</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941021800041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135013148188591</t>
+    <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653496563435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917548537254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581385076046</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077405452728</t>
@@ -134,25 +134,25 @@
     <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123981364071369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
+    <t xml:space="preserve">0.123981356620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397134184837</t>
+    <t xml:space="preserve">0.134397149085999</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252791285515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.151252776384354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716578364372</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -167,46 +167,46 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940437793732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396280527115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636208176613</t>
+    <t xml:space="preserve">0.16794042289257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396250724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17499628663063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596322536469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116272807121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436300992966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796229720116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700345516205</t>
+    <t xml:space="preserve">0.174996271729469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17359633743763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116243004799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436315894127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796244621277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
     <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996421456337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340267062187</t>
+    <t xml:space="preserve">0.167996436357498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340252161026</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148319125175</t>
@@ -215,25 +215,25 @@
     <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162564545869827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157300665974617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516521453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860486984253</t>
+    <t xml:space="preserve">0.162564560770988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157300651073456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516536355019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460522890091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
+    <t xml:space="preserve">0.158644661307335</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636507630348</t>
+    <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16301254928112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16362851858139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164468497037888</t>
+    <t xml:space="preserve">0.163012534379959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163628533482552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16446852684021</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796978354454</t>
+    <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
     <t xml:space="preserve">0.148396834731102</t>
@@ -275,19 +275,19 @@
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500857710838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108882665634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147332862019539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1406130194664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644930958748</t>
+    <t xml:space="preserve">0.147500872612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108867764473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1473328769207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140613004565239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644945859909</t>
   </si>
   <si>
     <t xml:space="preserve">0.145428910851479</t>
@@ -299,28 +299,28 @@
     <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564860224724</t>
+    <t xml:space="preserve">0.148564845323563</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
+    <t xml:space="preserve">0.147556856274605</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660879254341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145820885896683</t>
+    <t xml:space="preserve">0.146660909056664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997020363808</t>
+    <t xml:space="preserve">0.139997035264969</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701094150543</t>
+    <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -338,22 +338,22 @@
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197384178638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997319817543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477219820023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253255367279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123029381036758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252538651228</t>
+    <t xml:space="preserve">0.123197391629219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997334718704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477234721184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253240466118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12302939593792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
@@ -362,40 +362,40 @@
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341442525387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157476186752</t>
+    <t xml:space="preserve">0.120341449975967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157491087914</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933496832848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293433010578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381335616112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.117933504283428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293410658836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381350517273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805237054825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13484513759613</t>
+    <t xml:space="preserve">0.129805266857147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134789124131203</t>
+    <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
     <t xml:space="preserve">0.132885172963142</t>
@@ -407,16 +407,16 @@
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621278166771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421378433704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461256623268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229303121567</t>
+    <t xml:space="preserve">0.127621293067932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421393334866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461271524429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">0.141788989305496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13932503759861</t>
+    <t xml:space="preserve">0.139325052499771</t>
   </si>
   <si>
     <t xml:space="preserve">0.138261079788208</t>
@@ -449,46 +449,46 @@
     <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133949145674706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136581107974052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165001153946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137813061475754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135461121797562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685130953789</t>
+    <t xml:space="preserve">0.133949130773544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136581093072891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165016055107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137813076376915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1354611068964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685116052628</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1340611577034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133781164884567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135853111743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956999897957</t>
+    <t xml:space="preserve">0.134061142802238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133781179785728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135853096842766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636956810951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884903311729</t>
+    <t xml:space="preserve">0.14363694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
     <t xml:space="preserve">0.146604880690575</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14335697889328</t>
+    <t xml:space="preserve">0.143356949090958</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -518,22 +518,22 @@
     <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541192531586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685280680656</t>
+    <t xml:space="preserve">0.131541207432747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821349978447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -545,25 +545,25 @@
     <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13355715572834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221164345741</t>
+    <t xml:space="preserve">0.133557170629501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733140468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861085891724</t>
+    <t xml:space="preserve">0.134733155369759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556706547737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151028782129288</t>
+    <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140109032392502</t>
+    <t xml:space="preserve">0.140109017491341</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389025211334</t>
@@ -611,25 +611,25 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138821050524712</t>
+    <t xml:space="preserve">0.13882103562355</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693105101585</t>
+    <t xml:space="preserve">0.136693090200424</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405108332634</t>
+    <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
     <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773190736771</t>
+    <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
@@ -653,25 +653,25 @@
     <t xml:space="preserve">0.131317213177681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129525259137154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445173501968</t>
+    <t xml:space="preserve">0.129525244235992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
     <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130197241902351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132493197917938</t>
+    <t xml:space="preserve">0.13019722700119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
     <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131261214613914</t>
+    <t xml:space="preserve">0.131261199712753</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
@@ -680,46 +680,46 @@
     <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13691708445549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134341150522232</t>
+    <t xml:space="preserve">0.136917099356651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134341135621071</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117156267166</t>
+    <t xml:space="preserve">0.134117141366005</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138485044240952</t>
+    <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765066862106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125130414963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661178708076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285151958466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138205081224442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139269053936005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138653054833412</t>
+    <t xml:space="preserve">0.138765051960945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125145316124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661193609238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285166859627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13820506632328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139269024133682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138653069734573</t>
   </si>
   <si>
     <t xml:space="preserve">0.149908810853958</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
+    <t xml:space="preserve">0.146212875843048</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146268889307976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.146268919110298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147668853402138</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812911748886</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972813367844</t>
+    <t xml:space="preserve">0.150972798466682</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516671180725</t>
+    <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708768844604</t>
+    <t xml:space="preserve">0.152708753943443</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372762560844</t>
+    <t xml:space="preserve">0.152652770280838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372777462006</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476935267448</t>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -800,19 +800,19 @@
     <t xml:space="preserve">0.142572954297066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145204916596413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144588932394981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143412947654724</t>
+    <t xml:space="preserve">0.145204901695251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14458891749382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143412962555885</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748953938484</t>
+    <t xml:space="preserve">0.143748968839645</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196927547455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804937601089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860965967178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14173299074173</t>
+    <t xml:space="preserve">0.144196942448616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804952502251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860951066017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141732975840569</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676992177963</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">0.141452997922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143244951963425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145540907979012</t>
+    <t xml:space="preserve">0.143244966864586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145540922880173</t>
   </si>
   <si>
     <t xml:space="preserve">0.151140794157982</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228839039803</t>
+    <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220864892006</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732721090317</t>
+    <t xml:space="preserve">0.155732706189156</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -896,13 +896,13 @@
     <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142404973506927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144252926111221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141844987869263</t>
+    <t xml:space="preserve">0.142404988408089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144252941012383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141845002770424</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144140928983688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140949010848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14044500887394</t>
+    <t xml:space="preserve">0.14414094388485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14094902575016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
+    <t xml:space="preserve">0.142348974943161</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149082660675</t>
+    <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077105998993</t>
+    <t xml:space="preserve">0.136077120900154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">0.133277162909508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127677276730537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797262907028</t>
+    <t xml:space="preserve">0.127677291631699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
@@ -983,25 +983,25 @@
     <t xml:space="preserve">0.127117305994034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119837440550327</t>
+    <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
     <t xml:space="preserve">0.188156008720398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595124721527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995253443718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315595984459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23127506673336</t>
+    <t xml:space="preserve">0.229595139622688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995238542557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315581083298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475737452507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231275096535683</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635309815407</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355167269707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
+    <t xml:space="preserve">0.227355182170868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195325255394</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875282168388</t>
@@ -1025,46 +1025,46 @@
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315281629562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
+    <t xml:space="preserve">0.222315296530724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115224719048</t>
+    <t xml:space="preserve">0.225115239620209</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075054526329</t>
+    <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635010361671</t>
+    <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21962596476078</t>
+    <t xml:space="preserve">0.219625949859619</t>
   </si>
   <si>
     <t xml:space="preserve">0.21834160387516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22604775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.210635408759117</t>
+    <t xml:space="preserve">0.226047769188881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194656729698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708852529526</t>
+    <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076145887375</t>
+    <t xml:space="preserve">0.199076175689697</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
+    <t xml:space="preserve">0.193296507000923</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590341687202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186874717473984</t>
+    <t xml:space="preserve">0.185590356588364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
     <t xml:space="preserve">0.184948176145554</t>
@@ -1106,55 +1106,55 @@
     <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175957635045052</t>
+    <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177242010831833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452898144722</t>
+    <t xml:space="preserve">0.17724198102951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176599830389023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791785001755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938672542572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369995474815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443409442902</t>
+    <t xml:space="preserve">0.176599815487862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791799902916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938717246056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369980573654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443439245224</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188159093260765</t>
+    <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810732603073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095093488693</t>
+    <t xml:space="preserve">0.179810717701912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095078587532</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663830161095</t>
+    <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
@@ -1163,19 +1163,19 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17531543970108</t>
+    <t xml:space="preserve">0.175315469503403</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172104552388191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217057228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186232522130013</t>
+    <t xml:space="preserve">0.17210453748703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217057213187218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186232507228851</t>
   </si>
   <si>
     <t xml:space="preserve">0.173388913273811</t>
@@ -1184,16 +1184,16 @@
     <t xml:space="preserve">0.16953581571579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17146235704422</t>
+    <t xml:space="preserve">0.171462371945381</t>
   </si>
   <si>
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170820191502571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168251469731331</t>
+    <t xml:space="preserve">0.17082017660141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
     <t xml:space="preserve">0.167609289288521</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682733058929</t>
+    <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
     <t xml:space="preserve">0.159260928630829</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618748188019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471815943718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157334387302399</t>
+    <t xml:space="preserve">0.158618733286858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471830844879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157334372401237</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154123455286026</t>
+    <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
     <t xml:space="preserve">0.164398372173309</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17403107881546</t>
+    <t xml:space="preserve">0.174031108617783</t>
   </si>
   <si>
     <t xml:space="preserve">0.192012175917625</t>
@@ -1271,13 +1271,13 @@
     <t xml:space="preserve">0.187516897916794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188801258802414</t>
+    <t xml:space="preserve">0.188801243901253</t>
   </si>
   <si>
     <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727785229683</t>
+    <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237607032060623</t>
+    <t xml:space="preserve">0.237607002258301</t>
   </si>
   <si>
     <t xml:space="preserve">0.254945933818817</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.251734972000122</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">0.250450640916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254303753376007</t>
+    <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175753831863</t>
+    <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
     <t xml:space="preserve">0.243386656045914</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597543358803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592603206635</t>
+    <t xml:space="preserve">0.246597573161125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592573404312</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548326849937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267470479012</t>
+    <t xml:space="preserve">0.247548341751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
@@ -1358,40 +1358,40 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604611992836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368720531464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233795627951622</t>
+    <t xml:space="preserve">0.234604597091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368705630302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
     <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232986658811569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975264072418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076484322548</t>
+    <t xml:space="preserve">0.226514801383018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23298667371273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975249171257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076469421387</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649502396584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312360882759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
+    <t xml:space="preserve">0.238649532198906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312405586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840533256531</t>
   </si>
   <si>
     <t xml:space="preserve">0.241885468363762</t>
@@ -1400,40 +1400,40 @@
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357325792313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2370315939188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132784366608</t>
+    <t xml:space="preserve">0.248357310891151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237031579017639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132769465446</t>
   </si>
   <si>
     <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243503406643867</t>
+    <t xml:space="preserve">0.243503391742706</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739327907562</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065074682236</t>
+    <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25644713640213</t>
+    <t xml:space="preserve">0.256447106599808</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
@@ -1442,13 +1442,16 @@
     <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25482913851738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784248113632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252402245998383</t>
+    <t xml:space="preserve">0.254829168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784277915955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166294932365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
     <t xml:space="preserve">0.245121374726295</t>
@@ -1457,7 +1460,7 @@
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
+    <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683042764664</t>
@@ -1466,25 +1469,25 @@
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717212080956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222469910979271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660912036896</t>
+    <t xml:space="preserve">0.261301040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717197179794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22246989607811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660897135735</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435741662979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27100881934166</t>
+    <t xml:space="preserve">0.273435711860657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -1493,49 +1496,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065104484558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247742474079132</t>
+    <t xml:space="preserve">0.247742459177971</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161831378937</t>
+    <t xml:space="preserve">0.245161846280098</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860745310783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23569943010807</t>
+    <t xml:space="preserve">0.240860760211945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235699415206909</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280087709427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000545978546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140301942825</t>
+    <t xml:space="preserve">0.238280102610588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000531077385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140316843987</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957472205162</t>
+    <t xml:space="preserve">0.227957487106323</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258602976799</t>
+    <t xml:space="preserve">0.232258588075638</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118772506714</t>
+    <t xml:space="preserve">0.233118802309036</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892943501472</t>
+    <t xml:space="preserve">0.209892928600311</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495115637779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215544104576</t>
+    <t xml:space="preserve">0.218495100736618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215559005737</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21763488650322</t>
+    <t xml:space="preserve">0.217634871602058</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355314970016</t>
+    <t xml:space="preserve">0.219355329871178</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516822099686</t>
+    <t xml:space="preserve">0.304516792297363</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839422702789</t>
+    <t xml:space="preserve">0.314839392900467</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678107500076</t>
+    <t xml:space="preserve">0.309678137302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420035600662</t>
+    <t xml:space="preserve">0.317420065402985</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979208469391</t>
+    <t xml:space="preserve">0.311398535966873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979178667068</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -27641,7 +27641,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27693,7 +27693,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27719,7 +27719,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27771,7 +27771,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27901,7 +27901,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28031,7 +28031,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28317,7 +28317,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28525,7 +28525,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28837,7 +28837,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28941,7 +28941,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28993,7 +28993,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29071,7 +29071,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29097,7 +29097,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29201,7 +29201,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29227,7 +29227,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29253,7 +29253,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29279,7 +29279,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29617,7 +29617,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29643,7 +29643,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29695,7 +29695,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29721,7 +29721,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29825,7 +29825,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29877,7 +29877,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30111,7 +30111,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30345,7 +30345,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30553,7 +30553,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30579,7 +30579,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30683,7 +30683,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30787,7 +30787,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31125,7 +31125,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31177,7 +31177,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31567,7 +31567,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31593,7 +31593,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31619,7 +31619,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31645,7 +31645,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31671,7 +31671,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31723,7 +31723,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31775,7 +31775,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31853,7 +31853,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31879,7 +31879,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31905,7 +31905,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31957,7 +31957,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32217,7 +32217,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32243,7 +32243,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37547,7 +37547,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -60456,6 +60456,58 @@
         <v>873</v>
       </c>
       <c r="H2211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="1" t="n">
+        <v>45544.2916666667</v>
+      </c>
+      <c r="B2212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2212" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="G2212" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="1" t="n">
+        <v>45545.6048726852</v>
+      </c>
+      <c r="B2213" t="n">
+        <v>5989</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>0.209999993443489</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.209999993443489</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>835</v>
+      </c>
+      <c r="H2213" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -50,10 +50,10 @@
     <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348540663719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836564540863</t>
+    <t xml:space="preserve">0.163348525762558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836579442024</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172555923462</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156908676028252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15534071624279</t>
+    <t xml:space="preserve">0.15690866112709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076821446419</t>
@@ -74,19 +74,19 @@
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137197092175484</t>
+    <t xml:space="preserve">0.137309089303017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137197077274323</t>
   </si>
   <si>
     <t xml:space="preserve">0.143300950527191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143132969737053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740979790688</t>
+    <t xml:space="preserve">0.143132954835892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
@@ -104,10 +104,10 @@
     <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135517120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253382742405</t>
+    <t xml:space="preserve">0.135517105460167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253375291824</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653496563435</t>
@@ -119,19 +119,19 @@
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077398002148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11227760463953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11311761289835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11485356092453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597512900829</t>
+    <t xml:space="preserve">0.122077405452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277612090111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117605447769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114853553473949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
     <t xml:space="preserve">0.123981356620789</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397149085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143916964530945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151252791285515</t>
+    <t xml:space="preserve">0.134397134184837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143916949629784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
     <t xml:space="preserve">0.160716608166695</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156592726707</t>
+    <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396265625954</t>
+    <t xml:space="preserve">0.176396280527115</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636223077774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204332590103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996271729469</t>
+    <t xml:space="preserve">0.178636208176613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204317688942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17499628663063</t>
   </si>
   <si>
     <t xml:space="preserve">0.173596322536469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176116272807121</t>
+    <t xml:space="preserve">0.176116287708282</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
@@ -218,34 +218,34 @@
     <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300651073456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516521453857</t>
+    <t xml:space="preserve">0.157300665974617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516506552696</t>
   </si>
   <si>
     <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860486984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158028647303581</t>
+    <t xml:space="preserve">0.164860501885414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158028662204742</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644631505013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162676528096199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916515350342</t>
+    <t xml:space="preserve">0.16267654299736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159596607089043</t>
+    <t xml:space="preserve">0.159596621990204</t>
   </si>
   <si>
     <t xml:space="preserve">0.159428626298904</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">0.163012534379959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16362851858139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164468511939049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196777820587</t>
+    <t xml:space="preserve">0.163628503680229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164468497037888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500857710838</t>
+    <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145428910851479</t>
+    <t xml:space="preserve">0.14542892575264</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700929522514</t>
+    <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -311,25 +311,25 @@
     <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660894155502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145820900797844</t>
+    <t xml:space="preserve">0.146660879254341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145820885896683</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997020363808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437049627304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132997184991837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137701064348221</t>
+    <t xml:space="preserve">0.139997035264969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437034726143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132997170090675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -344,34 +344,34 @@
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477219820023</t>
+    <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029373586178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252538651228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893611192703</t>
+    <t xml:space="preserve">0.12302939593792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341449975967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157483637333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101477622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933481931686</t>
+    <t xml:space="preserve">0.120341457426548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157476186752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933504283428</t>
   </si>
   <si>
     <t xml:space="preserve">0.121293418109417</t>
@@ -383,40 +383,40 @@
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237142443657</t>
+    <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134845152497292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357233643532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134789139032364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132885172963142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661328434944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021272063255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.134845122694969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357248544693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134789124131203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132885187864304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661343336105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021257162094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127621278166771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461256623268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229303121567</t>
+    <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637256264687</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573268651962</t>
+    <t xml:space="preserve">0.128573253750801</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
@@ -488,19 +488,19 @@
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884888410568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604865789413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13182121515274</t>
+    <t xml:space="preserve">0.146884903311729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604880690575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
     <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135965123772621</t>
+    <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597191095352</t>
+    <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
     <t xml:space="preserve">0.128853261470795</t>
@@ -518,13 +518,13 @@
     <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541207432747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.131541192531586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045359134674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -533,52 +533,52 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613304018974</t>
+    <t xml:space="preserve">0.126613318920135</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13355715572834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221164345741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629117488861</t>
+    <t xml:space="preserve">0.133557170629501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221179246902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1356291025877</t>
   </si>
   <si>
     <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861085891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154556706547737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.136861100792885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154556721448898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15147677063942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153100743889809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484759688377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14587689936161</t>
+    <t xml:space="preserve">0.151476785540581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15310075879097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484774589539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
     <t xml:space="preserve">0.142236977815628</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141285002231598</t>
+    <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
     <t xml:space="preserve">0.141060993075371</t>
@@ -596,16 +596,16 @@
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389010310173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14156499505043</t>
+    <t xml:space="preserve">0.140389025211334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
     <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140725016593933</t>
+    <t xml:space="preserve">0.140725031495094</t>
   </si>
   <si>
     <t xml:space="preserve">0.13837306201458</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134677141904831</t>
+    <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
@@ -629,34 +629,34 @@
     <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957134723663</t>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957119822502</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157191634178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925208330154</t>
+    <t xml:space="preserve">0.132157206535339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925223231316</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317213177681</t>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317228078842</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133445158600807</t>
+    <t xml:space="preserve">0.133445173501968</t>
   </si>
   <si>
     <t xml:space="preserve">0.132717192173004</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131261229515076</t>
+    <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341135621071</t>
+    <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117156267166</t>
+    <t xml:space="preserve">0.134117141366005</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573118925095</t>
+    <t xml:space="preserve">0.135573104023933</t>
   </si>
   <si>
     <t xml:space="preserve">0.138765051960945</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285151958466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138205081224442</t>
+    <t xml:space="preserve">0.134285137057304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14699687063694</t>
+    <t xml:space="preserve">0.146996885538101</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
@@ -743,22 +743,22 @@
     <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144812926650047</t>
+    <t xml:space="preserve">0.144812911748886</t>
   </si>
   <si>
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972783565521</t>
+    <t xml:space="preserve">0.150972798466682</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996735811234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516686081886</t>
+    <t xml:space="preserve">0.153996750712395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516671180725</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153324723243713</t>
+    <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
     <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152372762560844</t>
+    <t xml:space="preserve">0.152372777462006</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324887871742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144476920366287</t>
+    <t xml:space="preserve">0.146324902772903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144476935267448</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572969198227</t>
+    <t xml:space="preserve">0.142572954297066</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">0.144588932394981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143412947654724</t>
+    <t xml:space="preserve">0.143412932753563</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
@@ -833,25 +833,25 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676992177963</t>
+    <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143244966864586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145540922880173</t>
+    <t xml:space="preserve">0.143244951963425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
     <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636807084084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468811392784</t>
+    <t xml:space="preserve">0.150636792182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468796491623</t>
   </si>
   <si>
     <t xml:space="preserve">0.147836863994598</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228839039803</t>
+    <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220864892006</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028931856155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972933292389</t>
+    <t xml:space="preserve">0.144028946757317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972918391228</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
@@ -881,28 +881,28 @@
     <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152316778898239</t>
+    <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
     <t xml:space="preserve">0.155732706189156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144308939576149</t>
+    <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404973506927</t>
+    <t xml:space="preserve">0.145372927188873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404958605766</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252926111221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141844987869263</t>
+    <t xml:space="preserve">0.141844972968102</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
@@ -923,49 +923,49 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445038676262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557006001472</t>
+    <t xml:space="preserve">0.140445023775101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140557020902634</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317048549652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141172990202904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.138317063450813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141173005104065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429045677185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149052858353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637106537819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077091097832</t>
+    <t xml:space="preserve">0.138429060578346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149067759514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637091636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077105998993</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277177810669</t>
+    <t xml:space="preserve">0.133277162909508</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677276730537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128797277808189</t>
+    <t xml:space="preserve">0.128797262907028</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">0.126557320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317370355129</t>
+    <t xml:space="preserve">0.12431737780571</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437349081039</t>
@@ -983,43 +983,43 @@
     <t xml:space="preserve">0.127117291092873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119837455451488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188155978918076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595124721527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995268344879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315581083298</t>
+    <t xml:space="preserve">0.119837440550327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188156008720398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595109820366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995253443718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315595984459</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23127506673336</t>
+    <t xml:space="preserve">0.231275081634521</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635324716568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755295991898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355152368546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
+    <t xml:space="preserve">0.221755266189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195295453072</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875267267227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218395352363586</t>
+    <t xml:space="preserve">0.218395367264748</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675210356712</t>
@@ -1031,79 +1031,79 @@
     <t xml:space="preserve">0.220075324177742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244154796004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115209817886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994939088821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075039625168</t>
+    <t xml:space="preserve">0.244154810905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115224719048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23799492418766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075054526329</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515053987503</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23463499546051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219625949859619</t>
+    <t xml:space="preserve">0.234635025262833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488491415977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21962596476078</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341588973999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226047769188881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194656729698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.210635423660278</t>
+    <t xml:space="preserve">0.22604775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635408759117</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277589201927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708882331848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205497950315475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199076175689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149619460106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193296507000923</t>
+    <t xml:space="preserve">0.211277604103088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708867430687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.205497965216637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199076145887375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149604558945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193296521902084</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865243673325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185590356588364</t>
+    <t xml:space="preserve">0.195865258574486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185590341687202</t>
   </si>
   <si>
     <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948176145554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305980801582</t>
+    <t xml:space="preserve">0.184948161244392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305995702744</t>
   </si>
   <si>
     <t xml:space="preserve">0.17595762014389</t>
@@ -1112,34 +1112,34 @@
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17724198102951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452883243561</t>
+    <t xml:space="preserve">0.177241995930672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452898144722</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1765998005867</t>
+    <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938702344894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369965672493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443439245224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194580882787704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159093260765</t>
+    <t xml:space="preserve">0.193938687443733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369980573654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443409442902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194580897688866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181095078587532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179168537259102</t>
+    <t xml:space="preserve">0.181095093488693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179168552160263</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526356816292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175315469503403</t>
+    <t xml:space="preserve">0.178526341915131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">0.17210453748703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217057213187218</t>
+    <t xml:space="preserve">0.217057228088379</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173388913273811</t>
+    <t xml:space="preserve">0.173388928174973</t>
   </si>
   <si>
     <t xml:space="preserve">0.16953581571579</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17082017660141</t>
+    <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
     <t xml:space="preserve">0.16825145483017</t>
@@ -1199,19 +1199,19 @@
     <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166967079043388</t>
+    <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040537714958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682718157768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260913729668</t>
+    <t xml:space="preserve">0.165040552616119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682733058929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
     <t xml:space="preserve">0.157976567745209</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471815943718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157334372401237</t>
+    <t xml:space="preserve">0.162471830844879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157334387302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16311402618885</t>
+    <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692191958427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050026416779</t>
+    <t xml:space="preserve">0.156692206859589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050011515617</t>
   </si>
   <si>
     <t xml:space="preserve">0.159903094172478</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">0.155407831072807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154765650629997</t>
+    <t xml:space="preserve">0.154765665531158</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">0.181737244129181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174031093716621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012175917625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516883015633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801229000092</t>
+    <t xml:space="preserve">0.17403107881546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012146115303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516897916794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
     <t xml:space="preserve">0.199718326330185</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223063230515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244028821587563</t>
+    <t xml:space="preserve">0.195223048329353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
@@ -1292,49 +1292,49 @@
     <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248524084687233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166265130043</t>
+    <t xml:space="preserve">0.248524099588394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166280031204</t>
   </si>
   <si>
     <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.251734972000122</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303723573685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377182245255</t>
+    <t xml:space="preserve">0.250450670719147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303753376007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377212047577</t>
   </si>
   <si>
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175738930702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386641144753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322641372681</t>
+    <t xml:space="preserve">0.240175753831863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386670947075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247881934046745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592573404312</t>
+    <t xml:space="preserve">0.247881904244423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,58 +1343,58 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548341751099</t>
+    <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941738605499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559706687927</t>
+    <t xml:space="preserve">0.228941723704338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559721589088</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604597091675</t>
+    <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233795642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232177674770355</t>
+    <t xml:space="preserve">0.233795627951622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
     <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23298667371273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975249171257</t>
+    <t xml:space="preserve">0.232986658811569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
     <t xml:space="preserve">0.241076469421387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930358767509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312405586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840533256531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885468363762</t>
+    <t xml:space="preserve">0.245930343866348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312390685081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,136 +1406,136 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132769465446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222580075264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503391742706</t>
+    <t xml:space="preserve">0.228132784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222594976425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503406643867</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739327907562</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
+    <t xml:space="preserve">0.258065074682236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257256090641022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25644713640213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255638152360916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254829168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784248113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25240221619606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121389627457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251593232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683072566986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25887405872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261301010847092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717197179794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225705847144127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271008789539337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536947011948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.260645747184753</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257256090641022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.256447106599808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255638152360916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253211170434952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254829168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784277915955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166294932365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121374726295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251593232154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26291897892952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683042764664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25887405872345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261301040649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22246989607811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660897135735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225705832242966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536917209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260645747184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247742459177971</t>
+    <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161846280098</t>
+    <t xml:space="preserve">0.245161831378937</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860760211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235699415206909</t>
+    <t xml:space="preserve">0.240860745310783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23569943010807</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280102610588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000531077385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140316843987</t>
+    <t xml:space="preserve">0.238280087709427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000545978546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140301942825</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957487106323</t>
+    <t xml:space="preserve">0.227957472205162</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258588075638</t>
+    <t xml:space="preserve">0.232258602976799</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118802309036</t>
+    <t xml:space="preserve">0.233118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892928600311</t>
+    <t xml:space="preserve">0.209892943501472</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495100736618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215559005737</t>
+    <t xml:space="preserve">0.218495115637779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215544104576</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217634871602058</t>
+    <t xml:space="preserve">0.21763488650322</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355329871178</t>
+    <t xml:space="preserve">0.219355314970016</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516792297363</t>
+    <t xml:space="preserve">0.304516822099686</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839392900467</t>
+    <t xml:space="preserve">0.314839422702789</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678137302399</t>
+    <t xml:space="preserve">0.309678107500076</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420065402985</t>
+    <t xml:space="preserve">0.317420035600662</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398535966873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979178667068</t>
+    <t xml:space="preserve">0.311398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979208469391</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -27650,7 +27650,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27702,7 +27702,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27728,7 +27728,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27780,7 +27780,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27910,7 +27910,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28040,7 +28040,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28326,7 +28326,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28534,7 +28534,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28846,7 +28846,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28950,7 +28950,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29002,7 +29002,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29080,7 +29080,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29106,7 +29106,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29210,7 +29210,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29236,7 +29236,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29262,7 +29262,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29288,7 +29288,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29626,7 +29626,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29652,7 +29652,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29704,7 +29704,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29730,7 +29730,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29834,7 +29834,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29886,7 +29886,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30120,7 +30120,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30354,7 +30354,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30562,7 +30562,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30588,7 +30588,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30692,7 +30692,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30796,7 +30796,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31134,7 +31134,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31186,7 +31186,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31576,7 +31576,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31602,7 +31602,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31628,7 +31628,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31654,7 +31654,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31680,7 +31680,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31732,7 +31732,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31784,7 +31784,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31862,7 +31862,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31888,7 +31888,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31914,7 +31914,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31966,7 +31966,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32226,7 +32226,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32252,7 +32252,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37556,7 +37556,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -60652,7 +60652,7 @@
     </row>
     <row r="2219">
       <c r="A2219" s="1" t="n">
-        <v>45553.6494675926</v>
+        <v>45553.2916666667</v>
       </c>
       <c r="B2219" t="n">
         <v>18960</v>
@@ -60673,6 +60673,32 @@
         <v>876</v>
       </c>
       <c r="H2219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="1" t="n">
+        <v>45554.6494560185</v>
+      </c>
+      <c r="B2220" t="n">
+        <v>18100</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>0.222000002861023</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>0.211999997496605</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.214000001549721</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>0.222000002861023</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>875</v>
+      </c>
+      <c r="H2220" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -44,28 +44,28 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
+    <t xml:space="preserve">0.162396535277367</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348525762558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836579442024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172555923462</t>
+    <t xml:space="preserve">0.16334855556488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836564540863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15690866112709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155340701341629</t>
+    <t xml:space="preserve">0.156908676028252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15534071624279</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076821446419</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137197077274323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143300950527191</t>
+    <t xml:space="preserve">0.137197092175484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14330093562603</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142740964889526</t>
+    <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
@@ -104,10 +104,10 @@
     <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135517105460167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253375291824</t>
+    <t xml:space="preserve">0.135517120361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653496563435</t>
@@ -119,25 +119,25 @@
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077405452728</t>
+    <t xml:space="preserve">0.122077390551567</t>
   </si>
   <si>
     <t xml:space="preserve">0.112277612090111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113117605447769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853553473949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597490549088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.113117597997189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11485356092453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981364071369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126837328076363</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
@@ -149,16 +149,16 @@
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716608166695</t>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740680336952</t>
+    <t xml:space="preserve">0.156740695238113</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940437793732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396280527115</t>
+    <t xml:space="preserve">0.16794042289257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396250724792</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836279988289</t>
@@ -185,22 +185,22 @@
     <t xml:space="preserve">0.17499628663063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173596322536469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116287708282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436315894127</t>
+    <t xml:space="preserve">0.17359633743763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436286091805</t>
   </si>
   <si>
     <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172700330615044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644332051277</t>
+    <t xml:space="preserve">0.172700345516205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
@@ -209,28 +209,28 @@
     <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148319125175</t>
+    <t xml:space="preserve">0.173148304224014</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162564560770988</t>
+    <t xml:space="preserve">0.162564545869827</t>
   </si>
   <si>
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516506552696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
+    <t xml:space="preserve">0.163516536355019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460552692413</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158028662204742</t>
+    <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644631505013</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636492729187</t>
+    <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596621990204</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012534379959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163628503680229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164468497037888</t>
+    <t xml:space="preserve">0.16301254928112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163628533482552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16446852684021</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
@@ -266,16 +266,16 @@
     <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148396849632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508846759796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596906542778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.148396834731102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508831858635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596891641617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14542892575264</t>
+    <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084930419922</t>
@@ -299,28 +299,28 @@
     <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564845323563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145988896489143</t>
+    <t xml:space="preserve">0.148564860224724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145988881587982</t>
   </si>
   <si>
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156907081604</t>
+    <t xml:space="preserve">0.146156892180443</t>
   </si>
   <si>
     <t xml:space="preserve">0.146660879254341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145820885896683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145260915160179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139997035264969</t>
+    <t xml:space="preserve">0.145820900797844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14526093006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701079249382</t>
+    <t xml:space="preserve">0.137701064348221</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197391629219</t>
+    <t xml:space="preserve">0.123197384178638</t>
   </si>
   <si>
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477234721184</t>
+    <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12302939593792</t>
+    <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
     <t xml:space="preserve">0.12252539396286</t>
@@ -359,10 +359,10 @@
     <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341457426548</t>
+    <t xml:space="preserve">0.120397463440895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341442525387</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157476186752</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293418109417</t>
+    <t xml:space="preserve">0.117933511734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293433010578</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
@@ -386,52 +386,52 @@
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
+    <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129357248544693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134789124131203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132885187864304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661343336105</t>
+    <t xml:space="preserve">0.129357263445854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134789139032364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132885158061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621278166771</t>
+    <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
     <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128461256623268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229288220406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129637256264687</t>
+    <t xml:space="preserve">0.128461271524429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229303121567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
     <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573253750801</t>
+    <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155676692724228</t>
+    <t xml:space="preserve">0.155676707625389</t>
   </si>
   <si>
     <t xml:space="preserve">0.141788974404335</t>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137813061475754</t>
+    <t xml:space="preserve">0.137813076376915</t>
   </si>
   <si>
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685116052628</t>
+    <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133781164884567</t>
+    <t xml:space="preserve">0.133781149983406</t>
   </si>
   <si>
     <t xml:space="preserve">0.135853111743927</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884903311729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604880690575</t>
+    <t xml:space="preserve">0.146884873509407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604895591736</t>
   </si>
   <si>
     <t xml:space="preserve">0.131821200251579</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13596510887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143356963992119</t>
+    <t xml:space="preserve">0.135965123772621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14335697889328</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -518,28 +518,28 @@
     <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541192531586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045359134674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685265779495</t>
+    <t xml:space="preserve">0.131541207432747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821342527866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685250878334</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613318920135</t>
+    <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037220358849</t>
@@ -551,43 +551,43 @@
     <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1356291025877</t>
+    <t xml:space="preserve">0.135629132390022</t>
   </si>
   <si>
     <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861100792885</t>
+    <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151028782129288</t>
+    <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476785540581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15310075879097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484774589539</t>
+    <t xml:space="preserve">0.15147677063942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153100743889809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236977815628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141229003667831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141284987330437</t>
+    <t xml:space="preserve">0.142236992716789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141229018568993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
     <t xml:space="preserve">0.141060993075371</t>
@@ -596,16 +596,16 @@
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389025211334</t>
+    <t xml:space="preserve">0.140389010310173</t>
   </si>
   <si>
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005009412766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140725031495094</t>
+    <t xml:space="preserve">0.141004994511604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
     <t xml:space="preserve">0.13837306201458</t>
@@ -614,31 +614,31 @@
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13467712700367</t>
+    <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741129517555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1338931620121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773190736771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957119822502</t>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133893132209778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773175835609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157206535339</t>
+    <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
     <t xml:space="preserve">0.130925223231316</t>
@@ -650,28 +650,28 @@
     <t xml:space="preserve">0.13053323328495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131317228078842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525244235992</t>
+    <t xml:space="preserve">0.131317213177681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525259137154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133445173501968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130197241902351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132493197917938</t>
+    <t xml:space="preserve">0.132717177271843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13019722700119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132493168115616</t>
   </si>
   <si>
     <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131261214613914</t>
+    <t xml:space="preserve">0.131261199712753</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">0.130309239029884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13691708445549</t>
+    <t xml:space="preserve">0.136917099356651</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341150522232</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117141366005</t>
+    <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573104023933</t>
+    <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
     <t xml:space="preserve">0.138765051960945</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908810853958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146996885538101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148340851068497</t>
+    <t xml:space="preserve">0.149908795952797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146996855735779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148340836167336</t>
   </si>
   <si>
     <t xml:space="preserve">0.146212890744209</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14766888320446</t>
+    <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812911748886</t>
@@ -749,19 +749,19 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972798466682</t>
+    <t xml:space="preserve">0.150972783565521</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153996750712395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516671180725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15276475250721</t>
+    <t xml:space="preserve">0.153996735811234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516686081886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152372777462006</t>
+    <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
@@ -788,31 +788,31 @@
     <t xml:space="preserve">0.146324902772903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476935267448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147612869739532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144980907440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572954297066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204916596413</t>
+    <t xml:space="preserve">0.144476920366287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147612854838371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144980922341347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572969198227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204901695251</t>
   </si>
   <si>
     <t xml:space="preserve">0.144588932394981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143412932753563</t>
+    <t xml:space="preserve">0.143412947654724</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748953938484</t>
+    <t xml:space="preserve">0.143748968839645</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196927547455</t>
+    <t xml:space="preserve">0.144196912646294</t>
   </si>
   <si>
     <t xml:space="preserve">0.143804937601089</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14173299074173</t>
+    <t xml:space="preserve">0.141733005642891</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676977276802</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">0.141452997922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143244951963425</t>
+    <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
     <t xml:space="preserve">0.145540907979012</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636792182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468796491623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836863994598</t>
+    <t xml:space="preserve">0.150636807084084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468811392784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14783687889576</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228853940964</t>
+    <t xml:space="preserve">0.148228839039803</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220864892006</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972918391228</t>
+    <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
@@ -893,40 +893,40 @@
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372927188873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404958605766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144252926111221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141844972968102</t>
+    <t xml:space="preserve">0.145372912287712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404973506927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144252941012383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141845002770424</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900971531868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142180979251862</t>
+    <t xml:space="preserve">0.141900986433029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1421809643507</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14414094388485</t>
+    <t xml:space="preserve">0.144140928983688</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557020902634</t>
+    <t xml:space="preserve">0.14044500887394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142124980688095</t>
+    <t xml:space="preserve">0.142124995589256</t>
   </si>
   <si>
     <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149067759514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637091636658</t>
+    <t xml:space="preserve">0.138149082660675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
     <t xml:space="preserve">0.136077105998993</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277162909508</t>
+    <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677276730537</t>
@@ -971,130 +971,130 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12431737780571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437349081039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127117291092873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119837440550327</t>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317370355129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437334179878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127117305994034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
     <t xml:space="preserve">0.188156008720398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595109820366</t>
+    <t xml:space="preserve">0.229595154523849</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315595984459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275081634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635324716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755266189575</t>
+    <t xml:space="preserve">0.208315566182137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475737452507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23127506673336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635309815407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
     <t xml:space="preserve">0.227355167269707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195295453072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395367264748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675210356712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154810905457</t>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675195455551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315281629562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154781103134</t>
   </si>
   <si>
     <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23799492418766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075054526329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515053987503</t>
+    <t xml:space="preserve">0.237994968891144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075024724007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
     <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214488491415977</t>
+    <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
     <t xml:space="preserve">0.21962596476078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218341588973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22604775428772</t>
+    <t xml:space="preserve">0.21834160387516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
     <t xml:space="preserve">0.222194671630859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210635408759117</t>
+    <t xml:space="preserve">0.210635453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277604103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.211277589201927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076145887375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149604558945</t>
+    <t xml:space="preserve">0.199076175689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
     <t xml:space="preserve">0.193296521902084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507439017296</t>
+    <t xml:space="preserve">0.196507424116135</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590341687202</t>
+    <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
     <t xml:space="preserve">0.186874732375145</t>
@@ -1115,43 +1115,43 @@
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452898144722</t>
+    <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176599815487862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791799902916</t>
+    <t xml:space="preserve">0.176599830389023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791770100594</t>
   </si>
   <si>
     <t xml:space="preserve">0.193938687443733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191369980573654</t>
+    <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
     <t xml:space="preserve">0.189443409442902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194580897688866</t>
+    <t xml:space="preserve">0.194580882787704</t>
   </si>
   <si>
     <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183021619915962</t>
+    <t xml:space="preserve">0.183021634817123</t>
   </si>
   <si>
     <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181095093488693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179168552160263</t>
+    <t xml:space="preserve">0.181095078587532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526341915131</t>
+    <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
@@ -1169,16 +1169,16 @@
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217057228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186232522130013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173388928174973</t>
+    <t xml:space="preserve">0.172104552388191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217057213187218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186232507228851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
     <t xml:space="preserve">0.16953581571579</t>
@@ -1196,34 +1196,34 @@
     <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16760927438736</t>
+    <t xml:space="preserve">0.167609289288521</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16632491350174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165040552616119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682733058929</t>
+    <t xml:space="preserve">0.166324928402901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165040567517281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
     <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157976567745209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618733286858</t>
+    <t xml:space="preserve">0.157976552844048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157334387302399</t>
+    <t xml:space="preserve">0.157334372401237</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1250,46 +1250,46 @@
     <t xml:space="preserve">0.155407831072807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398372173309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737244129181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17403107881546</t>
+    <t xml:space="preserve">0.164398387074471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737259030342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174031108617783</t>
   </si>
   <si>
     <t xml:space="preserve">0.192012146115303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187516897916794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801258802414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199718326330185</t>
+    <t xml:space="preserve">0.187516912817955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801273703575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223048329353</t>
+    <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
     <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237607032060623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254945904016495</t>
+    <t xml:space="preserve">0.237607002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524099588394</t>
@@ -1301,40 +1301,40 @@
     <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251734972000122</t>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450670719147</t>
+    <t xml:space="preserve">0.250450640916824</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252377212047577</t>
+    <t xml:space="preserve">0.252377182245255</t>
   </si>
   <si>
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175753831863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386670947075</t>
+    <t xml:space="preserve">0.240175738930702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386656045914</t>
   </si>
   <si>
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597558259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592603206635</t>
+    <t xml:space="preserve">0.246597573161125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592573404312</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548326849937</t>
+    <t xml:space="preserve">0.247548311948776</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941723704338</t>
+    <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
     <t xml:space="preserve">0.230559721589088</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604611992836</t>
+    <t xml:space="preserve">0.234604597091675</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233795627951622</t>
+    <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
     <t xml:space="preserve">0.232177689671516</t>
@@ -1373,28 +1373,28 @@
     <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232986658811569</t>
+    <t xml:space="preserve">0.232986643910408</t>
   </si>
   <si>
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076469421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930343866348</t>
+    <t xml:space="preserve">0.241076499223709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.24431237578392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840563058853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24188543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,28 +1406,28 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222594976425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503406643867</t>
+    <t xml:space="preserve">0.228132769465446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222609877586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503421545029</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739357709885</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065074682236</t>
+    <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
     <t xml:space="preserve">0.257256090641022</t>
@@ -1442,16 +1442,19 @@
     <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254829168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784248113632</t>
+    <t xml:space="preserve">0.25482913851738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784277915955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166265130043</t>
   </si>
   <si>
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,13 +1463,13 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
+    <t xml:space="preserve">0.261301040649414</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
@@ -1475,67 +1478,64 @@
     <t xml:space="preserve">0.222469910979271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221660912036896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225705847144127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435741662979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536947011948</t>
+    <t xml:space="preserve">0.221660897135735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225705832242966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435711860657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27100881934166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536917209625</t>
   </si>
   <si>
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065104484558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247742474079132</t>
+    <t xml:space="preserve">0.247742459177971</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161831378937</t>
+    <t xml:space="preserve">0.245161846280098</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860745310783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23569943010807</t>
+    <t xml:space="preserve">0.240860760211945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235699415206909</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280087709427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000545978546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140301942825</t>
+    <t xml:space="preserve">0.238280102610588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000531077385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140316843987</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957472205162</t>
+    <t xml:space="preserve">0.227957487106323</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258602976799</t>
+    <t xml:space="preserve">0.232258588075638</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118772506714</t>
+    <t xml:space="preserve">0.233118802309036</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892943501472</t>
+    <t xml:space="preserve">0.209892928600311</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495115637779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215544104576</t>
+    <t xml:space="preserve">0.218495100736618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215559005737</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21763488650322</t>
+    <t xml:space="preserve">0.217634871602058</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355314970016</t>
+    <t xml:space="preserve">0.219355329871178</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516822099686</t>
+    <t xml:space="preserve">0.304516792297363</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839422702789</t>
+    <t xml:space="preserve">0.314839392900467</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678107500076</t>
+    <t xml:space="preserve">0.309678137302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420035600662</t>
+    <t xml:space="preserve">0.317420065402985</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979208469391</t>
+    <t xml:space="preserve">0.311398535966873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979178667068</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -27650,7 +27650,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27702,7 +27702,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27728,7 +27728,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27780,7 +27780,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27910,7 +27910,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28040,7 +28040,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28326,7 +28326,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28534,7 +28534,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28846,7 +28846,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28950,7 +28950,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29002,7 +29002,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29080,7 +29080,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29106,7 +29106,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29210,7 +29210,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29236,7 +29236,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29262,7 +29262,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29288,7 +29288,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29626,7 +29626,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29652,7 +29652,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29704,7 +29704,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29730,7 +29730,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29834,7 +29834,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29886,7 +29886,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30120,7 +30120,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30354,7 +30354,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30562,7 +30562,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30588,7 +30588,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30692,7 +30692,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30796,7 +30796,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31134,7 +31134,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31186,7 +31186,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31576,7 +31576,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31602,7 +31602,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31628,7 +31628,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31654,7 +31654,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31680,7 +31680,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31732,7 +31732,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31784,7 +31784,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31862,7 +31862,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31888,7 +31888,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31914,7 +31914,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31966,7 +31966,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32226,7 +32226,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32252,7 +32252,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37556,7 +37556,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -60678,7 +60678,7 @@
     </row>
     <row r="2220">
       <c r="A2220" s="1" t="n">
-        <v>45554.6494560185</v>
+        <v>45554.2916666667</v>
       </c>
       <c r="B2220" t="n">
         <v>18100</v>
@@ -60699,6 +60699,32 @@
         <v>875</v>
       </c>
       <c r="H2220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="1" t="n">
+        <v>45555.6493402778</v>
+      </c>
+      <c r="B2221" t="n">
+        <v>4673</v>
+      </c>
+      <c r="C2221" t="n">
+        <v>0.224000006914139</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>0.212999999523163</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>0.224000006914139</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0.224000006914139</v>
+      </c>
+      <c r="G2221" t="s">
+        <v>876</v>
+      </c>
+      <c r="H2221" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.162396535277367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164524495601654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16334855556488</t>
+    <t xml:space="preserve">0.164524510502815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15534071624279</t>
+    <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076821446419</t>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137197092175484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14330093562603</t>
+    <t xml:space="preserve">0.137197077274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143300950527191</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142740979790688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484909415245</t>
+    <t xml:space="preserve">0.142740964889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484894514084</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941036701202</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
+    <t xml:space="preserve">0.13786906003952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
@@ -113,52 +113,52 @@
     <t xml:space="preserve">0.117653496563435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115917548537254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077390551567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277612090111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117597997189</t>
+    <t xml:space="preserve">0.115917555987835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581399977207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077405452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277619540691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597497999668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981364071369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837328076363</t>
+    <t xml:space="preserve">0.117597490549088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397134184837</t>
+    <t xml:space="preserve">0.134397149085999</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252791285515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.151252776384354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716578364372</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740695238113</t>
+    <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -170,34 +170,34 @@
     <t xml:space="preserve">0.16794042289257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396250724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636208176613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204317688942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17499628663063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17611625790596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436286091805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796214818954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700345516205</t>
+    <t xml:space="preserve">0.176396235823631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636223077774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204332590103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174996271729469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596307635307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116243004799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436315894127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796229720116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
     <t xml:space="preserve">0.172644317150116</t>
@@ -206,10 +206,10 @@
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340267062187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.176340252161026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">0.162564545869827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300665974617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460552692413</t>
+    <t xml:space="preserve">0.157300651073456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
@@ -245,22 +245,22 @@
     <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159596621990204</t>
+    <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16301254928112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163628533482552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16446852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196792721748</t>
+    <t xml:space="preserve">0.163012534379959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16362851858139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164468511939049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196777820587</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">0.145596891641617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500857710838</t>
+    <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">0.1473328769207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1406130194664</t>
+    <t xml:space="preserve">0.140613004565239</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564860224724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145988881587982</t>
+    <t xml:space="preserve">0.148564845323563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
     <t xml:space="preserve">0.147556871175766</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">0.146156892180443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660879254341</t>
+    <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">0.14526093006134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997020363808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437034726143</t>
+    <t xml:space="preserve">0.13999705016613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437049627304</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701064348221</t>
+    <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -338,13 +338,13 @@
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197384178638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997319817543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477219820023</t>
+    <t xml:space="preserve">0.123197369277477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997334718704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
@@ -353,16 +353,16 @@
     <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12252539396286</t>
+    <t xml:space="preserve">0.122525408864021</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397463440895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341442525387</t>
+    <t xml:space="preserve">0.120397441089153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341435074806</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157476186752</t>
@@ -371,37 +371,37 @@
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933511734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293433010578</t>
+    <t xml:space="preserve">0.117933489382267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293440461159</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805237054825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845122694969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357263445854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134789139032364</t>
+    <t xml:space="preserve">0.129805251955986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13484513759613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357248544693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134789124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.132885158061981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661328434944</t>
+    <t xml:space="preserve">0.125661313533783</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421385884285</t>
+    <t xml:space="preserve">0.123421378433704</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
@@ -422,19 +422,19 @@
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237277269363</t>
+    <t xml:space="preserve">0.128237262368202</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128629267215729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155676707625389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141788974404335</t>
+    <t xml:space="preserve">0.12862928211689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155676692724228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141788989305496</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
+    <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
@@ -473,37 +473,37 @@
     <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133781149983406</t>
+    <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956984996796</t>
+    <t xml:space="preserve">0.141956999897957</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636956810951</t>
+    <t xml:space="preserve">0.14363694190979</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884873509407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604895591736</t>
+    <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477084994316</t>
+    <t xml:space="preserve">0.137477070093155</t>
   </si>
   <si>
     <t xml:space="preserve">0.135965123772621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14335697889328</t>
+    <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853261470795</t>
+    <t xml:space="preserve">0.128853276371956</t>
   </si>
   <si>
     <t xml:space="preserve">0.127453282475471</t>
@@ -521,19 +521,19 @@
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821342527866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685250878334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120677433907986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.125045359134674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821349978447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685265779495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120677419006824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405258059502</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -545,34 +545,34 @@
     <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133557170629501</t>
+    <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
     <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135629132390022</t>
+    <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
     <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861085891724</t>
+    <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15147677063942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153100743889809</t>
+    <t xml:space="preserve">0.151476800441742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
     <t xml:space="preserve">0.152484759688377</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236992716789</t>
+    <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229018568993</t>
@@ -590,19 +590,19 @@
     <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141060993075371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140109032392502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140389010310173</t>
+    <t xml:space="preserve">0.141061007976532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140109017491341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140389025211334</t>
   </si>
   <si>
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141004994511604</t>
+    <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133893132209778</t>
+    <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773175835609</t>
@@ -638,40 +638,40 @@
     <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157191634178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925223231316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173154830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13053323328495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317213177681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525259137154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445173501968</t>
+    <t xml:space="preserve">0.132157176733017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925208330154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173169732094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130533218383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317228078842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525244235992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
     <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13019722700119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132493168115616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13165320456028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131261199712753</t>
+    <t xml:space="preserve">0.130197241902351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132493183016777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131653189659119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
@@ -680,16 +680,16 @@
     <t xml:space="preserve">0.130309239029884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136917099356651</t>
+    <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757077813148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134117156267166</t>
+    <t xml:space="preserve">0.137757062911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134117141366005</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -707,40 +707,40 @@
     <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132661178708076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285137057304</t>
+    <t xml:space="preserve">0.132661193609238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
     <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139269039034843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138653054833412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149908795952797</t>
+    <t xml:space="preserve">0.139269024133682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138653069734573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
     <t xml:space="preserve">0.146996855735779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148340836167336</t>
+    <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
     <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145652905106544</t>
+    <t xml:space="preserve">0.145652890205383</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812911748886</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
+    <t xml:space="preserve">0.152652770280838</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
@@ -785,25 +785,25 @@
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324902772903</t>
+    <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
     <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612854838371</t>
+    <t xml:space="preserve">0.147612884640694</t>
   </si>
   <si>
     <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572969198227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204901695251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144588932394981</t>
+    <t xml:space="preserve">0.142572984099388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204916596413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -812,25 +812,25 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748968839645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140837013721466</t>
+    <t xml:space="preserve">0.143748953938484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140837028622627</t>
   </si>
   <si>
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196912646294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804937601089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860951066017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141733005642891</t>
+    <t xml:space="preserve">0.144196927547455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804952502251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860965967178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676977276802</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140794157982</t>
+    <t xml:space="preserve">0.151140779256821</t>
   </si>
   <si>
     <t xml:space="preserve">0.150636807084084</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14783687889576</t>
+    <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
@@ -869,22 +869,22 @@
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028946757317</t>
+    <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
     <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143076956272125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276878356934</t>
+    <t xml:space="preserve">0.143076941370964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276863455772</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732706189156</t>
+    <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141845002770424</t>
+    <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144140928983688</t>
+    <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14044500887394</t>
+    <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -941,61 +941,61 @@
     <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142124995589256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429060578346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149082660675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637106537819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077105998993</t>
+    <t xml:space="preserve">0.142124980688095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429045677185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149067759514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637091636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077120900154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127677276730537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797262907028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129917234182358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126557305455208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317370355129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437334179878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127117305994034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119837455451488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188156008720398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595154523849</t>
+    <t xml:space="preserve">0.133277162909508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127677291631699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797277808189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129917249083519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126557320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317355453968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437349081039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127117291092873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11983747035265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188155993819237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595139622688</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315566182137</t>
+    <t xml:space="preserve">0.208315595984459</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475737452507</t>
@@ -1010,61 +1010,61 @@
     <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355167269707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875282168388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395352363586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675195455551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315281629562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154781103134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115224719048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237994968891144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075024724007</t>
+    <t xml:space="preserve">0.227355152368546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195295453072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875252366066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395337462425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675225257874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154810905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115239620209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237994939088821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635025262833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21962596476078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21834160387516</t>
+    <t xml:space="preserve">0.234635040163994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488491415977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625934958458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
     <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.210635453462601</t>
+    <t xml:space="preserve">0.222194656729698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21063543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708852529526</t>
+    <t xml:space="preserve">0.208708867430687</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076175689697</t>
+    <t xml:space="preserve">0.199076145887375</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
@@ -1097,13 +1097,13 @@
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874732375145</t>
+    <t xml:space="preserve">0.186874717473984</t>
   </si>
   <si>
     <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184305995702744</t>
+    <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
     <t xml:space="preserve">0.17595762014389</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177884176373482</t>
+    <t xml:space="preserve">0.177884191274643</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599830389023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197791770100594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938687443733</t>
+    <t xml:space="preserve">0.197791785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938702344894</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443409442902</t>
+    <t xml:space="preserve">0.189443439245224</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183021634817123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179810717701912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095078587532</t>
+    <t xml:space="preserve">0.183021619915962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179810732603073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
+    <t xml:space="preserve">0.175315469503403</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
@@ -1175,19 +1175,19 @@
     <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186232507228851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173388913273811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16953581571579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17146235704422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1701779961586</t>
+    <t xml:space="preserve">0.186232522130013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17338889837265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169535830616951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171462342143059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170177981257439</t>
   </si>
   <si>
     <t xml:space="preserve">0.170820191502571</t>
@@ -1196,10 +1196,10 @@
     <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167609289288521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16696709394455</t>
+    <t xml:space="preserve">0.16760927438736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166967079043388</t>
   </si>
   <si>
     <t xml:space="preserve">0.166324928402901</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471830844879</t>
+    <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334372401237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160545289516449</t>
+    <t xml:space="preserve">0.16054530441761</t>
   </si>
   <si>
     <t xml:space="preserve">0.161187455058098</t>
@@ -1238,13 +1238,13 @@
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692206859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050011515617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903094172478</t>
+    <t xml:space="preserve">0.156692191958427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050026416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903109073639</t>
   </si>
   <si>
     <t xml:space="preserve">0.155407831072807</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">0.174031108617783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012146115303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516912817955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801273703575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199718341231346</t>
+    <t xml:space="preserve">0.192012161016464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801258802414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
@@ -1286,19 +1286,19 @@
     <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237607002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254945933818817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524099588394</t>
+    <t xml:space="preserve">0.237607032060623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254945904016495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
     <t xml:space="preserve">0.249166280031204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242744475603104</t>
+    <t xml:space="preserve">0.242744460701942</t>
   </si>
   <si>
     <t xml:space="preserve">0.251735001802444</t>
@@ -1307,10 +1307,10 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
+    <t xml:space="preserve">0.250450611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597573161125</t>
+    <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323592573404312</t>
+    <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,43 +1343,43 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548311948776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267485380173</t>
+    <t xml:space="preserve">0.247548326849937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267470479012</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230559721589088</t>
+    <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604597091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368705630302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233795642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232177689671516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226514801383018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232986643910408</t>
+    <t xml:space="preserve">0.234604611992836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368720531464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233795627951622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232177674770355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22651481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232986658811569</t>
   </si>
   <si>
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076499223709</t>
+    <t xml:space="preserve">0.241076484322548</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
@@ -1388,154 +1388,154 @@
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24431237578392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840563058853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24188543856144</t>
+    <t xml:space="preserve">0.244312360882759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132769465446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222609877586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503421545029</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222580075264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503406643867</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739357709885</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
+    <t xml:space="preserve">0.258065074682236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257256090641022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25644713640213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255638152360916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25482913851738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784248113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251593232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683042764664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25887405872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261301010847092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225705832242966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27100881934166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536917209625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.260645747184753</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257256090641022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25644713640213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255638152360916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253211170434952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25482913851738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784277915955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166265130043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121374726295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251593232154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262918949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683042764664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25887405872345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261301040649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222469910979271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660897135735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225705832242966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27100881934166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536917209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260645747184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247742459177971</t>
+    <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161846280098</t>
+    <t xml:space="preserve">0.245161831378937</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860760211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235699415206909</t>
+    <t xml:space="preserve">0.240860745310783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23569943010807</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280102610588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000531077385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140316843987</t>
+    <t xml:space="preserve">0.238280087709427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000545978546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140301942825</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957487106323</t>
+    <t xml:space="preserve">0.227957472205162</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258588075638</t>
+    <t xml:space="preserve">0.232258602976799</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118802309036</t>
+    <t xml:space="preserve">0.233118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892928600311</t>
+    <t xml:space="preserve">0.209892943501472</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495100736618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215559005737</t>
+    <t xml:space="preserve">0.218495115637779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215544104576</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217634871602058</t>
+    <t xml:space="preserve">0.21763488650322</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355329871178</t>
+    <t xml:space="preserve">0.219355314970016</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516792297363</t>
+    <t xml:space="preserve">0.304516822099686</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839392900467</t>
+    <t xml:space="preserve">0.314839422702789</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678137302399</t>
+    <t xml:space="preserve">0.309678107500076</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420065402985</t>
+    <t xml:space="preserve">0.317420035600662</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398535966873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979178667068</t>
+    <t xml:space="preserve">0.311398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979208469391</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -27650,7 +27650,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27702,7 +27702,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27728,7 +27728,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27780,7 +27780,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27910,7 +27910,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28040,7 +28040,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28326,7 +28326,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28534,7 +28534,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28846,7 +28846,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28950,7 +28950,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29002,7 +29002,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29080,7 +29080,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29106,7 +29106,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29210,7 +29210,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29236,7 +29236,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29262,7 +29262,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29288,7 +29288,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29626,7 +29626,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29652,7 +29652,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29704,7 +29704,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29730,7 +29730,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29834,7 +29834,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29886,7 +29886,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30120,7 +30120,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30354,7 +30354,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30562,7 +30562,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30588,7 +30588,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30692,7 +30692,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30796,7 +30796,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31134,7 +31134,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31186,7 +31186,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31576,7 +31576,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31602,7 +31602,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31628,7 +31628,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31654,7 +31654,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31680,7 +31680,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31732,7 +31732,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31784,7 +31784,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31862,7 +31862,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31888,7 +31888,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31914,7 +31914,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31966,7 +31966,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32226,7 +32226,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32252,7 +32252,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37556,7 +37556,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -60704,7 +60704,7 @@
     </row>
     <row r="2221">
       <c r="A2221" s="1" t="n">
-        <v>45555.6493402778</v>
+        <v>45555.2916666667</v>
       </c>
       <c r="B2221" t="n">
         <v>4673</v>
@@ -60725,6 +60725,32 @@
         <v>876</v>
       </c>
       <c r="H2221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="1" t="n">
+        <v>45558.6495601852</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>0.224000006914139</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>0.212999999523163</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>0.224000006914139</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="G2222" t="s">
+        <v>868</v>
+      </c>
+      <c r="H2222" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16990040242672</t>
+    <t xml:space="preserve">0.169900387525558</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
+    <t xml:space="preserve">0.162396550178528</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524510502815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348525762558</t>
+    <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172570824623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159988597035408</t>
+    <t xml:space="preserve">0.162172555923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159988611936569</t>
   </si>
   <si>
     <t xml:space="preserve">0.156908676028252</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076821446419</t>
+    <t xml:space="preserve">0.150076806545258</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137197077274323</t>
+    <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
     <t xml:space="preserve">0.143300950527191</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">0.145484894514084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139941036701202</t>
+    <t xml:space="preserve">0.139941021800041</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
@@ -110,40 +110,40 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653496563435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917555987835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581399977207</t>
+    <t xml:space="preserve">0.117653504014015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112277619540691</t>
+    <t xml:space="preserve">0.11227760463953</t>
   </si>
   <si>
     <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11485356092453</t>
+    <t xml:space="preserve">0.114853568375111</t>
   </si>
   <si>
     <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
     <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131877198815346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134397149085999</t>
+    <t xml:space="preserve">0.131877213716507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134397134184837</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716578364372</t>
+    <t xml:space="preserve">0.160716608166695</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -167,49 +167,49 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16794042289257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396235823631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836265087128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636223077774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204332590103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596307635307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116243004799</t>
+    <t xml:space="preserve">0.167940437793732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396280527115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836279988289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636208176613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204317688942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116272807121</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177796229720116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700330615044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644317150116</t>
+    <t xml:space="preserve">0.177796214818954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700345516205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340252161026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148319125175</t>
+    <t xml:space="preserve">0.176340267062187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148334026337</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">0.162564545869827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300651073456</t>
+    <t xml:space="preserve">0.157300680875778</t>
   </si>
   <si>
     <t xml:space="preserve">0.163516521453857</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860501885414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158028647303581</t>
+    <t xml:space="preserve">0.164860486984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158028662204742</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644631505013</t>
@@ -245,22 +245,22 @@
     <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159596607089043</t>
+    <t xml:space="preserve">0.159596621990204</t>
   </si>
   <si>
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012534379959</t>
+    <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
     <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468511939049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196777820587</t>
+    <t xml:space="preserve">0.164468497037888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -269,13 +269,13 @@
     <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508831858635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596891641617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.148508846759796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596906542778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">0.1473328769207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140613004565239</t>
+    <t xml:space="preserve">0.1406130194664</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144700914621353</t>
+    <t xml:space="preserve">0.144084945321083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146156892180443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
+    <t xml:space="preserve">0.147556886076927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146156907081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660879254341</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">0.14526093006134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13999705016613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437049627304</t>
+    <t xml:space="preserve">0.139997020363808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437019824982</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997170090675</t>
@@ -332,61 +332,61 @@
     <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138597056269646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141396999359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197369277477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997334718704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477234721184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253240466118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123029381036758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122525408864021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893603742123</t>
+    <t xml:space="preserve">0.138597041368484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141397014260292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197391629219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997319817543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477219820023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253255367279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12302939593792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252538651228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893611192703</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341435074806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157476186752</t>
+    <t xml:space="preserve">0.120341449975967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933489382267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293440461159</t>
+    <t xml:space="preserve">0.117933504283428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093204021454</t>
+    <t xml:space="preserve">0.131093233823776</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
+    <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
     <t xml:space="preserve">0.13484513759613</t>
@@ -398,10 +398,10 @@
     <t xml:space="preserve">0.134789124131203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885158061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661313533783</t>
+    <t xml:space="preserve">0.132885172963142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">0.123421378433704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128461271524429</t>
+    <t xml:space="preserve">0.128461256623268</t>
   </si>
   <si>
     <t xml:space="preserve">0.127229303121567</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237262368202</t>
+    <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12862928211689</t>
+    <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140165016055107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137813076376915</t>
+    <t xml:space="preserve">0.140165001153946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137813061475754</t>
   </si>
   <si>
     <t xml:space="preserve">0.135461121797562</t>
@@ -467,13 +467,13 @@
     <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134901136159897</t>
+    <t xml:space="preserve">0.134901151061058</t>
   </si>
   <si>
     <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133781164884567</t>
+    <t xml:space="preserve">0.133781179785728</t>
   </si>
   <si>
     <t xml:space="preserve">0.135853111743927</t>
@@ -482,58 +482,58 @@
     <t xml:space="preserve">0.141956999897957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381036162376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14363694190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884873509407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604880690575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131821200251579</t>
+    <t xml:space="preserve">0.139381021261215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143636956810951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884888410568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604895591736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
     <t xml:space="preserve">0.137477070093155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135965123772621</t>
+    <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136749103665352</t>
+    <t xml:space="preserve">0.136749088764191</t>
   </si>
   <si>
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853276371956</t>
+    <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
     <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541207432747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045359134674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685265779495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120677419006824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405258059502</t>
+    <t xml:space="preserve">0.131541192531586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045329332352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821357429028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685280680656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120677441358566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -557,10 +557,10 @@
     <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861100792885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154556721448898</t>
+    <t xml:space="preserve">0.136861085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154556706547737</t>
   </si>
   <si>
     <t xml:space="preserve">0.151028782129288</t>
@@ -569,31 +569,31 @@
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476800441742</t>
+    <t xml:space="preserve">0.151476785540581</t>
   </si>
   <si>
     <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152484759688377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145876914262772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236977815628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141229018568993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141285002231598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141061007976532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140109017491341</t>
+    <t xml:space="preserve">0.152484774589539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14587689936161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236992716789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141229003667831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141284987330437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141060993075371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389025211334</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005009412766</t>
+    <t xml:space="preserve">0.141004994511604</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693105101585</t>
+    <t xml:space="preserve">0.136693090200424</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741114616394</t>
@@ -626,10 +626,10 @@
     <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1338931620121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773175835609</t>
+    <t xml:space="preserve">0.133893147110939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773190736771</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
@@ -638,25 +638,25 @@
     <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157176733017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925208330154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173169732094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317228078842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525244235992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445158600807</t>
+    <t xml:space="preserve">0.132157191634178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925223231316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173154830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317213177681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525259137154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445173501968</t>
   </si>
   <si>
     <t xml:space="preserve">0.132717177271843</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131653189659119</t>
+    <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757062911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134117141366005</t>
+    <t xml:space="preserve">0.137757077813148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -701,13 +701,13 @@
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765051960945</t>
+    <t xml:space="preserve">0.138765066862106</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132661193609238</t>
+    <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
     <t xml:space="preserve">0.134285151958466</t>
@@ -716,31 +716,31 @@
     <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139269024133682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138653069734573</t>
+    <t xml:space="preserve">0.139269039034843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
     <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146996855735779</t>
+    <t xml:space="preserve">0.146996885538101</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652890205383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146268904209137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14766888320446</t>
+    <t xml:space="preserve">0.14621290564537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652905106544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146268889307976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812911748886</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972783565521</t>
+    <t xml:space="preserve">0.150972813367844</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.15276475250721</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153324738144875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152652770280838</t>
+    <t xml:space="preserve">0.153324723243713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
@@ -788,22 +788,22 @@
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476920366287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147612884640694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144980922341347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572984099388</t>
+    <t xml:space="preserve">0.144476935267448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147612869739532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144980907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572954297066</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14458891749382</t>
+    <t xml:space="preserve">0.144588932394981</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140837028622627</t>
+    <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
     <t xml:space="preserve">0.141117006540298</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804952502251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860965967178</t>
+    <t xml:space="preserve">0.143804937601089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
     <t xml:space="preserve">0.14173299074173</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">0.141452997922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143244966864586</t>
+    <t xml:space="preserve">0.143244951963425</t>
   </si>
   <si>
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140779256821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636807084084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468811392784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836863994598</t>
+    <t xml:space="preserve">0.151140794157982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636792182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468796491623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147836849093437</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
@@ -869,31 +869,31 @@
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028931856155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972933292389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076941370964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276863455772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152316763997078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732691287994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308924674988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143188953399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145372912287712</t>
+    <t xml:space="preserve">0.144028946757317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972918391228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076956272125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276878356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152316778898239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732706189156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308939576149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143188938498497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1421809643507</t>
+    <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14414094388485</t>
+    <t xml:space="preserve">0.144140928983688</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
+    <t xml:space="preserve">0.138317048549652</t>
   </si>
   <si>
     <t xml:space="preserve">0.141173005104065</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429045677185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149067759514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637091636658</t>
+    <t xml:space="preserve">0.138429060578346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149082660675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
     <t xml:space="preserve">0.136077120900154</t>
@@ -968,73 +968,73 @@
     <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129917249083519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317355453968</t>
+    <t xml:space="preserve">0.129917234182358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317362904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127117291092873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11983747035265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188155993819237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595139622688</t>
+    <t xml:space="preserve">0.127117305994034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119837440550327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188156008720398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595124721527</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315595984459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475737452507</t>
+    <t xml:space="preserve">0.20831561088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
     <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220635309815407</t>
+    <t xml:space="preserve">0.220635324716568</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355152368546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195295453072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875252366066</t>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195325255394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875267267227</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395337462425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225675225257874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
+    <t xml:space="preserve">0.225675195455551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315296530724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115239620209</t>
+    <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
@@ -1046,31 +1046,31 @@
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635040163994</t>
+    <t xml:space="preserve">0.234635010361671</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219625934958458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341574072838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226047769188881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194656729698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21063543856144</t>
+    <t xml:space="preserve">0.21962596476078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22604775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635408759117</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277589201927</t>
+    <t xml:space="preserve">0.211277604103088</t>
   </si>
   <si>
     <t xml:space="preserve">0.208708867430687</t>
@@ -1088,22 +1088,22 @@
     <t xml:space="preserve">0.193296521902084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507424116135</t>
+    <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590356588364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186874717473984</t>
+    <t xml:space="preserve">0.185590341687202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
     <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184305980801582</t>
+    <t xml:space="preserve">0.184305995702744</t>
   </si>
   <si>
     <t xml:space="preserve">0.17595762014389</t>
@@ -1115,10 +1115,10 @@
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452883243561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884191274643</t>
+    <t xml:space="preserve">0.180452898144722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599830389023</t>
@@ -1127,19 +1127,19 @@
     <t xml:space="preserve">0.197791785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938702344894</t>
+    <t xml:space="preserve">0.193938687443733</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443439245224</t>
+    <t xml:space="preserve">0.189443424344063</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188159078359604</t>
+    <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
@@ -1160,31 +1160,31 @@
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526356816292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175315469503403</t>
+    <t xml:space="preserve">0.178526341915131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172104552388191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217057213187218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186232522130013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17338889837265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169535830616951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171462342143059</t>
+    <t xml:space="preserve">0.172104567289352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217057228088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186232507228851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173388913273811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16953581571579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
     <t xml:space="preserve">0.170177981257439</t>
@@ -1193,19 +1193,19 @@
     <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16825145483017</t>
+    <t xml:space="preserve">0.168251469731331</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166967079043388</t>
+    <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
     <t xml:space="preserve">0.166324928402901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040567517281</t>
+    <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
     <t xml:space="preserve">0.165682718157768</t>
@@ -1214,10 +1214,10 @@
     <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157976552844048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618748188019</t>
+    <t xml:space="preserve">0.157976567745209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471815943718</t>
@@ -1226,13 +1226,13 @@
     <t xml:space="preserve">0.157334372401237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16054530441761</t>
+    <t xml:space="preserve">0.160545289516449</t>
   </si>
   <si>
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
+    <t xml:space="preserve">0.16311402618885</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
@@ -1244,28 +1244,28 @@
     <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407831072807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765650629997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154123470187187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164398387074471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737259030342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174031108617783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012161016464</t>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407845973969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765665531158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154123455286026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164398372173309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737244129181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17403107881546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012175917625</t>
   </si>
   <si>
     <t xml:space="preserve">0.187516883015633</t>
@@ -1274,10 +1274,10 @@
     <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199718326330185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190727800130844</t>
+    <t xml:space="preserve">0.199718341231346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190727785229683</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
+    <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524084687233</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303723573685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377182245255</t>
+    <t xml:space="preserve">0.250450640916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303753376007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377212047577</t>
   </si>
   <si>
     <t xml:space="preserve">0.253019362688065</t>
@@ -60730,19 +60730,19 @@
     </row>
     <row r="2222">
       <c r="A2222" s="1" t="n">
-        <v>45558.6495601852</v>
+        <v>45558.2916666667</v>
       </c>
       <c r="B2222" t="n">
         <v>50</v>
       </c>
       <c r="C2222" t="n">
-        <v>0.224000006914139</v>
+        <v>0.224999994039536</v>
       </c>
       <c r="D2222" t="n">
-        <v>0.212999999523163</v>
+        <v>0.224999994039536</v>
       </c>
       <c r="E2222" t="n">
-        <v>0.224000006914139</v>
+        <v>0.224999994039536</v>
       </c>
       <c r="F2222" t="n">
         <v>0.224999994039536</v>
@@ -60751,6 +60751,32 @@
         <v>868</v>
       </c>
       <c r="H2222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="1" t="n">
+        <v>45559.6495949074</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>0.222000002861023</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.224000006914139</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>868</v>
+      </c>
+      <c r="H2223" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.169900372624397</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
+    <t xml:space="preserve">0.162396550178528</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524495601654</t>
@@ -53,28 +53,28 @@
     <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836564540863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172570824623</t>
+    <t xml:space="preserve">0.161836549639702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172555923462</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15690866112709</t>
+    <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076806545258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732841014862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137309074401855</t>
+    <t xml:space="preserve">0.150076821446419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732826113701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
@@ -83,19 +83,19 @@
     <t xml:space="preserve">0.14330093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143132954835892</t>
+    <t xml:space="preserve">0.143132969737053</t>
   </si>
   <si>
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484909415245</t>
+    <t xml:space="preserve">0.145484894514084</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13501313328743</t>
+    <t xml:space="preserve">0.135013118386269</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
@@ -107,37 +107,37 @@
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253382742405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653511464596</t>
+    <t xml:space="preserve">0.123253375291824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653496563435</t>
   </si>
   <si>
     <t xml:space="preserve">0.115917541086674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122581399977207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077390551567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277619540691</t>
+    <t xml:space="preserve">0.122581392526627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077398002148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277612090111</t>
   </si>
   <si>
     <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11485356092453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597505450249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
+    <t xml:space="preserve">0.114853568375111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
@@ -167,34 +167,34 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940407991409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396235823631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836265087128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636223077774</t>
+    <t xml:space="preserve">0.167940437793732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396265625954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836279988289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636208176613</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17499628663063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17611625790596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436286091805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796229720116</t>
+    <t xml:space="preserve">0.174996271729469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116272807121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436300992966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
@@ -206,16 +206,16 @@
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340281963348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148304224014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170236364006996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162564545869827</t>
+    <t xml:space="preserve">0.176340252161026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148319125175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170236393809319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
     <t xml:space="preserve">0.157300665974617</t>
@@ -233,31 +233,31 @@
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16267654299736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916500449181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636507630348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596621990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428626298904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16301254928112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16362851858139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164468511939049</t>
+    <t xml:space="preserve">0.158644646406174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162676528096199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916515350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636492729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596607089043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428611397743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163012534379959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163628533482552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164468497037888</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
@@ -269,46 +269,46 @@
     <t xml:space="preserve">0.148396849632263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508831858635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596906542778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500872612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1473328769207</t>
+    <t xml:space="preserve">0.148508846759796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596891641617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500857710838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108852863312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147332862019539</t>
   </si>
   <si>
     <t xml:space="preserve">0.140613004565239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144644945859909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14542892575264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144084945321083</t>
+    <t xml:space="preserve">0.144644930958748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145428910851479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564860224724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145988881587982</t>
+    <t xml:space="preserve">0.148564845323563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156892180443</t>
+    <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
     <t xml:space="preserve">0.146660894155502</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997035264969</t>
+    <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132997170090675</t>
+    <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
     <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138597041368484</t>
+    <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997319817543</t>
+    <t xml:space="preserve">0.125997304916382</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
@@ -350,31 +350,31 @@
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029381036758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252539396286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893611192703</t>
+    <t xml:space="preserve">0.123029388487339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122525401413441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893596291542</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341435074806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157476186752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101485073566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933489382267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
+    <t xml:space="preserve">0.120341449975967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157483637333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101492524147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933481931686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293418109417</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381350517273</t>
@@ -386,34 +386,34 @@
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
+    <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
     <t xml:space="preserve">0.13484513759613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129357263445854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134789124131203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132885158061981</t>
+    <t xml:space="preserve">0.129357248544693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134789139032364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
     <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129021257162094</t>
+    <t xml:space="preserve">0.129021272063255</t>
   </si>
   <si>
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421393334866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461271524429</t>
+    <t xml:space="preserve">0.123421378433704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461256623268</t>
   </si>
   <si>
     <t xml:space="preserve">0.127229303121567</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573268651962</t>
+    <t xml:space="preserve">0.128573253750801</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
@@ -434,37 +434,37 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453132748604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133949160575867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136581107974052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165030956268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137813076376915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1354611068964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685116052628</t>
+    <t xml:space="preserve">0.134453147649765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133949145674706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136581093072891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165001153946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137813061475754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135461121797562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -473,19 +473,19 @@
     <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133781149983406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135853111743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956999897957</t>
+    <t xml:space="preserve">0.133781164884567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135853126645088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636956810951</t>
+    <t xml:space="preserve">0.143636971712112</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
@@ -494,37 +494,37 @@
     <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131821200251579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477084994316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135965123772621</t>
+    <t xml:space="preserve">0.13182121515274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477099895477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136749103665352</t>
+    <t xml:space="preserve">0.136749088764191</t>
   </si>
   <si>
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853261470795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453282475471</t>
+    <t xml:space="preserve">0.128853276371956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453297376633</t>
   </si>
   <si>
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
+    <t xml:space="preserve">0.125045329332352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821357429028</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -548,16 +548,16 @@
     <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221179246902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629117488861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733140468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861100792885</t>
+    <t xml:space="preserve">0.133221164345741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135629132390022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733125567436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150916785001755</t>
+    <t xml:space="preserve">0.150916770100594</t>
   </si>
   <si>
     <t xml:space="preserve">0.151476785540581</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145876914262772</t>
+    <t xml:space="preserve">0.14587689936161</t>
   </si>
   <si>
     <t xml:space="preserve">0.142236977815628</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141284987330437</t>
+    <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
     <t xml:space="preserve">0.141060993075371</t>
@@ -605,61 +605,61 @@
     <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140725031495094</t>
+    <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138821050524712</t>
+    <t xml:space="preserve">0.13882103562355</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693090200424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135741099715233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1338931620121</t>
+    <t xml:space="preserve">0.136693105101585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135741144418716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405108332634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134957149624825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131989195942879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132157191634178</t>
+    <t xml:space="preserve">0.134957134723663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131989181041718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132157206535339</t>
   </si>
   <si>
     <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134173154830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317213177681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525259137154</t>
+    <t xml:space="preserve">0.134173169732094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13131719827652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525244235992</t>
   </si>
   <si>
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717177271843</t>
+    <t xml:space="preserve">0.132717192173004</t>
   </si>
   <si>
     <t xml:space="preserve">0.130197241902351</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309224128723</t>
+    <t xml:space="preserve">0.130309239029884</t>
   </si>
   <si>
     <t xml:space="preserve">0.136917099356651</t>
@@ -692,28 +692,28 @@
     <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140333026647568</t>
+    <t xml:space="preserve">0.140333011746407</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573118925095</t>
+    <t xml:space="preserve">0.135573133826256</t>
   </si>
   <si>
     <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135125145316124</t>
+    <t xml:space="preserve">0.135125115513802</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285151958466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13820506632328</t>
+    <t xml:space="preserve">0.134285166859627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138205081224442</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908795952797</t>
+    <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
     <t xml:space="preserve">0.14699687063694</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212875843048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652905106544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146268904209137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.14621290564537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652890205383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146268919110298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.152764737606049</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -773,10 +773,10 @@
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372777462006</t>
+    <t xml:space="preserve">0.152652740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
@@ -788,22 +788,22 @@
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476935267448</t>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980907440186</t>
+    <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
     <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145204901695251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14458891749382</t>
+    <t xml:space="preserve">0.145204916596413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144588932394981</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140837028622627</t>
+    <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
     <t xml:space="preserve">0.141117006540298</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804952502251</t>
+    <t xml:space="preserve">0.143804937601089</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141733005642891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141676977276802</t>
+    <t xml:space="preserve">0.14173299074173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141676992177963</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636792182922</t>
+    <t xml:space="preserve">0.150636807084084</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147836849093437</t>
+    <t xml:space="preserve">0.14783687889576</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228839039803</t>
+    <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220864892006</t>
@@ -869,25 +869,25 @@
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028931856155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972933292389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076941370964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147276878356934</t>
+    <t xml:space="preserve">0.144028946757317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972918391228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076956272125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147276863455772</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732691287994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308924674988</t>
+    <t xml:space="preserve">0.155732706189156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308939576149</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">0.145372912287712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142404958605766</t>
+    <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14190100133419</t>
+    <t xml:space="preserve">0.141900971531868</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -917,34 +917,34 @@
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144140928983688</t>
+    <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
     <t xml:space="preserve">0.14094902575016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557006001472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141621008515358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138317048549652</t>
+    <t xml:space="preserve">0.14044500887394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140556991100311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141620993614197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
     <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
+    <t xml:space="preserve">0.142348974943161</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429045677185</t>
+    <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
@@ -962,88 +962,88 @@
     <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127677276730537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797262907028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129917234182358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317370355129</t>
+    <t xml:space="preserve">0.127677291631699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797277808189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129917219281197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317355453968</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127117291092873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119837455451488</t>
+    <t xml:space="preserve">0.127117305994034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119837448000908</t>
   </si>
   <si>
     <t xml:space="preserve">0.188155993819237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595154523849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995253443718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315566182137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23127506673336</t>
+    <t xml:space="preserve">0.229595124721527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995268344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315595984459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475737452507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231275051832199</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755310893059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355152368546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195295453072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875252366066</t>
+    <t xml:space="preserve">0.221755266189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875267267227</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225675225257874</t>
+    <t xml:space="preserve">0.225675210356712</t>
   </si>
   <si>
     <t xml:space="preserve">0.222315266728401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220075339078903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154781103134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115209817886</t>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154796004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075039625168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515039086342</t>
+    <t xml:space="preserve">0.23407506942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515024185181</t>
   </si>
   <si>
     <t xml:space="preserve">0.234635025262833</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21962596476078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341588973999</t>
+    <t xml:space="preserve">0.219625949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
     <t xml:space="preserve">0.22604775428772</t>
@@ -1064,61 +1064,61 @@
     <t xml:space="preserve">0.222194671630859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21063543856144</t>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277604103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.211277574300766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076175689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149604558945</t>
+    <t xml:space="preserve">0.199076145887375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
     <t xml:space="preserve">0.193296536803246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196507409214973</t>
+    <t xml:space="preserve">0.196507424116135</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590356588364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186874732375145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948146343231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305995702744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175957605242729</t>
+    <t xml:space="preserve">0.185590371489525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186874717473984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948161244392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305980801582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175957635045052</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177241995930672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452883243561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884191274643</t>
+    <t xml:space="preserve">0.17724198102951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452898144722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599815487862</t>
@@ -1133,25 +1133,25 @@
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443409442902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194580897688866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159078359604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183021634817123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179810732603073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095093488693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179168537259102</t>
+    <t xml:space="preserve">0.189443424344063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194580882787704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159093260765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183021619915962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179810717701912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095078587532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179168552160263</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
+    <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057228088379</t>
@@ -1181,19 +1181,19 @@
     <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16953581571579</t>
+    <t xml:space="preserve">0.169535830616951</t>
   </si>
   <si>
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170178011059761</t>
+    <t xml:space="preserve">0.170177981257439</t>
   </si>
   <si>
     <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16825145483017</t>
+    <t xml:space="preserve">0.168251469731331</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
@@ -1205,19 +1205,19 @@
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040552616119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682733058929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260928630829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157976567745209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618733286858</t>
+    <t xml:space="preserve">0.165040567517281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682718157768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260913729668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157976552844048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471815943718</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">0.156050011515617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903094172478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407831072807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.159903109073639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407845973969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">0.164398387074471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181737244129181</t>
+    <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">0.192012146115303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
@@ -1280,76 +1280,76 @@
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223048329353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244028836488724</t>
+    <t xml:space="preserve">0.195223063230515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244028821587563</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524099588394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166280031204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744475603104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.254945933818817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524114489555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166265130043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744490504265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735031604767</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377212047577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253019362688065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175753831863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386670947075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322686076164</t>
+    <t xml:space="preserve">0.250450611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377182245255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253019392490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175738930702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386641144753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322671175003</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247881904244423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592603206635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262109965085983</t>
+    <t xml:space="preserve">0.247881934046745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592573404312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262109994888306</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548297047615</t>
+    <t xml:space="preserve">0.247548311948776</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941723704338</t>
+    <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
     <t xml:space="preserve">0.230559721589088</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604611992836</t>
+    <t xml:space="preserve">0.234604597091675</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22651481628418</t>
+    <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986643910408</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930343866348</t>
+    <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.24431237578392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840563058853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24188543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222594976425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24350343644619</t>
+    <t xml:space="preserve">0.228132769465446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222609877586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503421545029</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739357709885</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
+    <t xml:space="preserve">0.261301040649414</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435741662979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
+    <t xml:space="preserve">0.273435711860657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27100881934166</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -60777,6 +60777,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2224">
+      <c r="A2224" s="1" t="n">
+        <v>45560.2916666667</v>
+      </c>
+      <c r="B2224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2224" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0.224999994039536</v>
+      </c>
+      <c r="G2224" t="s">
+        <v>867</v>
+      </c>
+      <c r="H2224" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524480700493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348525762558</t>
+    <t xml:space="preserve">0.162396535277367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524510502815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
@@ -62,19 +62,19 @@
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15690866112709</t>
+    <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076821446419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732826113701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137309074401855</t>
+    <t xml:space="preserve">0.150076806545258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732841014862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135013118386269</t>
+    <t xml:space="preserve">0.135013148188591</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
@@ -104,10 +104,10 @@
     <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135517120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253375291824</t>
+    <t xml:space="preserve">0.135517135262489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653496563435</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077405452728</t>
+    <t xml:space="preserve">0.122077420353889</t>
   </si>
   <si>
     <t xml:space="preserve">0.112277612090111</t>
@@ -128,16 +128,16 @@
     <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114853553473949</t>
+    <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
     <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123981356620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.123981364071369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">0.134397134184837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143916949629784</t>
+    <t xml:space="preserve">0.143916934728622</t>
   </si>
   <si>
     <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716593265533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140494704247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156740665435791</t>
+    <t xml:space="preserve">0.160716578364372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140509605408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156740695238113</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396250724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17863617837429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204317688942</t>
+    <t xml:space="preserve">0.176396265625954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836250185966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636208176613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
     <t xml:space="preserve">0.17499628663063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173596307635307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116287708282</t>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436300992966</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996451258659</t>
+    <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340252161026</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">0.158644631505013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162676557898521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916485548019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636507630348</t>
+    <t xml:space="preserve">0.16267654299736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916500449181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">0.163012534379959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163628503680229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16446852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15119680762291</t>
+    <t xml:space="preserve">0.163628533482552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164468511939049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -269,19 +269,19 @@
     <t xml:space="preserve">0.148396849632263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508846759796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596906542778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.148508831858635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596891641617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108882665634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1473328769207</t>
+    <t xml:space="preserve">0.147332862019539</t>
   </si>
   <si>
     <t xml:space="preserve">0.1406130194664</t>
@@ -290,16 +290,16 @@
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14542892575264</t>
+    <t xml:space="preserve">0.145428895950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700914621353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148564845323563</t>
+    <t xml:space="preserve">0.144700929522514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148564860224724</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988896489143</t>
@@ -308,34 +308,34 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145820885896683</t>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660879254341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997035264969</t>
+    <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132997170090675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137701079249382</t>
+    <t xml:space="preserve">0.132997184991837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137701094150543</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597071170807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14139698445797</t>
+    <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
     <t xml:space="preserve">0.123197376728058</t>
@@ -344,37 +344,37 @@
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477234721184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253225564957</t>
+    <t xml:space="preserve">0.130477219820023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
     <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12252539396286</t>
+    <t xml:space="preserve">0.12252538651228</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397455990314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341457426548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157483637333</t>
+    <t xml:space="preserve">0.120397448539734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341442525387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157498538494</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
+    <t xml:space="preserve">0.117933481931686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293418109417</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
+    <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845122694969</t>
@@ -398,16 +398,16 @@
     <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885187864304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661343336105</t>
+    <t xml:space="preserve">0.132885172963142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621293067932</t>
+    <t xml:space="preserve">0.127621278166771</t>
   </si>
   <si>
     <t xml:space="preserve">0.123421385884285</t>
@@ -416,19 +416,19 @@
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229288220406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129637256264687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128237277269363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128573253750801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128629267215729</t>
+    <t xml:space="preserve">0.127229303121567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129637241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128237292170525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128573268651962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128629252314568</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
@@ -437,40 +437,40 @@
     <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139325052499771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.13932503759861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
+    <t xml:space="preserve">0.134453132748604</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165030956268</t>
+    <t xml:space="preserve">0.136581107974052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
     <t xml:space="preserve">0.137813076376915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135461121797562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685116052628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901136159897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134061142802238</t>
+    <t xml:space="preserve">0.1354611068964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685130953789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901121258736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14363694190979</t>
+    <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13596510887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143356963992119</t>
+    <t xml:space="preserve">0.135965093970299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14335697889328</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -521,34 +521,34 @@
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685250878334</t>
+    <t xml:space="preserve">0.125045329332352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821357429028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613318920135</t>
+    <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
     <t xml:space="preserve">0.131037205457687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133557170629501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221179246902</t>
+    <t xml:space="preserve">0.13355715572834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221164345741</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861100792885</t>
+    <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
@@ -575,19 +575,19 @@
     <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152484759688377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145876914262772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236977815628</t>
+    <t xml:space="preserve">0.152484774589539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145876929163933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141284987330437</t>
+    <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
     <t xml:space="preserve">0.141060993075371</t>
@@ -602,10 +602,10 @@
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005009412766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140725031495094</t>
+    <t xml:space="preserve">0.141004994511604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
     <t xml:space="preserve">0.13837306201458</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13467712700367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136693090200424</t>
+    <t xml:space="preserve">0.134677141904831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741114616394</t>
@@ -626,46 +626,46 @@
     <t xml:space="preserve">0.135405108332634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1338931620121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773190736771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957119822502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13198921084404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132157206535339</t>
+    <t xml:space="preserve">0.133893147110939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773175835609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957134723663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131989195942879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
     <t xml:space="preserve">0.130925223231316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134173139929771</t>
+    <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
     <t xml:space="preserve">0.13053323328495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131317228078842</t>
+    <t xml:space="preserve">0.131317213177681</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133445173501968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717192173004</t>
+    <t xml:space="preserve">0.133445158600807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
     <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132493183016777</t>
+    <t xml:space="preserve">0.132493197917938</t>
   </si>
   <si>
     <t xml:space="preserve">0.13165320456028</t>
@@ -677,19 +677,19 @@
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309239029884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136917099356651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134341135621071</t>
+    <t xml:space="preserve">0.130309224128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13691708445549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117141366005</t>
+    <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -698,22 +698,22 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573104023933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765051960945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125130414963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661178708076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285137057304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13820506632328</t>
+    <t xml:space="preserve">0.135573118925095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765066862106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125145316124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661193609238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285151958466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138205081224442</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
+    <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14766888320446</t>
+    <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -749,19 +749,19 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972798466682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149348825216293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996750712395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156516686081886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.150972813367844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149348810315132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996720910072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156516671180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152764737606049</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -773,40 +773,40 @@
     <t xml:space="preserve">0.153324753046036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652740478516</t>
+    <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060873150826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146940886974335</t>
+    <t xml:space="preserve">0.148060858249664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146940872073174</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476920366287</t>
+    <t xml:space="preserve">0.144476935267448</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144980907440186</t>
+    <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
     <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145204916596413</t>
+    <t xml:space="preserve">0.145204901695251</t>
   </si>
   <si>
     <t xml:space="preserve">0.144588932394981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143412932753563</t>
+    <t xml:space="preserve">0.143412962555885</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140837013721466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141117006540298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144196942448616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804937601089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860951066017</t>
+    <t xml:space="preserve">0.140836998820305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14111702144146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144196927547455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804952502251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860965967178</t>
   </si>
   <si>
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676977276802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141452997922897</t>
+    <t xml:space="preserve">0.141676992177963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141453012824059</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244951963425</t>
@@ -848,22 +848,22 @@
     <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636792182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468796491623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836863994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.150636821985245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468811392784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147836849093437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460852146149</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220864892006</t>
+    <t xml:space="preserve">0.147220879793167</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972918391228</t>
+    <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142404973506927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144252941012383</t>
+    <t xml:space="preserve">0.142404988408089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144252926111221</t>
   </si>
   <si>
     <t xml:space="preserve">0.141844987869263</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900971531868</t>
+    <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -923,31 +923,31 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445038676262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557020902634</t>
+    <t xml:space="preserve">0.140445023775101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141173005104065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142348974943161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124980688095</t>
+    <t xml:space="preserve">0.138317048549652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141172990202904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142348989844322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124995589256</t>
   </si>
   <si>
     <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149067759514</t>
+    <t xml:space="preserve">0.138149052858353</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637091636658</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">0.133837163448334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127677276730537</t>
+    <t xml:space="preserve">0.133277162909508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127677291631699</t>
   </si>
   <si>
     <t xml:space="preserve">0.128797262907028</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">0.126557320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317362904549</t>
+    <t xml:space="preserve">0.124317370355129</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">0.188156008720398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595109820366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995253443718</t>
+    <t xml:space="preserve">0.229595154523849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995223641396</t>
   </si>
   <si>
     <t xml:space="preserve">0.208315566182137</t>
@@ -1001,67 +1001,67 @@
     <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231275096535683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635324716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755266189575</t>
+    <t xml:space="preserve">0.23127506673336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635294914246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755281090736</t>
   </si>
   <si>
     <t xml:space="preserve">0.227355167269707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195295453072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395367264748</t>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154810905457</t>
+    <t xml:space="preserve">0.222315311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154840707779</t>
   </si>
   <si>
     <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237994953989983</t>
+    <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
     <t xml:space="preserve">0.234075054526329</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515053987503</t>
+    <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
     <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214488491415977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21962596476078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341588973999</t>
+    <t xml:space="preserve">0.214488506317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
     <t xml:space="preserve">0.22604775428772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194671630859</t>
+    <t xml:space="preserve">0.222194656729698</t>
   </si>
   <si>
     <t xml:space="preserve">0.210635408759117</t>
@@ -1070,19 +1070,19 @@
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277604103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.211277589201927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076145887375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197149604558945</t>
+    <t xml:space="preserve">0.199076175689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
     <t xml:space="preserve">0.193296521902084</t>
@@ -1091,22 +1091,22 @@
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865258574486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185590341687202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186874732375145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305995702744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17595762014389</t>
+    <t xml:space="preserve">0.195865243673325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185590356588364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186874717473984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948176145554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305980801582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175957635045052</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452898144722</t>
+    <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
@@ -1124,43 +1124,43 @@
     <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197791799902916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938687443733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369980573654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443409442902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194580897688866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159078359604</t>
+    <t xml:space="preserve">0.197791814804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938702344894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369995474815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443439245224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194580882787704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810717701912</t>
+    <t xml:space="preserve">0.179810732603073</t>
   </si>
   <si>
     <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179168552160263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183663815259933</t>
+    <t xml:space="preserve">0.179168537259102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183663830161095</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526341915131</t>
+    <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">0.17210453748703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217057228088379</t>
+    <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173388928174973</t>
+    <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
     <t xml:space="preserve">0.16953581571579</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170820191502571</t>
+    <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
     <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16760927438736</t>
+    <t xml:space="preserve">0.167609289288521</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618733286858</t>
+    <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471830844879</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
+    <t xml:space="preserve">0.16311402618885</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
@@ -1241,16 +1241,16 @@
     <t xml:space="preserve">0.156692206859589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156050011515617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903094172478</t>
+    <t xml:space="preserve">0.156050026416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903109073639</t>
   </si>
   <si>
     <t xml:space="preserve">0.155407831072807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">0.164398372173309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181737244129181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17403107881546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012146115303</t>
+    <t xml:space="preserve">0.181737259030342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174031093716621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012175917625</t>
   </si>
   <si>
     <t xml:space="preserve">0.187516897916794</t>
@@ -1274,13 +1274,13 @@
     <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199718326330185</t>
+    <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223048329353</t>
+    <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
     <t xml:space="preserve">0.244028836488724</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
+    <t xml:space="preserve">0.25494596362114</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524099588394</t>
@@ -1301,19 +1301,19 @@
     <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251734972000122</t>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450670719147</t>
+    <t xml:space="preserve">0.250450611114502</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252377212047577</t>
+    <t xml:space="preserve">0.252377182245255</t>
   </si>
   <si>
     <t xml:space="preserve">0.253019362688065</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">0.240175753831863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386670947075</t>
+    <t xml:space="preserve">0.243386656045914</t>
   </si>
   <si>
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597558259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
+    <t xml:space="preserve">0.246597573161125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
     <t xml:space="preserve">0.323592603206635</t>
@@ -1346,31 +1346,31 @@
     <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240267485380173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228941723704338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559721589088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229750737547874</t>
+    <t xml:space="preserve">0.240267500281334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228941738605499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559706687927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229750752449036</t>
   </si>
   <si>
     <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231368705630302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233795627951622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232177689671516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226514801383018</t>
+    <t xml:space="preserve">0.231368720531464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233795642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232177674770355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986658811569</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076469421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930343866348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649502396584</t>
+    <t xml:space="preserve">0.241076484322548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930358767509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649532198906</t>
   </si>
   <si>
     <t xml:space="preserve">0.244312390685081</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
   </si>
   <si>
     <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222594976425</t>
+    <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
     <t xml:space="preserve">0.243503406643867</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065074682236</t>
+    <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
     <t xml:space="preserve">0.257256090641022</t>
@@ -1439,25 +1439,28 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211170434952</t>
+    <t xml:space="preserve">0.253211200237274</t>
   </si>
   <si>
     <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250784248113632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.250784277915955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166309833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
+    <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683072566986</t>
@@ -1469,31 +1472,28 @@
     <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222469910979271</t>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
     <t xml:space="preserve">0.221660912036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225705847144127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435741662979</t>
+    <t xml:space="preserve">0.225705832242966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
     <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264536947011948</t>
+    <t xml:space="preserve">0.264536917209625</t>
   </si>
   <si>
     <t xml:space="preserve">0.260645747184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
     <t xml:space="preserve">0.247742474079132</t>
@@ -27650,7 +27650,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27702,7 +27702,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27728,7 +27728,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27780,7 +27780,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27910,7 +27910,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28040,7 +28040,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28326,7 +28326,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28534,7 +28534,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28846,7 +28846,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28950,7 +28950,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29002,7 +29002,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29080,7 +29080,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29106,7 +29106,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29210,7 +29210,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29236,7 +29236,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29262,7 +29262,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29288,7 +29288,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29626,7 +29626,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29652,7 +29652,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29704,7 +29704,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29730,7 +29730,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29834,7 +29834,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29886,7 +29886,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30120,7 +30120,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30354,7 +30354,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30562,7 +30562,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30588,7 +30588,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30692,7 +30692,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30796,7 +30796,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31134,7 +31134,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31186,7 +31186,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31576,7 +31576,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31602,7 +31602,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31628,7 +31628,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31654,7 +31654,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31680,7 +31680,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31732,7 +31732,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31784,7 +31784,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31862,7 +31862,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31888,7 +31888,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31914,7 +31914,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31966,7 +31966,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32226,7 +32226,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32252,7 +32252,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37556,7 +37556,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -60860,19 +60860,19 @@
     </row>
     <row r="2227">
       <c r="A2227" s="1" t="n">
-        <v>45565.6494907407</v>
+        <v>45565.2916666667</v>
       </c>
       <c r="B2227" t="n">
         <v>50</v>
       </c>
       <c r="C2227" t="n">
-        <v>0.224999994039536</v>
+        <v>0.225999996066093</v>
       </c>
       <c r="D2227" t="n">
-        <v>0.210999995470047</v>
+        <v>0.225999996066093</v>
       </c>
       <c r="E2227" t="n">
-        <v>0.222000002861023</v>
+        <v>0.225999996066093</v>
       </c>
       <c r="F2227" t="n">
         <v>0.225999996066093</v>
@@ -60881,6 +60881,32 @@
         <v>867</v>
       </c>
       <c r="H2227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="1" t="n">
+        <v>45566.5394444444</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>0.225999996066093</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>0.224000006914139</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.224000006914139</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.225999996066093</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>867</v>
+      </c>
+      <c r="H2228" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="877">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.164524510502815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348540663719</t>
+    <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14330093562603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132969737053</t>
+    <t xml:space="preserve">0.143300950527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484909415245</t>
+    <t xml:space="preserve">0.145484894514084</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941021800041</t>
@@ -110,28 +110,28 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653511464596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917548537254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077398002148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11227760463953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117597997189</t>
+    <t xml:space="preserve">0.117653496563435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581399977207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077390551567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277619540691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597497999668</t>
+    <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
     <t xml:space="preserve">0.123981356620789</t>
@@ -143,31 +143,31 @@
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397134184837</t>
+    <t xml:space="preserve">0.134397149085999</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252791285515</t>
+    <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
     <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165140509605408</t>
+    <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156592726707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167772442102432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167940437793732</t>
+    <t xml:space="preserve">0.160156607627869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167772457003593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167940407991409</t>
   </si>
   <si>
     <t xml:space="preserve">0.176396235823631</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17499628663063</t>
+    <t xml:space="preserve">0.174996301531792</t>
   </si>
   <si>
     <t xml:space="preserve">0.17359633743763</t>
@@ -191,31 +191,31 @@
     <t xml:space="preserve">0.176116272807121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174436300992966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796214818954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700345516205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644317150116</t>
+    <t xml:space="preserve">0.174436286091805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796229720116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700330615044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340267062187</t>
+    <t xml:space="preserve">0.176340281963348</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148304224014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170236378908157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162564560770988</t>
+    <t xml:space="preserve">0.170236364006996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162564545869827</t>
   </si>
   <si>
     <t xml:space="preserve">0.157300665974617</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860486984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158028647303581</t>
+    <t xml:space="preserve">0.164860501885414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15802863240242</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644631505013</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916515350342</t>
+    <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636507630348</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012534379959</t>
+    <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
     <t xml:space="preserve">0.163628533482552</t>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">0.16446852684021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151196777820587</t>
+    <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148396849632263</t>
+    <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
     <t xml:space="preserve">0.148508831858635</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500857710838</t>
+    <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">0.1473328769207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1406130194664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644930958748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145428895950317</t>
+    <t xml:space="preserve">0.140613004565239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644945859909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084945321083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700929522514</t>
+    <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
+    <t xml:space="preserve">0.147556856274605</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660879254341</t>
+    <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997020363808</t>
+    <t xml:space="preserve">0.139997035264969</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132997184991837</t>
+    <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
     <t xml:space="preserve">0.137701079249382</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197376728058</t>
+    <t xml:space="preserve">0.123197391629219</t>
   </si>
   <si>
     <t xml:space="preserve">0.125997334718704</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029373586178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122525401413441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893596291542</t>
+    <t xml:space="preserve">0.123029381036758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
@@ -365,22 +365,22 @@
     <t xml:space="preserve">0.120341435074806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118157483637333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101492524147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933496832848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293433010578</t>
+    <t xml:space="preserve">0.118157491087914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933489382267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381350517273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
@@ -389,28 +389,28 @@
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134845122694969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357248544693</t>
+    <t xml:space="preserve">0.13484513759613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357263445854</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885172963142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661313533783</t>
+    <t xml:space="preserve">0.132885158061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.127621307969093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421378433704</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129637256264687</t>
+    <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
     <t xml:space="preserve">0.128237277269363</t>
@@ -428,13 +428,13 @@
     <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128629267215729</t>
+    <t xml:space="preserve">0.12862928211689</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
@@ -452,10 +452,10 @@
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165016055107</t>
+    <t xml:space="preserve">0.136581107974052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165030956268</t>
   </si>
   <si>
     <t xml:space="preserve">0.137813076376915</t>
@@ -476,19 +476,19 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853096842766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956984996796</t>
+    <t xml:space="preserve">0.135853111743927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956999897957</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636956810951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884873509407</t>
+    <t xml:space="preserve">0.14363694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
     <t xml:space="preserve">0.146604880690575</t>
@@ -500,25 +500,25 @@
     <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135965123772621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14335697889328</t>
+    <t xml:space="preserve">0.13596510887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597191095352</t>
+    <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453297376633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541222333908</t>
+    <t xml:space="preserve">0.127453282475471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
     <t xml:space="preserve">0.125045344233513</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405258059502</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -554,22 +554,22 @@
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733140468597</t>
+    <t xml:space="preserve">0.134733155369759</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556721448898</t>
+    <t xml:space="preserve">0.15455673635006</t>
   </si>
   <si>
     <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150916785001755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15147677063942</t>
+    <t xml:space="preserve">0.150916799902916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151476785540581</t>
   </si>
   <si>
     <t xml:space="preserve">0.153100743889809</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141229003667831</t>
+    <t xml:space="preserve">0.141229018568993</t>
   </si>
   <si>
     <t xml:space="preserve">0.141285002231598</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140109032392502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140389010310173</t>
+    <t xml:space="preserve">0.140109017491341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140389025211334</t>
   </si>
   <si>
     <t xml:space="preserve">0.14156499505043</t>
@@ -611,22 +611,22 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13882103562355</t>
+    <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693105101585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135741129517555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1338931620121</t>
+    <t xml:space="preserve">0.136693090200424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773190736771</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131989181041718</t>
+    <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
     <t xml:space="preserve">0.132157191634178</t>
@@ -647,13 +647,13 @@
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130533203482628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317213177681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525244235992</t>
+    <t xml:space="preserve">0.130533218383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317228078842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525259137154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133445158600807</t>
@@ -662,16 +662,16 @@
     <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130197241902351</t>
+    <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131653219461441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131261214613914</t>
+    <t xml:space="preserve">0.13165320456028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131261199712753</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13691708445549</t>
+    <t xml:space="preserve">0.136917099356651</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341135621071</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135125130414963</t>
+    <t xml:space="preserve">0.135125145316124</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908795952797</t>
+    <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
     <t xml:space="preserve">0.14699687063694</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652890205383</t>
+    <t xml:space="preserve">0.146212875843048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
@@ -767,22 +767,22 @@
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708768844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153324723243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152652740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372762560844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148060858249664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146940886974335</t>
+    <t xml:space="preserve">0.152708753943443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153324738144875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152652755379677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372777462006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148060873150826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146940872073174</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572954297066</t>
+    <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204901695251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144588932394981</t>
+    <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804937601089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860951066017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141733005642891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141676992177963</t>
+    <t xml:space="preserve">0.143804952502251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860936164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14173299074173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -842,19 +842,19 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540922880173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151140779256821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636807084084</t>
+    <t xml:space="preserve">0.145540907979012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151140794157982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147836863994598</t>
+    <t xml:space="preserve">0.147836849093437</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972918391228</t>
+    <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
@@ -881,22 +881,22 @@
     <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152316778898239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732706189156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14430895447731</t>
+    <t xml:space="preserve">0.152316763997078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732691287994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404973506927</t>
+    <t xml:space="preserve">0.145372927188873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404958605766</t>
   </si>
   <si>
     <t xml:space="preserve">0.144252941012383</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14414094388485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140949010848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140445038676262</t>
+    <t xml:space="preserve">0.144140928983688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14094902575016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141620993614197</t>
+    <t xml:space="preserve">0.141621008515358</t>
   </si>
   <si>
     <t xml:space="preserve">0.138317063450813</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
@@ -947,22 +947,22 @@
     <t xml:space="preserve">0.138429045677185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149052858353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637106537819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077091097832</t>
+    <t xml:space="preserve">0.138149067759514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637091636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077120900154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127677291631699</t>
+    <t xml:space="preserve">0.133277162909508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127677276730537</t>
   </si>
   <si>
     <t xml:space="preserve">0.128797277808189</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188156008720398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595124721527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995238542557</t>
+    <t xml:space="preserve">0.188155978918076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595139622688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
     <t xml:space="preserve">0.208315581083298</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231275051832199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635294914246</t>
+    <t xml:space="preserve">0.231275096535683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755310893059</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">0.227355152368546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195310354233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
+    <t xml:space="preserve">0.221195325255394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875252366066</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225675210356712</t>
+    <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
     <t xml:space="preserve">0.222315266728401</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">0.220075324177742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244154796004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115239620209</t>
+    <t xml:space="preserve">0.244154781103134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115209817886</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
@@ -1043,28 +1043,28 @@
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515053987503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23463499546051</t>
+    <t xml:space="preserve">0.233515039086342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219625979661942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341588973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226047769188881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194686532021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21063543856144</t>
+    <t xml:space="preserve">0.21962596476078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341574072838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22604775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194656729698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205497950315475</t>
+    <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
     <t xml:space="preserve">0.199076175689697</t>
@@ -1091,16 +1091,16 @@
     <t xml:space="preserve">0.196507409214973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874732375145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948146343231</t>
+    <t xml:space="preserve">0.186874717473984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305995702744</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177241995930672</t>
+    <t xml:space="preserve">0.177242010831833</t>
   </si>
   <si>
     <t xml:space="preserve">0.180452883243561</t>
@@ -1121,13 +1121,13 @@
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176599815487862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791770100594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938672542572</t>
+    <t xml:space="preserve">0.176599830389023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938702344894</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
@@ -1136,31 +1136,31 @@
     <t xml:space="preserve">0.189443409442902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194580882787704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159093260765</t>
+    <t xml:space="preserve">0.194580897688866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159078359604</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021634817123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810717701912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095078587532</t>
+    <t xml:space="preserve">0.179810732603073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663800358772</t>
+    <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526371717453</t>
+    <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217057213187218</t>
+    <t xml:space="preserve">0.217057228088379</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
@@ -1196,22 +1196,22 @@
     <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16760927438736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166967079043388</t>
+    <t xml:space="preserve">0.167609289288521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040552616119</t>
+    <t xml:space="preserve">0.165040567517281</t>
   </si>
   <si>
     <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159260913729668</t>
+    <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
     <t xml:space="preserve">0.157976552844048</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157334372401237</t>
+    <t xml:space="preserve">0.157334387302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161829635500908</t>
+    <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
     <t xml:space="preserve">0.156692191958427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156050011515617</t>
+    <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
     <t xml:space="preserve">0.159903094172478</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154123470187187</t>
+    <t xml:space="preserve">0.154123485088348</t>
   </si>
   <si>
     <t xml:space="preserve">0.164398387074471</t>
@@ -1265,25 +1265,25 @@
     <t xml:space="preserve">0.174031093716621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012146115303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516912817955</t>
+    <t xml:space="preserve">0.192012161016464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516897916794</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199718326330185</t>
+    <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223063230515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244028821587563</t>
+    <t xml:space="preserve">0.195223048329353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
@@ -1292,13 +1292,13 @@
     <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248524084687233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166265130043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744475603104</t>
+    <t xml:space="preserve">0.248524099588394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166280031204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744490504265</t>
   </si>
   <si>
     <t xml:space="preserve">0.251735001802444</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">0.250450640916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254303723573685</t>
+    <t xml:space="preserve">0.254303753376007</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1322,34 +1322,34 @@
     <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386641144753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322641372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597558259964</t>
+    <t xml:space="preserve">0.243386670947075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322656273842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597573161125</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881904244423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323592573404312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262109994888306</t>
+    <t xml:space="preserve">0.323592603206635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262109965085983</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548311948776</t>
+    <t xml:space="preserve">0.247548297047615</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228941738605499</t>
+    <t xml:space="preserve">0.228941723704338</t>
   </si>
   <si>
     <t xml:space="preserve">0.230559721589088</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234604597091675</t>
+    <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
     <t xml:space="preserve">0.231368705630302</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226514801383018</t>
+    <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986643910408</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245930358767509</t>
+    <t xml:space="preserve">0.245930343866348</t>
   </si>
   <si>
     <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24431237578392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840563058853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24188543856144</t>
+    <t xml:space="preserve">0.244312390685081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1406,22 +1406,22 @@
     <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228132769465446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222609877586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503421545029</t>
+    <t xml:space="preserve">0.228132784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222594976425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24350343644619</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739357709885</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245121374726295</t>
+    <t xml:space="preserve">0.245121389627457</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683042764664</t>
+    <t xml:space="preserve">0.259683072566986</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301040649414</t>
+    <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
     <t xml:space="preserve">0.208717197179794</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27100881934166</t>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -2640,6 +2640,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.224000006914139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.209000006318092</t>
   </si>
 </sst>
 </file>
@@ -60961,7 +60964,7 @@
     </row>
     <row r="2231">
       <c r="A2231" s="1" t="n">
-        <v>45569.6495949074</v>
+        <v>45569.2916666667</v>
       </c>
       <c r="B2231" t="n">
         <v>12020</v>
@@ -60982,6 +60985,32 @@
         <v>864</v>
       </c>
       <c r="H2231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="1" t="n">
+        <v>45572.649375</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>0.218999996781349</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>0.204999998211861</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.204999998211861</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="G2232" t="s">
+        <v>876</v>
+      </c>
+      <c r="H2232" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524510502815</t>
+    <t xml:space="preserve">0.162396550178528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
     <t xml:space="preserve">0.163348525762558</t>
@@ -56,22 +56,22 @@
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172570824623</t>
+    <t xml:space="preserve">0.162172555923462</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156908676028252</t>
+    <t xml:space="preserve">0.15690866112709</t>
   </si>
   <si>
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076821446419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732841014862</t>
+    <t xml:space="preserve">0.150076806545258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732826113701</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309074401855</t>
@@ -80,10 +80,10 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132954835892</t>
+    <t xml:space="preserve">0.143300965428352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132969737053</t>
   </si>
   <si>
     <t xml:space="preserve">0.142740979790688</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
+    <t xml:space="preserve">0.13786906003952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
@@ -110,22 +110,22 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653496563435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917541086674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581399977207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077390551567</t>
+    <t xml:space="preserve">0.117653504014015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917533636093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581392526627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
     <t xml:space="preserve">0.112277619540691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113117605447769</t>
+    <t xml:space="preserve">0.113117597997189</t>
   </si>
   <si>
     <t xml:space="preserve">0.11485356092453</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397149085999</t>
+    <t xml:space="preserve">0.134397134184837</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.160716578364372</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -164,76 +164,76 @@
     <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167772457003593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167940407991409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396235823631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836265087128</t>
+    <t xml:space="preserve">0.167772442102432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167940437793732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396250724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204332590103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996301531792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116272807121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436286091805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796229720116</t>
+    <t xml:space="preserve">0.173204317688942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174996271729469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436300992966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644332051277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996436357498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340281963348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148304224014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170236364006996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162564545869827</t>
+    <t xml:space="preserve">0.172644317150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996451258659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340252161026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148319125175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170236378908157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460522890091</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15802863240242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158644631505013</t>
+    <t xml:space="preserve">0.158028647303581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
@@ -245,19 +245,19 @@
     <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159596621990204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428626298904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16301254928112</t>
+    <t xml:space="preserve">0.159596607089043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428611397743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163012534379959</t>
   </si>
   <si>
     <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16446852684021</t>
+    <t xml:space="preserve">0.164468511939049</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508831858635</t>
+    <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596906542778</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613004565239</t>
+    <t xml:space="preserve">0.147108882665634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147332891821861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644945859909</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084945321083</t>
+    <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700914621353</t>
@@ -302,19 +302,19 @@
     <t xml:space="preserve">0.148564845323563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145988896489143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147556856274605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145820900797844</t>
+    <t xml:space="preserve">0.145988911390305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147556871175766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660879254341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145820915699005</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
@@ -323,25 +323,25 @@
     <t xml:space="preserve">0.139997035264969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139437034726143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132997170090675</t>
+    <t xml:space="preserve">0.139437049627304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
     <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138597056269646</t>
+    <t xml:space="preserve">0.138597041368484</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197391629219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997334718704</t>
+    <t xml:space="preserve">0.123197376728058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12252539396286</t>
+    <t xml:space="preserve">0.122525401413441</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
@@ -362,22 +362,22 @@
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341435074806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157491087914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101485073566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933489382267</t>
+    <t xml:space="preserve">0.120341449975967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157483637333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101499974728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933504283428</t>
   </si>
   <si>
     <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125381350517273</t>
+    <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093204021454</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13484513759613</t>
+    <t xml:space="preserve">0.129805237054825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357263445854</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621307969093</t>
+    <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
     <t xml:space="preserve">0.123421378433704</t>
@@ -419,34 +419,34 @@
     <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129637241363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128237277269363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128573268651962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12862928211689</t>
+    <t xml:space="preserve">0.129637226462364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128237292170525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128573253750801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788974404335</t>
+    <t xml:space="preserve">0.141788989305496</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138933047652245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134453147649765</t>
+    <t xml:space="preserve">0.138261049985886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138933062553406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134453132748604</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140165030956268</t>
+    <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
     <t xml:space="preserve">0.137813076376915</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685116052628</t>
+    <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853111743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956999897957</t>
+    <t xml:space="preserve">0.135853126645088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141957014799118</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604880690575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131821200251579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477084994316</t>
+    <t xml:space="preserve">0.146604895591736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13182121515274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477070093155</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
@@ -515,25 +515,25 @@
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453282475471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541207432747</t>
+    <t xml:space="preserve">0.127453297376633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541192531586</t>
   </si>
   <si>
     <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821349978447</t>
+    <t xml:space="preserve">0.124821342527866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120677433907986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405258059502</t>
+    <t xml:space="preserve">0.120677426457405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -545,13 +545,13 @@
     <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13355715572834</t>
+    <t xml:space="preserve">0.133557170629501</t>
   </si>
   <si>
     <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135629117488861</t>
+    <t xml:space="preserve">0.135629132390022</t>
   </si>
   <si>
     <t xml:space="preserve">0.134733155369759</t>
@@ -560,10 +560,10 @@
     <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15455673635006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.154556706547737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916799902916</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">0.151476785540581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153100743889809</t>
+    <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
     <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145876914262772</t>
+    <t xml:space="preserve">0.14587689936161</t>
   </si>
   <si>
     <t xml:space="preserve">0.142236977815628</t>
@@ -587,19 +587,19 @@
     <t xml:space="preserve">0.141229018568993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141285002231598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141060993075371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140109017491341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140389025211334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14156499505043</t>
+    <t xml:space="preserve">0.141284987330437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141061007976532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140109032392502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140389010310173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
     <t xml:space="preserve">0.141005009412766</t>
@@ -608,25 +608,25 @@
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13837306201458</t>
+    <t xml:space="preserve">0.138373076915741</t>
   </si>
   <si>
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134677141904831</t>
+    <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693090200424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741114616394</t>
+    <t xml:space="preserve">0.135741099715233</t>
   </si>
   <si>
     <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133893147110939</t>
+    <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773190736771</t>
@@ -635,22 +635,22 @@
     <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131989195942879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132157191634178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925208330154</t>
+    <t xml:space="preserve">0.131989181041718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132157176733017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925223231316</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317228078842</t>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317213177681</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525259137154</t>
@@ -665,40 +665,40 @@
     <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132493183016777</t>
+    <t xml:space="preserve">0.132493168115616</t>
   </si>
   <si>
     <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131261199712753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128965258598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309224128723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136917099356651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134341135621071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757062911987</t>
+    <t xml:space="preserve">0.131261214613914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128965273499489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309239029884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13691708445549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134341165423393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140333026647568</t>
+    <t xml:space="preserve">0.140333011746407</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573118925095</t>
+    <t xml:space="preserve">0.135573104023933</t>
   </si>
   <si>
     <t xml:space="preserve">0.138765051960945</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908810853958</t>
+    <t xml:space="preserve">0.149908795952797</t>
   </si>
   <si>
     <t xml:space="preserve">0.14699687063694</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212875843048</t>
+    <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
@@ -761,49 +761,49 @@
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.152764737606049</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708753943443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153324738144875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152652755379677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372777462006</t>
+    <t xml:space="preserve">0.152708783745766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153324723243713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152652770280838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060873150826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940872073174</t>
+    <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476920366287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147612854838371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144980922341347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572969198227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204901695251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14458891749382</t>
+    <t xml:space="preserve">0.144476935267448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147612869739532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144980907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572984099388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204916596413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144588932394981</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -815,22 +815,22 @@
     <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140837013721466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141117006540298</t>
+    <t xml:space="preserve">0.140837028622627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141116991639137</t>
   </si>
   <si>
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804952502251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860936164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14173299074173</t>
+    <t xml:space="preserve">0.143804937601089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860951066017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141733005642891</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676977276802</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540907979012</t>
+    <t xml:space="preserve">0.145540922880173</t>
   </si>
   <si>
     <t xml:space="preserve">0.151140794157982</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150468811392784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836849093437</t>
+    <t xml:space="preserve">0.150468796491623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220864892006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14492492377758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028931856155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972933292389</t>
+    <t xml:space="preserve">0.147220849990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144924908876419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028946757317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972918391228</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
@@ -887,28 +887,28 @@
     <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144308924674988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143188953399658</t>
+    <t xml:space="preserve">0.144308939576149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143188938498497</t>
   </si>
   <si>
     <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142404958605766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144252941012383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141844987869263</t>
+    <t xml:space="preserve">0.142404973506927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144252955913544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141844972968102</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14190100133419</t>
+    <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">0.144140928983688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14094902575016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140445023775101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557006001472</t>
+    <t xml:space="preserve">0.140949010848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140445038676262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140556991100311</t>
   </si>
   <si>
     <t xml:space="preserve">0.141621008515358</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141172990202904</t>
+    <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348989844322</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">0.138429045677185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149067759514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637091636658</t>
+    <t xml:space="preserve">0.138149082660675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
     <t xml:space="preserve">0.136077120900154</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">0.133277162909508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127677276730537</t>
+    <t xml:space="preserve">0.127677291631699</t>
   </si>
   <si>
     <t xml:space="preserve">0.128797277808189</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317370355129</t>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317362904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
@@ -983,28 +983,28 @@
     <t xml:space="preserve">0.127117291092873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119837455451488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188155978918076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595139622688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995253443718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315581083298</t>
+    <t xml:space="preserve">0.11983747035265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188155993819237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595109820366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995238542557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231275096535683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635309815407</t>
+    <t xml:space="preserve">0.23127506673336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635324716568</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755310893059</t>
@@ -1013,25 +1013,25 @@
     <t xml:space="preserve">0.227355152368546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195325255394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875252366066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395352363586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675195455551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154781103134</t>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395337462425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675225257874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315281629562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075309276581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
     <t xml:space="preserve">0.225115209817886</t>
@@ -1040,31 +1040,31 @@
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075039625168</t>
+    <t xml:space="preserve">0.23407506942749</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635025262833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21962596476078</t>
+    <t xml:space="preserve">0.234635040163994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488491415977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625934958458</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22604775428772</t>
+    <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
     <t xml:space="preserve">0.222194656729698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210635453462601</t>
+    <t xml:space="preserve">0.21063543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1073,25 +1073,25 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708852529526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205497965216637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199076175689697</t>
+    <t xml:space="preserve">0.208708867430687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.205497950315475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199076160788536</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296536803246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507409214973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195865243673325</t>
+    <t xml:space="preserve">0.193296521902084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507424116135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1103,46 +1103,46 @@
     <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184305995702744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17595762014389</t>
+    <t xml:space="preserve">0.184305980801582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175957635045052</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177242010831833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452883243561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884176373482</t>
+    <t xml:space="preserve">0.177241995930672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452898144722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884191274643</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599830389023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197791785001755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938702344894</t>
+    <t xml:space="preserve">0.197791799902916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938687443733</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443409442902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194580897688866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188159078359604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183021634817123</t>
+    <t xml:space="preserve">0.189443439245224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194580882787704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188159093260765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
     <t xml:space="preserve">0.179810732603073</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174673274159431</t>
+    <t xml:space="preserve">0.17467325925827</t>
   </si>
   <si>
     <t xml:space="preserve">0.172104552388191</t>
@@ -1178,10 +1178,10 @@
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173388913273811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16953581571579</t>
+    <t xml:space="preserve">0.17338889837265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169535830616951</t>
   </si>
   <si>
     <t xml:space="preserve">0.17146235704422</t>
@@ -1193,37 +1193,37 @@
     <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16825145483017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167609289288521</t>
+    <t xml:space="preserve">0.168251469731331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16632491350174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165040567517281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165682718157768</t>
+    <t xml:space="preserve">0.166324928402901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165040552616119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165682733058929</t>
   </si>
   <si>
     <t xml:space="preserve">0.159260928630829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157976552844048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618748188019</t>
+    <t xml:space="preserve">0.157976567745209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157334387302399</t>
+    <t xml:space="preserve">0.157334372401237</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1232,34 +1232,34 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
+    <t xml:space="preserve">0.163113996386528</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692191958427</t>
+    <t xml:space="preserve">0.156692206859589</t>
   </si>
   <si>
     <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903094172478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407831072807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765650629997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154123485088348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164398387074471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737244129181</t>
+    <t xml:space="preserve">0.159903109073639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407845973969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765665531158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154123470187187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164398372173309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
@@ -1274,13 +1274,13 @@
     <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199718341231346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190727800130844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195223048329353</t>
+    <t xml:space="preserve">0.199718326330185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190727785229683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
     <t xml:space="preserve">0.244028836488724</t>
@@ -1292,22 +1292,22 @@
     <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248524099588394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166280031204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744490504265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.248524084687233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166309833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744460701942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735031604767</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
+    <t xml:space="preserve">0.250450611114502</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
@@ -1322,70 +1322,70 @@
     <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386670947075</t>
+    <t xml:space="preserve">0.243386656045914</t>
   </si>
   <si>
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597573161125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
+    <t xml:space="preserve">0.246597588062286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
     <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262109965085983</t>
+    <t xml:space="preserve">0.262109994888306</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548297047615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267485380173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228941723704338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559721589088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229750737547874</t>
+    <t xml:space="preserve">0.247548326849937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267500281334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228941738605499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559706687927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229750752449036</t>
   </si>
   <si>
     <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231368705630302</t>
+    <t xml:space="preserve">0.231368720531464</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177689671516</t>
+    <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
     <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232986643910408</t>
+    <t xml:space="preserve">0.232986658811569</t>
   </si>
   <si>
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076499223709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930343866348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649502396584</t>
+    <t xml:space="preserve">0.241076484322548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930358767509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649532198906</t>
   </si>
   <si>
     <t xml:space="preserve">0.244312390685081</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
   </si>
   <si>
     <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222594976425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24350343644619</t>
+    <t xml:space="preserve">0.236222580075264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503406643867</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
@@ -1439,25 +1439,25 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211170434952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25482913851738</t>
+    <t xml:space="preserve">0.253211200237274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
+    <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683072566986</t>
@@ -1469,19 +1469,19 @@
     <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222469910979271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660897135735</t>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22246989607811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435741662979</t>
+    <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
     <t xml:space="preserve">0.271008789539337</t>
@@ -1493,46 +1493,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742459177971</t>
+    <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161846280098</t>
+    <t xml:space="preserve">0.245161831378937</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860760211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235699415206909</t>
+    <t xml:space="preserve">0.240860745310783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23569943010807</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280102610588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000531077385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140316843987</t>
+    <t xml:space="preserve">0.238280087709427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000545978546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140301942825</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957487106323</t>
+    <t xml:space="preserve">0.227957472205162</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258588075638</t>
+    <t xml:space="preserve">0.232258602976799</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118802309036</t>
+    <t xml:space="preserve">0.233118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892928600311</t>
+    <t xml:space="preserve">0.209892943501472</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495100736618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215559005737</t>
+    <t xml:space="preserve">0.218495115637779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215544104576</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217634871602058</t>
+    <t xml:space="preserve">0.21763488650322</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355329871178</t>
+    <t xml:space="preserve">0.219355314970016</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516792297363</t>
+    <t xml:space="preserve">0.304516822099686</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839392900467</t>
+    <t xml:space="preserve">0.314839422702789</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678137302399</t>
+    <t xml:space="preserve">0.309678107500076</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420065402985</t>
+    <t xml:space="preserve">0.317420035600662</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398535966873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979178667068</t>
+    <t xml:space="preserve">0.311398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979208469391</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -60990,19 +60990,19 @@
     </row>
     <row r="2232">
       <c r="A2232" s="1" t="n">
-        <v>45572.649375</v>
+        <v>45572.2916666667</v>
       </c>
       <c r="B2232" t="n">
         <v>4</v>
       </c>
       <c r="C2232" t="n">
-        <v>0.218999996781349</v>
+        <v>0.209000006318092</v>
       </c>
       <c r="D2232" t="n">
-        <v>0.204999998211861</v>
+        <v>0.209000006318092</v>
       </c>
       <c r="E2232" t="n">
-        <v>0.204999998211861</v>
+        <v>0.209000006318092</v>
       </c>
       <c r="F2232" t="n">
         <v>0.209000006318092</v>
@@ -61011,6 +61011,32 @@
         <v>876</v>
       </c>
       <c r="H2232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="1" t="n">
+        <v>45573.6495949074</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>9899</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>0.202999994158745</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.215000003576279</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>868</v>
+      </c>
+      <c r="H2233" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900417327881</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
@@ -53,34 +53,34 @@
     <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836549639702</t>
+    <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159988611936569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15690866112709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155340686440468</t>
+    <t xml:space="preserve">0.159988597035408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156908676028252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076821446419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148732826113701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137309059500694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137197092175484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143300965428352</t>
+    <t xml:space="preserve">0.148732841014862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137309089303017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137197077274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143300950527191</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132969737053</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484894514084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941021800041</t>
+    <t xml:space="preserve">0.145484909415245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
@@ -101,49 +101,49 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13786906003952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135517120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123253367841244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653504014015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077412903309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277619540691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117590546608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853553473949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597490549088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131877213716507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134397119283676</t>
+    <t xml:space="preserve">0.137869074940681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135517135262489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123253382742405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581399977207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077405452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277612090111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117605447769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114853568375111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597505450249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131877198815346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134397149085999</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
@@ -158,10 +158,10 @@
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740680336952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16015662252903</t>
+    <t xml:space="preserve">0.156740695238113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396235823631</t>
+    <t xml:space="preserve">0.176396250724792</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636208176613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173204317688942</t>
+    <t xml:space="preserve">0.178636223077774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173204347491264</t>
   </si>
   <si>
     <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173596307635307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116272807121</t>
+    <t xml:space="preserve">0.17359633743763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116243004799</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996451258659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340237259865</t>
+    <t xml:space="preserve">0.167996436357498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170236393809319</t>
+    <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
     <t xml:space="preserve">0.162564560770988</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
+    <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
@@ -248,28 +248,28 @@
     <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428611397743</t>
+    <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
     <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163628533482552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164468511939049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196792721748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142796963453293</t>
+    <t xml:space="preserve">0.16362851858139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16446852684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196777820587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142796978354454</t>
   </si>
   <si>
     <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508846759796</t>
+    <t xml:space="preserve">0.148508816957474</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596906542778</t>
@@ -290,16 +290,16 @@
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14542892575264</t>
+    <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084945321083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700929522514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148564845323563</t>
+    <t xml:space="preserve">0.144700914621353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148564860224724</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988881587982</t>
@@ -308,28 +308,28 @@
     <t xml:space="preserve">0.147556856274605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660879254341</t>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14526093006134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139997020363808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437034726143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132997184991837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137701064348221</t>
+    <t xml:space="preserve">0.145260915160179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139997035264969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437049627304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132997170090675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -338,13 +338,13 @@
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197391629219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997319817543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130477234721184</t>
+    <t xml:space="preserve">0.123197369277477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997334718704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253225564957</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122525401413441</t>
+    <t xml:space="preserve">0.12252539396286</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
@@ -362,10 +362,10 @@
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341435074806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157498538494</t>
+    <t xml:space="preserve">0.120341449975967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157491087914</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">0.117933504283428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121293440461159</t>
+    <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237127542496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129805237054825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845122694969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357263445854</t>
+    <t xml:space="preserve">0.135237142443657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129805251955986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13484513759613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129021257162094</t>
+    <t xml:space="preserve">0.129021272063255</t>
   </si>
   <si>
     <t xml:space="preserve">0.127621293067932</t>
@@ -416,52 +416,52 @@
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229288220406</t>
+    <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237292170525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128573268651962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128629267215729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155676677823067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.128237277269363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128573283553123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12862928211689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155676692724228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.139325052499771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261079788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138933062553406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134453147649765</t>
+    <t xml:space="preserve">0.138261064887047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138933047652245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134453132748604</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165016055107</t>
+    <t xml:space="preserve">0.136581107974052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165030956268</t>
   </si>
   <si>
     <t xml:space="preserve">0.137813076376915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135461121797562</t>
+    <t xml:space="preserve">0.1354611068964</t>
   </si>
   <si>
     <t xml:space="preserve">0.135685130953789</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">0.134901136159897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134061142802238</t>
+    <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853126645088</t>
+    <t xml:space="preserve">0.135853096842766</t>
   </si>
   <si>
     <t xml:space="preserve">0.141956999897957</t>
@@ -485,25 +485,25 @@
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636956810951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884873509407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604895591736</t>
+    <t xml:space="preserve">0.14363694190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884888410568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477070093155</t>
+    <t xml:space="preserve">0.137477084994316</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143356963992119</t>
+    <t xml:space="preserve">0.143356949090958</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853261470795</t>
+    <t xml:space="preserve">0.128853276371956</t>
   </si>
   <si>
     <t xml:space="preserve">0.127453297376633</t>
@@ -521,40 +521,40 @@
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821364879608</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120677441358566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.120677419006824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741279244423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613289117813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131037205457687</t>
+    <t xml:space="preserve">0.126613304018974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
     <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221179246902</t>
+    <t xml:space="preserve">0.133221164345741</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733155369759</t>
+    <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861085891724</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150916785001755</t>
+    <t xml:space="preserve">0.150916770100594</t>
   </si>
   <si>
     <t xml:space="preserve">0.151476785540581</t>
@@ -584,25 +584,25 @@
     <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141229018568993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141284987330437</t>
+    <t xml:space="preserve">0.141229003667831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
     <t xml:space="preserve">0.141061007976532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140109032392502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140389010310173</t>
+    <t xml:space="preserve">0.140109017491341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140389025211334</t>
   </si>
   <si>
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005009412766</t>
+    <t xml:space="preserve">0.141004994511604</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13882103562355</t>
+    <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773190736771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957134723663</t>
+    <t xml:space="preserve">0.132773175835609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957149624825</t>
   </si>
   <si>
     <t xml:space="preserve">0.131989195942879</t>
@@ -641,16 +641,16 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925223231316</t>
+    <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13053323328495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317213177681</t>
+    <t xml:space="preserve">0.130533218383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317228078842</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
@@ -662,34 +662,34 @@
     <t xml:space="preserve">0.132717192173004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13019722700119</t>
+    <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13165320456028</t>
+    <t xml:space="preserve">0.131653189659119</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965273499489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309253931046</t>
+    <t xml:space="preserve">0.128965258598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
     <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341150522232</t>
+    <t xml:space="preserve">0.134341135621071</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117156267166</t>
+    <t xml:space="preserve">0.134117141366005</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -707,31 +707,31 @@
     <t xml:space="preserve">0.135125145316124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132661178708076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285166859627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138205051422119</t>
+    <t xml:space="preserve">0.132661193609238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285151958466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138653054833412</t>
+    <t xml:space="preserve">0.138653069734573</t>
   </si>
   <si>
     <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146996885538101</t>
+    <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
+    <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144812926650047</t>
+    <t xml:space="preserve">0.144812911748886</t>
   </si>
   <si>
     <t xml:space="preserve">0.150188818573952</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516700983047</t>
+    <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
+    <t xml:space="preserve">0.152652770280838</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324887871742</t>
+    <t xml:space="preserve">0.146324902772903</t>
   </si>
   <si>
     <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612854838371</t>
+    <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
     <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572984099388</t>
+    <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -806,25 +806,25 @@
     <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143412947654724</t>
+    <t xml:space="preserve">0.143412962555885</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748939037323</t>
+    <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141116991639137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144196927547455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804937601089</t>
+    <t xml:space="preserve">0.141117006540298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144196942448616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804952502251</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676977276802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141452997922897</t>
+    <t xml:space="preserve">0.141676992177963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141453012824059</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244966864586</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">0.151140779256821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636792182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468796491623</t>
+    <t xml:space="preserve">0.150636807084084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
     <t xml:space="preserve">0.147836849093437</t>
@@ -866,28 +866,28 @@
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144924908876419</t>
+    <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
     <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972933292389</t>
+    <t xml:space="preserve">0.14397294819355</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147276878356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152316778898239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732706189156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308939576149</t>
+    <t xml:space="preserve">0.147276863455772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152316763997078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732691287994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141844987869263</t>
+    <t xml:space="preserve">0.141845002770424</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142180979251862</t>
+    <t xml:space="preserve">0.1421809643507</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
@@ -929,19 +929,19 @@
     <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141621008515358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138317063450813</t>
+    <t xml:space="preserve">0.141620993614197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138317048549652</t>
   </si>
   <si>
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124995589256</t>
+    <t xml:space="preserve">0.142348974943161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
     <t xml:space="preserve">0.138429060578346</t>
@@ -968,16 +968,16 @@
     <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129917234182358</t>
+    <t xml:space="preserve">0.129917249083519</t>
   </si>
   <si>
     <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317362904549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437334179878</t>
+    <t xml:space="preserve">0.124317355453968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
     <t xml:space="preserve">0.127117291092873</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188155993819237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595124721527</t>
+    <t xml:space="preserve">0.188156008720398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595139622688</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995238542557</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">0.208315595984459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200475752353668</t>
+    <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
     <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220635324716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755295991898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355167269707</t>
+    <t xml:space="preserve">0.220635309815407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755310893059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355182170868</t>
   </si>
   <si>
     <t xml:space="preserve">0.221195325255394</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">0.222875282168388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218395367264748</t>
+    <t xml:space="preserve">0.218395337462425</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675195455551</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">0.220075339078903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244154825806618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115209817886</t>
+    <t xml:space="preserve">0.244154810905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115239620209</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515009284019</t>
+    <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
     <t xml:space="preserve">0.234635040163994</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21962596476078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341588973999</t>
+    <t xml:space="preserve">0.219625934958458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
     <t xml:space="preserve">0.22604775428772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194671630859</t>
+    <t xml:space="preserve">0.222194656729698</t>
   </si>
   <si>
     <t xml:space="preserve">0.210635408759117</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">0.211277604103088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076145887375</t>
+    <t xml:space="preserve">0.199076175689697</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590341687202</t>
+    <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
     <t xml:space="preserve">0.186874732375145</t>
@@ -1109,31 +1109,31 @@
     <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182379454374313</t>
+    <t xml:space="preserve">0.182379469275475</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452898144722</t>
+    <t xml:space="preserve">0.180452883243561</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176599830389023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791785001755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938687443733</t>
+    <t xml:space="preserve">0.176599815487862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791799902916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938702344894</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443424344063</t>
+    <t xml:space="preserve">0.189443439245224</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1160,25 +1160,25 @@
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526341915131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175315454602242</t>
+    <t xml:space="preserve">0.178526356816292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175315469503403</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172104567289352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217057228088379</t>
+    <t xml:space="preserve">0.172104552388191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232507228851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173388913273811</t>
+    <t xml:space="preserve">0.17338889837265</t>
   </si>
   <si>
     <t xml:space="preserve">0.16953581571579</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">0.170177981257439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170820191502571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168251469731331</t>
+    <t xml:space="preserve">0.17082017660141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166324928402901</t>
+    <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
     <t xml:space="preserve">0.165040552616119</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471815943718</t>
+    <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334372401237</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903094172478</t>
+    <t xml:space="preserve">0.159903109073639</t>
   </si>
   <si>
     <t xml:space="preserve">0.155407845973969</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">0.154765665531158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154123455286026</t>
+    <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
     <t xml:space="preserve">0.164398372173309</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">0.181737244129181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17403107881546</t>
+    <t xml:space="preserve">0.174031093716621</t>
   </si>
   <si>
     <t xml:space="preserve">0.192012175917625</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727785229683</t>
+    <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
+    <t xml:space="preserve">0.250450611114502</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597558259964</t>
+    <t xml:space="preserve">0.246597588062286</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881934046745</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240267470479012</t>
+    <t xml:space="preserve">0.240267500281334</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229750737547874</t>
+    <t xml:space="preserve">0.229750752449036</t>
   </si>
   <si>
     <t xml:space="preserve">0.234604611992836</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">0.231368720531464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233795627951622</t>
+    <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
     <t xml:space="preserve">0.232177674770355</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649502396584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312360882759</t>
+    <t xml:space="preserve">0.238649532198906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312390685081</t>
   </si>
   <si>
     <t xml:space="preserve">0.237840548157692</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065074682236</t>
+    <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
     <t xml:space="preserve">0.257256090641022</t>
@@ -1439,13 +1439,16 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211170434952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25482913851738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784248113632</t>
+    <t xml:space="preserve">0.253211200237274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254829168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784277915955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166309833527</t>
   </si>
   <si>
     <t xml:space="preserve">0.252402245998383</t>
@@ -1457,10 +1460,10 @@
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683042764664</t>
+    <t xml:space="preserve">0.26291897892952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683072566986</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
@@ -1472,7 +1475,7 @@
     <t xml:space="preserve">0.208717212080956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222469910979271</t>
+    <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
     <t xml:space="preserve">0.221660912036896</t>
@@ -1481,19 +1484,16 @@
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435741662979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27100881934166</t>
+    <t xml:space="preserve">0.273435711860657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
   </si>
   <si>
     <t xml:space="preserve">0.260645747184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
     <t xml:space="preserve">0.247742474079132</t>
@@ -27653,7 +27653,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27705,7 +27705,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27731,7 +27731,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27783,7 +27783,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27913,7 +27913,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28043,7 +28043,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28329,7 +28329,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28537,7 +28537,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28849,7 +28849,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28953,7 +28953,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29005,7 +29005,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29083,7 +29083,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29109,7 +29109,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29213,7 +29213,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29239,7 +29239,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29265,7 +29265,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29291,7 +29291,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29629,7 +29629,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29655,7 +29655,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29707,7 +29707,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29733,7 +29733,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29837,7 +29837,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29889,7 +29889,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30123,7 +30123,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30357,7 +30357,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30565,7 +30565,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30591,7 +30591,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30695,7 +30695,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30799,7 +30799,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31137,7 +31137,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31189,7 +31189,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31579,7 +31579,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31605,7 +31605,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31631,7 +31631,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31657,7 +31657,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31683,7 +31683,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31735,7 +31735,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31787,7 +31787,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31865,7 +31865,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31891,7 +31891,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31917,7 +31917,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31969,7 +31969,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32229,7 +32229,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32255,7 +32255,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37559,7 +37559,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -61045,19 +61045,19 @@
     </row>
     <row r="2234">
       <c r="A2234" s="1" t="n">
-        <v>45574.6495717593</v>
+        <v>45574.2916666667</v>
       </c>
       <c r="B2234" t="n">
         <v>50</v>
       </c>
       <c r="C2234" t="n">
-        <v>0.219999998807907</v>
+        <v>0.215000003576279</v>
       </c>
       <c r="D2234" t="n">
-        <v>0.202999994158745</v>
+        <v>0.215000003576279</v>
       </c>
       <c r="E2234" t="n">
-        <v>0.219999998807907</v>
+        <v>0.215000003576279</v>
       </c>
       <c r="F2234" t="n">
         <v>0.215000003576279</v>
@@ -61066,6 +61066,32 @@
         <v>869</v>
       </c>
       <c r="H2234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="1" t="n">
+        <v>45575.6495023148</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>7560</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>0.215000003576279</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>0.203999996185303</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.203999996185303</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.216000005602837</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>874</v>
+      </c>
+      <c r="H2235" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="880">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524495601654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348525762558</t>
+    <t xml:space="preserve">0.162396535277367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524510502815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15690866112709</t>
+    <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076806545258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732826113701</t>
+    <t xml:space="preserve">0.150076821446419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309074401855</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
+    <t xml:space="preserve">0.14330093562603</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132969737053</t>
@@ -89,19 +89,19 @@
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484894514084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13994100689888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13501313328743</t>
+    <t xml:space="preserve">0.145484909415245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941021800041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135013118386269</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13786906003952</t>
+    <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
@@ -110,37 +110,37 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653489112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
   </si>
   <si>
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077405452728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277619540691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117590546608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853568375111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597505450249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.122077398002148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11227760463953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117597997189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11485356092453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
     <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131877213716507</t>
+    <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
     <t xml:space="preserve">0.134397134184837</t>
@@ -152,16 +152,16 @@
     <t xml:space="preserve">0.151252791285515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716578364372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140494704247</t>
+    <t xml:space="preserve">0.160716593265533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140509605408</t>
   </si>
   <si>
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156607627869</t>
+    <t xml:space="preserve">0.160156592726707</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -170,46 +170,46 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396250724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
+    <t xml:space="preserve">0.176396235823631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204317688942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596307635307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116243004799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436315894127</t>
+    <t xml:space="preserve">0.173204332590103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17359633743763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116272807121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436300992966</t>
   </si>
   <si>
     <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172700330615044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644332051277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996451258659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340252161026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148319125175</t>
+    <t xml:space="preserve">0.172700345516205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644317150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996436357498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340267062187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148304224014</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -227,28 +227,28 @@
     <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164860501885414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15802863240242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158644646406174</t>
+    <t xml:space="preserve">0.164860486984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158028647303581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158644631505013</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916485548019</t>
+    <t xml:space="preserve">0.164916515350342</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159596607089043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159428611397743</t>
+    <t xml:space="preserve">0.159596621990204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
     <t xml:space="preserve">0.163012534379959</t>
@@ -257,10 +257,10 @@
     <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468511939049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196792721748</t>
+    <t xml:space="preserve">0.16446852684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196777820587</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -269,13 +269,13 @@
     <t xml:space="preserve">0.148396849632263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508846759796</t>
+    <t xml:space="preserve">0.148508831858635</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">0.1473328769207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140613004565239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644945859909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14542892575264</t>
+    <t xml:space="preserve">0.1406130194664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644930958748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145428895950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084945321083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700914621353</t>
+    <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
@@ -317,22 +317,22 @@
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14526093006134</t>
+    <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
     <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139437049627304</t>
+    <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701064348221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138597041368484</t>
+    <t xml:space="preserve">0.137701079249382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997319817543</t>
+    <t xml:space="preserve">0.125997334718704</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029381036758</t>
+    <t xml:space="preserve">0.123029373586178</t>
   </si>
   <si>
     <t xml:space="preserve">0.122525401413441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112893603742123</t>
+    <t xml:space="preserve">0.112893596291542</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101485073566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381335616112</t>
+    <t xml:space="preserve">0.118101492524147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933496832848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293433010578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381350517273</t>
   </si>
   <si>
     <t xml:space="preserve">0.131093218922615</t>
@@ -392,16 +392,16 @@
     <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129357263445854</t>
+    <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132885158061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661328434944</t>
+    <t xml:space="preserve">0.132885172963142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661313533783</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421378433704</t>
+    <t xml:space="preserve">0.123421393334866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129637241363525</t>
+    <t xml:space="preserve">0.129637256264687</t>
   </si>
   <si>
     <t xml:space="preserve">0.128237277269363</t>
@@ -443,10 +443,10 @@
     <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138933062553406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134453132748604</t>
+    <t xml:space="preserve">0.138933047652245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685130953789</t>
+    <t xml:space="preserve">0.135685116052628</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853126645088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956999897957</t>
+    <t xml:space="preserve">0.135853096842766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
@@ -488,91 +488,91 @@
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884888410568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604895591736</t>
+    <t xml:space="preserve">0.146884873509407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477070093155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13596510887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143356963992119</t>
+    <t xml:space="preserve">0.137477084994316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135965123772621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14335697889328</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597205996513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128853276371956</t>
+    <t xml:space="preserve">0.131597191095352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
     <t xml:space="preserve">0.127453297376633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541192531586</t>
+    <t xml:space="preserve">0.131541222333908</t>
   </si>
   <si>
     <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821342527866</t>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120677441358566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.120677433907986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613289117813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131037205457687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133557170629501</t>
+    <t xml:space="preserve">0.126613304018974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131037220358849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
     <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135629132390022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733155369759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861085891724</t>
+    <t xml:space="preserve">0.135629117488861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733140468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151028782129288</t>
+    <t xml:space="preserve">0.151028797030449</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476800441742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15310075879097</t>
+    <t xml:space="preserve">0.15147677063942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153100743889809</t>
   </si>
   <si>
     <t xml:space="preserve">0.152484759688377</t>
@@ -581,16 +581,16 @@
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236962914467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141229018568993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141284987330437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141061007976532</t>
+    <t xml:space="preserve">0.142236977815628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141229003667831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141285002231598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">0.14156499505043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005024313927</t>
+    <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -617,10 +617,10 @@
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693090200424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135741099715233</t>
+    <t xml:space="preserve">0.136693105101585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135741129517555</t>
   </si>
   <si>
     <t xml:space="preserve">0.135405108332634</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">0.131989181041718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157176733017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925223231316</t>
+    <t xml:space="preserve">0.132157191634178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13053323328495</t>
+    <t xml:space="preserve">0.130533203482628</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
@@ -662,31 +662,31 @@
     <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13019722700119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132493168115616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13165320456028</t>
+    <t xml:space="preserve">0.130197241902351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132493183016777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131653219461441</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965273499489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309253931046</t>
+    <t xml:space="preserve">0.128965258598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
     <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341150522232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757077813148</t>
+    <t xml:space="preserve">0.134341135621071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757062911987</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117156267166</t>
@@ -698,13 +698,13 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573104023933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765066862106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125145316124</t>
+    <t xml:space="preserve">0.135573118925095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765051960945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
@@ -713,13 +713,13 @@
     <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138205051422119</t>
+    <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138653039932251</t>
+    <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
     <t xml:space="preserve">0.149908795952797</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145652905106544</t>
+    <t xml:space="preserve">0.145652890205383</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14766888320446</t>
+    <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972798466682</t>
+    <t xml:space="preserve">0.150972783565521</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15276475250721</t>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">0.153324723243713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
+    <t xml:space="preserve">0.152652740478516</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060873150826</t>
+    <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
     <t xml:space="preserve">0.146940886974335</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476935267448</t>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612854838371</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572984099388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204916596413</t>
+    <t xml:space="preserve">0.142572954297066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204901695251</t>
   </si>
   <si>
     <t xml:space="preserve">0.144588932394981</t>
@@ -812,16 +812,16 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748939037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140837028622627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141116991639137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144196912646294</t>
+    <t xml:space="preserve">0.143748953938484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140837013721466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141117006540298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
     <t xml:space="preserve">0.143804937601089</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14173299074173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141676977276802</t>
+    <t xml:space="preserve">0.141733005642891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141676992177963</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540907979012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151140794157982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636792182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468796491623</t>
+    <t xml:space="preserve">0.145540922880173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151140779256821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636807084084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
     <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460837244987</t>
+    <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144924908876419</t>
+    <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
     <t xml:space="preserve">0.144028931856155</t>
@@ -875,31 +875,31 @@
     <t xml:space="preserve">0.143972918391228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143076941370964</t>
+    <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152316763997078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732691287994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308939576149</t>
+    <t xml:space="preserve">0.152316778898239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732706189156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14430895447731</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372927188873</t>
+    <t xml:space="preserve">0.145372912287712</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144252955913544</t>
+    <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
     <t xml:space="preserve">0.141844987869263</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900986433029</t>
+    <t xml:space="preserve">0.14190100133419</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -923,43 +923,43 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.140445038676262</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141621008515358</t>
+    <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
     <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141173005104065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142348989844322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124995589256</t>
+    <t xml:space="preserve">0.141172990202904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142348974943161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
     <t xml:space="preserve">0.138429045677185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149067759514</t>
+    <t xml:space="preserve">0.138149052858353</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077120900154</t>
+    <t xml:space="preserve">0.136077091097832</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277148008347</t>
+    <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677291631699</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557305455208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317362904549</t>
+    <t xml:space="preserve">0.126557320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317370355129</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188155978918076</t>
+    <t xml:space="preserve">0.188156008720398</t>
   </si>
   <si>
     <t xml:space="preserve">0.229595124721527</t>
@@ -995,19 +995,19 @@
     <t xml:space="preserve">0.223995238542557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315566182137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23127506673336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635324716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755295991898</t>
+    <t xml:space="preserve">0.208315581083298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475737452507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231275051832199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635294914246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755310893059</t>
   </si>
   <si>
     <t xml:space="preserve">0.227355152368546</t>
@@ -1016,25 +1016,25 @@
     <t xml:space="preserve">0.221195310354233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222875282168388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395337462425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675225257874</t>
+    <t xml:space="preserve">0.222875267267227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675210356712</t>
   </si>
   <si>
     <t xml:space="preserve">0.222315266728401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220075309276581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154810905457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115224719048</t>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154796004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115239620209</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515039086342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635010361671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488491415977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219625934958458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341574072838</t>
+    <t xml:space="preserve">0.233515053987503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23463499546051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488506317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625979661942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341588973999</t>
   </si>
   <si>
     <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194656729698</t>
+    <t xml:space="preserve">0.222194686532021</t>
   </si>
   <si>
     <t xml:space="preserve">0.21063543856144</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497950315475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076160788536</t>
+    <t xml:space="preserve">0.199076175689697</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507424116135</t>
+    <t xml:space="preserve">0.193296536803246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507409214973</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874717473984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305980801582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175957635045052</t>
+    <t xml:space="preserve">0.186874732375145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948146343231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305995702744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
     <t xml:space="preserve">0.182379454374313</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452898144722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884191274643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176599830389023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791799902916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938687443733</t>
+    <t xml:space="preserve">0.180452883243561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884176373482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176599815487862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791770100594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938672542572</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443439245224</t>
+    <t xml:space="preserve">0.189443409442902</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1142,46 +1142,46 @@
     <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183021619915962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179810732603073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095093488693</t>
+    <t xml:space="preserve">0.183021634817123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179810717701912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095078587532</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663815259933</t>
+    <t xml:space="preserve">0.183663800358772</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526356816292</t>
+    <t xml:space="preserve">0.178526371717453</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17467325925827</t>
+    <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
     <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217057228088379</t>
+    <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17338889837265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169535830616951</t>
+    <t xml:space="preserve">0.173388913273811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16953581571579</t>
   </si>
   <si>
     <t xml:space="preserve">0.17146235704422</t>
@@ -1193,31 +1193,31 @@
     <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168251469731331</t>
+    <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
     <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16696709394455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166324928402901</t>
+    <t xml:space="preserve">0.166967079043388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682733058929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260928630829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157976567745209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618733286858</t>
+    <t xml:space="preserve">0.165682718157768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260913729668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157976552844048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471815943718</t>
@@ -1232,43 +1232,43 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163113996386528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161829650402069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156692206859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050026416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407845973969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.163114011287689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161829635500908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156692191958427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050011515617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407831072807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398372173309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737259030342</t>
+    <t xml:space="preserve">0.164398387074471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737244129181</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012161016464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.192012146115303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516912817955</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727785229683</t>
+    <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244028836488724</t>
+    <t xml:space="preserve">0.244028821587563</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
@@ -1295,22 +1295,22 @@
     <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166309833527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744460701942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735031604767</t>
+    <t xml:space="preserve">0.249166265130043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744475603104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
+    <t xml:space="preserve">0.250450640916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
     <t xml:space="preserve">0.252377182245255</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386656045914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322656273842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597588062286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881934046745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592603206635</t>
+    <t xml:space="preserve">0.243386641144753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322641372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597558259964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881904244423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592573404312</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,85 +1343,85 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548326849937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267500281334</t>
+    <t xml:space="preserve">0.247548311948776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230559706687927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229750752449036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234604611992836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368720531464</t>
+    <t xml:space="preserve">0.230559721589088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229750737547874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234604597091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177674770355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232986658811569</t>
+    <t xml:space="preserve">0.232177689671516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226514801383018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232986643910408</t>
   </si>
   <si>
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076484322548</t>
+    <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885468363762</t>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24431237578392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840563058853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24188543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357325792313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2370315939188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222580075264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503406643867</t>
+    <t xml:space="preserve">0.248357310891151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237031579017639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132769465446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222609877586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503421545029</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739357709885</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211200237274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254829168319702</t>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25482913851738</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252402245998383</t>
+    <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
     <t xml:space="preserve">0.245121374726295</t>
@@ -1457,25 +1457,25 @@
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26291897892952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.262918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717212080956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22246989607811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660912036896</t>
+    <t xml:space="preserve">0.261301040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717197179794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660897135735</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.271008789539337</t>
+    <t xml:space="preserve">0.27100881934166</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -1493,46 +1493,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742474079132</t>
+    <t xml:space="preserve">0.247742459177971</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161831378937</t>
+    <t xml:space="preserve">0.245161846280098</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860745310783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23569943010807</t>
+    <t xml:space="preserve">0.240860760211945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235699415206909</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280087709427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000545978546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140301942825</t>
+    <t xml:space="preserve">0.238280102610588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000531077385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140316843987</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957472205162</t>
+    <t xml:space="preserve">0.227957487106323</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258602976799</t>
+    <t xml:space="preserve">0.232258588075638</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118772506714</t>
+    <t xml:space="preserve">0.233118802309036</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892943501472</t>
+    <t xml:space="preserve">0.209892928600311</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495115637779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215544104576</t>
+    <t xml:space="preserve">0.218495100736618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215559005737</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21763488650322</t>
+    <t xml:space="preserve">0.217634871602058</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355314970016</t>
+    <t xml:space="preserve">0.219355329871178</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516822099686</t>
+    <t xml:space="preserve">0.304516792297363</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839422702789</t>
+    <t xml:space="preserve">0.314839392900467</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678107500076</t>
+    <t xml:space="preserve">0.309678137302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420035600662</t>
+    <t xml:space="preserve">0.317420065402985</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979208469391</t>
+    <t xml:space="preserve">0.311398535966873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979178667068</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -2649,6 +2649,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.202999994158745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.204999998211861</t>
   </si>
 </sst>
 </file>
@@ -61542,7 +61545,7 @@
     </row>
     <row r="2253">
       <c r="A2253" s="1" t="n">
-        <v>45601.6911921296</v>
+        <v>45601.3333333333</v>
       </c>
       <c r="B2253" t="n">
         <v>16087</v>
@@ -61563,6 +61566,32 @@
         <v>839</v>
       </c>
       <c r="H2253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="1" t="n">
+        <v>45602.6911689815</v>
+      </c>
+      <c r="B2254" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2254" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="D2254" t="n">
+        <v>0.204999998211861</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.204999998211861</v>
+      </c>
+      <c r="G2254" t="s">
+        <v>879</v>
+      </c>
+      <c r="H2254" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524510502815</t>
+    <t xml:space="preserve">0.162396550178528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
     <t xml:space="preserve">0.163348540663719</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156908676028252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155340701341629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076821446419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732841014862</t>
+    <t xml:space="preserve">0.15690866112709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155340686440468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076806545258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732826113701</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309074401855</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14330093562603</t>
+    <t xml:space="preserve">0.143300950527191</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132969737053</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484909415245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941021800041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135013118386269</t>
+    <t xml:space="preserve">0.145484894514084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13994100689888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
@@ -110,37 +110,37 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653511464596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917548537254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077398002148</t>
+    <t xml:space="preserve">0.117653489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917533636093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581377625465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077412903309</t>
   </si>
   <si>
     <t xml:space="preserve">0.11227760463953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113117597997189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11485356092453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597497999668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131877198815346</t>
+    <t xml:space="preserve">0.113117590546608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114853568375111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597505450249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131877213716507</t>
   </si>
   <si>
     <t xml:space="preserve">0.134397134184837</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252791285515</t>
+    <t xml:space="preserve">0.151252776384354</t>
   </si>
   <si>
     <t xml:space="preserve">0.160716593265533</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156592726707</t>
+    <t xml:space="preserve">0.16015662252903</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396235823631</t>
+    <t xml:space="preserve">0.176396265625954</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836265087128</t>
@@ -179,88 +179,88 @@
     <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204332590103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17499628663063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116272807121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436300992966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796214818954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172700345516205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644317150116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996436357498</t>
+    <t xml:space="preserve">0.173204317688942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174996271729469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596307635307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116243004799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436315894127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796229720116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172700330615044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644332051277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996451258659</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162564560770988</t>
+    <t xml:space="preserve">0.162564545869827</t>
   </si>
   <si>
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860486984253</t>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460522890091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
+    <t xml:space="preserve">0.158644646406174</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916515350342</t>
+    <t xml:space="preserve">0.164916485548019</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159596621990204</t>
+    <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012534379959</t>
+    <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
     <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16446852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196777820587</t>
+    <t xml:space="preserve">0.164468511939049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -269,31 +269,31 @@
     <t xml:space="preserve">0.148396849632263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148508831858635</t>
+    <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500857710838</t>
+    <t xml:space="preserve">0.147500872612</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1406130194664</t>
+    <t xml:space="preserve">0.147332862019539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140613004565239</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145428895950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144084945321083</t>
+    <t xml:space="preserve">0.14542892575264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700929522514</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">0.148564845323563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145988896489143</t>
+    <t xml:space="preserve">0.145988881587982</t>
   </si>
   <si>
     <t xml:space="preserve">0.147556871175766</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145260915160179</t>
+    <t xml:space="preserve">0.14526093006134</t>
   </si>
   <si>
     <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139437034726143</t>
+    <t xml:space="preserve">0.139437049627304</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701079249382</t>
+    <t xml:space="preserve">0.137701064348221</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997334718704</t>
+    <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
@@ -350,37 +350,37 @@
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029373586178</t>
+    <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
     <t xml:space="preserve">0.122525401413441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112893596291542</t>
+    <t xml:space="preserve">0.112893611192703</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341435074806</t>
+    <t xml:space="preserve">0.120341449975967</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101492524147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933496832848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293433010578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381350517273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933504283428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381335616112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131093233823776</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661313533783</t>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.123421378433704</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">0.129637256264687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237277269363</t>
+    <t xml:space="preserve">0.128237292170525</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453147649765</t>
+    <t xml:space="preserve">0.134453132748604</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685116052628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901136159897</t>
+    <t xml:space="preserve">0.135685130953789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901121258736</t>
   </si>
   <si>
     <t xml:space="preserve">0.1340611577034</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853096842766</t>
+    <t xml:space="preserve">0.135853126645088</t>
   </si>
   <si>
     <t xml:space="preserve">0.141956984996796</t>
@@ -488,28 +488,28 @@
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884873509407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604880690575</t>
+    <t xml:space="preserve">0.146884888410568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604895591736</t>
   </si>
   <si>
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477084994316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135965123772621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14335697889328</t>
+    <t xml:space="preserve">0.137477070093155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13596510887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597191095352</t>
+    <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
     <t xml:space="preserve">0.128853261470795</t>
@@ -518,19 +518,19 @@
     <t xml:space="preserve">0.127453297376633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541222333908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821349978447</t>
+    <t xml:space="preserve">0.131541192531586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045329332352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821342527866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120677433907986</t>
+    <t xml:space="preserve">0.120677441358566</t>
   </si>
   <si>
     <t xml:space="preserve">0.128405287861824</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131037220358849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13355715572834</t>
+    <t xml:space="preserve">0.131037205457687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133557170629501</t>
   </si>
   <si>
     <t xml:space="preserve">0.133221179246902</t>
@@ -554,28 +554,28 @@
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733140468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861100792885</t>
+    <t xml:space="preserve">0.134733155369759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151028797030449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150916785001755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15147677063942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153100743889809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484759688377</t>
+    <t xml:space="preserve">0.151028782129288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150916770100594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151476800441742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15310075879097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484774589539</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141229003667831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141285002231598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141060993075371</t>
+    <t xml:space="preserve">0.141229018568993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141284987330437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141061007976532</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
@@ -617,13 +617,13 @@
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693105101585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135741129517555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
+    <t xml:space="preserve">0.136693090200424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
     <t xml:space="preserve">0.1338931620121</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">0.131989181041718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157191634178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925208330154</t>
+    <t xml:space="preserve">0.132157176733017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925223231316</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130533203482628</t>
+    <t xml:space="preserve">0.13053323328495</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
@@ -659,16 +659,16 @@
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717177271843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130197241902351</t>
+    <t xml:space="preserve">0.132717192173004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131653219461441</t>
+    <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
@@ -677,16 +677,16 @@
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309224128723</t>
+    <t xml:space="preserve">0.130309239029884</t>
   </si>
   <si>
     <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341135621071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757062911987</t>
+    <t xml:space="preserve">0.134341150522232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117156267166</t>
@@ -695,16 +695,16 @@
     <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138485059142113</t>
+    <t xml:space="preserve">0.138485044240952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765051960945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125130414963</t>
+    <t xml:space="preserve">0.138765066862106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125145316124</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908795952797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14699687063694</t>
+    <t xml:space="preserve">0.149908810853958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146996885538101</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145652890205383</t>
+    <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
@@ -749,19 +749,19 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972783565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149348825216293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996735811234</t>
+    <t xml:space="preserve">0.150972813367844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149348810315132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996720910072</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.15276475250721</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">0.153324723243713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652740478516</t>
+    <t xml:space="preserve">0.152652755379677</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060858249664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146940886974335</t>
+    <t xml:space="preserve">0.148060873150826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146940872073174</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572954297066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204901695251</t>
+    <t xml:space="preserve">0.142572969198227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
     <t xml:space="preserve">0.144588932394981</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748953938484</t>
+    <t xml:space="preserve">0.143748939037323</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141117006540298</t>
+    <t xml:space="preserve">0.141116991639137</t>
   </si>
   <si>
     <t xml:space="preserve">0.144196927547455</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141733005642891</t>
+    <t xml:space="preserve">0.141732975840569</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676992177963</t>
@@ -842,28 +842,28 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540922880173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151140779256821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636807084084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468811392784</t>
+    <t xml:space="preserve">0.145540907979012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151140794157982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636792182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468796491623</t>
   </si>
   <si>
     <t xml:space="preserve">0.147836863994598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460822343826</t>
+    <t xml:space="preserve">0.149460852146149</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220864892006</t>
+    <t xml:space="preserve">0.147220879793167</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972918391228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076956272125</t>
+    <t xml:space="preserve">0.143972933292389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076941370964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">0.155732706189156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14430895447731</t>
+    <t xml:space="preserve">0.144308939576149</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
+    <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141844987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142012983560562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14190100133419</t>
+    <t xml:space="preserve">0.141845002770424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142012998461723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445038676262</t>
+    <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348974943161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124980688095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429045677185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149052858353</t>
+    <t xml:space="preserve">0.142348989844322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124995589256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429060578346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077091097832</t>
+    <t xml:space="preserve">0.136077120900154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277177810669</t>
+    <t xml:space="preserve">0.133277162909508</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677291631699</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317370355129</t>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317362904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
@@ -995,76 +995,76 @@
     <t xml:space="preserve">0.223995238542557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315581083298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475737452507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275051832199</t>
+    <t xml:space="preserve">0.208315566182137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475752353668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635294914246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755310893059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355152368546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395352363586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675210356712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154796004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115239620209</t>
+    <t xml:space="preserve">0.221755295991898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195325255394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395337462425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675195455551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315296530724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154825806618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075039625168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515053987503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23463499546051</t>
+    <t xml:space="preserve">0.234075009822845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515039086342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635010361671</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219625979661942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341588973999</t>
+    <t xml:space="preserve">0.21962596476078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
     <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194686532021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21063543856144</t>
+    <t xml:space="preserve">0.222194656729698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1073,25 +1073,25 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708852529526</t>
+    <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497950315475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076175689697</t>
+    <t xml:space="preserve">0.199076160788536</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296536803246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507409214973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.193296521902084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507424116135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948146343231</t>
+    <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305995702744</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182379454374313</t>
+    <t xml:space="preserve">0.182379469275475</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197791770100594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938672542572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369995474815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443409442902</t>
+    <t xml:space="preserve">0.197791799902916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938702344894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369980573654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443439245224</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1142,28 +1142,28 @@
     <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183021634817123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179810717701912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095078587532</t>
+    <t xml:space="preserve">0.183021619915962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179810732603073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663800358772</t>
+    <t xml:space="preserve">0.183663815259933</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526371717453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175315454602242</t>
+    <t xml:space="preserve">0.178526356816292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175315469503403</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
@@ -1172,25 +1172,25 @@
     <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217057213187218</t>
+    <t xml:space="preserve">0.217057228088379</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173388913273811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16953581571579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17146235704422</t>
+    <t xml:space="preserve">0.17338889837265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169535830616951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171462371945381</t>
   </si>
   <si>
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170820191502571</t>
+    <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
     <t xml:space="preserve">0.16825145483017</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166967079043388</t>
+    <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
     <t xml:space="preserve">0.16632491350174</t>
@@ -1211,16 +1211,16 @@
     <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159260913729668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157976552844048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618748188019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471815943718</t>
+    <t xml:space="preserve">0.159260928630829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157976567745209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618733286858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334372401237</t>
@@ -1235,40 +1235,40 @@
     <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161829635500908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156692191958427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050011515617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903094172478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407831072807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765650629997</t>
+    <t xml:space="preserve">0.161829650402069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156692206859589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050026416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903109073639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407845973969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765665531158</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398387074471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737244129181</t>
+    <t xml:space="preserve">0.164398372173309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
     <t xml:space="preserve">0.174031093716621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012146115303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516912817955</t>
+    <t xml:space="preserve">0.192012175917625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
@@ -1277,28 +1277,28 @@
     <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727800130844</t>
+    <t xml:space="preserve">0.190727785229683</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244028821587563</t>
+    <t xml:space="preserve">0.244028836488724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
+    <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166265130043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744475603104</t>
+    <t xml:space="preserve">0.249166309833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744460701942</t>
   </si>
   <si>
     <t xml:space="preserve">0.251735001802444</t>
@@ -1307,34 +1307,34 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450640916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303723573685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377182245255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253019362688065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175738930702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386641144753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322641372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597558259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323592573404312</t>
+    <t xml:space="preserve">0.250450611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303753376007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377212047577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253019332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175768733025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386656045914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322656273842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597588062286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,85 +1343,85 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548311948776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267485380173</t>
+    <t xml:space="preserve">0.247548326849937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267500281334</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230559721589088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229750737547874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234604597091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368705630302</t>
+    <t xml:space="preserve">0.230559706687927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229750752449036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234604611992836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368720531464</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177689671516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226514801383018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232986643910408</t>
+    <t xml:space="preserve">0.232177674770355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22651481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232986658811569</t>
   </si>
   <si>
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076499223709</t>
+    <t xml:space="preserve">0.241076484322548</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649502396584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24431237578392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840563058853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24188543856144</t>
+    <t xml:space="preserve">0.238649532198906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312390685081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840548157692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132769465446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236222609877586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503421545029</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236222580075264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503406643867</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413625836372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739357709885</t>
+    <t xml:space="preserve">0.235413610935211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739342808723</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211170434952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25482913851738</t>
+    <t xml:space="preserve">0.253211200237274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25240221619606</t>
+    <t xml:space="preserve">0.252402245998383</t>
   </si>
   <si>
     <t xml:space="preserve">0.245121374726295</t>
@@ -1457,25 +1457,25 @@
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683042764664</t>
+    <t xml:space="preserve">0.26291897892952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683072566986</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301040649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222469910979271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660897135735</t>
+    <t xml:space="preserve">0.261301010847092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22246989607811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27100881934166</t>
+    <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -1493,46 +1493,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742459177971</t>
+    <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161846280098</t>
+    <t xml:space="preserve">0.245161831378937</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860760211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235699415206909</t>
+    <t xml:space="preserve">0.240860745310783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23569943010807</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280102610588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000531077385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140316843987</t>
+    <t xml:space="preserve">0.238280087709427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000545978546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140301942825</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957487106323</t>
+    <t xml:space="preserve">0.227957472205162</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258588075638</t>
+    <t xml:space="preserve">0.232258602976799</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118802309036</t>
+    <t xml:space="preserve">0.233118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892928600311</t>
+    <t xml:space="preserve">0.209892943501472</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495100736618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215559005737</t>
+    <t xml:space="preserve">0.218495115637779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215544104576</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217634871602058</t>
+    <t xml:space="preserve">0.21763488650322</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355329871178</t>
+    <t xml:space="preserve">0.219355314970016</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516792297363</t>
+    <t xml:space="preserve">0.304516822099686</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839392900467</t>
+    <t xml:space="preserve">0.314839422702789</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678137302399</t>
+    <t xml:space="preserve">0.309678107500076</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420065402985</t>
+    <t xml:space="preserve">0.317420035600662</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398535966873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979178667068</t>
+    <t xml:space="preserve">0.311398506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979208469391</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -61571,7 +61571,7 @@
     </row>
     <row r="2254">
       <c r="A2254" s="1" t="n">
-        <v>45602.6911689815</v>
+        <v>45602.3333333333</v>
       </c>
       <c r="B2254" t="n">
         <v>100</v>
@@ -61592,6 +61592,32 @@
         <v>879</v>
       </c>
       <c r="H2254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="1" t="n">
+        <v>45603.691087963</v>
+      </c>
+      <c r="B2255" t="n">
+        <v>14693</v>
+      </c>
+      <c r="C2255" t="n">
+        <v>0.204999998211861</v>
+      </c>
+      <c r="D2255" t="n">
+        <v>0.189999997615814</v>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.195999994874001</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.204999998211861</v>
+      </c>
+      <c r="G2255" t="s">
+        <v>879</v>
+      </c>
+      <c r="H2255" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16990040242672</t>
+    <t xml:space="preserve">0.169900387525558</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524495601654</t>
+    <t xml:space="preserve">0.162396535277367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524510502815</t>
   </si>
   <si>
     <t xml:space="preserve">0.163348540663719</t>
@@ -56,22 +56,22 @@
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172570824623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159988597035408</t>
+    <t xml:space="preserve">0.162172555923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159988582134247</t>
   </si>
   <si>
     <t xml:space="preserve">0.15690866112709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340686440468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076806545258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732826113701</t>
+    <t xml:space="preserve">0.155340701341629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076821446419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309074401855</t>
@@ -89,19 +89,19 @@
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484894514084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13994100689888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13501313328743</t>
+    <t xml:space="preserve">0.145484909415245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941021800041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135013118386269</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
+    <t xml:space="preserve">0.13786906003952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
@@ -110,37 +110,37 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653489112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581377625465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077412903309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11227760463953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117590546608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853568375111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597505450249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.117653496563435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581407427788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077398002148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277619540691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117597997189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11485356092453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
     <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131877213716507</t>
+    <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
     <t xml:space="preserve">0.134397134184837</t>
@@ -149,64 +149,64 @@
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716593265533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140509605408</t>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716578364372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16015662252903</t>
+    <t xml:space="preserve">0.160156592726707</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940437793732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396265625954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836265087128</t>
+    <t xml:space="preserve">0.16794042289257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396250724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204317688942</t>
+    <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
     <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173596307635307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116243004799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436315894127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796229720116</t>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436300992966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644332051277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996451258659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340267062187</t>
+    <t xml:space="preserve">0.172644317150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996436357498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340252161026</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148319125175</t>
@@ -215,22 +215,22 @@
     <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162564545869827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157300665974617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516521453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460522890091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860501885414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158028647303581</t>
+    <t xml:space="preserve">0.162564560770988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157300651073456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516536355019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860486984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15802863240242</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644646406174</t>
@@ -242,16 +242,16 @@
     <t xml:space="preserve">0.164916485548019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636507630348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596607089043</t>
+    <t xml:space="preserve">0.164636492729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596592187881</t>
   </si>
   <si>
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16301254928112</t>
+    <t xml:space="preserve">0.163012519478798</t>
   </si>
   <si>
     <t xml:space="preserve">0.163628533482552</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">0.164468511939049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151196792721748</t>
+    <t xml:space="preserve">0.151196777820587</t>
   </si>
   <si>
     <t xml:space="preserve">0.142796963453293</t>
@@ -275,34 +275,34 @@
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147332862019539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613004565239</t>
+    <t xml:space="preserve">0.1473328769207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14542892575264</t>
+    <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
     <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144700929522514</t>
+    <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564845323563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145988881587982</t>
+    <t xml:space="preserve">0.145988911390305</t>
   </si>
   <si>
     <t xml:space="preserve">0.147556871175766</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660879254341</t>
+    <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14526093006134</t>
+    <t xml:space="preserve">0.145260900259018</t>
   </si>
   <si>
     <t xml:space="preserve">0.139997020363808</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701064348221</t>
+    <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -344,43 +344,43 @@
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477234721184</t>
+    <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029381036758</t>
+    <t xml:space="preserve">0.123029388487339</t>
   </si>
   <si>
     <t xml:space="preserve">0.122525401413441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112893611192703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341449975967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157483637333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101485073566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
+    <t xml:space="preserve">0.112893596291542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397455990314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341435074806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157498538494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101492524147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933496832848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293418109417</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093233823776</t>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134845122694969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357248544693</t>
+    <t xml:space="preserve">0.13484513759613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357263445854</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661328434944</t>
+    <t xml:space="preserve">0.125661313533783</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421378433704</t>
+    <t xml:space="preserve">0.123421393334866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129637256264687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128237292170525</t>
+    <t xml:space="preserve">0.129637241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155676692724228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141788974404335</t>
+    <t xml:space="preserve">0.155676677823067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141788989305496</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453132748604</t>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
+    <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134901121258736</t>
+    <t xml:space="preserve">0.134901136159897</t>
   </si>
   <si>
     <t xml:space="preserve">0.1340611577034</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853126645088</t>
+    <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
     <t xml:space="preserve">0.141956984996796</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604895591736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131821200251579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477070093155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13596510887146</t>
+    <t xml:space="preserve">0.146604880690575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13182121515274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477084994316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135965123772621</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -509,28 +509,28 @@
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597205996513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128853261470795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453297376633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541192531586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045329332352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821342527866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685265779495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120677441358566</t>
+    <t xml:space="preserve">0.131597191095352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128853276371956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453282475471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541207432747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045344233513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821349978447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685250878334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
     <t xml:space="preserve">0.128405287861824</t>
@@ -539,43 +539,43 @@
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613304018974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131037205457687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133557170629501</t>
+    <t xml:space="preserve">0.126613289117813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131037220358849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
     <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135629117488861</t>
+    <t xml:space="preserve">0.135629132390022</t>
   </si>
   <si>
     <t xml:space="preserve">0.134733155369759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861085891724</t>
+    <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151028782129288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150916770100594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151476800441742</t>
+    <t xml:space="preserve">0.151028797030449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150916785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151476785540581</t>
   </si>
   <si>
     <t xml:space="preserve">0.15310075879097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152484774589539</t>
+    <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">0.141229018568993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141284987330437</t>
+    <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
     <t xml:space="preserve">0.141061007976532</t>
@@ -602,34 +602,34 @@
     <t xml:space="preserve">0.14156499505043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005009412766</t>
+    <t xml:space="preserve">0.141005024313927</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13837306201458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13882103562355</t>
+    <t xml:space="preserve">0.138373076915741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693090200424</t>
+    <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405123233795</t>
+    <t xml:space="preserve">0.135405108332634</t>
   </si>
   <si>
     <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773190736771</t>
+    <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">0.131989181041718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157176733017</t>
+    <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
     <t xml:space="preserve">0.130925223231316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134173154830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13053323328495</t>
+    <t xml:space="preserve">0.134173169732094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
@@ -659,10 +659,10 @@
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13019722700119</t>
+    <t xml:space="preserve">0.132717177271843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341150522232</t>
+    <t xml:space="preserve">0.134341135621071</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
@@ -695,19 +695,19 @@
     <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138485044240952</t>
+    <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765066862106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125145316124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661178708076</t>
+    <t xml:space="preserve">0.138765051960945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125130414963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661193609238</t>
   </si>
   <si>
     <t xml:space="preserve">0.134285151958466</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146996885538101</t>
+    <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145652905106544</t>
+    <t xml:space="preserve">0.145652890205383</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">0.144812926650047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150188818573952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150972813367844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149348810315132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996720910072</t>
+    <t xml:space="preserve">0.150188833475113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150972783565521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149348825216293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516686081886</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060873150826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146940872073174</t>
+    <t xml:space="preserve">0.148060858249664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146940901875496</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612854838371</t>
+    <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
     <t xml:space="preserve">0.144980922341347</t>
@@ -812,10 +812,10 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748939037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140837013721466</t>
+    <t xml:space="preserve">0.143748953938484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140837028622627</t>
   </si>
   <si>
     <t xml:space="preserve">0.141116991639137</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141732975840569</t>
+    <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
     <t xml:space="preserve">0.141676992177963</t>
@@ -851,31 +851,31 @@
     <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150468796491623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836863994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460852146149</t>
+    <t xml:space="preserve">0.150468811392784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14783687889576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220879793167</t>
+    <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028931856155</t>
+    <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
     <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143076941370964</t>
+    <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
@@ -884,37 +884,37 @@
     <t xml:space="preserve">0.152316778898239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732706189156</t>
+    <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308939576149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143188953399658</t>
+    <t xml:space="preserve">0.143188938498497</t>
   </si>
   <si>
     <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142404973506927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144252941012383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141845002770424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142012998461723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900986433029</t>
+    <t xml:space="preserve">0.142404958605766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144252955913544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141844987869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142012968659401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14190100133419</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142460986971855</t>
+    <t xml:space="preserve">0.142461001873016</t>
   </si>
   <si>
     <t xml:space="preserve">0.14414094388485</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">0.140445023775101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140557006001472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141620993614197</t>
+    <t xml:space="preserve">0.140556991100311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141621008515358</t>
   </si>
   <si>
     <t xml:space="preserve">0.138317063450813</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124995589256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429060578346</t>
+    <t xml:space="preserve">0.142348974943161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124980688095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429045677185</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136637106537819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077120900154</t>
+    <t xml:space="preserve">0.136637091636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077105998993</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277162909508</t>
+    <t xml:space="preserve">0.133277177810669</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677291631699</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557305455208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317362904549</t>
+    <t xml:space="preserve">0.126557320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317355453968</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437334179878</t>
@@ -986,52 +986,52 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188156008720398</t>
+    <t xml:space="preserve">0.188155993819237</t>
   </si>
   <si>
     <t xml:space="preserve">0.229595124721527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.223995238542557</t>
+    <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
     <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200475752353668</t>
+    <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
     <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220635294914246</t>
+    <t xml:space="preserve">0.220635324716568</t>
   </si>
   <si>
     <t xml:space="preserve">0.221755295991898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355167269707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195325255394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875282168388</t>
+    <t xml:space="preserve">0.227355152368546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875252366066</t>
   </si>
   <si>
     <t xml:space="preserve">0.218395337462425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225675195455551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315296530724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154825806618</t>
+    <t xml:space="preserve">0.225675240159035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154796004295</t>
   </si>
   <si>
     <t xml:space="preserve">0.225115224719048</t>
@@ -1040,19 +1040,19 @@
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075009822845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515039086342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635010361671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21962596476078</t>
+    <t xml:space="preserve">0.234075039625168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515024185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635025262833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488491415977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625934958458</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341574072838</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708882331848</t>
+    <t xml:space="preserve">0.208708867430687</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497950315475</t>
@@ -1091,34 +1091,34 @@
     <t xml:space="preserve">0.196507424116135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865243673325</t>
+    <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186874732375145</t>
+    <t xml:space="preserve">0.186874717473984</t>
   </si>
   <si>
     <t xml:space="preserve">0.184948161244392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184305995702744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17595762014389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182379469275475</t>
+    <t xml:space="preserve">0.184305980801582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175957635045052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452883243561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884176373482</t>
+    <t xml:space="preserve">0.180452898144722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884191274643</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599815487862</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938702344894</t>
+    <t xml:space="preserve">0.193938687443733</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369980573654</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">0.179810732603073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181095093488693</t>
+    <t xml:space="preserve">0.181095078587532</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663815259933</t>
+    <t xml:space="preserve">0.183663800358772</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315469503403</t>
+    <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
@@ -1172,31 +1172,31 @@
     <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217057228088379</t>
+    <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17338889837265</t>
+    <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
     <t xml:space="preserve">0.169535830616951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462371945381</t>
+    <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17082017660141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16825145483017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16760927438736</t>
+    <t xml:space="preserve">0.170820191502571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168251469731331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167609289288521</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
@@ -1208,22 +1208,22 @@
     <t xml:space="preserve">0.165040552616119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165682718157768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159260928630829</t>
+    <t xml:space="preserve">0.165682733058929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159260913729668</t>
   </si>
   <si>
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618733286858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471830844879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157334372401237</t>
+    <t xml:space="preserve">0.158618748188019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471815943718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157334387302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161829650402069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156692206859589</t>
+    <t xml:space="preserve">0.161829635500908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156692191958427</t>
   </si>
   <si>
     <t xml:space="preserve">0.156050026416779</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">0.155407845973969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
@@ -1262,46 +1262,46 @@
     <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174031093716621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012175917625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516883015633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801258802414</t>
+    <t xml:space="preserve">0.17403107881546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012161016464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516897916794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801243901253</t>
   </si>
   <si>
     <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727785229683</t>
+    <t xml:space="preserve">0.190727800130844</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244028836488724</t>
+    <t xml:space="preserve">0.244028821587563</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945933818817</t>
+    <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166309833527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744460701942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.249166294932365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744475603104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735031604767</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">0.250450611114502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254303753376007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377212047577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253019332885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175768733025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386656045914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322656273842</t>
+    <t xml:space="preserve">0.254303723573685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377182245255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253019392490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175738930702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386641144753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322641372681</t>
   </si>
   <si>
     <t xml:space="preserve">0.246597588062286</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323592603206635</t>
+    <t xml:space="preserve">0.323592573404312</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548326849937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267500281334</t>
+    <t xml:space="preserve">0.247548341751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229750752449036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234604611992836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368720531464</t>
+    <t xml:space="preserve">0.229750737547874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234604597091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232986658811569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975264072418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076484322548</t>
+    <t xml:space="preserve">0.226514801383018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23298667371273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975249171257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076469421387</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">0.238649532198906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
+    <t xml:space="preserve">0.244312405586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840533256531</t>
   </si>
   <si>
     <t xml:space="preserve">0.241885468363762</t>
@@ -1400,28 +1400,28 @@
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357325792313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2370315939188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132784366608</t>
+    <t xml:space="preserve">0.248357310891151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237031579017639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132769465446</t>
   </si>
   <si>
     <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243503406643867</t>
+    <t xml:space="preserve">0.243503391742706</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739327907562</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25644713640213</t>
+    <t xml:space="preserve">0.256447106599808</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211200237274</t>
+    <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
     <t xml:space="preserve">0.254829168319702</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252402245998383</t>
+    <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
     <t xml:space="preserve">0.245121374726295</t>
@@ -1460,22 +1460,22 @@
     <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717212080956</t>
+    <t xml:space="preserve">0.261301040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717197179794</t>
   </si>
   <si>
     <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221660912036896</t>
+    <t xml:space="preserve">0.221660897135735</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
@@ -1493,46 +1493,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742474079132</t>
+    <t xml:space="preserve">0.247742459177971</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161831378937</t>
+    <t xml:space="preserve">0.245161846280098</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860745310783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23569943010807</t>
+    <t xml:space="preserve">0.240860760211945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235699415206909</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280087709427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000545978546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140301942825</t>
+    <t xml:space="preserve">0.238280102610588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000531077385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140316843987</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957472205162</t>
+    <t xml:space="preserve">0.227957487106323</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258602976799</t>
+    <t xml:space="preserve">0.232258588075638</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118772506714</t>
+    <t xml:space="preserve">0.233118802309036</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892943501472</t>
+    <t xml:space="preserve">0.209892928600311</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495115637779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215544104576</t>
+    <t xml:space="preserve">0.218495100736618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215559005737</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21763488650322</t>
+    <t xml:space="preserve">0.217634871602058</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355314970016</t>
+    <t xml:space="preserve">0.219355329871178</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516822099686</t>
+    <t xml:space="preserve">0.304516792297363</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839422702789</t>
+    <t xml:space="preserve">0.314839392900467</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678107500076</t>
+    <t xml:space="preserve">0.309678137302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420035600662</t>
+    <t xml:space="preserve">0.317420065402985</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979208469391</t>
+    <t xml:space="preserve">0.311398535966873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979178667068</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -61597,7 +61597,7 @@
     </row>
     <row r="2255">
       <c r="A2255" s="1" t="n">
-        <v>45603.691087963</v>
+        <v>45603.3333333333</v>
       </c>
       <c r="B2255" t="n">
         <v>14693</v>
@@ -61618,6 +61618,32 @@
         <v>879</v>
       </c>
       <c r="H2255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="1" t="n">
+        <v>45604.6910532407</v>
+      </c>
+      <c r="B2256" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2256" t="n">
+        <v>0.204999998211861</v>
+      </c>
+      <c r="D2256" t="n">
+        <v>0.189999997615814</v>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.195999994874001</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.208000004291534</v>
+      </c>
+      <c r="G2256" t="s">
+        <v>877</v>
+      </c>
+      <c r="H2256" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16990040242672</t>
+    <t xml:space="preserve">0.169900372624397</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
@@ -53,34 +53,34 @@
     <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836564540863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172570824623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159988582134247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15690866112709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155340686440468</t>
+    <t xml:space="preserve">0.161836549639702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172555923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159988597035408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156908676028252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
     <t xml:space="preserve">0.150076821446419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148732841014862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137309074401855</t>
+    <t xml:space="preserve">0.148732826113701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
+    <t xml:space="preserve">0.14330093562603</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132969737053</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484909415245</t>
+    <t xml:space="preserve">0.145484894514084</t>
   </si>
   <si>
     <t xml:space="preserve">0.139941036701202</t>
@@ -101,40 +101,40 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869089841843</t>
+    <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253382742405</t>
+    <t xml:space="preserve">0.123253375291824</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653496563435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115917533636093</t>
+    <t xml:space="preserve">0.115917541086674</t>
   </si>
   <si>
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077412903309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11227760463953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113117597997189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853553473949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597490549088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981356620789</t>
+    <t xml:space="preserve">0.122077398002148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277612090111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117605447769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114853568375111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
   </si>
   <si>
     <t xml:space="preserve">0.12683729827404</t>
@@ -149,22 +149,22 @@
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252776384354</t>
+    <t xml:space="preserve">0.151252791285515</t>
   </si>
   <si>
     <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165140509605408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156740695238113</t>
+    <t xml:space="preserve">0.165140494704247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167772427201271</t>
+    <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
     <t xml:space="preserve">0.167940437793732</t>
@@ -173,10 +173,10 @@
     <t xml:space="preserve">0.176396265625954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175836265087128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636223077774</t>
+    <t xml:space="preserve">0.175836279988289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636208176613</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
@@ -188,31 +188,31 @@
     <t xml:space="preserve">0.173596322536469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17611625790596</t>
+    <t xml:space="preserve">0.176116272807121</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436300992966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177796229720116</t>
+    <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644317150116</t>
+    <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340267062187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148304224014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170236378908157</t>
+    <t xml:space="preserve">0.176340252161026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148319125175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170236393809319</t>
   </si>
   <si>
     <t xml:space="preserve">0.162564560770988</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516521453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460522890091</t>
+    <t xml:space="preserve">0.163516536355019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
@@ -239,16 +239,16 @@
     <t xml:space="preserve">0.162676528096199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916500449181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636507630348</t>
+    <t xml:space="preserve">0.164916515350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428626298904</t>
+    <t xml:space="preserve">0.159428611397743</t>
   </si>
   <si>
     <t xml:space="preserve">0.163012534379959</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">0.163628533482552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468511939049</t>
+    <t xml:space="preserve">0.164468497037888</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796963453293</t>
+    <t xml:space="preserve">0.142796978354454</t>
   </si>
   <si>
     <t xml:space="preserve">0.148396849632263</t>
@@ -272,22 +272,22 @@
     <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145596906542778</t>
+    <t xml:space="preserve">0.145596891641617</t>
   </si>
   <si>
     <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1406130194664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644916057587</t>
+    <t xml:space="preserve">0.147108852863312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147332862019539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140613004565239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
     <t xml:space="preserve">0.145428910851479</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">0.139997020363808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139437049627304</t>
+    <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997184991837</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14139698445797</t>
+    <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
     <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125997319817543</t>
+    <t xml:space="preserve">0.125997304916382</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477234721184</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">0.122525401413441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112893611192703</t>
+    <t xml:space="preserve">0.112893596291542</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">0.118101492524147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933496832848</t>
+    <t xml:space="preserve">0.117933481931686</t>
   </si>
   <si>
     <t xml:space="preserve">0.121293418109417</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
+    <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
     <t xml:space="preserve">0.13484513759613</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661313533783</t>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021272063255</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">0.123421378433704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128461271524429</t>
+    <t xml:space="preserve">0.128461256623268</t>
   </si>
   <si>
     <t xml:space="preserve">0.127229303121567</t>
@@ -422,31 +422,31 @@
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237292170525</t>
+    <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573253750801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12862928211689</t>
+    <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453132748604</t>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
@@ -455,16 +455,16 @@
     <t xml:space="preserve">0.136581093072891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140165016055107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137813076376915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1354611068964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685116052628</t>
+    <t xml:space="preserve">0.140165001153946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137813061475754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135461121797562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685130953789</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853111743927</t>
+    <t xml:space="preserve">0.135853126645088</t>
   </si>
   <si>
     <t xml:space="preserve">0.141956984996796</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636956810951</t>
+    <t xml:space="preserve">0.143636971712112</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477070093155</t>
+    <t xml:space="preserve">0.137477099895477</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853261470795</t>
+    <t xml:space="preserve">0.128853276371956</t>
   </si>
   <si>
     <t xml:space="preserve">0.127453297376633</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">0.125045329332352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821349978447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685250878334</t>
+    <t xml:space="preserve">0.124821357429028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -548,13 +548,13 @@
     <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221179246902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629117488861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733140468597</t>
+    <t xml:space="preserve">0.133221164345741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135629132390022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733125567436</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861085891724</t>
@@ -578,10 +578,10 @@
     <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145876914262772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236992716789</t>
+    <t xml:space="preserve">0.14587689936161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138821050524712</t>
+    <t xml:space="preserve">0.13882103562355</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741129517555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1338931620121</t>
+    <t xml:space="preserve">0.135741144418716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405108332634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
     <t xml:space="preserve">0.132773175835609</t>
@@ -638,19 +638,19 @@
     <t xml:space="preserve">0.131989181041718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132157176733017</t>
+    <t xml:space="preserve">0.132157206535339</t>
   </si>
   <si>
     <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134173154830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317213177681</t>
+    <t xml:space="preserve">0.134173169732094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13131719827652</t>
   </si>
   <si>
     <t xml:space="preserve">0.129525244235992</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965243697166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309224128723</t>
+    <t xml:space="preserve">0.128965258598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309239029884</t>
   </si>
   <si>
     <t xml:space="preserve">0.136917099356651</t>
@@ -686,13 +686,13 @@
     <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757062911987</t>
+    <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
     <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140333026647568</t>
+    <t xml:space="preserve">0.140333011746407</t>
   </si>
   <si>
     <t xml:space="preserve">0.138485059142113</t>
@@ -704,25 +704,25 @@
     <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135125130414963</t>
+    <t xml:space="preserve">0.135125115513802</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285151958466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13820506632328</t>
+    <t xml:space="preserve">0.134285166859627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138205081224442</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138653069734573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149908825755119</t>
+    <t xml:space="preserve">0.138653054833412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
     <t xml:space="preserve">0.14699687063694</t>
@@ -731,28 +731,28 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
+    <t xml:space="preserve">0.14621290564537</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652890205383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146268904209137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147668853402138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144812941551208</t>
+    <t xml:space="preserve">0.146268919110298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14766888320446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144812926650047</t>
   </si>
   <si>
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972798466682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149348810315132</t>
+    <t xml:space="preserve">0.150972783565521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
     <t xml:space="preserve">0.153996735811234</t>
@@ -767,28 +767,28 @@
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708768844604</t>
+    <t xml:space="preserve">0.152708753943443</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
+    <t xml:space="preserve">0.152652740478516</t>
   </si>
   <si>
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060873150826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146940872073174</t>
+    <t xml:space="preserve">0.148060858249664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476905465126</t>
+    <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
     <t xml:space="preserve">0.147612869739532</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.144980922341347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572954297066</t>
+    <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">0.141676992177963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141453012824059</t>
+    <t xml:space="preserve">0.141452997922897</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244966864586</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">0.150636807084084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150468796491623</t>
+    <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
     <t xml:space="preserve">0.14783687889576</t>
@@ -872,16 +872,16 @@
     <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972933292389</t>
+    <t xml:space="preserve">0.143972918391228</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147276878356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152316778898239</t>
+    <t xml:space="preserve">0.147276863455772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
     <t xml:space="preserve">0.155732706189156</t>
@@ -905,37 +905,37 @@
     <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012998461723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900986433029</t>
+    <t xml:space="preserve">0.142012983560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900971531868</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142461001873016</t>
+    <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
     <t xml:space="preserve">0.14414094388485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140949010848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.14094902575016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14044500887394</t>
   </si>
   <si>
     <t xml:space="preserve">0.140556991100311</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141620978713036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138317048549652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141172990202904</t>
+    <t xml:space="preserve">0.141620993614197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138317063450813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141173005104065</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348974943161</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149052858353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637106537819</t>
+    <t xml:space="preserve">0.138149067759514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637091636658</t>
   </si>
   <si>
     <t xml:space="preserve">0.136077105998993</t>
@@ -968,100 +968,100 @@
     <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129917234182358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126557320356369</t>
+    <t xml:space="preserve">0.129917219281197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
     <t xml:space="preserve">0.124317355453968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125437334179878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127117291092873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11983747035265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188156008720398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595109820366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995238542557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315566182137</t>
+    <t xml:space="preserve">0.125437349081039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127117305994034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119837448000908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188155993819237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595124721527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995268344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315595984459</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23127506673336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220635294914246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755310893059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355182170868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195325255394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875282168388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395337462425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675195455551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315296530724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154825806618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115209817886</t>
+    <t xml:space="preserve">0.231275051832199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220635309815407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755266189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875267267227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675210356712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154796004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075039625168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233515053987503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635055065155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21962596476078</t>
+    <t xml:space="preserve">0.23407506942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233515024185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635025262833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488491415977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625949859619</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226047769188881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194656729698</t>
+    <t xml:space="preserve">0.22604775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194671630859</t>
   </si>
   <si>
     <t xml:space="preserve">0.210635423660278</t>
@@ -1070,70 +1070,70 @@
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277589201927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208708882331848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205497950315475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199076160788536</t>
+    <t xml:space="preserve">0.211277574300766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208708852529526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.205497965216637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199076145887375</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507439017296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195865243673325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185590356588364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186874732375145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184948176145554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305995702744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17595762014389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182379469275475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177241995930672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452883243561</t>
+    <t xml:space="preserve">0.193296536803246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507424116135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195865258574486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185590371489525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186874717473984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184948161244392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305980801582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175957635045052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182379454374313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17724198102951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452898144722</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1765998005867</t>
+    <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
     <t xml:space="preserve">0.197791799902916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193938702344894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369980573654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443439245224</t>
+    <t xml:space="preserve">0.193938687443733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369995474815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443424344063</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1145,13 +1145,13 @@
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810732603073</t>
+    <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
     <t xml:space="preserve">0.181095078587532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179168537259102</t>
+    <t xml:space="preserve">0.179168552160263</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315469503403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174673289060593</t>
+    <t xml:space="preserve">0.175315454602242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
     <t xml:space="preserve">0.172104552388191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217057213187218</t>
+    <t xml:space="preserve">0.217057228088379</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
@@ -1187,16 +1187,16 @@
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1701779961586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17082017660141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16825145483017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167609289288521</t>
+    <t xml:space="preserve">0.170177981257439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170820191502571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168251469731331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040552616119</t>
+    <t xml:space="preserve">0.165040567517281</t>
   </si>
   <si>
     <t xml:space="preserve">0.165682718157768</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">0.159260913729668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157976567745209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618733286858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471830844879</t>
+    <t xml:space="preserve">0.157976552844048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618748188019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334387302399</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16311402618885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161829635500908</t>
+    <t xml:space="preserve">0.163114011287689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
     <t xml:space="preserve">0.156692191958427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156050026416779</t>
+    <t xml:space="preserve">0.156050011515617</t>
   </si>
   <si>
     <t xml:space="preserve">0.159903109073639</t>
@@ -1256,22 +1256,22 @@
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398372173309</t>
+    <t xml:space="preserve">0.164398387074471</t>
   </si>
   <si>
     <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17403107881546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012175917625</t>
+    <t xml:space="preserve">0.174031093716621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012146115303</t>
   </si>
   <si>
     <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188801243901253</t>
+    <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
     <t xml:space="preserve">0.199718326330185</t>
@@ -1292,16 +1292,16 @@
     <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248524084687233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166294932365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744475603104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735001802444</t>
+    <t xml:space="preserve">0.248524114489555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166265130043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744490504265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735031604767</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
@@ -1313,22 +1313,22 @@
     <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252377212047577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253019362688065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240175753831863</t>
+    <t xml:space="preserve">0.252377182245255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253019392490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
     <t xml:space="preserve">0.243386641144753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236322641372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597588062286</t>
+    <t xml:space="preserve">0.236322671175003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881934046745</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548341751099</t>
+    <t xml:space="preserve">0.247548311948776</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230559706687927</t>
+    <t xml:space="preserve">0.230559721589088</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
@@ -1367,34 +1367,34 @@
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177674770355</t>
+    <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
     <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23298667371273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975249171257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076469421387</t>
+    <t xml:space="preserve">0.232986643910408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975264072418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312405586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840533256531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885468363762</t>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24431237578392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840563058853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24188543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">0.228132769465446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222580075264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503391742706</t>
+    <t xml:space="preserve">0.236222609877586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503421545029</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">0.235413625836372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246739327907562</t>
+    <t xml:space="preserve">0.246739357709885</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256447106599808</t>
+    <t xml:space="preserve">0.25644713640213</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254829168319702</t>
+    <t xml:space="preserve">0.25482913851738</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26291897892952</t>
+    <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683042764664</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">0.208717197179794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22246989607811</t>
+    <t xml:space="preserve">0.222469910979271</t>
   </si>
   <si>
     <t xml:space="preserve">0.221660897135735</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.271008789539337</t>
+    <t xml:space="preserve">0.27100881934166</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -61834,19 +61834,19 @@
     </row>
     <row r="2264">
       <c r="A2264" s="1" t="n">
-        <v>45616.6911805556</v>
+        <v>45616.3333333333</v>
       </c>
       <c r="B2264" t="n">
         <v>50</v>
       </c>
       <c r="C2264" t="n">
-        <v>0.199499994516373</v>
+        <v>0.200000002980232</v>
       </c>
       <c r="D2264" t="n">
-        <v>0.184000000357628</v>
+        <v>0.200000002980232</v>
       </c>
       <c r="E2264" t="n">
-        <v>0.184000000357628</v>
+        <v>0.200000002980232</v>
       </c>
       <c r="F2264" t="n">
         <v>0.200000002980232</v>
@@ -61855,6 +61855,32 @@
         <v>839</v>
       </c>
       <c r="H2264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" s="1" t="n">
+        <v>45617.6911805556</v>
+      </c>
+      <c r="B2265" t="n">
+        <v>2494</v>
+      </c>
+      <c r="C2265" t="n">
+        <v>0.194999992847443</v>
+      </c>
+      <c r="D2265" t="n">
+        <v>0.194999992847443</v>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.194999992847443</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.194999992847443</v>
+      </c>
+      <c r="G2265" t="s">
+        <v>841</v>
+      </c>
+      <c r="H2265" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="883">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16990040242672</t>
+    <t xml:space="preserve">0.169900387525558</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524510502815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348525762558</t>
+    <t xml:space="preserve">0.162396535277367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524495601654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172570824623</t>
+    <t xml:space="preserve">0.162172555923462</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
@@ -65,22 +65,22 @@
     <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340701341629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076806545258</t>
+    <t xml:space="preserve">0.15534071624279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076821446419</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309074401855</t>
+    <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197077274323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
+    <t xml:space="preserve">0.143300965428352</t>
   </si>
   <si>
     <t xml:space="preserve">0.143132954835892</t>
@@ -95,19 +95,19 @@
     <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13501313328743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138877063989639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13786906003952</t>
+    <t xml:space="preserve">0.135013148188591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138877049088478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253390192986</t>
+    <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653496563435</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077390551567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112277619540691</t>
+    <t xml:space="preserve">0.122077405452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277626991272</t>
   </si>
   <si>
     <t xml:space="preserve">0.113117605447769</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597490549088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.117597497999668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981364071369</t>
   </si>
   <si>
     <t xml:space="preserve">0.126837313175201</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156740680336952</t>
+    <t xml:space="preserve">0.156740695238113</t>
   </si>
   <si>
     <t xml:space="preserve">0.160156607627869</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396235823631</t>
+    <t xml:space="preserve">0.176396265625954</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178636223077774</t>
+    <t xml:space="preserve">0.178636208176613</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
@@ -197,16 +197,16 @@
     <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172700345516205</t>
+    <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
     <t xml:space="preserve">0.172644317150116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996451258659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340267062187</t>
+    <t xml:space="preserve">0.167996421456337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340252161026</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148319125175</t>
@@ -239,31 +239,31 @@
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916500449181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636507630348</t>
+    <t xml:space="preserve">0.164916515350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159428611397743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163012534379959</t>
+    <t xml:space="preserve">0.159428626298904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16301254928112</t>
   </si>
   <si>
     <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468511939049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151196777820587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142796963453293</t>
+    <t xml:space="preserve">0.164468497037888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151196792721748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142796978354454</t>
   </si>
   <si>
     <t xml:space="preserve">0.148396849632263</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">0.145596891641617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108882665634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1473328769207</t>
+    <t xml:space="preserve">0.147332862019539</t>
   </si>
   <si>
     <t xml:space="preserve">0.1406130194664</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564845323563</t>
+    <t xml:space="preserve">0.148564860224724</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988896489143</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156892180443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
+    <t xml:space="preserve">0.146156907081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660879254341</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
@@ -320,49 +320,49 @@
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997035264969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437049627304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132997170090675</t>
+    <t xml:space="preserve">0.139997020363808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437034726143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
     <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138597056269646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14139698445797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197376728058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125997334718704</t>
+    <t xml:space="preserve">0.138597071170807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141396999359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197384178638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
     <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130253240466118</t>
+    <t xml:space="preserve">0.130253255367279</t>
   </si>
   <si>
     <t xml:space="preserve">0.123029381036758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122525408864021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893596291542</t>
+    <t xml:space="preserve">0.12252538651228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341457426548</t>
+    <t xml:space="preserve">0.120341442525387</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
@@ -371,40 +371,40 @@
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933489382267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
+    <t xml:space="preserve">0.117933481931686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293418109417</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093204021454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135237112641335</t>
+    <t xml:space="preserve">0.131093218922615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
     <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134845122694969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357263445854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134789139032364</t>
+    <t xml:space="preserve">0.13484513759613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357248544693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134789124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661328434944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021242260933</t>
+    <t xml:space="preserve">0.125661343336105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
     <t xml:space="preserve">0.127621278166771</t>
@@ -413,10 +413,10 @@
     <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128461271524429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229288220406</t>
+    <t xml:space="preserve">0.128461256623268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128629267215729</t>
+    <t xml:space="preserve">0.128629252314568</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140165030956268</t>
+    <t xml:space="preserve">0.140165001153946</t>
   </si>
   <si>
     <t xml:space="preserve">0.137813061475754</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">0.134901136159897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134061142802238</t>
+    <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956999897957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139381051063538</t>
+    <t xml:space="preserve">0.141956984996796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
     <t xml:space="preserve">0.143636956810951</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13182121515274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477070093155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135965123772621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143356963992119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136749088764191</t>
+    <t xml:space="preserve">0.131821200251579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477084994316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13596510887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14335697889328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
     <t xml:space="preserve">0.131597205996513</t>
@@ -518,22 +518,22 @@
     <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541222333908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125045344233513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124821335077286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685250878334</t>
+    <t xml:space="preserve">0.131541207432747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125045329332352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124821357429028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221179246902</t>
+    <t xml:space="preserve">0.133221164345741</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556721448898</t>
+    <t xml:space="preserve">0.154556706547737</t>
   </si>
   <si>
     <t xml:space="preserve">0.151028782129288</t>
@@ -569,28 +569,28 @@
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476800441742</t>
+    <t xml:space="preserve">0.15147677063942</t>
   </si>
   <si>
     <t xml:space="preserve">0.153100743889809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152484774589539</t>
+    <t xml:space="preserve">0.152484759688377</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236977815628</t>
+    <t xml:space="preserve">0.142236992716789</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141284987330437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141061007976532</t>
+    <t xml:space="preserve">0.141285002231598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141005009412766</t>
+    <t xml:space="preserve">0.141004994511604</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13467712700367</t>
+    <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
@@ -623,19 +623,19 @@
     <t xml:space="preserve">0.135741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1338931620121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957119822502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131989195942879</t>
+    <t xml:space="preserve">0.135405108332634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133893147110939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134957134723663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13198921084404</t>
   </si>
   <si>
     <t xml:space="preserve">0.132157191634178</t>
@@ -647,22 +647,22 @@
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317228078842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525244235992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445173501968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132717192173004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13019722700119</t>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317213177681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525259137154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445158600807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132717177271843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493197917938</t>
@@ -686,34 +686,34 @@
     <t xml:space="preserve">0.134341135621071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757062911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134117141366005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140333041548729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138485074043274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135573118925095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765051960945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125130414963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661178708076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134285137057304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13820506632328</t>
+    <t xml:space="preserve">0.137757077813148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134117156267166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140333026647568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138485059142113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135573104023933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765066862106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125145316124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661193609238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134285151958466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138205081224442</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908795952797</t>
+    <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
     <t xml:space="preserve">0.14699687063694</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14621290564537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145652890205383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146268904209137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14766888320446</t>
+    <t xml:space="preserve">0.146212890744209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145652905106544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146268889307976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -752,16 +752,16 @@
     <t xml:space="preserve">0.150972798466682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149348810315132</t>
+    <t xml:space="preserve">0.149348825216293</t>
   </si>
   <si>
     <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516686081886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152764767408371</t>
+    <t xml:space="preserve">0.156516671180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15276475250721</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652770280838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372777462006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148060873150826</t>
+    <t xml:space="preserve">0.152652755379677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372762560844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
     <t xml:space="preserve">0.146940886974335</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144476920366287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147612884640694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144980922341347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572954297066</t>
+    <t xml:space="preserve">0.144476935267448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147612869739532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144980907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572969198227</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">0.144588932394981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143412947654724</t>
+    <t xml:space="preserve">0.143412962555885</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
@@ -824,46 +824,46 @@
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804937601089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860951066017</t>
+    <t xml:space="preserve">0.143804952502251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860965967178</t>
   </si>
   <si>
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676977276802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141452997922897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143244966864586</t>
+    <t xml:space="preserve">0.141676992177963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141453012824059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143244951963425</t>
   </si>
   <si>
     <t xml:space="preserve">0.145540907979012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151140779256821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636792182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468796491623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836863994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460822343826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148228853940964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220879793167</t>
+    <t xml:space="preserve">0.151140794157982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636821985245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468811392784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147836849093437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460837244987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148228839039803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
@@ -872,76 +872,76 @@
     <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972918391228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076941370964</t>
+    <t xml:space="preserve">0.143972933292389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076956272125</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152316778898239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155732691287994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144308939576149</t>
+    <t xml:space="preserve">0.152316763997078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155732721090317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372912287712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142404958605766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144252941012383</t>
+    <t xml:space="preserve">0.145372927188873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142404973506927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144252926111221</t>
   </si>
   <si>
     <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142012968659401</t>
+    <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900971531868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142180949449539</t>
+    <t xml:space="preserve">0.142180979251862</t>
   </si>
   <si>
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144140958786011</t>
+    <t xml:space="preserve">0.144140928983688</t>
   </si>
   <si>
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445038676262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140557020902634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141620978713036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138317063450813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141173005104065</t>
+    <t xml:space="preserve">0.140445023775101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140557006001472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141620993614197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138317048549652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
     <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142124980688095</t>
+    <t xml:space="preserve">0.142124995589256</t>
   </si>
   <si>
     <t xml:space="preserve">0.138429045677185</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">0.138149067759514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136637091636658</t>
+    <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
     <t xml:space="preserve">0.136077105998993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133837163448334</t>
+    <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
     <t xml:space="preserve">0.133277162909508</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">0.126557320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317362904549</t>
+    <t xml:space="preserve">0.124317370355129</t>
   </si>
   <si>
     <t xml:space="preserve">0.125437349081039</t>
@@ -983,25 +983,25 @@
     <t xml:space="preserve">0.127117291092873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11983747035265</t>
+    <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
     <t xml:space="preserve">0.188155993819237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595139622688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995238542557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315581083298</t>
+    <t xml:space="preserve">0.229595124721527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995253443718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475752353668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231275081634521</t>
+    <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635309815407</t>
@@ -1013,43 +1013,43 @@
     <t xml:space="preserve">0.227355167269707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195295453072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875267267227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395322561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675210356712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154781103134</t>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875282168388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675195455551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315281629562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
     <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237994953989983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234075039625168</t>
+    <t xml:space="preserve">0.237994939088821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234075054526329</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635025262833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488491415977</t>
+    <t xml:space="preserve">0.234635010361671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
     <t xml:space="preserve">0.219625949859619</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226047769188881</t>
+    <t xml:space="preserve">0.22604775428772</t>
   </si>
   <si>
     <t xml:space="preserve">0.222194656729698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210635423660278</t>
+    <t xml:space="preserve">0.210635408759117</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1073,25 +1073,25 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708867430687</t>
+    <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076160788536</t>
+    <t xml:space="preserve">0.199076175689697</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296536803246</t>
+    <t xml:space="preserve">0.193296521902084</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">0.186874717473984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948161244392</t>
+    <t xml:space="preserve">0.184948176145554</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305980801582</t>
@@ -1115,19 +1115,19 @@
     <t xml:space="preserve">0.177241995930672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180452898144722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177884191274643</t>
+    <t xml:space="preserve">0.180452883243561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
     <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197791799902916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938687443733</t>
+    <t xml:space="preserve">0.197791814804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938702344894</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
@@ -1139,22 +1139,22 @@
     <t xml:space="preserve">0.194580882787704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188159078359604</t>
+    <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810717701912</t>
+    <t xml:space="preserve">0.179810732603073</t>
   </si>
   <si>
     <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179168552160263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183663815259933</t>
+    <t xml:space="preserve">0.179168537259102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183663830161095</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174673289060593</t>
+    <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
     <t xml:space="preserve">0.17210453748703</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">0.17082017660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168251469731331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16760927438736</t>
+    <t xml:space="preserve">0.16825145483017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167609289288521</t>
   </si>
   <si>
     <t xml:space="preserve">0.16696709394455</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">0.162471830844879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157334372401237</t>
+    <t xml:space="preserve">0.157334387302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163114011287689</t>
+    <t xml:space="preserve">0.16311402618885</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692191958427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050011515617</t>
+    <t xml:space="preserve">0.156692206859589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
     <t xml:space="preserve">0.159903109073639</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398387074471</t>
+    <t xml:space="preserve">0.164398372173309</t>
   </si>
   <si>
     <t xml:space="preserve">0.181737259030342</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">0.174031093716621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012161016464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516883015633</t>
+    <t xml:space="preserve">0.192012175917625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516897916794</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199718326330185</t>
+    <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
+    <t xml:space="preserve">0.25494596362114</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524099588394</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">0.240175753831863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386641144753</t>
+    <t xml:space="preserve">0.243386656045914</t>
   </si>
   <si>
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597558259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881904244423</t>
+    <t xml:space="preserve">0.246597573161125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
     <t xml:space="preserve">0.323592603206635</t>
@@ -1346,31 +1346,31 @@
     <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240267485380173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228941723704338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559721589088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229750737547874</t>
+    <t xml:space="preserve">0.240267500281334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228941738605499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559706687927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229750752449036</t>
   </si>
   <si>
     <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231368705630302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233795627951622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232177689671516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226514801383018</t>
+    <t xml:space="preserve">0.231368720531464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233795642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232177674770355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
     <t xml:space="preserve">0.232986658811569</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076469421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930343866348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649502396584</t>
+    <t xml:space="preserve">0.241076484322548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930358767509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649532198906</t>
   </si>
   <si>
     <t xml:space="preserve">0.244312390685081</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241885453462601</t>
+    <t xml:space="preserve">0.241885468363762</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357310891151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237031579017639</t>
+    <t xml:space="preserve">0.248357325792313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2370315939188</t>
   </si>
   <si>
     <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222594976425</t>
+    <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
     <t xml:space="preserve">0.243503406643867</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065074682236</t>
+    <t xml:space="preserve">0.258065104484558</t>
   </si>
   <si>
     <t xml:space="preserve">0.257256090641022</t>
@@ -1439,25 +1439,28 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211170434952</t>
+    <t xml:space="preserve">0.253211200237274</t>
   </si>
   <si>
     <t xml:space="preserve">0.254829168319702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250784248113632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25240221619606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121389627457</t>
+    <t xml:space="preserve">0.250784277915955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166309833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262918949127197</t>
+    <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683072566986</t>
@@ -1469,33 +1472,30 @@
     <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208717197179794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222469910979271</t>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
     <t xml:space="preserve">0.221660912036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225705847144127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435741662979</t>
+    <t xml:space="preserve">0.225705832242966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
     <t xml:space="preserve">0.271008789539337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264536947011948</t>
+    <t xml:space="preserve">0.264536917209625</t>
   </si>
   <si>
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258065104484558</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.247742474079132</t>
   </si>
   <si>
@@ -2658,6 +2658,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.202000007033348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195999994874001</t>
   </si>
 </sst>
 </file>
@@ -27665,7 +27668,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27717,7 +27720,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27743,7 +27746,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27795,7 +27798,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27925,7 +27928,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28055,7 +28058,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28341,7 +28344,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28549,7 +28552,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28861,7 +28864,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28965,7 +28968,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29017,7 +29020,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29095,7 +29098,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29121,7 +29124,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29225,7 +29228,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29251,7 +29254,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29277,7 +29280,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29303,7 +29306,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29641,7 +29644,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29667,7 +29670,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29719,7 +29722,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29745,7 +29748,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29849,7 +29852,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29901,7 +29904,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30135,7 +30138,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30369,7 +30372,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30577,7 +30580,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30603,7 +30606,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30707,7 +30710,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30811,7 +30814,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31149,7 +31152,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31201,7 +31204,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31591,7 +31594,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31617,7 +31620,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31643,7 +31646,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31669,7 +31672,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31695,7 +31698,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31747,7 +31750,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31799,7 +31802,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31877,7 +31880,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31903,7 +31906,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31929,7 +31932,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31981,7 +31984,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32241,7 +32244,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32267,7 +32270,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37571,7 +37574,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -61889,7 +61892,7 @@
     </row>
     <row r="2266">
       <c r="A2266" s="1" t="n">
-        <v>45618.6909953704</v>
+        <v>45618.3333333333</v>
       </c>
       <c r="B2266" t="n">
         <v>58222</v>
@@ -61910,6 +61913,32 @@
         <v>844</v>
       </c>
       <c r="H2266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" s="1" t="n">
+        <v>45621.6911574074</v>
+      </c>
+      <c r="B2267" t="n">
+        <v>27866</v>
+      </c>
+      <c r="C2267" t="n">
+        <v>0.202000007033348</v>
+      </c>
+      <c r="D2267" t="n">
+        <v>0.187000006437302</v>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.202000007033348</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0.195999994874001</v>
+      </c>
+      <c r="G2267" t="s">
+        <v>882</v>
+      </c>
+      <c r="H2267" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="884">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">0.164524495601654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163348540663719</t>
+    <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172555923462</t>
+    <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
@@ -65,37 +65,37 @@
     <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15534071624279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076821446419</t>
+    <t xml:space="preserve">0.155340701341629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076806545258</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309089303017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137197077274323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143300965428352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132954835892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740964889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145484894514084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941036701202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135013148188591</t>
+    <t xml:space="preserve">0.137309074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137197092175484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143300950527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132969737053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740979790688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145484909415245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941021800041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653496563435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917548537254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581399977207</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077405452728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112277626991272</t>
+    <t xml:space="preserve">0.112277612090111</t>
   </si>
   <si>
     <t xml:space="preserve">0.113117605447769</t>
@@ -131,28 +131,28 @@
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597497999668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123981364071369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126837313175201</t>
+    <t xml:space="preserve">0.117597490549088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12398137152195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397134184837</t>
+    <t xml:space="preserve">0.134397149085999</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252791285515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.151252776384354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716578364372</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">0.156740695238113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156607627869</t>
+    <t xml:space="preserve">0.16015662252903</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -170,46 +170,46 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396265625954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636208176613</t>
+    <t xml:space="preserve">0.176396250724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17499628663063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596322536469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17611625790596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436300992966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177796214818954</t>
+    <t xml:space="preserve">0.174996271729469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17359633743763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116243004799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436315894127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177796229720116</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644317150116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996421456337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340252161026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148319125175</t>
+    <t xml:space="preserve">0.172644332051277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996436357498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340281963348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148304224014</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">0.157300651073456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516506552696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
+    <t xml:space="preserve">0.163516536355019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460522890091</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
@@ -233,16 +233,16 @@
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644631505013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16267654299736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916515350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636492729187</t>
+    <t xml:space="preserve">0.158644646406174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162676528096199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916485548019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636507630348</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
@@ -257,46 +257,46 @@
     <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164468497037888</t>
+    <t xml:space="preserve">0.16446852684021</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796978354454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148396849632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508846759796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145596891641617</t>
+    <t xml:space="preserve">0.142796963453293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148396834731102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508831858635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
     <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108882665634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147332862019539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1406130194664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644930958748</t>
+    <t xml:space="preserve">0.147108867764473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1473328769207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140613004565239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644945859909</t>
   </si>
   <si>
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144700929522514</t>
+    <t xml:space="preserve">0.144084945321083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
     <t xml:space="preserve">0.148564860224724</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
+    <t xml:space="preserve">0.147556856274605</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660879254341</t>
+    <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
@@ -320,40 +320,40 @@
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997020363808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437034726143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132997184991837</t>
+    <t xml:space="preserve">0.139997035264969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437049627304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
     <t xml:space="preserve">0.137701079249382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138597071170807</t>
+    <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197384178638</t>
+    <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477219820023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253255367279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123029381036758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252538651228</t>
+    <t xml:space="preserve">0.130477234721184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253225564957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12302939593792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
@@ -362,31 +362,31 @@
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341442525387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157483637333</t>
+    <t xml:space="preserve">0.120341449975967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157491087914</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933481931686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293418109417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381335616112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131093218922615</t>
+    <t xml:space="preserve">0.117933504283428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293410658836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381350517273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131093204021454</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805237054825</t>
+    <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
     <t xml:space="preserve">0.13484513759613</t>
@@ -395,28 +395,28 @@
     <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134789124131203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132885172963142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661343336105</t>
+    <t xml:space="preserve">0.134789139032364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132885158061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621278166771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421385884285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461256623268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229303121567</t>
+    <t xml:space="preserve">0.127621293067932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421393334866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461271524429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229288220406</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128629252314568</t>
+    <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
@@ -437,31 +437,31 @@
     <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13932503759861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.139325052499771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453132748604</t>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581107974052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165001153946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137813061475754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135461121797562</t>
+    <t xml:space="preserve">0.136581093072891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165016055107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137813076376915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1354611068964</t>
   </si>
   <si>
     <t xml:space="preserve">0.135685130953789</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853111743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956984996796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139381036162376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143636956810951</t>
+    <t xml:space="preserve">0.135853096842766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956999897957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139381021261215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14363694190979</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14335697889328</t>
+    <t xml:space="preserve">0.143356949090958</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453282475471</t>
+    <t xml:space="preserve">0.127453297376633</t>
   </si>
   <si>
     <t xml:space="preserve">0.131541207432747</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">0.125045329332352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -548,34 +548,34 @@
     <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221164345741</t>
+    <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733140468597</t>
+    <t xml:space="preserve">0.134733155369759</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556706547737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028782129288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150916785001755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15147677063942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153100743889809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484759688377</t>
+    <t xml:space="preserve">0.154556721448898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028797030449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150916770100594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151476785540581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15310075879097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484774589539</t>
   </si>
   <si>
     <t xml:space="preserve">0.145876914262772</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141060993075371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140109032392502</t>
+    <t xml:space="preserve">0.141061007976532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140109017491341</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389025211334</t>
@@ -611,49 +611,49 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138821050524712</t>
+    <t xml:space="preserve">0.13882103562355</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693105101585</t>
+    <t xml:space="preserve">0.136693090200424</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405108332634</t>
+    <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
     <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773190736771</t>
+    <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13198921084404</t>
+    <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925223231316</t>
+    <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13053323328495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317213177681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525259137154</t>
+    <t xml:space="preserve">0.130533218383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317228078842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525244235992</t>
   </si>
   <si>
     <t xml:space="preserve">0.133445158600807</t>
@@ -665,10 +665,10 @@
     <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132493197917938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13165320456028</t>
+    <t xml:space="preserve">0.132493183016777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131653189659119</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
@@ -677,10 +677,10 @@
     <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130309239029884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13691708445549</t>
+    <t xml:space="preserve">0.130309224128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136917099356651</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341135621071</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117156267166</t>
+    <t xml:space="preserve">0.134117141366005</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573104023933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765066862106</t>
+    <t xml:space="preserve">0.135573118925095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125145316124</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138205081224442</t>
+    <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212890744209</t>
+    <t xml:space="preserve">0.146212875843048</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146268889307976</t>
+    <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
     <t xml:space="preserve">0.147668868303299</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516671180725</t>
+    <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -767,22 +767,22 @@
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708768844604</t>
+    <t xml:space="preserve">0.152708753943443</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652755379677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372762560844</t>
+    <t xml:space="preserve">0.152652770280838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372777462006</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940886974335</t>
+    <t xml:space="preserve">0.146940872073174</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144588932394981</t>
+    <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412962555885</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196927547455</t>
+    <t xml:space="preserve">0.144196942448616</t>
   </si>
   <si>
     <t xml:space="preserve">0.143804952502251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143860965967178</t>
+    <t xml:space="preserve">0.143860951066017</t>
   </si>
   <si>
     <t xml:space="preserve">0.14173299074173</t>
@@ -836,10 +836,10 @@
     <t xml:space="preserve">0.141676992177963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141453012824059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143244951963425</t>
+    <t xml:space="preserve">0.141452997922897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
     <t xml:space="preserve">0.145540907979012</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636821985245</t>
+    <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
@@ -860,16 +860,16 @@
     <t xml:space="preserve">0.149460837244987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148228839039803</t>
+    <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14492492377758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028946757317</t>
+    <t xml:space="preserve">0.144924938678741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
     <t xml:space="preserve">0.143972933292389</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732721090317</t>
+    <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144252926111221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141844987869263</t>
+    <t xml:space="preserve">0.144252941012383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141845002770424</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900971531868</t>
+    <t xml:space="preserve">0.141900986433029</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144140928983688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140949010848999</t>
+    <t xml:space="preserve">0.14414094388485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14094902575016</t>
   </si>
   <si>
     <t xml:space="preserve">0.140445023775101</t>
@@ -932,19 +932,19 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317048549652</t>
+    <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124995589256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429045677185</t>
+    <t xml:space="preserve">0.142348974943161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124980688095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429075479507</t>
   </si>
   <si>
     <t xml:space="preserve">0.138149067759514</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077105998993</t>
+    <t xml:space="preserve">0.136077120900154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">0.127677291631699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128797262907028</t>
+    <t xml:space="preserve">0.128797277808189</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317370355129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437349081039</t>
+    <t xml:space="preserve">0.126557305455208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317355453968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437334179878</t>
   </si>
   <si>
     <t xml:space="preserve">0.127117291092873</t>
@@ -986,67 +986,67 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188155993819237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595124721527</t>
+    <t xml:space="preserve">0.188156008720398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595139622688</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315566182137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23127506673336</t>
+    <t xml:space="preserve">0.208315581083298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475737452507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231275096535683</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755281090736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355167269707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195310354233</t>
+    <t xml:space="preserve">0.221755310893059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355182170868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195325255394</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875282168388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218395352363586</t>
+    <t xml:space="preserve">0.218395337462425</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315281629562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
+    <t xml:space="preserve">0.222315326333046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115224719048</t>
+    <t xml:space="preserve">0.225115239620209</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075054526329</t>
+    <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635010361671</t>
+    <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488506317139</t>
@@ -2661,6 +2661,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.195999994874001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199499994516373</t>
   </si>
 </sst>
 </file>
@@ -61918,7 +61921,7 @@
     </row>
     <row r="2267">
       <c r="A2267" s="1" t="n">
-        <v>45621.6911574074</v>
+        <v>45621.3333333333</v>
       </c>
       <c r="B2267" t="n">
         <v>27866</v>
@@ -61939,6 +61942,32 @@
         <v>882</v>
       </c>
       <c r="H2267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" s="1" t="n">
+        <v>45622.6910300926</v>
+      </c>
+      <c r="B2268" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C2268" t="n">
+        <v>0.199499994516373</v>
+      </c>
+      <c r="D2268" t="n">
+        <v>0.19200000166893</v>
+      </c>
+      <c r="E2268" t="n">
+        <v>0.19200000166893</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>0.199499994516373</v>
+      </c>
+      <c r="G2268" t="s">
+        <v>883</v>
+      </c>
+      <c r="H2268" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16990040242672</t>
+    <t xml:space="preserve">0.169900387525558</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524495601654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348525762558</t>
+    <t xml:space="preserve">0.162396550178528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524510502815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348540663719</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172570824623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159988597035408</t>
+    <t xml:space="preserve">0.162172555923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159988611936569</t>
   </si>
   <si>
     <t xml:space="preserve">0.156908676028252</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076806545258</t>
+    <t xml:space="preserve">0.150076821446419</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137309074401855</t>
+    <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">0.143300950527191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143132969737053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740979790688</t>
+    <t xml:space="preserve">0.143132954835892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">0.139941021800041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13501313328743</t>
+    <t xml:space="preserve">0.135013148188591</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653511464596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917541086674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581399977207</t>
+    <t xml:space="preserve">0.117653496563435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077405452728</t>
@@ -134,25 +134,25 @@
     <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12398137152195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.123981364071369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397149085999</t>
+    <t xml:space="preserve">0.134397134184837</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716578364372</t>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">0.156740695238113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16015662252903</t>
+    <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -170,76 +170,76 @@
     <t xml:space="preserve">0.167940437793732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176396250724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836265087128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636223077774</t>
+    <t xml:space="preserve">0.176396280527115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836279988289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636208176613</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17359633743763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116243004799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174436315894127</t>
+    <t xml:space="preserve">0.17499628663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176116272807121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174436300992966</t>
   </si>
   <si>
     <t xml:space="preserve">0.177796229720116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172700330615044</t>
+    <t xml:space="preserve">0.172700345516205</t>
   </si>
   <si>
     <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996436357498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340281963348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.167996421456337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340267062187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162564560770988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157300651073456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460522890091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860501885414</t>
+    <t xml:space="preserve">0.162564545869827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157300665974617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460537791252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860486984253</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644646406174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162676528096199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916485548019</t>
+    <t xml:space="preserve">0.158644631505013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16267654299736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636507630348</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16446852684021</t>
+    <t xml:space="preserve">0.164468497037888</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796963453293</t>
+    <t xml:space="preserve">0.142796978354454</t>
   </si>
   <si>
     <t xml:space="preserve">0.148396834731102</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613004565239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644945859909</t>
+    <t xml:space="preserve">0.147108882665634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147332862019539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644930958748</t>
   </si>
   <si>
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084945321083</t>
+    <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700914621353</t>
@@ -305,31 +305,31 @@
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556856274605</t>
+    <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660894155502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145820900797844</t>
+    <t xml:space="preserve">0.146660879254341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145820885896683</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997035264969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437049627304</t>
+    <t xml:space="preserve">0.139997020363808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701079249382</t>
+    <t xml:space="preserve">0.137701094150543</t>
   </si>
   <si>
     <t xml:space="preserve">0.138597056269646</t>
@@ -338,22 +338,22 @@
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197376728058</t>
+    <t xml:space="preserve">0.123197384178638</t>
   </si>
   <si>
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477234721184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253225564957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12302939593792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252539396286</t>
+    <t xml:space="preserve">0.130477219820023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253255367279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123029381036758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252538651228</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
@@ -362,31 +362,31 @@
     <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120341449975967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118157491087914</t>
+    <t xml:space="preserve">0.120341442525387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118157476186752</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293410658836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125381350517273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131093204021454</t>
+    <t xml:space="preserve">0.117933496832848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293433010578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125381335616112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
     <t xml:space="preserve">0.135237127542496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129805251955986</t>
+    <t xml:space="preserve">0.129805237054825</t>
   </si>
   <si>
     <t xml:space="preserve">0.13484513759613</t>
@@ -395,10 +395,10 @@
     <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134789139032364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132885158061981</t>
+    <t xml:space="preserve">0.134789124131203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
     <t xml:space="preserve">0.125661328434944</t>
@@ -407,16 +407,16 @@
     <t xml:space="preserve">0.129021257162094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421393334866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461271524429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229288220406</t>
+    <t xml:space="preserve">0.127621278166771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421378433704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461256623268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229303121567</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788974404335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139325052499771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.141788989305496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13932503759861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
@@ -452,16 +452,16 @@
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140165016055107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137813076376915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1354611068964</t>
+    <t xml:space="preserve">0.136581107974052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140165001153946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137813061475754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
     <t xml:space="preserve">0.135685130953789</t>
@@ -476,19 +476,19 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853096842766</t>
+    <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
     <t xml:space="preserve">0.141956999897957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381021261215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14363694190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146884888410568</t>
+    <t xml:space="preserve">0.139381036162376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143636956810951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146884903311729</t>
   </si>
   <si>
     <t xml:space="preserve">0.146604880690575</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477084994316</t>
+    <t xml:space="preserve">0.137477070093155</t>
   </si>
   <si>
     <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143356949090958</t>
+    <t xml:space="preserve">0.14335697889328</t>
   </si>
   <si>
     <t xml:space="preserve">0.136749103665352</t>
@@ -515,25 +515,25 @@
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453297376633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541207432747</t>
+    <t xml:space="preserve">0.127453282475471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541192531586</t>
   </si>
   <si>
     <t xml:space="preserve">0.125045329332352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821349978447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128685265779495</t>
+    <t xml:space="preserve">0.124821357429028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128685280680656</t>
   </si>
   <si>
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405272960663</t>
+    <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -548,25 +548,25 @@
     <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221179246902</t>
+    <t xml:space="preserve">0.133221164345741</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134733155369759</t>
+    <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556721448898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028797030449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150916770100594</t>
+    <t xml:space="preserve">0.154556706547737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
     <t xml:space="preserve">0.151476785540581</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">0.141285002231598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141061007976532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140109017491341</t>
+    <t xml:space="preserve">0.141060993075371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389025211334</t>
@@ -611,25 +611,25 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13882103562355</t>
+    <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693090200424</t>
+    <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
     <t xml:space="preserve">0.135741114616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135405123233795</t>
+    <t xml:space="preserve">0.135405108332634</t>
   </si>
   <si>
     <t xml:space="preserve">0.133893147110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773175835609</t>
+    <t xml:space="preserve">0.132773190736771</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
@@ -641,22 +641,22 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925208330154</t>
+    <t xml:space="preserve">0.130925223231316</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130533218383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131317228078842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525244235992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133445158600807</t>
+    <t xml:space="preserve">0.13053323328495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131317213177681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525259137154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133445173501968</t>
   </si>
   <si>
     <t xml:space="preserve">0.132717177271843</t>
@@ -665,10 +665,10 @@
     <t xml:space="preserve">0.130197241902351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132493183016777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131653189659119</t>
+    <t xml:space="preserve">0.132493197917938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
@@ -680,43 +680,43 @@
     <t xml:space="preserve">0.130309224128723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136917099356651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134341135621071</t>
+    <t xml:space="preserve">0.13691708445549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134341150522232</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117141366005</t>
+    <t xml:space="preserve">0.134117156267166</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138485059142113</t>
+    <t xml:space="preserve">0.138485044240952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765051960945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125145316124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132661193609238</t>
+    <t xml:space="preserve">0.138765066862106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125130414963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
     <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13820506632328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139269039034843</t>
+    <t xml:space="preserve">0.138205081224442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139269053936005</t>
   </si>
   <si>
     <t xml:space="preserve">0.138653054833412</t>
@@ -731,25 +731,25 @@
     <t xml:space="preserve">0.148340851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146212875843048</t>
+    <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
     <t xml:space="preserve">0.145652905106544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146268904209137</t>
+    <t xml:space="preserve">0.146268889307976</t>
   </si>
   <si>
     <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144812926650047</t>
+    <t xml:space="preserve">0.144812911748886</t>
   </si>
   <si>
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972798466682</t>
+    <t xml:space="preserve">0.150972813367844</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516686081886</t>
+    <t xml:space="preserve">0.156516671180725</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708753943443</t>
+    <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152652770280838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152372777462006</t>
+    <t xml:space="preserve">0.152652755379677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
     <t xml:space="preserve">0.148060858249664</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142572969198227</t>
+    <t xml:space="preserve">0.142572954297066</t>
   </si>
   <si>
     <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14458891749382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143412962555885</t>
+    <t xml:space="preserve">0.144588932394981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143412947654724</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">0.141117006540298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144196942448616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804952502251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143860951066017</t>
+    <t xml:space="preserve">0.144196927547455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804937601089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143860965967178</t>
   </si>
   <si>
     <t xml:space="preserve">0.14173299074173</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">0.141452997922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143244966864586</t>
+    <t xml:space="preserve">0.143244951963425</t>
   </si>
   <si>
     <t xml:space="preserve">0.145540907979012</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636792182922</t>
+    <t xml:space="preserve">0.150636807084084</t>
   </si>
   <si>
     <t xml:space="preserve">0.150468811392784</t>
@@ -857,19 +857,19 @@
     <t xml:space="preserve">0.147836849093437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149460837244987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148228853940964</t>
+    <t xml:space="preserve">0.149460822343826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148228839039803</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144924938678741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144028931856155</t>
+    <t xml:space="preserve">0.14492492377758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144028946757317</t>
   </si>
   <si>
     <t xml:space="preserve">0.143972933292389</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">0.152316763997078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155732691287994</t>
+    <t xml:space="preserve">0.155732721090317</t>
   </si>
   <si>
     <t xml:space="preserve">0.144308924674988</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144252941012383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141845002770424</t>
+    <t xml:space="preserve">0.144252926111221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141844987869263</t>
   </si>
   <si>
     <t xml:space="preserve">0.142012983560562</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14414094388485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14094902575016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.144140928983688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140949010848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14044500887394</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -932,28 +932,28 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
+    <t xml:space="preserve">0.138317048549652</t>
   </si>
   <si>
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138429075479507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149067759514</t>
+    <t xml:space="preserve">0.138429060578346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149082660675</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637106537819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136077120900154</t>
+    <t xml:space="preserve">0.136077105998993</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
@@ -962,106 +962,106 @@
     <t xml:space="preserve">0.133277162909508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127677291631699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128797277808189</t>
+    <t xml:space="preserve">0.127677276730537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797262907028</t>
   </si>
   <si>
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557305455208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317355453968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437334179878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127117291092873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119837455451488</t>
+    <t xml:space="preserve">0.126557320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317370355129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437349081039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127117305994034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119837440550327</t>
   </si>
   <si>
     <t xml:space="preserve">0.188156008720398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229595139622688</t>
+    <t xml:space="preserve">0.229595124721527</t>
   </si>
   <si>
     <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315581083298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475737452507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231275096535683</t>
+    <t xml:space="preserve">0.208315595984459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475752353668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
     <t xml:space="preserve">0.220635309815407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221755310893059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355182170868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195325255394</t>
+    <t xml:space="preserve">0.221755281090736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355167269707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195310354233</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875282168388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218395337462425</t>
+    <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315326333046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075324177742</t>
+    <t xml:space="preserve">0.222315281629562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075339078903</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115239620209</t>
+    <t xml:space="preserve">0.225115224719048</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234075039625168</t>
+    <t xml:space="preserve">0.234075054526329</t>
   </si>
   <si>
     <t xml:space="preserve">0.233515039086342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234635025262833</t>
+    <t xml:space="preserve">0.234635010361671</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219625949859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341574072838</t>
+    <t xml:space="preserve">0.21962596476078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21834160387516</t>
   </si>
   <si>
     <t xml:space="preserve">0.22604775428772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194656729698</t>
+    <t xml:space="preserve">0.222194671630859</t>
   </si>
   <si>
     <t xml:space="preserve">0.210635408759117</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708882331848</t>
+    <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076175689697</t>
+    <t xml:space="preserve">0.199076145887375</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590356588364</t>
+    <t xml:space="preserve">0.185590341687202</t>
   </si>
   <si>
     <t xml:space="preserve">0.186874717473984</t>
@@ -1112,28 +1112,28 @@
     <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177241995930672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180452883243561</t>
+    <t xml:space="preserve">0.177242010831833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180452898144722</t>
   </si>
   <si>
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176599815487862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791814804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938702344894</t>
+    <t xml:space="preserve">0.176599830389023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938672542572</t>
   </si>
   <si>
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443439245224</t>
+    <t xml:space="preserve">0.189443409442902</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">0.178526356816292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
+    <t xml:space="preserve">0.17531543970108</t>
   </si>
   <si>
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17210453748703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217057213187218</t>
+    <t xml:space="preserve">0.172104552388191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217057228088379</t>
   </si>
   <si>
     <t xml:space="preserve">0.186232522130013</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17082017660141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16825145483017</t>
+    <t xml:space="preserve">0.170820191502571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168251469731331</t>
   </si>
   <si>
     <t xml:space="preserve">0.167609289288521</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471830844879</t>
+    <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334387302399</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903109073639</t>
+    <t xml:space="preserve">0.159903094172478</t>
   </si>
   <si>
     <t xml:space="preserve">0.155407831072807</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154123470187187</t>
+    <t xml:space="preserve">0.154123455286026</t>
   </si>
   <si>
     <t xml:space="preserve">0.164398372173309</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">0.181737259030342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174031093716621</t>
+    <t xml:space="preserve">0.17403107881546</t>
   </si>
   <si>
     <t xml:space="preserve">0.192012175917625</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">0.199718341231346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190727800130844</t>
+    <t xml:space="preserve">0.190727785229683</t>
   </si>
   <si>
     <t xml:space="preserve">0.195223063230515</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25494596362114</t>
+    <t xml:space="preserve">0.254945933818817</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524099588394</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
+    <t xml:space="preserve">0.250450640916824</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">0.236322656273842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597573161125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881934046745</t>
+    <t xml:space="preserve">0.246597543358803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881904244423</t>
   </si>
   <si>
     <t xml:space="preserve">0.323592603206635</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.247548326849937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240267500281334</t>
+    <t xml:space="preserve">0.240267470479012</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229750752449036</t>
+    <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
     <t xml:space="preserve">0.234604611992836</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">0.231368720531464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233795642852783</t>
+    <t xml:space="preserve">0.233795627951622</t>
   </si>
   <si>
     <t xml:space="preserve">0.232177674770355</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312390685081</t>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244312360882759</t>
   </si>
   <si>
     <t xml:space="preserve">0.237840548157692</t>
@@ -1427,73 +1427,73 @@
     <t xml:space="preserve">0.260492026805878</t>
   </si>
   <si>
+    <t xml:space="preserve">0.258065074682236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257256090641022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25644713640213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.255638152360916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25482913851738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250784248113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252402245998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121374726295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251593232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.262918949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259683042764664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25887405872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261301010847092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717212080956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660912036896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225705832242966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273435741662979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27100881934166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.264536917209625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.260645747184753</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.258065104484558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257256090641022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25644713640213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255638152360916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253211200237274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254829168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250784277915955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166309833527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252402245998383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121374726295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251593232154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26291897892952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259683072566986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25887405872345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261301010847092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717212080956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22246989607811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660912036896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225705832242966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273435711860657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271008789539337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264536917209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
     <t xml:space="preserve">0.247742474079132</t>
@@ -27671,7 +27671,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G949" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27723,7 +27723,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G951" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27749,7 +27749,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G952" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27801,7 +27801,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G954" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27931,7 +27931,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G959" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28061,7 +28061,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G964" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28347,7 +28347,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G975" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28555,7 +28555,7 @@
         <v>0.312000006437302</v>
       </c>
       <c r="G983" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28867,7 +28867,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G995" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28971,7 +28971,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G999" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29023,7 +29023,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1001" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29101,7 +29101,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1004" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29127,7 +29127,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1005" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29231,7 +29231,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1009" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29257,7 +29257,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1010" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29283,7 +29283,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1011" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29309,7 +29309,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1012" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29647,7 +29647,7 @@
         <v>0.324999988079071</v>
       </c>
       <c r="G1025" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29673,7 +29673,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1026" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29725,7 +29725,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1028" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29751,7 +29751,7 @@
         <v>0.323000013828278</v>
       </c>
       <c r="G1029" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29855,7 +29855,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1033" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29907,7 +29907,7 @@
         <v>0.321000009775162</v>
       </c>
       <c r="G1035" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30141,7 +30141,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1044" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30375,7 +30375,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1053" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30583,7 +30583,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1061" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30609,7 +30609,7 @@
         <v>0.30799999833107</v>
       </c>
       <c r="G1062" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30713,7 +30713,7 @@
         <v>0.257999986410141</v>
       </c>
       <c r="G1066" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30817,7 +30817,7 @@
         <v>0.275000005960464</v>
       </c>
       <c r="G1070" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31155,7 +31155,7 @@
         <v>0.273999989032745</v>
       </c>
       <c r="G1083" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31207,7 +31207,7 @@
         <v>0.279000014066696</v>
       </c>
       <c r="G1085" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31597,7 +31597,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1100" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31623,7 +31623,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1101" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31649,7 +31649,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31675,7 +31675,7 @@
         <v>0.33500000834465</v>
       </c>
       <c r="G1103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31701,7 +31701,7 @@
         <v>0.326999992132187</v>
       </c>
       <c r="G1104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31753,7 +31753,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31805,7 +31805,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1108" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31883,7 +31883,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31909,7 +31909,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31935,7 +31935,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31987,7 +31987,7 @@
         <v>0.310999989509583</v>
       </c>
       <c r="G1115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32247,7 +32247,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1125" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32273,7 +32273,7 @@
         <v>0.300000011920929</v>
       </c>
       <c r="G1126" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -37577,7 +37577,7 @@
         <v>0.303000003099442</v>
       </c>
       <c r="G1330" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -61947,7 +61947,7 @@
     </row>
     <row r="2268">
       <c r="A2268" s="1" t="n">
-        <v>45622.6910300926</v>
+        <v>45622.3333333333</v>
       </c>
       <c r="B2268" t="n">
         <v>2800</v>
@@ -61968,6 +61968,32 @@
         <v>883</v>
       </c>
       <c r="H2268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" s="1" t="n">
+        <v>45623.525474537</v>
+      </c>
+      <c r="B2269" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C2269" t="n">
+        <v>0.20100000500679</v>
+      </c>
+      <c r="D2269" t="n">
+        <v>0.199499994516373</v>
+      </c>
+      <c r="E2269" t="n">
+        <v>0.199499994516373</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>0.20100000500679</v>
+      </c>
+      <c r="G2269" t="s">
+        <v>872</v>
+      </c>
+      <c r="H2269" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -47,58 +47,58 @@
     <t xml:space="preserve">0.162396535277367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164524510502815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348540663719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161836549639702</t>
+    <t xml:space="preserve">0.164524495601654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348525762558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159988582134247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15690866112709</t>
+    <t xml:space="preserve">0.159988611936569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
     <t xml:space="preserve">0.155340701341629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150076806545258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732855916023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137309074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137197107076645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143300950527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132969737053</t>
+    <t xml:space="preserve">0.150076821446419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732841014862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137309089303017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137197077274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14330093562603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139941036701202</t>
+    <t xml:space="preserve">0.145484894514084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941021800041</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138877034187317</t>
+    <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
     <t xml:space="preserve">0.137869074940681</t>
@@ -107,37 +107,37 @@
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253382742405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117653496563435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581407427788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122077412903309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11227760463953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11311761289835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853553473949</t>
+    <t xml:space="preserve">0.123253397643566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581385076046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122077405452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277612090111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117590546608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114853568375111</t>
   </si>
   <si>
     <t xml:space="preserve">0.117597490549088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12398137152195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12683729827404</t>
+    <t xml:space="preserve">0.123981356620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
     <t xml:space="preserve">0.131877198815346</t>
@@ -155,61 +155,61 @@
     <t xml:space="preserve">0.160716593265533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165140509605408</t>
+    <t xml:space="preserve">0.165140494704247</t>
   </si>
   <si>
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160156607627869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167772427201271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167940452694893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396265625954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836250185966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178636208176613</t>
+    <t xml:space="preserve">0.160156592726707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167772442102432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16794042289257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396235823631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
     <t xml:space="preserve">0.173204332590103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174996271729469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173596322536469</t>
+    <t xml:space="preserve">0.174996301531792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17359633743763</t>
   </si>
   <si>
     <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174436300992966</t>
+    <t xml:space="preserve">0.174436286091805</t>
   </si>
   <si>
     <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172700330615044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172644317150116</t>
+    <t xml:space="preserve">0.172700345516205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
     <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176340252161026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173148304224014</t>
+    <t xml:space="preserve">0.176340267062187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
     <t xml:space="preserve">0.170236378908157</t>
@@ -218,58 +218,58 @@
     <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300665974617</t>
+    <t xml:space="preserve">0.157300680875778</t>
   </si>
   <si>
     <t xml:space="preserve">0.163516536355019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163460522890091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860501885414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158028647303581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158644646406174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162676528096199</t>
+    <t xml:space="preserve">0.163460552692413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860486984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15802863240242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158644631505013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
     <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164636492729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159596607089043</t>
+    <t xml:space="preserve">0.164636507630348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159596621990204</t>
   </si>
   <si>
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163012519478798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163628533482552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164468511939049</t>
+    <t xml:space="preserve">0.16301254928112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16362851858139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16446852684021</t>
   </si>
   <si>
     <t xml:space="preserve">0.151196792721748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142796948552132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148396849632263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508846759796</t>
+    <t xml:space="preserve">0.142796963453293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148396834731102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508831858635</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596891641617</t>
@@ -278,55 +278,55 @@
     <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147108867764473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1473328769207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613034367561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144644930958748</t>
+    <t xml:space="preserve">0.147108882665634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147332862019539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144644945859909</t>
   </si>
   <si>
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144700929522514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148564845323563</t>
+    <t xml:space="preserve">0.144084945321083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144700914621353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148564860224724</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988896489143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147556871175766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146156907081604</t>
+    <t xml:space="preserve">0.147556856274605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146156892180443</t>
   </si>
   <si>
     <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145820885896683</t>
+    <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
     <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139997020363808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437049627304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132997184991837</t>
+    <t xml:space="preserve">0.139997035264969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437034726143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132997170090675</t>
   </si>
   <si>
     <t xml:space="preserve">0.137701079249382</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141396999359131</t>
+    <t xml:space="preserve">0.14139698445797</t>
   </si>
   <si>
     <t xml:space="preserve">0.123197376728058</t>
@@ -344,37 +344,37 @@
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477234721184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130253240466118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123029388487339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252538651228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893611192703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120397455990314</t>
+    <t xml:space="preserve">0.130477219820023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130253225564957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123029381036758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893603742123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120397441089153</t>
   </si>
   <si>
     <t xml:space="preserve">0.120341435074806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118157498538494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101492524147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933496832848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293403208256</t>
+    <t xml:space="preserve">0.118157476186752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933504283428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293440461159</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381350517273</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13484513759613</t>
+    <t xml:space="preserve">0.134845122694969</t>
   </si>
   <si>
     <t xml:space="preserve">0.129357248544693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134789153933525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132885172963142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125661313533783</t>
+    <t xml:space="preserve">0.134789139032364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132885158061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
     <t xml:space="preserve">0.129021257162094</t>
@@ -416,22 +416,22 @@
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229303121567</t>
+    <t xml:space="preserve">0.127229318022728</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128237277269363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128573253750801</t>
+    <t xml:space="preserve">0.128237262368202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128573268651962</t>
   </si>
   <si>
     <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155676692724228</t>
+    <t xml:space="preserve">0.155676707625389</t>
   </si>
   <si>
     <t xml:space="preserve">0.141788989305496</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">0.134453132748604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133949145674706</t>
+    <t xml:space="preserve">0.133949160575867</t>
   </si>
   <si>
     <t xml:space="preserve">0.136581093072891</t>
@@ -461,13 +461,13 @@
     <t xml:space="preserve">0.137813076376915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1354611068964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135685116052628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901136159897</t>
+    <t xml:space="preserve">0.135461121797562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135685130953789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901121258736</t>
   </si>
   <si>
     <t xml:space="preserve">0.1340611577034</t>
@@ -476,52 +476,52 @@
     <t xml:space="preserve">0.133781164884567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135853096842766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141956984996796</t>
+    <t xml:space="preserve">0.135853111743927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141956999897957</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143636956810951</t>
+    <t xml:space="preserve">0.14363694190979</t>
   </si>
   <si>
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604865789413</t>
+    <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
     <t xml:space="preserve">0.131821200251579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477084994316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13596510887146</t>
+    <t xml:space="preserve">0.137477070093155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135965123772621</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136749088764191</t>
+    <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
     <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128853261470795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127453312277794</t>
+    <t xml:space="preserve">0.128853276371956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127453297376633</t>
   </si>
   <si>
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045344233513</t>
+    <t xml:space="preserve">0.125045359134674</t>
   </si>
   <si>
     <t xml:space="preserve">0.124821349978447</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
@@ -557,22 +557,22 @@
     <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136861085891724</t>
+    <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151028797030449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150916770100594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151476785540581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15310075879097</t>
+    <t xml:space="preserve">0.15102881193161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150916785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15147677063942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153100743889809</t>
   </si>
   <si>
     <t xml:space="preserve">0.152484759688377</t>
@@ -581,13 +581,13 @@
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236992716789</t>
+    <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141285002231598</t>
+    <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
     <t xml:space="preserve">0.141060993075371</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389010310173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14156499505043</t>
+    <t xml:space="preserve">0.140389025211334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
     <t xml:space="preserve">0.141005009412766</t>
@@ -608,22 +608,22 @@
     <t xml:space="preserve">0.140725016593933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13837306201458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138821050524712</t>
+    <t xml:space="preserve">0.138373076915741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13882103562355</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693105101585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135741129517555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
+    <t xml:space="preserve">0.136693090200424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
     <t xml:space="preserve">0.1338931620121</t>
@@ -635,34 +635,34 @@
     <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131989181041718</t>
+    <t xml:space="preserve">0.131989195942879</t>
   </si>
   <si>
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925223231316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173169732094</t>
+    <t xml:space="preserve">0.130925208330154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
     <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131317213177681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525244235992</t>
+    <t xml:space="preserve">0.131317228078842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525259137154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133445158600807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132717192173004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130197241902351</t>
+    <t xml:space="preserve">0.132717162370682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13019722700119</t>
   </si>
   <si>
     <t xml:space="preserve">0.132493183016777</t>
@@ -671,10 +671,10 @@
     <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131261214613914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128965243697166</t>
+    <t xml:space="preserve">0.131261199712753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128965258598328</t>
   </si>
   <si>
     <t xml:space="preserve">0.130309224128723</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341150522232</t>
+    <t xml:space="preserve">0.134341135621071</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757062911987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134117156267166</t>
+    <t xml:space="preserve">0.134117141366005</t>
   </si>
   <si>
     <t xml:space="preserve">0.140333026647568</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573133826256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765066862106</t>
+    <t xml:space="preserve">0.135573118925095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125130414963</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138205081224442</t>
+    <t xml:space="preserve">0.13820506632328</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -722,52 +722,52 @@
     <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149908825755119</t>
+    <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
     <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148340851068497</t>
+    <t xml:space="preserve">0.148340836167336</t>
   </si>
   <si>
     <t xml:space="preserve">0.146212890744209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145652905106544</t>
+    <t xml:space="preserve">0.145652890205383</t>
   </si>
   <si>
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147668853402138</t>
+    <t xml:space="preserve">0.147668868303299</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150188833475113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150972813367844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149348810315132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996720910072</t>
+    <t xml:space="preserve">0.150188818573952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150972783565521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149348825216293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764737606049</t>
+    <t xml:space="preserve">0.152764767408371</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152708753943443</t>
+    <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
     <t xml:space="preserve">0.153324738144875</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146940872073174</t>
+    <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
     <t xml:space="preserve">0.146324887871742</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612869739532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144980922341347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142572954297066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145204916596413</t>
+    <t xml:space="preserve">0.147612854838371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144980907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142572969198227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145204901695251</t>
   </si>
   <si>
     <t xml:space="preserve">0.144588932394981</t>
@@ -818,13 +818,13 @@
     <t xml:space="preserve">0.140837013721466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14111702144146</t>
+    <t xml:space="preserve">0.141116991639137</t>
   </si>
   <si>
     <t xml:space="preserve">0.144196927547455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143804937601089</t>
+    <t xml:space="preserve">0.143804952502251</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">0.14173299074173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141676992177963</t>
+    <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
     <t xml:space="preserve">0.141452997922897</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">0.151140794157982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150636807084084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468796491623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836863994598</t>
+    <t xml:space="preserve">0.150636792182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468811392784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147836849093437</t>
   </si>
   <si>
     <t xml:space="preserve">0.149460822343826</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">0.148228853940964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220864892006</t>
+    <t xml:space="preserve">0.147220879793167</t>
   </si>
   <si>
     <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144028946757317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143972918391228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143076956272125</t>
+    <t xml:space="preserve">0.144028931856155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143972933292389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143076941370964</t>
   </si>
   <si>
     <t xml:space="preserve">0.147276878356934</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900986433029</t>
+    <t xml:space="preserve">0.14190100133419</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.140445038676262</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317048549652</t>
+    <t xml:space="preserve">0.138317063450813</t>
   </si>
   <si>
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348974943161</t>
+    <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
     <t xml:space="preserve">0.142124980688095</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">0.138429060578346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138149052858353</t>
+    <t xml:space="preserve">0.138149082660675</t>
   </si>
   <si>
     <t xml:space="preserve">0.136637091636658</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">0.127677291631699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128797277808189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129917234182358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126557320356369</t>
+    <t xml:space="preserve">0.128797262907028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129917249083519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
     <t xml:space="preserve">0.124317355453968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125437334179878</t>
+    <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
     <t xml:space="preserve">0.127117291092873</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188156008720398</t>
+    <t xml:space="preserve">0.188155993819237</t>
   </si>
   <si>
     <t xml:space="preserve">0.229595139622688</t>
@@ -995,25 +995,25 @@
     <t xml:space="preserve">0.223995238542557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208315581083298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200475752353668</t>
+    <t xml:space="preserve">0.208315566182137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
     <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220635294914246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755310893059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227355182170868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195295453072</t>
+    <t xml:space="preserve">0.220635309815407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755281090736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227355152368546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195325255394</t>
   </si>
   <si>
     <t xml:space="preserve">0.222875252366066</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">0.225675195455551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315296530724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154825806618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115209817886</t>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154810905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115239620209</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
@@ -1043,28 +1043,28 @@
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515053987503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635025262833</t>
+    <t xml:space="preserve">0.233515039086342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23463499546051</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21962596476078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341574072838</t>
+    <t xml:space="preserve">0.219625979661942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341588973999</t>
   </si>
   <si>
     <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222194656729698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.210635423660278</t>
+    <t xml:space="preserve">0.222194686532021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21063543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1073,25 +1073,25 @@
     <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208708882331848</t>
+    <t xml:space="preserve">0.208708852529526</t>
   </si>
   <si>
     <t xml:space="preserve">0.205497950315475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199076160788536</t>
+    <t xml:space="preserve">0.199076175689697</t>
   </si>
   <si>
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507439017296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195865243673325</t>
+    <t xml:space="preserve">0.193296536803246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507409214973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948176145554</t>
+    <t xml:space="preserve">0.184948146343231</t>
   </si>
   <si>
     <t xml:space="preserve">0.184305995702744</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182379469275475</t>
+    <t xml:space="preserve">0.182379454374313</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
@@ -1121,19 +1121,19 @@
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1765998005867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197791799902916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193938702344894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191369980573654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189443439245224</t>
+    <t xml:space="preserve">0.176599815487862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197791770100594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193938672542572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191369995474815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189443409442902</t>
   </si>
   <si>
     <t xml:space="preserve">0.194580882787704</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">0.188159093260765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183021619915962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179810732603073</t>
+    <t xml:space="preserve">0.183021634817123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
     <t xml:space="preserve">0.181095078587532</t>
@@ -1154,19 +1154,19 @@
     <t xml:space="preserve">0.179168537259102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183663815259933</t>
+    <t xml:space="preserve">0.183663800358772</t>
   </si>
   <si>
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526356816292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175315469503403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174673289060593</t>
+    <t xml:space="preserve">0.178526371717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175315454602242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
     <t xml:space="preserve">0.172104552388191</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169535830616951</t>
+    <t xml:space="preserve">0.16953581571579</t>
   </si>
   <si>
     <t xml:space="preserve">0.17146235704422</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17082017660141</t>
+    <t xml:space="preserve">0.170820191502571</t>
   </si>
   <si>
     <t xml:space="preserve">0.16825145483017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167609289288521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16696709394455</t>
+    <t xml:space="preserve">0.16760927438736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166967079043388</t>
   </si>
   <si>
     <t xml:space="preserve">0.16632491350174</t>
@@ -1214,16 +1214,16 @@
     <t xml:space="preserve">0.159260913729668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157976567745209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158618733286858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162471830844879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157334387302399</t>
+    <t xml:space="preserve">0.157976552844048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158618748188019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162471815943718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157334372401237</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16311402618885</t>
+    <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829635500908</t>
@@ -1241,13 +1241,13 @@
     <t xml:space="preserve">0.156692191958427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156050026416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407845973969</t>
+    <t xml:space="preserve">0.156050011515617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407831072807</t>
   </si>
   <si>
     <t xml:space="preserve">0.154765650629997</t>
@@ -1256,22 +1256,22 @@
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398372173309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181737259030342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17403107881546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192012175917625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516883015633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188801243901253</t>
+    <t xml:space="preserve">0.164398387074471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181737244129181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174031093716621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192012146115303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516912817955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188801258802414</t>
   </si>
   <si>
     <t xml:space="preserve">0.199718326330185</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945933818817</t>
+    <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166294932365</t>
+    <t xml:space="preserve">0.249166265130043</t>
   </si>
   <si>
     <t xml:space="preserve">0.242744475603104</t>
@@ -1307,19 +1307,19 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
+    <t xml:space="preserve">0.250450640916824</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303723573685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252377212047577</t>
+    <t xml:space="preserve">0.252377182245255</t>
   </si>
   <si>
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175753831863</t>
+    <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
     <t xml:space="preserve">0.243386641144753</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">0.236322641372681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246597588062286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247881934046745</t>
+    <t xml:space="preserve">0.246597558259964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247881904244423</t>
   </si>
   <si>
     <t xml:space="preserve">0.323592573404312</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548341751099</t>
+    <t xml:space="preserve">0.247548311948776</t>
   </si>
   <si>
     <t xml:space="preserve">0.240267485380173</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">0.228941738605499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230559706687927</t>
+    <t xml:space="preserve">0.230559721589088</t>
   </si>
   <si>
     <t xml:space="preserve">0.229750737547874</t>
@@ -1367,34 +1367,34 @@
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177674770355</t>
+    <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
     <t xml:space="preserve">0.226514801383018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23298667371273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975249171257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076469421387</t>
+    <t xml:space="preserve">0.232986643910408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975264072418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076499223709</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238649532198906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244312405586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840533256531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241885468363762</t>
+    <t xml:space="preserve">0.238649502396584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24431237578392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840563058853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24188543856144</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">0.228132769465446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222580075264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503391742706</t>
+    <t xml:space="preserve">0.236222609877586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243503421545029</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">0.235413625836372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246739327907562</t>
+    <t xml:space="preserve">0.246739357709885</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256447106599808</t>
+    <t xml:space="preserve">0.25644713640213</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254829168319702</t>
+    <t xml:space="preserve">0.25482913851738</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26291897892952</t>
+    <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683042764664</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">0.208717197179794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22246989607811</t>
+    <t xml:space="preserve">0.222469910979271</t>
   </si>
   <si>
     <t xml:space="preserve">0.221660897135735</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">0.273435711860657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.271008789539337</t>
+    <t xml:space="preserve">0.27100881934166</t>
   </si>
   <si>
     <t xml:space="preserve">0.264536917209625</t>
@@ -62051,7 +62051,7 @@
     </row>
     <row r="2272">
       <c r="A2272" s="1" t="n">
-        <v>45628.6912731481</v>
+        <v>45628.3333333333</v>
       </c>
       <c r="B2272" t="n">
         <v>22609</v>
@@ -62072,6 +62072,32 @@
         <v>883</v>
       </c>
       <c r="H2272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" s="1" t="n">
+        <v>45629.6912847222</v>
+      </c>
+      <c r="B2273" t="n">
+        <v>17579</v>
+      </c>
+      <c r="C2273" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="D2273" t="n">
+        <v>0.197999998927116</v>
+      </c>
+      <c r="E2273" t="n">
+        <v>0.197999998927116</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="G2273" t="s">
+        <v>834</v>
+      </c>
+      <c r="H2273" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396550178528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164524495601654</t>
+    <t xml:space="preserve">0.162396535277367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164524510502815</t>
   </si>
   <si>
     <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161836564540863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172570824623</t>
+    <t xml:space="preserve">0.161836579442024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172555923462</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
@@ -71,28 +71,28 @@
     <t xml:space="preserve">0.150076806545258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148732826113701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137309074401855</t>
+    <t xml:space="preserve">0.148732841014862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137309089303017</t>
   </si>
   <si>
     <t xml:space="preserve">0.137197092175484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143300950527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143132969737053</t>
+    <t xml:space="preserve">0.14330093562603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143132954835892</t>
   </si>
   <si>
     <t xml:space="preserve">0.142740979790688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145484894514084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13994100689888</t>
+    <t xml:space="preserve">0.145484924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13786906003952</t>
+    <t xml:space="preserve">0.137869074940681</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653489112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122581392526627</t>
+    <t xml:space="preserve">0.117653511464596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917541086674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122581385076046</t>
   </si>
   <si>
     <t xml:space="preserve">0.122077405452728</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.112277619540691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113117590546608</t>
+    <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
     <t xml:space="preserve">0.114853568375111</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">0.117597505450249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
     <t xml:space="preserve">0.126837313175201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131877213716507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134397134184837</t>
+    <t xml:space="preserve">0.131877198815346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134397149085999</t>
   </si>
   <si>
     <t xml:space="preserve">0.143916949629784</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940437793732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396250724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175836279988289</t>
+    <t xml:space="preserve">0.16794042289257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396235823631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175836265087128</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">0.174996271729469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173596307635307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176116243004799</t>
+    <t xml:space="preserve">0.173596322536469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996451258659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176340252161026</t>
+    <t xml:space="preserve">0.167996436357498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176340267062187</t>
   </si>
   <si>
     <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170236378908157</t>
+    <t xml:space="preserve">0.170236364006996</t>
   </si>
   <si>
     <t xml:space="preserve">0.162564560770988</t>
@@ -221,16 +221,16 @@
     <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163516536355019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163460537791252</t>
+    <t xml:space="preserve">0.163516521453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163460522890091</t>
   </si>
   <si>
     <t xml:space="preserve">0.164860501885414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15802863240242</t>
+    <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
     <t xml:space="preserve">0.158644646406174</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">0.16267654299736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164916485548019</t>
+    <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636507630348</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">0.163012534379959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163628533482552</t>
+    <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
     <t xml:space="preserve">0.164468511939049</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">0.142796963453293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148396849632263</t>
+    <t xml:space="preserve">0.148396834731102</t>
   </si>
   <si>
     <t xml:space="preserve">0.148508846759796</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">0.144700914621353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564845323563</t>
+    <t xml:space="preserve">0.148564860224724</t>
   </si>
   <si>
     <t xml:space="preserve">0.145988896489143</t>
@@ -308,31 +308,31 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660879254341</t>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660909056664</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14526093006134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139997020363808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139437049627304</t>
+    <t xml:space="preserve">0.145260915160179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139997035264969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139437034726143</t>
   </si>
   <si>
     <t xml:space="preserve">0.132997184991837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137701064348221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138597041368484</t>
+    <t xml:space="preserve">0.137701079249382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138597056269646</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130253240466118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123029381036758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122525401413441</t>
+    <t xml:space="preserve">0.130253255367279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12302939593792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252539396286</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893603742123</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">0.120341435074806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118157483637333</t>
+    <t xml:space="preserve">0.118157491087914</t>
   </si>
   <si>
     <t xml:space="preserve">0.118101485073566</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">0.117933504283428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121293425559998</t>
+    <t xml:space="preserve">0.121293410658836</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134845122694969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357263445854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134789139032364</t>
+    <t xml:space="preserve">0.13484513759613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357248544693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134789124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.132885158061981</t>
@@ -410,13 +410,13 @@
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421378433704</t>
+    <t xml:space="preserve">0.123421393334866</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461271524429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229303121567</t>
+    <t xml:space="preserve">0.127229318022728</t>
   </si>
   <si>
     <t xml:space="preserve">0.129637241363525</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">0.128629267215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155676692724228</t>
+    <t xml:space="preserve">0.155676677823067</t>
   </si>
   <si>
     <t xml:space="preserve">0.141788989305496</t>
@@ -443,16 +443,16 @@
     <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138933062553406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134453132748604</t>
+    <t xml:space="preserve">0.138933047652245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
+    <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685130953789</t>
+    <t xml:space="preserve">0.135685116052628</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">0.1340611577034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133781164884567</t>
+    <t xml:space="preserve">0.133781149983406</t>
   </si>
   <si>
     <t xml:space="preserve">0.135853126645088</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">0.143636956810951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146884888410568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146604895591736</t>
+    <t xml:space="preserve">0.146884873509407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146604880690575</t>
   </si>
   <si>
     <t xml:space="preserve">0.131821200251579</t>
@@ -515,22 +515,22 @@
     <t xml:space="preserve">0.128853276371956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453297376633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131541192531586</t>
+    <t xml:space="preserve">0.127453282475471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
     <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821342527866</t>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120677441358566</t>
+    <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
     <t xml:space="preserve">0.128405272960663</t>
@@ -542,22 +542,22 @@
     <t xml:space="preserve">0.126613289117813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131037205457687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133557170629501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221179246902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629132390022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733155369759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136861085891724</t>
+    <t xml:space="preserve">0.131037220358849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13355715572834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221164345741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135629117488861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733140468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136861100792885</t>
   </si>
   <si>
     <t xml:space="preserve">0.154556721448898</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151476800441742</t>
+    <t xml:space="preserve">0.151476785540581</t>
   </si>
   <si>
     <t xml:space="preserve">0.15310075879097</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142236962914467</t>
+    <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229018568993</t>
@@ -593,16 +593,16 @@
     <t xml:space="preserve">0.141061007976532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140109032392502</t>
+    <t xml:space="preserve">0.140109017491341</t>
   </si>
   <si>
     <t xml:space="preserve">0.140389010310173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14156499505043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141005024313927</t>
+    <t xml:space="preserve">0.141564980149269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
     <t xml:space="preserve">0.140725016593933</t>
@@ -611,49 +611,49 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13882103562355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134677141904831</t>
+    <t xml:space="preserve">0.138821050524712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693090200424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741099715233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
     <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773190736771</t>
+    <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131989181041718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132157176733017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130925223231316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134173154830933</t>
+    <t xml:space="preserve">0.131989195942879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132157191634178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130925208330154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134173169732094</t>
   </si>
   <si>
     <t xml:space="preserve">0.13053323328495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131317213177681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129525244235992</t>
+    <t xml:space="preserve">0.131317228078842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129525259137154</t>
   </si>
   <si>
     <t xml:space="preserve">0.133445158600807</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">0.132717177271843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13019722700119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132493168115616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13165320456028</t>
+    <t xml:space="preserve">0.130197241902351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132493183016777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131653189659119</t>
   </si>
   <si>
     <t xml:space="preserve">0.131261214613914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128965273499489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130309253931046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13691708445549</t>
+    <t xml:space="preserve">0.128965258598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130309239029884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136917099356651</t>
   </si>
   <si>
     <t xml:space="preserve">0.134341150522232</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">0.138485059142113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135573104023933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138765066862106</t>
+    <t xml:space="preserve">0.135573118925095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138765051960945</t>
   </si>
   <si>
     <t xml:space="preserve">0.135125145316124</t>
@@ -710,22 +710,22 @@
     <t xml:space="preserve">0.132661178708076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134285151958466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138205051422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139269039034843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138653039932251</t>
+    <t xml:space="preserve">0.134285166859627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13820506632328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139269024133682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138653054833412</t>
   </si>
   <si>
     <t xml:space="preserve">0.149908795952797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14699687063694</t>
+    <t xml:space="preserve">0.146996855735779</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972798466682</t>
+    <t xml:space="preserve">0.150972783565521</t>
   </si>
   <si>
     <t xml:space="preserve">0.149348825216293</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156516686081886</t>
+    <t xml:space="preserve">0.156516671180725</t>
   </si>
   <si>
     <t xml:space="preserve">0.15276475250721</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">0.152708768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153324723243713</t>
+    <t xml:space="preserve">0.153324738144875</t>
   </si>
   <si>
     <t xml:space="preserve">0.152652755379677</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">0.152372762560844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148060873150826</t>
+    <t xml:space="preserve">0.148060858249664</t>
   </si>
   <si>
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324887871742</t>
+    <t xml:space="preserve">0.146324872970581</t>
   </si>
   <si>
     <t xml:space="preserve">0.144476935267448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612854838371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144980922341347</t>
+    <t xml:space="preserve">0.147612869739532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144980907440186</t>
   </si>
   <si>
     <t xml:space="preserve">0.142572984099388</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144588932394981</t>
+    <t xml:space="preserve">0.14458891749382</t>
   </si>
   <si>
     <t xml:space="preserve">0.143412947654724</t>
@@ -812,19 +812,19 @@
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748939037323</t>
+    <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837028622627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141116991639137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144196912646294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143804937601089</t>
+    <t xml:space="preserve">0.141117006540298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144196942448616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143804952502251</t>
   </si>
   <si>
     <t xml:space="preserve">0.143860951066017</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">0.141676977276802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141452997922897</t>
+    <t xml:space="preserve">0.141452983021736</t>
   </si>
   <si>
     <t xml:space="preserve">0.143244966864586</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">0.150636792182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150468796491623</t>
+    <t xml:space="preserve">0.150468811392784</t>
   </si>
   <si>
     <t xml:space="preserve">0.147836863994598</t>
@@ -866,19 +866,19 @@
     <t xml:space="preserve">0.147220864892006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144924908876419</t>
+    <t xml:space="preserve">0.14492492377758</t>
   </si>
   <si>
     <t xml:space="preserve">0.144028931856155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143972918391228</t>
+    <t xml:space="preserve">0.143972933292389</t>
   </si>
   <si>
     <t xml:space="preserve">0.143076941370964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147276878356934</t>
+    <t xml:space="preserve">0.147276863455772</t>
   </si>
   <si>
     <t xml:space="preserve">0.152316763997078</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">0.155732691287994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144308939576149</t>
+    <t xml:space="preserve">0.144308924674988</t>
   </si>
   <si>
     <t xml:space="preserve">0.143188953399658</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">0.145372927188873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142404973506927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144252955913544</t>
+    <t xml:space="preserve">0.142404958605766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144252941012383</t>
   </si>
   <si>
     <t xml:space="preserve">0.141844987869263</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">0.142012983560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900986433029</t>
+    <t xml:space="preserve">0.14190100133419</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">0.142460986971855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14414094388485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140949010848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.144140928983688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14094902575016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14044500887394</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -941,25 +941,25 @@
     <t xml:space="preserve">0.142348989844322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142124995589256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429045677185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149067759514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637106537819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077120900154</t>
+    <t xml:space="preserve">0.142124980688095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429060578346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149082660675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637091636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077105998993</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277148008347</t>
+    <t xml:space="preserve">0.133277162909508</t>
   </si>
   <si>
     <t xml:space="preserve">0.127677291631699</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">0.126557305455208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124317362904549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437334179878</t>
+    <t xml:space="preserve">0.124317370355129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
     <t xml:space="preserve">0.127117291092873</t>
@@ -986,55 +986,55 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188155978918076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229595124721527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223995238542557</t>
+    <t xml:space="preserve">0.188155993819237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229595139622688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223995253443718</t>
   </si>
   <si>
     <t xml:space="preserve">0.208315566182137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200475752353668</t>
+    <t xml:space="preserve">0.200475737452507</t>
   </si>
   <si>
     <t xml:space="preserve">0.23127506673336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220635324716568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221755295991898</t>
+    <t xml:space="preserve">0.220635309815407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221755310893059</t>
   </si>
   <si>
     <t xml:space="preserve">0.227355152368546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221195310354233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875282168388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395337462425</t>
+    <t xml:space="preserve">0.221195295453072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875252366066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
   </si>
   <si>
     <t xml:space="preserve">0.225675225257874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222315266728401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075309276581</t>
+    <t xml:space="preserve">0.222315296530724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
   </si>
   <si>
     <t xml:space="preserve">0.244154810905457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225115224719048</t>
+    <t xml:space="preserve">0.225115239620209</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
@@ -1043,28 +1043,28 @@
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515039086342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635010361671</t>
+    <t xml:space="preserve">0.233515068888664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234635025262833</t>
   </si>
   <si>
     <t xml:space="preserve">0.214488491415977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219625934958458</t>
+    <t xml:space="preserve">0.219625949859619</t>
   </si>
   <si>
     <t xml:space="preserve">0.218341574072838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226047769188881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222194656729698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21063543856144</t>
+    <t xml:space="preserve">0.22604775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222194671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">0.208708867430687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205497950315475</t>
+    <t xml:space="preserve">0.205497965216637</t>
   </si>
   <si>
     <t xml:space="preserve">0.199076160788536</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196507424116135</t>
+    <t xml:space="preserve">0.193296536803246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
     <t xml:space="preserve">0.195865258574486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185590356588364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186874717473984</t>
+    <t xml:space="preserve">0.185590371489525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
     <t xml:space="preserve">0.184948161244392</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">0.175957635045052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182379454374313</t>
+    <t xml:space="preserve">0.182379469275475</t>
   </si>
   <si>
     <t xml:space="preserve">0.177241995930672</t>
@@ -1118,10 +1118,10 @@
     <t xml:space="preserve">0.180452898144722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177884191274643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176599830389023</t>
+    <t xml:space="preserve">0.177884176373482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176599815487862</t>
   </si>
   <si>
     <t xml:space="preserve">0.197791799902916</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">0.191369995474815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189443439245224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194580882787704</t>
+    <t xml:space="preserve">0.189443424344063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194580897688866</t>
   </si>
   <si>
     <t xml:space="preserve">0.188159093260765</t>
@@ -1145,13 +1145,13 @@
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810732603073</t>
+    <t xml:space="preserve">0.179810717701912</t>
   </si>
   <si>
     <t xml:space="preserve">0.181095093488693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179168537259102</t>
+    <t xml:space="preserve">0.179168552160263</t>
   </si>
   <si>
     <t xml:space="preserve">0.183663815259933</t>
@@ -1160,16 +1160,16 @@
     <t xml:space="preserve">0.190085619688034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178526356816292</t>
+    <t xml:space="preserve">0.178526341915131</t>
   </si>
   <si>
     <t xml:space="preserve">0.175315454602242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17467325925827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172104552388191</t>
+    <t xml:space="preserve">0.174673274159431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17210453748703</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057228088379</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">0.186232522130013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17338889837265</t>
+    <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
     <t xml:space="preserve">0.169535830616951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17146235704422</t>
+    <t xml:space="preserve">0.171462371945381</t>
   </si>
   <si>
     <t xml:space="preserve">0.1701779961586</t>
@@ -1202,10 +1202,10 @@
     <t xml:space="preserve">0.16696709394455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166324928402901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165040552616119</t>
+    <t xml:space="preserve">0.16632491350174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165040567517281</t>
   </si>
   <si>
     <t xml:space="preserve">0.165682733058929</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">0.157976567745209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158618733286858</t>
+    <t xml:space="preserve">0.158618748188019</t>
   </si>
   <si>
     <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157334372401237</t>
+    <t xml:space="preserve">0.157334387302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.160545289516449</t>
@@ -1232,31 +1232,31 @@
     <t xml:space="preserve">0.161187455058098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163113996386528</t>
+    <t xml:space="preserve">0.163114011287689</t>
   </si>
   <si>
     <t xml:space="preserve">0.161829650402069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156692206859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156050026416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407845973969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.156692191958427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156050011515617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407831072807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164398372173309</t>
+    <t xml:space="preserve">0.164398387074471</t>
   </si>
   <si>
     <t xml:space="preserve">0.181737259030342</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">0.174031093716621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192012161016464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187516897916794</t>
+    <t xml:space="preserve">0.192012146115303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
     <t xml:space="preserve">0.188801258802414</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">0.190727785229683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195223063230515</t>
+    <t xml:space="preserve">0.195223048329353</t>
   </si>
   <si>
     <t xml:space="preserve">0.244028836488724</t>
@@ -1289,25 +1289,25 @@
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945904016495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248524084687233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249166309833527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744460701942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251735031604767</t>
+    <t xml:space="preserve">0.254945933818817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248524129390717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249166280031204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744475603104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251735001802444</t>
   </si>
   <si>
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
+    <t xml:space="preserve">0.250450640916824</t>
   </si>
   <si>
     <t xml:space="preserve">0.254303753376007</t>
@@ -1319,16 +1319,16 @@
     <t xml:space="preserve">0.253019362688065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240175738930702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243386656045914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322656273842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597588062286</t>
+    <t xml:space="preserve">0.240175724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243386641144753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322686076164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881934046745</t>
@@ -1337,55 +1337,55 @@
     <t xml:space="preserve">0.323592603206635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262109994888306</t>
+    <t xml:space="preserve">0.262109965085983</t>
   </si>
   <si>
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548326849937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267500281334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228941738605499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230559706687927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229750752449036</t>
+    <t xml:space="preserve">0.247548297047615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267485380173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228941723704338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230559721589088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229750737547874</t>
   </si>
   <si>
     <t xml:space="preserve">0.234604611992836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231368720531464</t>
+    <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232177674770355</t>
+    <t xml:space="preserve">0.232177689671516</t>
   </si>
   <si>
     <t xml:space="preserve">0.22651481628418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232986658811569</t>
+    <t xml:space="preserve">0.232986643910408</t>
   </si>
   <si>
     <t xml:space="preserve">0.249975264072418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241076484322548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245930358767509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238649532198906</t>
+    <t xml:space="preserve">0.241076499223709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245930343866348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.238649502396584</t>
   </si>
   <si>
     <t xml:space="preserve">0.244312390685081</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">0.237840548157692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241885468363762</t>
+    <t xml:space="preserve">0.241885453462601</t>
   </si>
   <si>
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357325792313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2370315939188</t>
+    <t xml:space="preserve">0.248357310891151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237031579017639</t>
   </si>
   <si>
     <t xml:space="preserve">0.228132784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236222580075264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243503406643867</t>
+    <t xml:space="preserve">0.236222594976425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24350343644619</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
@@ -1439,25 +1439,25 @@
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211200237274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254829168319702</t>
+    <t xml:space="preserve">0.253211170434952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25482913851738</t>
   </si>
   <si>
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252402245998383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245121374726295</t>
+    <t xml:space="preserve">0.25240221619606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245121389627457</t>
   </si>
   <si>
     <t xml:space="preserve">0.251593232154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26291897892952</t>
+    <t xml:space="preserve">0.262918949127197</t>
   </si>
   <si>
     <t xml:space="preserve">0.259683072566986</t>
@@ -1469,19 +1469,19 @@
     <t xml:space="preserve">0.261301010847092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208717212080956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22246989607811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221660912036896</t>
+    <t xml:space="preserve">0.208717197179794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222469910979271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221660897135735</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273435711860657</t>
+    <t xml:space="preserve">0.273435741662979</t>
   </si>
   <si>
     <t xml:space="preserve">0.271008789539337</t>
@@ -1493,46 +1493,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742474079132</t>
+    <t xml:space="preserve">0.247742459177971</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161831378937</t>
+    <t xml:space="preserve">0.245161846280098</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860745310783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23569943010807</t>
+    <t xml:space="preserve">0.240860760211945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235699415206909</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280087709427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000545978546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140301942825</t>
+    <t xml:space="preserve">0.238280102610588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000531077385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140316843987</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957472205162</t>
+    <t xml:space="preserve">0.227957487106323</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258602976799</t>
+    <t xml:space="preserve">0.232258588075638</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118772506714</t>
+    <t xml:space="preserve">0.233118802309036</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892943501472</t>
+    <t xml:space="preserve">0.209892928600311</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495115637779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215544104576</t>
+    <t xml:space="preserve">0.218495100736618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215559005737</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21763488650322</t>
+    <t xml:space="preserve">0.217634871602058</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355314970016</t>
+    <t xml:space="preserve">0.219355329871178</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516822099686</t>
+    <t xml:space="preserve">0.304516792297363</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839422702789</t>
+    <t xml:space="preserve">0.314839392900467</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678107500076</t>
+    <t xml:space="preserve">0.309678137302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420035600662</t>
+    <t xml:space="preserve">0.317420065402985</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979208469391</t>
+    <t xml:space="preserve">0.311398535966873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979178667068</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -62129,7 +62129,7 @@
     </row>
     <row r="2275">
       <c r="A2275" s="1" t="n">
-        <v>45631.6812847222</v>
+        <v>45631.3333333333</v>
       </c>
       <c r="B2275" t="n">
         <v>550</v>
@@ -62150,6 +62150,32 @@
         <v>838</v>
       </c>
       <c r="H2275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" s="1" t="n">
+        <v>45632.6913078704</v>
+      </c>
+      <c r="B2276" t="n">
+        <v>106875</v>
+      </c>
+      <c r="C2276" t="n">
+        <v>0.216000005602837</v>
+      </c>
+      <c r="D2276" t="n">
+        <v>0.20100000500679</v>
+      </c>
+      <c r="E2276" t="n">
+        <v>0.206000000238419</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>0.200000002980232</v>
+      </c>
+      <c r="G2276" t="s">
+        <v>839</v>
+      </c>
+      <c r="H2276" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900417327881</t>
+    <t xml:space="preserve">0.169900387525558</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162396535277367</t>
+    <t xml:space="preserve">0.162396550178528</t>
   </si>
   <si>
     <t xml:space="preserve">0.164524495601654</t>
@@ -56,19 +56,19 @@
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172570824623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159988611936569</t>
+    <t xml:space="preserve">0.162172555923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
     <t xml:space="preserve">0.156908676028252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155340686440468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076806545258</t>
+    <t xml:space="preserve">0.15534071624279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076821446419</t>
   </si>
   <si>
     <t xml:space="preserve">0.148732841014862</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">0.145484909415245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139941021800041</t>
+    <t xml:space="preserve">0.139941036701202</t>
   </si>
   <si>
     <t xml:space="preserve">0.13501313328743</t>
@@ -110,49 +110,49 @@
     <t xml:space="preserve">0.123253382742405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117653504014015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115917533636093</t>
+    <t xml:space="preserve">0.117653496563435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115917548537254</t>
   </si>
   <si>
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077412903309</t>
+    <t xml:space="preserve">0.122077398002148</t>
   </si>
   <si>
     <t xml:space="preserve">0.11227760463953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113117605447769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114853568375111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117597505450249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12398137152195</t>
+    <t xml:space="preserve">0.11311761289835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11485356092453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117597512900829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123981356620789</t>
   </si>
   <si>
     <t xml:space="preserve">0.12683729827404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131877213716507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134397134184837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143916949629784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151252776384354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160716593265533</t>
+    <t xml:space="preserve">0.131877198815346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134397149085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143916964530945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151252791285515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160716608166695</t>
   </si>
   <si>
     <t xml:space="preserve">0.165140494704247</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">0.156740680336952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16015662252903</t>
+    <t xml:space="preserve">0.160156592726707</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">0.176396265625954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175836265087128</t>
+    <t xml:space="preserve">0.175836279988289</t>
   </si>
   <si>
     <t xml:space="preserve">0.178636223077774</t>
@@ -188,22 +188,22 @@
     <t xml:space="preserve">0.173596322536469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176116243004799</t>
+    <t xml:space="preserve">0.176116272807121</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177796229720116</t>
+    <t xml:space="preserve">0.177796214818954</t>
   </si>
   <si>
     <t xml:space="preserve">0.172700330615044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172644317150116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167996451258659</t>
+    <t xml:space="preserve">0.172644332051277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167996436357498</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340267062187</t>
@@ -212,37 +212,37 @@
     <t xml:space="preserve">0.173148319125175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170236393809319</t>
+    <t xml:space="preserve">0.170236378908157</t>
   </si>
   <si>
     <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300665974617</t>
+    <t xml:space="preserve">0.157300651073456</t>
   </si>
   <si>
     <t xml:space="preserve">0.163516521453857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163460522890091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164860516786575</t>
+    <t xml:space="preserve">0.163460537791252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164860486984253</t>
   </si>
   <si>
     <t xml:space="preserve">0.158028647303581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158644646406174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16267654299736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916485548019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164636507630348</t>
+    <t xml:space="preserve">0.158644631505013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162676528096199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916515350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164636492729187</t>
   </si>
   <si>
     <t xml:space="preserve">0.159596607089043</t>
@@ -251,40 +251,40 @@
     <t xml:space="preserve">0.159428626298904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16301254928112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163628533482552</t>
+    <t xml:space="preserve">0.163012534379959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16362851858139</t>
   </si>
   <si>
     <t xml:space="preserve">0.164468511939049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151196792721748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142796978354454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148396834731102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148508831858635</t>
+    <t xml:space="preserve">0.151196777820587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142796963453293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148396849632263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148508846759796</t>
   </si>
   <si>
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500872612</t>
+    <t xml:space="preserve">0.147500857710838</t>
   </si>
   <si>
     <t xml:space="preserve">0.147108867764473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147332862019539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140613004565239</t>
+    <t xml:space="preserve">0.1473328769207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1406130194664</t>
   </si>
   <si>
     <t xml:space="preserve">0.144644930958748</t>
@@ -293,31 +293,31 @@
     <t xml:space="preserve">0.145428910851479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144084945321083</t>
+    <t xml:space="preserve">0.144084930419922</t>
   </si>
   <si>
     <t xml:space="preserve">0.144700929522514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148564860224724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145988881587982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147556856274605</t>
+    <t xml:space="preserve">0.148564845323563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145988896489143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
     <t xml:space="preserve">0.146156907081604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146660879254341</t>
+    <t xml:space="preserve">0.146660894155502</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14526093006134</t>
+    <t xml:space="preserve">0.145260915160179</t>
   </si>
   <si>
     <t xml:space="preserve">0.139997020363808</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197376728058</t>
+    <t xml:space="preserve">0.123197391629219</t>
   </si>
   <si>
     <t xml:space="preserve">0.125997319817543</t>
@@ -347,16 +347,16 @@
     <t xml:space="preserve">0.130477219820023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130253225564957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123029381036758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122525401413441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112893603742123</t>
+    <t xml:space="preserve">0.130253240466118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123029373586178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12252538651228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112893611192703</t>
   </si>
   <si>
     <t xml:space="preserve">0.120397441089153</t>
@@ -365,16 +365,16 @@
     <t xml:space="preserve">0.120341449975967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118157498538494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118101485073566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933504283428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293425559998</t>
+    <t xml:space="preserve">0.118157483637333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118101477622986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933481931686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293418109417</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">0.131093218922615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135237127542496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129805237054825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845122694969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357263445854</t>
+    <t xml:space="preserve">0.135237142443657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129805251955986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845152497292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357233643532</t>
   </si>
   <si>
     <t xml:space="preserve">0.134789139032364</t>
@@ -404,25 +404,25 @@
     <t xml:space="preserve">0.125661328434944</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129021257162094</t>
+    <t xml:space="preserve">0.129021272063255</t>
   </si>
   <si>
     <t xml:space="preserve">0.127621293067932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123421378433704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128461271524429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127229288220406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129637241363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128237292170525</t>
+    <t xml:space="preserve">0.123421393334866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128461256623268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127229303121567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129637256264687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
     <t xml:space="preserve">0.128573268651962</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788974404335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139325052499771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138261064887047</t>
+    <t xml:space="preserve">0.141788989305496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13932503759861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138261079788208</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134453132748604</t>
+    <t xml:space="preserve">0.134453147649765</t>
   </si>
   <si>
     <t xml:space="preserve">0.133949145674706</t>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">0.140165016055107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137813076376915</t>
+    <t xml:space="preserve">0.137813061475754</t>
   </si>
   <si>
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685130953789</t>
+    <t xml:space="preserve">0.135685116052628</t>
   </si>
   <si>
     <t xml:space="preserve">0.134901136159897</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">0.135853111743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141956999897957</t>
+    <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
     <t xml:space="preserve">0.139381036162376</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604895591736</t>
+    <t xml:space="preserve">0.146604865789413</t>
   </si>
   <si>
     <t xml:space="preserve">0.13182121515274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137477070093155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13596510887146</t>
+    <t xml:space="preserve">0.137477084994316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135965123772621</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -509,19 +509,19 @@
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597205996513</t>
+    <t xml:space="preserve">0.131597191095352</t>
   </si>
   <si>
     <t xml:space="preserve">0.128853261470795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127453297376633</t>
+    <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
     <t xml:space="preserve">0.131541207432747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125045329332352</t>
+    <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
     <t xml:space="preserve">0.124821357429028</t>
@@ -530,67 +530,67 @@
     <t xml:space="preserve">0.128685265779495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120677426457405</t>
+    <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
     <t xml:space="preserve">0.128405287861824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128741279244423</t>
+    <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
     <t xml:space="preserve">0.126613304018974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131037205457687</t>
+    <t xml:space="preserve">0.131037220358849</t>
   </si>
   <si>
     <t xml:space="preserve">0.13355715572834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133221179246902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135629132390022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134733155369759</t>
+    <t xml:space="preserve">0.133221164345741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135629117488861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134733140468597</t>
   </si>
   <si>
     <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556721448898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028782129288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150916770100594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151476785540581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15310075879097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484774589539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145876914262772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142236992716789</t>
+    <t xml:space="preserve">0.154556706547737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028797030449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150916785001755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15147677063942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153100743889809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484759688377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14587689936161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142236977815628</t>
   </si>
   <si>
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141284987330437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141061007976532</t>
+    <t xml:space="preserve">0.141285002231598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141060993075371</t>
   </si>
   <si>
     <t xml:space="preserve">0.140109032392502</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">0.140389010310173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141564980149269</t>
+    <t xml:space="preserve">0.14156499505043</t>
   </si>
   <si>
     <t xml:space="preserve">0.141005009412766</t>
@@ -611,25 +611,25 @@
     <t xml:space="preserve">0.13837306201458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13882103562355</t>
+    <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
     <t xml:space="preserve">0.134677141904831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136693090200424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135741114616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133893147110939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132773190736771</t>
+    <t xml:space="preserve">0.136693105101585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135741129517555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405108332634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1338931620121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132773175835609</t>
   </si>
   <si>
     <t xml:space="preserve">0.134957134723663</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">0.132157191634178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130925223231316</t>
+    <t xml:space="preserve">0.130925208330154</t>
   </si>
   <si>
     <t xml:space="preserve">0.134173154830933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13053323328495</t>
+    <t xml:space="preserve">0.130533218383789</t>
   </si>
   <si>
     <t xml:space="preserve">0.131317213177681</t>
@@ -662,16 +662,16 @@
     <t xml:space="preserve">0.132717192173004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13019722700119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132493183016777</t>
+    <t xml:space="preserve">0.130197241902351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132493197917938</t>
   </si>
   <si>
     <t xml:space="preserve">0.13165320456028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131261214613914</t>
+    <t xml:space="preserve">0.131261229515076</t>
   </si>
   <si>
     <t xml:space="preserve">0.128965258598328</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">0.13691708445549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134341150522232</t>
+    <t xml:space="preserve">0.134341135621071</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757077813148</t>
@@ -701,10 +701,10 @@
     <t xml:space="preserve">0.135573118925095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138765066862106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135125145316124</t>
+    <t xml:space="preserve">0.138765051960945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135125130414963</t>
   </si>
   <si>
     <t xml:space="preserve">0.132661178708076</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">0.134285151958466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13820506632328</t>
+    <t xml:space="preserve">0.138205081224442</t>
   </si>
   <si>
     <t xml:space="preserve">0.139269039034843</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">0.149908810853958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146996885538101</t>
+    <t xml:space="preserve">0.14699687063694</t>
   </si>
   <si>
     <t xml:space="preserve">0.148340851068497</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">0.146268904209137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147668868303299</t>
+    <t xml:space="preserve">0.14766888320446</t>
   </si>
   <si>
     <t xml:space="preserve">0.144812926650047</t>
@@ -749,19 +749,19 @@
     <t xml:space="preserve">0.150188818573952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150972813367844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149348810315132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153996720910072</t>
+    <t xml:space="preserve">0.150972783565521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149348825216293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153996735811234</t>
   </si>
   <si>
     <t xml:space="preserve">0.156516686081886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152764737606049</t>
+    <t xml:space="preserve">0.15276475250721</t>
   </si>
   <si>
     <t xml:space="preserve">0.154164731502533</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">0.146940886974335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146324902772903</t>
+    <t xml:space="preserve">0.146324887871742</t>
   </si>
   <si>
     <t xml:space="preserve">0.144476920366287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147612854838371</t>
+    <t xml:space="preserve">0.147612869739532</t>
   </si>
   <si>
     <t xml:space="preserve">0.144980907440186</t>
@@ -803,16 +803,16 @@
     <t xml:space="preserve">0.145204916596413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14458891749382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143412962555885</t>
+    <t xml:space="preserve">0.144588932394981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143412947654724</t>
   </si>
   <si>
     <t xml:space="preserve">0.146100893616676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143748939037323</t>
+    <t xml:space="preserve">0.143748953938484</t>
   </si>
   <si>
     <t xml:space="preserve">0.140837013721466</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">0.143244966864586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145540907979012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151140779256821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150636792182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150468796491623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147836849093437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149460852146149</t>
+    <t xml:space="preserve">0.145540922880173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151140794157982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150636807084084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150468811392784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147836863994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149460822343826</t>
   </si>
   <si>
     <t xml:space="preserve">0.148228839039803</t>
@@ -893,22 +893,22 @@
     <t xml:space="preserve">0.143188953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145372927188873</t>
+    <t xml:space="preserve">0.145372912287712</t>
   </si>
   <si>
     <t xml:space="preserve">0.142404973506927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144252941012383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141845002770424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142012998461723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900986433029</t>
+    <t xml:space="preserve">0.144252926111221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141844987869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142012983560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900971531868</t>
   </si>
   <si>
     <t xml:space="preserve">0.142180979251862</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.140949010848999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140445023775101</t>
+    <t xml:space="preserve">0.140445038676262</t>
   </si>
   <si>
     <t xml:space="preserve">0.140557006001472</t>
@@ -932,37 +932,37 @@
     <t xml:space="preserve">0.141620993614197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138317063450813</t>
+    <t xml:space="preserve">0.138317048549652</t>
   </si>
   <si>
     <t xml:space="preserve">0.141172990202904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142348989844322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142124995589256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138429060578346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138149067759514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136637091636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136077120900154</t>
+    <t xml:space="preserve">0.142348974943161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142124980688095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138429045677185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138149052858353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136637106537819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136077091097832</t>
   </si>
   <si>
     <t xml:space="preserve">0.133837148547173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133277162909508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127677291631699</t>
+    <t xml:space="preserve">0.133277177810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127677276730537</t>
   </si>
   <si>
     <t xml:space="preserve">0.128797277808189</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">0.129917234182358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126557305455208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124317362904549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125437334179878</t>
+    <t xml:space="preserve">0.126557320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124317370355129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125437349081039</t>
   </si>
   <si>
     <t xml:space="preserve">0.127117291092873</t>
@@ -986,16 +986,16 @@
     <t xml:space="preserve">0.119837455451488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188155993819237</t>
+    <t xml:space="preserve">0.188155978918076</t>
   </si>
   <si>
     <t xml:space="preserve">0.229595124721527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.223995238542557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208315595984459</t>
+    <t xml:space="preserve">0.223995268344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208315581083298</t>
   </si>
   <si>
     <t xml:space="preserve">0.200475752353668</t>
@@ -1010,31 +1010,31 @@
     <t xml:space="preserve">0.221755295991898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227355167269707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221195325255394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222875282168388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218395337462425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225675195455551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222315296530724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220075339078903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244154825806618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225115224719048</t>
+    <t xml:space="preserve">0.227355152368546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221195310354233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222875267267227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218395352363586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225675210356712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222315266728401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220075324177742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244154796004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225115209817886</t>
   </si>
   <si>
     <t xml:space="preserve">0.237994939088821</t>
@@ -1043,40 +1043,40 @@
     <t xml:space="preserve">0.234075039625168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233515039086342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234635040163994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214488491415977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219625934958458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218341574072838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22604775428772</t>
+    <t xml:space="preserve">0.233515053987503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23463499546051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214488506317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219625949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218341588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226047769188881</t>
   </si>
   <si>
     <t xml:space="preserve">0.222194656729698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210635408759117</t>
+    <t xml:space="preserve">0.210635423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.212561950087547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211277604103088</t>
+    <t xml:space="preserve">0.211277589201927</t>
   </si>
   <si>
     <t xml:space="preserve">0.208708882331848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205497965216637</t>
+    <t xml:space="preserve">0.205497950315475</t>
   </si>
   <si>
     <t xml:space="preserve">0.199076175689697</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">0.197149619460106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193296521902084</t>
+    <t xml:space="preserve">0.193296507000923</t>
   </si>
   <si>
     <t xml:space="preserve">0.196507439017296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195865258574486</t>
+    <t xml:space="preserve">0.195865243673325</t>
   </si>
   <si>
     <t xml:space="preserve">0.185590356588364</t>
@@ -1100,19 +1100,19 @@
     <t xml:space="preserve">0.186874732375145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184948161244392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184305995702744</t>
+    <t xml:space="preserve">0.184948176145554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184305980801582</t>
   </si>
   <si>
     <t xml:space="preserve">0.17595762014389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182379469275475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177241995930672</t>
+    <t xml:space="preserve">0.182379454374313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17724198102951</t>
   </si>
   <si>
     <t xml:space="preserve">0.180452883243561</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">0.177884176373482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176599815487862</t>
+    <t xml:space="preserve">0.1765998005867</t>
   </si>
   <si>
     <t xml:space="preserve">0.197791799902916</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">0.193938702344894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191369995474815</t>
+    <t xml:space="preserve">0.191369965672493</t>
   </si>
   <si>
     <t xml:space="preserve">0.189443439245224</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">0.183021619915962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179810732603073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181095093488693</t>
+    <t xml:space="preserve">0.179810717701912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181095078587532</t>
   </si>
   <si>
     <t xml:space="preserve">0.179168537259102</t>
@@ -1169,16 +1169,16 @@
     <t xml:space="preserve">0.174673274159431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172104552388191</t>
+    <t xml:space="preserve">0.17210453748703</t>
   </si>
   <si>
     <t xml:space="preserve">0.217057213187218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186232507228851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17338889837265</t>
+    <t xml:space="preserve">0.186232522130013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173388913273811</t>
   </si>
   <si>
     <t xml:space="preserve">0.16953581571579</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">0.17146235704422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170177981257439</t>
+    <t xml:space="preserve">0.1701779961586</t>
   </si>
   <si>
     <t xml:space="preserve">0.17082017660141</t>
@@ -1199,19 +1199,19 @@
     <t xml:space="preserve">0.16760927438736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16696709394455</t>
+    <t xml:space="preserve">0.166967079043388</t>
   </si>
   <si>
     <t xml:space="preserve">0.16632491350174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165040552616119</t>
+    <t xml:space="preserve">0.165040537714958</t>
   </si>
   <si>
     <t xml:space="preserve">0.165682718157768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159260928630829</t>
+    <t xml:space="preserve">0.159260913729668</t>
   </si>
   <si>
     <t xml:space="preserve">0.157976567745209</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">0.158618733286858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162471830844879</t>
+    <t xml:space="preserve">0.162471815943718</t>
   </si>
   <si>
     <t xml:space="preserve">0.157334372401237</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">0.156050026416779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159903109073639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155407845973969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154765665531158</t>
+    <t xml:space="preserve">0.159903094172478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155407831072807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154765650629997</t>
   </si>
   <si>
     <t xml:space="preserve">0.154123470187187</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">0.187516883015633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188801258802414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199718341231346</t>
+    <t xml:space="preserve">0.188801229000092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199718326330185</t>
   </si>
   <si>
     <t xml:space="preserve">0.190727800130844</t>
@@ -1283,22 +1283,22 @@
     <t xml:space="preserve">0.195223063230515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244028836488724</t>
+    <t xml:space="preserve">0.244028821587563</t>
   </si>
   <si>
     <t xml:space="preserve">0.237607032060623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254945933818817</t>
+    <t xml:space="preserve">0.254945904016495</t>
   </si>
   <si>
     <t xml:space="preserve">0.248524084687233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166280031204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242744460701942</t>
+    <t xml:space="preserve">0.249166265130043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242744475603104</t>
   </si>
   <si>
     <t xml:space="preserve">0.251735001802444</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">0.251092821359634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250450611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254303753376007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252377212047577</t>
+    <t xml:space="preserve">0.250450640916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254303723573685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252377182245255</t>
   </si>
   <si>
     <t xml:space="preserve">0.253019362688065</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">0.240175738930702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243386656045914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236322656273842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246597588062286</t>
+    <t xml:space="preserve">0.243386641144753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.236322641372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246597558259964</t>
   </si>
   <si>
     <t xml:space="preserve">0.247881934046745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323592603206635</t>
+    <t xml:space="preserve">0.323592573404312</t>
   </si>
   <si>
     <t xml:space="preserve">0.262109994888306</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">0.254020184278488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247548326849937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240267500281334</t>
+    <t xml:space="preserve">0.247548341751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240267485380173</t>
   </si>
   <si>
     <t xml:space="preserve">0.228941738605499</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">0.230559706687927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229750752449036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234604611992836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231368720531464</t>
+    <t xml:space="preserve">0.229750737547874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234604597091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231368705630302</t>
   </si>
   <si>
     <t xml:space="preserve">0.233795642852783</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">0.232177674770355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22651481628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232986658811569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249975264072418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241076484322548</t>
+    <t xml:space="preserve">0.226514801383018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23298667371273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249975249171257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241076469421387</t>
   </si>
   <si>
     <t xml:space="preserve">0.245930358767509</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">0.238649532198906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244312390685081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237840548157692</t>
+    <t xml:space="preserve">0.244312405586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237840533256531</t>
   </si>
   <si>
     <t xml:space="preserve">0.241885468363762</t>
@@ -1400,28 +1400,28 @@
     <t xml:space="preserve">0.23945851624012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248357325792313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2370315939188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228132784366608</t>
+    <t xml:space="preserve">0.248357310891151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237031579017639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.228132769465446</t>
   </si>
   <si>
     <t xml:space="preserve">0.236222580075264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243503406643867</t>
+    <t xml:space="preserve">0.243503391742706</t>
   </si>
   <si>
     <t xml:space="preserve">0.242694452404976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.235413610935211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246739342808723</t>
+    <t xml:space="preserve">0.235413625836372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246739327907562</t>
   </si>
   <si>
     <t xml:space="preserve">0.260492026805878</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">0.257256090641022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25644713640213</t>
+    <t xml:space="preserve">0.256447106599808</t>
   </si>
   <si>
     <t xml:space="preserve">0.255638152360916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253211200237274</t>
+    <t xml:space="preserve">0.253211170434952</t>
   </si>
   <si>
     <t xml:space="preserve">0.254829168319702</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">0.250784277915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249166309833527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252402245998383</t>
+    <t xml:space="preserve">0.249166294932365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25240221619606</t>
   </si>
   <si>
     <t xml:space="preserve">0.245121374726295</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">0.26291897892952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259683072566986</t>
+    <t xml:space="preserve">0.259683042764664</t>
   </si>
   <si>
     <t xml:space="preserve">0.25887405872345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261301010847092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208717212080956</t>
+    <t xml:space="preserve">0.261301040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208717197179794</t>
   </si>
   <si>
     <t xml:space="preserve">0.22246989607811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221660912036896</t>
+    <t xml:space="preserve">0.221660897135735</t>
   </si>
   <si>
     <t xml:space="preserve">0.225705832242966</t>
@@ -1496,46 +1496,46 @@
     <t xml:space="preserve">0.260645747184753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247742474079132</t>
+    <t xml:space="preserve">0.247742459177971</t>
   </si>
   <si>
     <t xml:space="preserve">0.236559674143791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.245161831378937</t>
+    <t xml:space="preserve">0.245161846280098</t>
   </si>
   <si>
     <t xml:space="preserve">0.242581188678741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.240860745310783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23569943010807</t>
+    <t xml:space="preserve">0.240860760211945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235699415206909</t>
   </si>
   <si>
     <t xml:space="preserve">0.23741988837719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238280087709427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240000545978546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239140301942825</t>
+    <t xml:space="preserve">0.238280102610588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240000531077385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239140316843987</t>
   </si>
   <si>
     <t xml:space="preserve">0.233979016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227957472205162</t>
+    <t xml:space="preserve">0.227957487106323</t>
   </si>
   <si>
     <t xml:space="preserve">0.23053814470768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232258602976799</t>
+    <t xml:space="preserve">0.232258588075638</t>
   </si>
   <si>
     <t xml:space="preserve">0.228817716240883</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">0.22967791557312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233118772506714</t>
+    <t xml:space="preserve">0.233118802309036</t>
   </si>
   <si>
     <t xml:space="preserve">0.214194014668465</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.215914443135262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209892943501472</t>
+    <t xml:space="preserve">0.209892928600311</t>
   </si>
   <si>
     <t xml:space="preserve">0.212473586201668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">0.221075758337975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218495115637779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220215544104576</t>
+    <t xml:space="preserve">0.218495100736618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220215559005737</t>
   </si>
   <si>
     <t xml:space="preserve">0.224516630172729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21763488650322</t>
+    <t xml:space="preserve">0.217634871602058</t>
   </si>
   <si>
     <t xml:space="preserve">0.216774672269821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219355314970016</t>
+    <t xml:space="preserve">0.219355329871178</t>
   </si>
   <si>
     <t xml:space="preserve">0.211613371968269</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.207312285900116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304516822099686</t>
+    <t xml:space="preserve">0.304516792297363</t>
   </si>
   <si>
     <t xml:space="preserve">0.30107593536377</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">0.322581350803375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314839422702789</t>
+    <t xml:space="preserve">0.314839392900467</t>
   </si>
   <si>
     <t xml:space="preserve">0.318280279636383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309678107500076</t>
+    <t xml:space="preserve">0.309678137302399</t>
   </si>
   <si>
     <t xml:space="preserve">0.303656578063965</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">0.297635048627853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317420035600662</t>
+    <t xml:space="preserve">0.317420065402985</t>
   </si>
   <si>
     <t xml:space="preserve">0.308817893266678</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">0.30623722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311398506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313979208469391</t>
+    <t xml:space="preserve">0.311398535966873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313979178667068</t>
   </si>
   <si>
     <t xml:space="preserve">0.320860922336578</t>
@@ -62184,7 +62184,7 @@
     </row>
     <row r="2277">
       <c r="A2277" s="1" t="n">
-        <v>45635.6916087963</v>
+        <v>45635.3333333333</v>
       </c>
       <c r="B2277" t="n">
         <v>196815</v>
@@ -62205,6 +62205,32 @@
         <v>823</v>
       </c>
       <c r="H2277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" s="1" t="n">
+        <v>45636.69125</v>
+      </c>
+      <c r="B2278" t="n">
+        <v>219205</v>
+      </c>
+      <c r="C2278" t="n">
+        <v>0.24600000679493</v>
+      </c>
+      <c r="D2278" t="n">
+        <v>0.224000006914139</v>
+      </c>
+      <c r="E2278" t="n">
+        <v>0.231000006198883</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>0.23199999332428</v>
+      </c>
+      <c r="G2278" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2278" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNF.MI.xlsx
+++ b/data/CNF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="886">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169900387525558</t>
+    <t xml:space="preserve">0.16990040242672</t>
   </si>
   <si>
     <t xml:space="preserve">CNF.MI</t>
@@ -47,91 +47,91 @@
     <t xml:space="preserve">0.162396550178528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164524495601654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163348540663719</t>
+    <t xml:space="preserve">0.164524510502815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163348525762558</t>
   </si>
   <si>
     <t xml:space="preserve">0.161836564540863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172555923462</t>
+    <t xml:space="preserve">0.162172570824623</t>
   </si>
   <si>
     <t xml:space="preserve">0.159988597035408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156908676028252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15534071624279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150076821446419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148732841014862</t>
+    <t xml:space="preserve">0.15690866112709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155340701341629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150076806545258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148732826113701</t>
   </si>
   <si>
     <t xml:space="preserve">0.137309074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137197092175484</t>
+    <t xml:space="preserve">0.137197077274323</t>
   </si>
   <si>
     <t xml:space="preserve">0.143300950527191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143132969737053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142740979790688</t>
+    <t xml:space="preserve">0.143132954835892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142740964889526</t>
   </si>
   <si>
     <t xml:space="preserve">0.145484909415245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139941036701202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13501313328743</t>
+    <t xml:space="preserve">0.139941021800041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135013118386269</t>
   </si>
   <si>
     <t xml:space="preserve">0.138877049088478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137869074940681</t>
+    <t xml:space="preserve">0.13786906003952</t>
   </si>
   <si>
     <t xml:space="preserve">0.135517120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123253382742405</t>
+    <t xml:space="preserve">0.123253390192986</t>
   </si>
   <si>
     <t xml:space="preserve">0.117653496563435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115917548537254</t>
+    <t xml:space="preserve">0.115917541086674</t>
   </si>
   <si>
     <t xml:space="preserve">0.122581392526627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122077398002148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11227760463953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11311761289835</t>
+    <t xml:space="preserve">0.122077390551567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112277619540691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113117605447769</t>
   </si>
   <si>
     <t xml:space="preserve">0.11485356092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117597512900829</t>
+    <t xml:space="preserve">0.117597505450249</t>
   </si>
   <si>
     <t xml:space="preserve">0.123981356620789</t>
@@ -143,34 +143,34 @@
     <t xml:space="preserve">0.131877198815346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134397149085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143916964530945</t>
+    <t xml:space="preserve">0.134397134184837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143916934728622</t>
   </si>
   <si>
     <t xml:space="preserve">0.151252791285515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160716608166695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165140494704247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156740680336952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160156592726707</t>
+    <t xml:space="preserve">0.160716578364372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165140479803085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156740665435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160156607627869</t>
   </si>
   <si>
     <t xml:space="preserve">0.167772442102432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167940437793732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176396265625954</t>
+    <t xml:space="preserve">0.16794042289257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176396250724792</t>
   </si>
   <si>
     <t xml:space="preserve">0.175836279988289</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">0.178636223077774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173204332590103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174996271729469</t>
+    <t xml:space="preserve">0.173204317688942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17499628663063</t>
   </si>
   <si>
     <t xml:space="preserve">0.173596322536469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176116272807121</t>
+    <t xml:space="preserve">0.17611625790596</t>
   </si>
   <si>
     <t xml:space="preserve">0.174436315894127</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">0.172644332051277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167996436357498</t>
+    <t xml:space="preserve">0.167996451258659</t>
   </si>
   <si>
     <t xml:space="preserve">0.176340267062187</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">0.162564560770988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157300651073456</t>
+    <t xml:space="preserve">0.157300665974617</t>
   </si>
   <si>
     <t xml:space="preserve">0.163516521453857</t>
@@ -236,10 +236,10 @@
     <t xml:space="preserve">0.158644631505013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162676528096199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164916515350342</t>
+    <t xml:space="preserve">0.16267654299736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164916500449181</t>
   </si>
   <si>
     <t xml:space="preserve">0.164636492729187</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">0.145596906542778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147500857710838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147108867764473</t>
+    <t xml:space="preserve">0.147500872612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147108882665634</t>
   </si>
   <si>
     <t xml:space="preserve">0.1473328769207</t>
@@ -308,139 +308,139 @@
     <t xml:space="preserve">0.147556871175766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146156907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146660894155502</t>
+    <t xml:space="preserve">0.146156892180443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146660909056664</t>
   </si>
   <si>
     <t xml:space="preserve">0.145820900797844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145260915160179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139997020363808</t>
+    <t xml:space="preserve">0.14526093006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139997035264969</t>
   </si>
   <si>
     <t xml:space="preserve">0.139437049627304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132997184991837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137701064348221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138597056269646</t>
+    <t xml:space="preserve">0.132997170090675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137701079249382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138597071170807</t>
   </si>
   <si>
     <t xml:space="preserve">0.141396999359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197391629219</t>
+    <t xml:space="preserve">0.123197376728058</t>
   </si>
   <si>
     <t xml:space="preserve">0.125997319817543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130477219820023</t>
+    <t xml:space="preserve">0.130477234721184</t>
   </si>
   <si>
     <t xml:space="preserve">0.130253240466118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123029373586178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12252538651228</t>
+    <t xml:space="preserve">0.123029381036758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122525408864021</t>
   </si>
   <si>
     <t xml:space="preserve">0.112893611192703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120397441089153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120341449975967</t>
+    <t xml:space="preserve">0.120397455990314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120341442525387</t>
   </si>
   <si>
     <t xml:space="preserve">0.118157483637333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118101477622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117933481931686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121293418109417</t>
+    <t xml:space="preserve">0.118101485073566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117933489382267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121293425559998</t>
   </si>
   <si>
     <t xml:space="preserve">0.125381335616112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131093218922615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135237142443657</t>
+    <t xml:space="preserve">0.131093204021454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135237112641335</t>
   </si>
   <si>
     <t xml:space="preserve">0.129805251955986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134845152497292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129357233643532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134789139032364</t>
+    <t xml:space="preserve">0.134845122694969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129357263445854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134789124131203</t>
   </si>
   <si>
     <t xml:space="preserve">0.132885172963142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125661328434944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129021272063255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127621293067932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123421393334866</t>
+    <t xml:space="preserve">0.125661343336105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129021242260933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127621278166771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123421385884285</t>
   </si>
   <si>
     <t xml:space="preserve">0.128461256623268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127229303121567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129637256264687</t>
+    <t xml:space="preserve">0.127229288220406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129637241363525</t>
   </si>
   <si>
     <t xml:space="preserve">0.128237277269363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128573268651962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128629267215729</t>
+    <t xml:space="preserve">0.128573253750801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12862928211689</t>
   </si>
   <si>
     <t xml:space="preserve">0.155676692724228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141788989305496</t>
+    <t xml:space="preserve">0.141788974404335</t>
   </si>
   <si>
     <t xml:space="preserve">0.13932503759861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138261079788208</t>
+    <t xml:space="preserve">0.138261064887047</t>
   </si>
   <si>
     <t xml:space="preserve">0.138933047652245</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">0.133949145674706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136581093072891</t>
+    <t xml:space="preserve">0.136581107974052</t>
   </si>
   <si>
     <t xml:space="preserve">0.140165016055107</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">0.135461121797562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135685116052628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134901136159897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1340611577034</t>
+    <t xml:space="preserve">0.135685130953789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134901121258736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134061142802238</t>
   </si>
   <si>
     <t xml:space="preserve">0.133781164884567</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">0.141956984996796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139381036162376</t>
+    <t xml:space="preserve">0.139381051063538</t>
   </si>
   <si>
     <t xml:space="preserve">0.143636956810951</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">0.146884888410568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146604865789413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13182121515274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137477084994316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135965123772621</t>
+    <t xml:space="preserve">0.146604880690575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131821200251579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137477070093155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13596510887146</t>
   </si>
   <si>
     <t xml:space="preserve">0.143356963992119</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">0.136749103665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131597191095352</t>
+    <t xml:space="preserve">0.131597205996513</t>
   </si>
   <si>
     <t xml:space="preserve">0.128853261470795</t>
@@ -518,13 +518,13 @@
     <t xml:space="preserve">0.127453282475471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131541207432747</t>
+    <t xml:space="preserve">0.131541222333908</t>
   </si>
   <si>
     <t xml:space="preserve">0.125045344233513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124821357429028</t>
+    <t xml:space="preserve">0.124821349978447</t>
   </si>
   <si>
     <t xml:space="preserve">0.128685265779495</t>
@@ -533,22 +533,22 @@
     <t xml:space="preserve">0.120677433907986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128405287861824</t>
+    <t xml:space="preserve">0.128405272960663</t>
   </si>
   <si>
     <t xml:space="preserve">0.128741264343262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126613304018974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131037220358849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13355715572834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133221164345741</t>
+    <t xml:space="preserve">0.126613318920135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131037205457687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133557170629501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133221179246902</t>
   </si>
   <si>
     <t xml:space="preserve">0.135629117488861</t>
@@ -560,25 +560,25 @@
     <t xml:space="preserve">0.136861085891724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154556706547737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151028797030449</t>
+    <t xml:space="preserve">0.154556721448898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151028782129288</t>
   </si>
   <si>
     <t xml:space="preserve">0.150916785001755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15147677063942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153100743889809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152484759688377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14587689936161</t>
+    <t xml:space="preserve">0.151476800441742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15310075879097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152484774589539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145876914262772</t>
   </si>
   <si>
     <t xml:space="preserve">0.142236977815628</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">0.141229003667831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141285002231598</t>
+    <t xml:space="preserve">0.141284987330437</t>
   </si>
   <si>
     <t xml:space="preserve">0.141060993075371</t>
@@ -596,16 +596,16 @@
     <t xml:space="preserve">0.140109032392502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140389010310173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14156499505043</t>
+    <t xml:space="preserve">0.140389025211334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141564980149269</t>
   </si>
   <si>
     <t xml:space="preserve">0.141005009412766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140725016593933</t>
+    <t xml:space="preserve">0.140725031495094</t>
   </si>
   <si>
     <t xml:space="preserve">0.13837306201458</t>
@@ -614,25 +614,25 @@
     <t xml:space="preserve">0.138821050524712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134677141904831</t>
+    <t xml:space="preserve">0.13467712700367</t>
   </si>
   <si>
     <t xml:space="preserve">0.136693105101585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135741129517555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135405108332634</t>
+    <t xml:space="preserve">0.135741114616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135405123233795</t>
   </si>
   <si>
     <t xml:space="preserve">0.1338931620121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132773175835609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134957134723663</t>
+    <t xml:space="preserve">0.132773190736771</t>
+  </si>
+  <si>
+    <t xml:sp